--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="797">
   <si>
     <t>Index</t>
   </si>
@@ -1408,351 +1408,339 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
     <t>NC State</t>
   </si>
   <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
   </si>
   <si>
     <t>W Virginia</t>
   </si>
   <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Duke</t>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
   </si>
   <si>
     <t>VA Tech</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
   </si>
   <si>
     <t>Ohio</t>
   </si>
   <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Marshall</t>
   </si>
   <si>
     <t>App State</t>
   </si>
   <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>Kent St</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Rutgers</t>
   </si>
   <si>
@@ -1780,385 +1768,643 @@
     <t>Iowa</t>
   </si>
   <si>
+    <t>SOUTH CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>DELAWARE STATE</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA-TENNESSEE</t>
+  </si>
+  <si>
     <t>KENTUCKY</t>
   </si>
   <si>
+    <t>CHARLESTON SOUTHERN</t>
+  </si>
+  <si>
     <t>BALL STATE</t>
   </si>
   <si>
+    <t>S.F.AUSTIN</t>
+  </si>
+  <si>
     <t>LIBERTY</t>
   </si>
   <si>
+    <t>STONY BROOK</t>
+  </si>
+  <si>
+    <t>SOUTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>WESTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>WOFFORD</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>SAMFORD</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>KANSAS STATE</t>
+  </si>
+  <si>
+    <t>YOUNGSTOWN STATE</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>OREGON STATE</t>
+  </si>
+  <si>
+    <t>BETHUNE-COOKMAN</t>
+  </si>
+  <si>
+    <t>NORFOLK STATE</t>
+  </si>
+  <si>
+    <t>GEORGIA STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN ARIZONA</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>SOUTH FLORIDA</t>
+  </si>
+  <si>
+    <t>FRESNO STATE</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>TEXAS-SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>BRYANT COLLEGE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA A&amp;T</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN MISSOURI</t>
+  </si>
+  <si>
+    <t>NORTHERN IOWA</t>
+  </si>
+  <si>
+    <t>TOWSON</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>SACRED HEART</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>ALABAMA A&amp;M</t>
+  </si>
+  <si>
+    <t>SOUTHERN UTAH</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>INDIANA STATE</t>
+  </si>
+  <si>
+    <t>PENN STATE</t>
+  </si>
+  <si>
+    <t>AKRON</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>UTAH TECH</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>WAKE FOREST</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>NEW MEXICO STATE</t>
+  </si>
+  <si>
+    <t>WASHINGTON STATE</t>
+  </si>
+  <si>
+    <t>LOUISVILLE</t>
+  </si>
+  <si>
+    <t>PITTSBURGH</t>
+  </si>
+  <si>
+    <t>ST.FRANCIS-PA</t>
+  </si>
+  <si>
+    <t>SAN DIEGO STATE</t>
+  </si>
+  <si>
     <t>CONNECTICUT</t>
   </si>
   <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
-    <t>WAKE FOREST</t>
+    <t>NO. CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>AUSTIN PEAY</t>
+  </si>
+  <si>
+    <t>EASTERN WASHINGTON</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>COLORADO STATE</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>MERRIMACK</t>
+  </si>
+  <si>
+    <t>TEXAS SOUTHERN</t>
+  </si>
+  <si>
+    <t>MCNEESE STATE</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>JACKSON STATE</t>
+  </si>
+  <si>
+    <t>MORGAN STATE</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>MISSOURI STATE</t>
+  </si>
+  <si>
+    <t>TEXAS CHRISTIAN</t>
+  </si>
+  <si>
+    <t>TEXAS-EL PASO</t>
+  </si>
+  <si>
+    <t>MERCHANT MARINE</t>
+  </si>
+  <si>
+    <t>COLGATE</t>
+  </si>
+  <si>
+    <t>GARDNER-WEBB</t>
+  </si>
+  <si>
+    <t>WILLIAM &amp; MARY</t>
+  </si>
+  <si>
+    <t>GEORGIA TECH</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>LA - MONROE</t>
+  </si>
+  <si>
+    <t>LOUISIANA TECH</t>
+  </si>
+  <si>
+    <t>SAM HOUSTON</t>
+  </si>
+  <si>
+    <t>JAMES MADISON</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>EASTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>PINE BLUFF-ARKANSAS</t>
+  </si>
+  <si>
+    <t>OKLAHOMA STATE</t>
+  </si>
+  <si>
+    <t>KENNESAW STATE</t>
+  </si>
+  <si>
+    <t>NEVADA-LAS VEGAS</t>
+  </si>
+  <si>
+    <t>MONMOUTH-NJ</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>FORT VALLEY STATE</t>
+  </si>
+  <si>
+    <t>U.C.L.A.</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>FLORIDA A&amp;M</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>ABILENE CHRISTIAN</t>
+  </si>
+  <si>
+    <t>MIDDLE TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>KENT STATE</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>EAST TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>TEMPLE</t>
+  </si>
+  <si>
+    <t>MIAMI-FL</t>
+  </si>
+  <si>
+    <t>CENTRAL ARKANSAS</t>
+  </si>
+  <si>
+    <t>TENNESSEE TECH</t>
+  </si>
+  <si>
+    <t>STANFORD</t>
+  </si>
+  <si>
+    <t>SOUTH ALABAMA</t>
+  </si>
+  <si>
+    <t>CAL-DAVIS</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>DUQUESNE</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>COASTAL CAROLINA</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>TEXAS STATE-SAN MARCOS</t>
+  </si>
+  <si>
+    <t>WEBER STATE</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
   </si>
   <si>
     <t>FLORIDA ATLANTIC</t>
   </si>
   <si>
-    <t>OREGON</t>
-  </si>
-  <si>
-    <t>KANSAS STATE</t>
-  </si>
-  <si>
-    <t>OREGON STATE</t>
-  </si>
-  <si>
-    <t>TEXAS-SAN ANTONIO</t>
-  </si>
-  <si>
-    <t>FLORIDA STATE</t>
-  </si>
-  <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
-    <t>SOUTH FLORIDA</t>
-  </si>
-  <si>
-    <t>FRESNO STATE</t>
-  </si>
-  <si>
-    <t>OKLAHOMA</t>
-  </si>
-  <si>
-    <t>NO. CAROLINA STATE</t>
+    <t>BOWLING GREEN</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN</t>
+  </si>
+  <si>
+    <t>TEXAS TECH</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>SO. EAST LOUISIANA</t>
+  </si>
+  <si>
+    <t>MICHIGAN STATE</t>
+  </si>
+  <si>
+    <t>BOSTON COLLEGE</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>PURDUE</t>
+  </si>
+  <si>
+    <t>TEXAS A&amp;M</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE STATE</t>
+  </si>
+  <si>
+    <t>VIRGINIA TECH</t>
+  </si>
+  <si>
+    <t>OLD DOMINION</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>BRIGHAM YOUNG</t>
+  </si>
+  <si>
+    <t>CENTRAL CONNECTICUT ST.</t>
+  </si>
+  <si>
+    <t>THE CITADEL</t>
+  </si>
+  <si>
+    <t>EASTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
+  </si>
+  <si>
+    <t>OHIO UNIV.</t>
+  </si>
+  <si>
+    <t>MURRAY STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN COLORADO</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>EAST CAROLINA</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>VIRGINIA MILITARY INSTITUTE</t>
+  </si>
+  <si>
+    <t>IOWA STATE</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI STATE</t>
+  </si>
+  <si>
+    <t>ARKANSAS STATE</t>
+  </si>
+  <si>
+    <t>WESTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>PRAIRIE VIEW A&amp;M</t>
+  </si>
+  <si>
+    <t>ROBERT MORRIS - PA</t>
+  </si>
+  <si>
+    <t>TULSA</t>
+  </si>
+  <si>
+    <t>GEORGIA SOUTHERN</t>
+  </si>
+  <si>
+    <t>BAYLOR</t>
+  </si>
+  <si>
+    <t>EASTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>SOUTHERN METHODIST</t>
+  </si>
+  <si>
+    <t>TENNESSEE-MARTIN</t>
+  </si>
+  <si>
+    <t>ALCORN STATE</t>
+  </si>
+  <si>
+    <t>NORTH ALABAMA</t>
+  </si>
+  <si>
+    <t>TROY STATE</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN STATE-LA</t>
+  </si>
+  <si>
+    <t>BOISE</t>
+  </si>
+  <si>
+    <t>WESTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>SOUTHERN MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>VILLANOVA</t>
+  </si>
+  <si>
+    <t>ARIZONA STATE</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA CENTRAL</t>
+  </si>
+  <si>
+    <t>CENTRAL FLORIDA</t>
+  </si>
+  <si>
+    <t>APPALACHIAN STATE</t>
+  </si>
+  <si>
+    <t>NORTH TEXAS</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>TULANE</t>
+  </si>
+  <si>
+    <t>HOUSTON CHRISTIAN</t>
+  </si>
+  <si>
+    <t>INCARNATE WORD</t>
+  </si>
+  <si>
+    <t>FLORIDA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>WESTERN CAROLINA</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>RUTGERS</t>
+  </si>
+  <si>
+    <t>TARLETON STATE</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>PORTLAND STATE</t>
+  </si>
+  <si>
+    <t>ALBRIGHT</t>
   </si>
   <si>
     <t>NORTHERN ILLINOIS</t>
   </si>
   <si>
-    <t>INDIANA</t>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>AIR FORCE</t>
+  </si>
+  <si>
+    <t>VANDERBILT</t>
+  </si>
+  <si>
+    <t>IDAHO STATE</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>UTAH STATE</t>
   </si>
   <si>
     <t>ALABAMA-BIRMINGHAM</t>
   </si>
   <si>
-    <t>SOUTHERN CALIFORNIA</t>
-  </si>
-  <si>
-    <t>CINCINNATI</t>
-  </si>
-  <si>
-    <t>PENN STATE</t>
-  </si>
-  <si>
-    <t>AKRON</t>
-  </si>
-  <si>
-    <t>TEXAS TECH</t>
-  </si>
-  <si>
-    <t>GEORGIA</t>
+    <t>MIAMI OF OHIO</t>
+  </si>
+  <si>
+    <t>CLEMSON</t>
+  </si>
+  <si>
+    <t>GRAMBLING</t>
   </si>
   <si>
     <t>SAN JOSE STATE</t>
   </si>
   <si>
-    <t>NEW MEXICO STATE</t>
-  </si>
-  <si>
-    <t>WASHINGTON STATE</t>
-  </si>
-  <si>
-    <t>BOISE</t>
-  </si>
-  <si>
-    <t>PITTSBURGH</t>
-  </si>
-  <si>
-    <t>SAN DIEGO STATE</t>
-  </si>
-  <si>
-    <t>LOUISVILLE</t>
-  </si>
-  <si>
-    <t>MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>COLORADO STATE</t>
-  </si>
-  <si>
-    <t>WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>SOUTHERN MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>HOUSTON</t>
-  </si>
-  <si>
-    <t>GEORGIA TECH</t>
-  </si>
-  <si>
-    <t>MEMPHIS</t>
-  </si>
-  <si>
-    <t>MISSOURI</t>
-  </si>
-  <si>
-    <t>GEORGIA SOUTHERN</t>
-  </si>
-  <si>
-    <t>MARYLAND</t>
-  </si>
-  <si>
-    <t>LA - MONROE</t>
-  </si>
-  <si>
-    <t>LOUISIANA STATE</t>
-  </si>
-  <si>
-    <t>SAM HOUSTON</t>
-  </si>
-  <si>
-    <t>JAMES MADISON</t>
-  </si>
-  <si>
-    <t>EASTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>NEVADA-LAS VEGAS</t>
-  </si>
-  <si>
-    <t>OKLAHOMA STATE</t>
-  </si>
-  <si>
-    <t>KANSAS</t>
-  </si>
-  <si>
-    <t>ARKANSAS</t>
-  </si>
-  <si>
-    <t>FLORIDA</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>MIDDLE TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>KENT STATE</t>
-  </si>
-  <si>
-    <t>WYOMING</t>
-  </si>
-  <si>
-    <t>TEXAS-EL PASO</t>
-  </si>
-  <si>
-    <t>TEMPLE</t>
-  </si>
-  <si>
-    <t>MIAMI-FL</t>
-  </si>
-  <si>
-    <t>CENTRAL FLORIDA</t>
-  </si>
-  <si>
-    <t>STANFORD</t>
-  </si>
-  <si>
-    <t>SOUTH ALABAMA</t>
-  </si>
-  <si>
-    <t>NOTRE DAME</t>
-  </si>
-  <si>
-    <t>COASTAL CAROLINA</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>TEXAS A&amp;M</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>FLORIDA INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>BOWLING GREEN</t>
-  </si>
-  <si>
-    <t>LOUISIANA</t>
-  </si>
-  <si>
-    <t>ILLINOIS</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN</t>
-  </si>
-  <si>
-    <t>TEXAS CHRISTIAN</t>
-  </si>
-  <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
-    <t>LOUISIANA TECH</t>
-  </si>
-  <si>
-    <t>MICHIGAN STATE</t>
-  </si>
-  <si>
-    <t>BOSTON COLLEGE</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI STATE</t>
-  </si>
-  <si>
-    <t>PURDUE</t>
-  </si>
-  <si>
-    <t>TEXAS</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE STATE</t>
-  </si>
-  <si>
-    <t>VIRGINIA TECH</t>
-  </si>
-  <si>
-    <t>OLD DOMINION</t>
-  </si>
-  <si>
-    <t>NEBRASKA</t>
-  </si>
-  <si>
-    <t>CENTRAL MICHIGAN</t>
-  </si>
-  <si>
-    <t>OHIO UNIV.</t>
-  </si>
-  <si>
-    <t>TROY STATE</t>
-  </si>
-  <si>
-    <t>WISCONSIN</t>
-  </si>
-  <si>
-    <t>EAST CAROLINA</t>
-  </si>
-  <si>
-    <t>MICHIGAN</t>
-  </si>
-  <si>
-    <t>IOWA STATE</t>
-  </si>
-  <si>
-    <t>MINNESOTA</t>
-  </si>
-  <si>
-    <t>ARIZONA</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>ARKANSAS STATE</t>
-  </si>
-  <si>
-    <t>UNC - CHARLOTTE</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
-    <t>TULSA</t>
-  </si>
-  <si>
-    <t>GEORGIA STATE</t>
-  </si>
-  <si>
-    <t>BAYLOR</t>
-  </si>
-  <si>
-    <t>WESTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>OHIO STATE</t>
-  </si>
-  <si>
-    <t>WESTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>SOUTHERN METHODIST</t>
-  </si>
-  <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
-    <t>ARIZONA STATE</t>
-  </si>
-  <si>
-    <t>MARSHALL</t>
-  </si>
-  <si>
-    <t>APPALACHIAN STATE</t>
-  </si>
-  <si>
-    <t>NORTH TEXAS</t>
-  </si>
-  <si>
-    <t>NEVADA</t>
-  </si>
-  <si>
-    <t>TULANE</t>
-  </si>
-  <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>RUTGERS</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>BRIGHAM YOUNG</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>AIR FORCE</t>
-  </si>
-  <si>
-    <t>VANDERBILT</t>
-  </si>
-  <si>
-    <t>UTAH STATE</t>
-  </si>
-  <si>
-    <t>TEXAS STATE-SAN MARCOS</t>
-  </si>
-  <si>
-    <t>MIAMI OF OHIO</t>
-  </si>
-  <si>
-    <t>CLEMSON</t>
-  </si>
-  <si>
-    <t>U.C.L.A.</t>
+    <t>FURMAN</t>
+  </si>
+  <si>
+    <t>BUCKNELL</t>
+  </si>
+  <si>
+    <t>HOLY CROSS</t>
   </si>
 </sst>
 </file>
@@ -2549,6 +2795,9 @@
       <c r="C2" t="s">
         <v>234</v>
       </c>
+      <c r="E2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -2560,6 +2809,9 @@
       <c r="C3" t="s">
         <v>235</v>
       </c>
+      <c r="E3" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -2571,6 +2823,9 @@
       <c r="C4" t="s">
         <v>236</v>
       </c>
+      <c r="E4" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -2586,7 +2841,7 @@
         <v>463</v>
       </c>
       <c r="E5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2599,6 +2854,9 @@
       <c r="C6" t="s">
         <v>238</v>
       </c>
+      <c r="E6" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -2627,6 +2885,9 @@
       <c r="C8" t="s">
         <v>240</v>
       </c>
+      <c r="E8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -2642,7 +2903,7 @@
         <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2659,7 +2920,7 @@
         <v>466</v>
       </c>
       <c r="E10" t="s">
-        <v>591</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2672,6 +2933,9 @@
       <c r="C11" t="s">
         <v>243</v>
       </c>
+      <c r="E11" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -2683,6 +2947,9 @@
       <c r="C12" t="s">
         <v>244</v>
       </c>
+      <c r="E12" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -2694,6 +2961,9 @@
       <c r="C13" t="s">
         <v>245</v>
       </c>
+      <c r="E13" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -2709,7 +2979,7 @@
         <v>467</v>
       </c>
       <c r="E14" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2722,6 +2992,9 @@
       <c r="C15" t="s">
         <v>247</v>
       </c>
+      <c r="E15" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -2736,6 +3009,9 @@
       <c r="D16" t="s">
         <v>468</v>
       </c>
+      <c r="E16" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
@@ -2750,6 +3026,9 @@
       <c r="D17" t="s">
         <v>249</v>
       </c>
+      <c r="E17" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
@@ -2761,6 +3040,9 @@
       <c r="C18" t="s">
         <v>250</v>
       </c>
+      <c r="E18" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
@@ -2776,7 +3058,7 @@
         <v>469</v>
       </c>
       <c r="E19" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2789,6 +3071,9 @@
       <c r="C20" t="s">
         <v>252</v>
       </c>
+      <c r="E20" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
@@ -2800,6 +3085,9 @@
       <c r="C21" t="s">
         <v>253</v>
       </c>
+      <c r="E21" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -2812,7 +3100,7 @@
         <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2829,7 +3117,7 @@
         <v>470</v>
       </c>
       <c r="E23" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2846,7 +3134,7 @@
         <v>471</v>
       </c>
       <c r="E24" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2863,7 +3151,7 @@
         <v>472</v>
       </c>
       <c r="E25" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2876,6 +3164,9 @@
       <c r="C26" t="s">
         <v>258</v>
       </c>
+      <c r="E26" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
@@ -2890,6 +3181,9 @@
       <c r="D27" t="s">
         <v>473</v>
       </c>
+      <c r="E27" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
@@ -2905,7 +3199,7 @@
         <v>474</v>
       </c>
       <c r="E28" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2919,7 +3213,7 @@
         <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2932,6 +3226,9 @@
       <c r="C30" t="s">
         <v>262</v>
       </c>
+      <c r="E30" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
@@ -2947,7 +3244,7 @@
         <v>475</v>
       </c>
       <c r="E31" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2960,6 +3257,9 @@
       <c r="C32" t="s">
         <v>264</v>
       </c>
+      <c r="E32" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
@@ -2975,7 +3275,7 @@
         <v>476</v>
       </c>
       <c r="E33" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2992,7 +3292,7 @@
         <v>477</v>
       </c>
       <c r="E34" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3009,7 +3309,7 @@
         <v>478</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3026,7 +3326,7 @@
         <v>479</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3039,6 +3339,9 @@
       <c r="C37" t="s">
         <v>269</v>
       </c>
+      <c r="E37" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
@@ -3053,6 +3356,9 @@
       <c r="D38" t="s">
         <v>270</v>
       </c>
+      <c r="E38" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
@@ -3064,6 +3370,9 @@
       <c r="C39" t="s">
         <v>271</v>
       </c>
+      <c r="E39" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
@@ -3079,7 +3388,7 @@
         <v>480</v>
       </c>
       <c r="E40" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3092,6 +3401,9 @@
       <c r="C41" t="s">
         <v>273</v>
       </c>
+      <c r="E41" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -3103,6 +3415,9 @@
       <c r="C42" t="s">
         <v>274</v>
       </c>
+      <c r="E42" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
@@ -3115,7 +3430,7 @@
         <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3128,6 +3443,9 @@
       <c r="C44" t="s">
         <v>276</v>
       </c>
+      <c r="E44" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
@@ -3143,7 +3461,7 @@
         <v>481</v>
       </c>
       <c r="E45" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3156,6 +3474,9 @@
       <c r="C46" t="s">
         <v>278</v>
       </c>
+      <c r="E46" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
@@ -3170,6 +3491,9 @@
       <c r="D47" t="s">
         <v>279</v>
       </c>
+      <c r="E47" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
@@ -3182,7 +3506,7 @@
         <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3196,7 +3520,7 @@
         <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3212,6 +3536,9 @@
       <c r="D50" t="s">
         <v>482</v>
       </c>
+      <c r="E50" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
@@ -3227,7 +3554,7 @@
         <v>483</v>
       </c>
       <c r="E51" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3240,6 +3567,9 @@
       <c r="C52" t="s">
         <v>284</v>
       </c>
+      <c r="E52" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
@@ -3255,7 +3585,7 @@
         <v>484</v>
       </c>
       <c r="E53" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3272,7 +3602,7 @@
         <v>485</v>
       </c>
       <c r="E54" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3302,6 +3632,9 @@
       <c r="C56" t="s">
         <v>288</v>
       </c>
+      <c r="E56" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
@@ -3314,10 +3647,10 @@
         <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="E57" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3331,10 +3664,10 @@
         <v>290</v>
       </c>
       <c r="D58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E58" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3348,10 +3681,10 @@
         <v>291</v>
       </c>
       <c r="D59" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E59" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3365,7 +3698,10 @@
         <v>292</v>
       </c>
       <c r="D60" t="s">
-        <v>490</v>
+        <v>466</v>
+      </c>
+      <c r="E60" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3379,10 +3715,10 @@
         <v>293</v>
       </c>
       <c r="D61" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E61" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3396,10 +3732,10 @@
         <v>294</v>
       </c>
       <c r="D62" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E62" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3413,10 +3749,10 @@
         <v>295</v>
       </c>
       <c r="D63" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E63" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3430,10 +3766,10 @@
         <v>296</v>
       </c>
       <c r="D64" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E64" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3446,6 +3782,9 @@
       <c r="C65" t="s">
         <v>297</v>
       </c>
+      <c r="E65" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
@@ -3458,10 +3797,10 @@
         <v>298</v>
       </c>
       <c r="D66" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E66" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3474,6 +3813,12 @@
       <c r="C67" t="s">
         <v>299</v>
       </c>
+      <c r="D67" t="s">
+        <v>494</v>
+      </c>
+      <c r="E67" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
@@ -3486,7 +3831,10 @@
         <v>300</v>
       </c>
       <c r="D68" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="E68" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3500,7 +3848,7 @@
         <v>301</v>
       </c>
       <c r="E69" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3514,7 +3862,7 @@
         <v>302</v>
       </c>
       <c r="D70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E70" t="s">
         <v>302</v>
@@ -3530,6 +3878,9 @@
       <c r="C71" t="s">
         <v>303</v>
       </c>
+      <c r="E71" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
@@ -3542,7 +3893,7 @@
         <v>304</v>
       </c>
       <c r="E72" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3556,10 +3907,10 @@
         <v>305</v>
       </c>
       <c r="D73" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E73" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3573,10 +3924,10 @@
         <v>306</v>
       </c>
       <c r="D74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E74" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3589,6 +3940,9 @@
       <c r="C75" t="s">
         <v>307</v>
       </c>
+      <c r="E75" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
@@ -3601,7 +3955,7 @@
         <v>308</v>
       </c>
       <c r="D76" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E76" t="s">
         <v>308</v>
@@ -3618,7 +3972,7 @@
         <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3631,6 +3985,9 @@
       <c r="C78" t="s">
         <v>310</v>
       </c>
+      <c r="E78" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
@@ -3643,10 +4000,10 @@
         <v>311</v>
       </c>
       <c r="D79" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E79" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3659,6 +4016,9 @@
       <c r="C80" t="s">
         <v>312</v>
       </c>
+      <c r="E80" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
@@ -3671,7 +4031,7 @@
         <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3685,10 +4045,10 @@
         <v>314</v>
       </c>
       <c r="D82" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E82" t="s">
-        <v>628</v>
+        <v>659</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3702,10 +4062,10 @@
         <v>315</v>
       </c>
       <c r="D83" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="E83" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3718,6 +4078,9 @@
       <c r="C84" t="s">
         <v>316</v>
       </c>
+      <c r="E84" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
@@ -3729,6 +4092,12 @@
       <c r="C85" t="s">
         <v>317</v>
       </c>
+      <c r="D85" t="s">
+        <v>502</v>
+      </c>
+      <c r="E85" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
@@ -3740,6 +4109,12 @@
       <c r="C86" t="s">
         <v>318</v>
       </c>
+      <c r="D86" t="s">
+        <v>503</v>
+      </c>
+      <c r="E86" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
@@ -3751,6 +4126,9 @@
       <c r="C87" t="s">
         <v>319</v>
       </c>
+      <c r="E87" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
@@ -3762,6 +4140,9 @@
       <c r="C88" t="s">
         <v>320</v>
       </c>
+      <c r="E88" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
@@ -3773,6 +4154,9 @@
       <c r="C89" t="s">
         <v>321</v>
       </c>
+      <c r="E89" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
@@ -3784,6 +4168,9 @@
       <c r="C90" t="s">
         <v>322</v>
       </c>
+      <c r="E90" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
@@ -3799,7 +4186,7 @@
         <v>504</v>
       </c>
       <c r="E91" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3816,7 +4203,7 @@
         <v>505</v>
       </c>
       <c r="E92" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3833,7 +4220,7 @@
         <v>506</v>
       </c>
       <c r="E93" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3850,7 +4237,7 @@
         <v>507</v>
       </c>
       <c r="E94" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3867,7 +4254,7 @@
         <v>508</v>
       </c>
       <c r="E95" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3884,7 +4271,7 @@
         <v>509</v>
       </c>
       <c r="E96" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3897,6 +4284,9 @@
       <c r="C97" t="s">
         <v>329</v>
       </c>
+      <c r="E97" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
@@ -3912,7 +4302,7 @@
         <v>510</v>
       </c>
       <c r="E98" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3929,7 +4319,7 @@
         <v>511</v>
       </c>
       <c r="E99" t="s">
-        <v>637</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3942,6 +4332,9 @@
       <c r="C100" t="s">
         <v>332</v>
       </c>
+      <c r="E100" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
@@ -3957,7 +4350,7 @@
         <v>512</v>
       </c>
       <c r="E101" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3970,6 +4363,9 @@
       <c r="C102" t="s">
         <v>334</v>
       </c>
+      <c r="E102" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
@@ -3984,6 +4380,9 @@
       <c r="D103" t="s">
         <v>335</v>
       </c>
+      <c r="E103" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
@@ -3995,6 +4394,9 @@
       <c r="C104" t="s">
         <v>336</v>
       </c>
+      <c r="E104" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
@@ -4010,7 +4412,7 @@
         <v>513</v>
       </c>
       <c r="E105" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4024,7 +4426,10 @@
         <v>338</v>
       </c>
       <c r="D106" t="s">
-        <v>514</v>
+        <v>466</v>
+      </c>
+      <c r="E106" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4040,6 +4445,9 @@
       <c r="D107" t="s">
         <v>339</v>
       </c>
+      <c r="E107" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
@@ -4052,10 +4460,10 @@
         <v>340</v>
       </c>
       <c r="D108" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E108" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4069,10 +4477,10 @@
         <v>341</v>
       </c>
       <c r="D109" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="E109" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4086,10 +4494,10 @@
         <v>342</v>
       </c>
       <c r="D110" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E110" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4103,7 +4511,10 @@
         <v>343</v>
       </c>
       <c r="D111" t="s">
-        <v>518</v>
+        <v>466</v>
+      </c>
+      <c r="E111" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4117,10 +4528,10 @@
         <v>344</v>
       </c>
       <c r="D112" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E112" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4134,10 +4545,10 @@
         <v>345</v>
       </c>
       <c r="D113" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E113" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4151,10 +4562,10 @@
         <v>346</v>
       </c>
       <c r="D114" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E114" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4168,7 +4579,7 @@
         <v>347</v>
       </c>
       <c r="E115" t="s">
-        <v>646</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4181,6 +4592,9 @@
       <c r="C116" t="s">
         <v>348</v>
       </c>
+      <c r="E116" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
@@ -4192,6 +4606,9 @@
       <c r="C117" t="s">
         <v>349</v>
       </c>
+      <c r="E117" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
@@ -4204,10 +4621,10 @@
         <v>350</v>
       </c>
       <c r="D118" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E118" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4221,10 +4638,10 @@
         <v>351</v>
       </c>
       <c r="D119" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E119" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4238,7 +4655,7 @@
         <v>352</v>
       </c>
       <c r="E120" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4251,6 +4668,9 @@
       <c r="C121" t="s">
         <v>353</v>
       </c>
+      <c r="E121" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
@@ -4263,10 +4683,10 @@
         <v>354</v>
       </c>
       <c r="D122" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E122" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4280,10 +4700,10 @@
         <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E123" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4296,6 +4716,9 @@
       <c r="C124" t="s">
         <v>356</v>
       </c>
+      <c r="E124" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
@@ -4307,6 +4730,9 @@
       <c r="C125" t="s">
         <v>357</v>
       </c>
+      <c r="E125" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
@@ -4319,7 +4745,10 @@
         <v>358</v>
       </c>
       <c r="D126" t="s">
-        <v>526</v>
+        <v>466</v>
+      </c>
+      <c r="E126" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4332,6 +4761,9 @@
       <c r="C127" t="s">
         <v>359</v>
       </c>
+      <c r="E127" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
@@ -4344,10 +4776,10 @@
         <v>360</v>
       </c>
       <c r="D128" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E128" t="s">
-        <v>652</v>
+        <v>702</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4361,10 +4793,10 @@
         <v>361</v>
       </c>
       <c r="D129" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E129" t="s">
-        <v>653</v>
+        <v>703</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4378,10 +4810,10 @@
         <v>362</v>
       </c>
       <c r="D130" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E130" t="s">
-        <v>654</v>
+        <v>704</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4395,10 +4827,10 @@
         <v>363</v>
       </c>
       <c r="D131" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E131" t="s">
-        <v>655</v>
+        <v>705</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4411,6 +4843,9 @@
       <c r="C132" t="s">
         <v>364</v>
       </c>
+      <c r="E132" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
@@ -4423,10 +4858,10 @@
         <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E133" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4439,6 +4874,9 @@
       <c r="C134" t="s">
         <v>366</v>
       </c>
+      <c r="E134" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
@@ -4451,10 +4889,10 @@
         <v>367</v>
       </c>
       <c r="D135" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E135" t="s">
-        <v>657</v>
+        <v>708</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4468,10 +4906,10 @@
         <v>368</v>
       </c>
       <c r="D136" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E136" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4485,10 +4923,10 @@
         <v>369</v>
       </c>
       <c r="D137" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E137" t="s">
-        <v>659</v>
+        <v>710</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4502,10 +4940,10 @@
         <v>370</v>
       </c>
       <c r="D138" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E138" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4519,10 +4957,10 @@
         <v>371</v>
       </c>
       <c r="D139" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E139" t="s">
-        <v>661</v>
+        <v>711</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4536,10 +4974,10 @@
         <v>372</v>
       </c>
       <c r="D140" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E140" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4553,10 +4991,10 @@
         <v>373</v>
       </c>
       <c r="D141" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E141" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4570,10 +5008,10 @@
         <v>374</v>
       </c>
       <c r="D142" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E142" t="s">
-        <v>664</v>
+        <v>714</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4587,7 +5025,7 @@
         <v>375</v>
       </c>
       <c r="E143" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4600,6 +5038,9 @@
       <c r="C144" t="s">
         <v>376</v>
       </c>
+      <c r="E144" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
@@ -4612,10 +5053,10 @@
         <v>377</v>
       </c>
       <c r="D145" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E145" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4629,10 +5070,10 @@
         <v>378</v>
       </c>
       <c r="D146" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E146" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4645,6 +5086,9 @@
       <c r="C147" t="s">
         <v>379</v>
       </c>
+      <c r="E147" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
@@ -4657,10 +5101,10 @@
         <v>380</v>
       </c>
       <c r="D148" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E148" t="s">
-        <v>668</v>
+        <v>718</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4674,10 +5118,10 @@
         <v>381</v>
       </c>
       <c r="D149" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E149" t="s">
-        <v>669</v>
+        <v>719</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4691,10 +5135,10 @@
         <v>382</v>
       </c>
       <c r="D150" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E150" t="s">
-        <v>670</v>
+        <v>720</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4708,10 +5152,10 @@
         <v>383</v>
       </c>
       <c r="D151" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E151" t="s">
-        <v>671</v>
+        <v>721</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4725,10 +5169,10 @@
         <v>384</v>
       </c>
       <c r="D152" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E152" t="s">
-        <v>672</v>
+        <v>722</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4741,8 +5185,11 @@
       <c r="C153" t="s">
         <v>385</v>
       </c>
+      <c r="D153" t="s">
+        <v>543</v>
+      </c>
       <c r="E153" t="s">
-        <v>673</v>
+        <v>723</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4756,10 +5203,10 @@
         <v>386</v>
       </c>
       <c r="D154" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E154" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4773,10 +5220,10 @@
         <v>387</v>
       </c>
       <c r="D155" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E155" t="s">
-        <v>675</v>
+        <v>725</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4789,6 +5236,9 @@
       <c r="C156" t="s">
         <v>388</v>
       </c>
+      <c r="E156" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
@@ -4803,6 +5253,9 @@
       <c r="D157" t="s">
         <v>389</v>
       </c>
+      <c r="E157" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
@@ -4815,10 +5268,10 @@
         <v>390</v>
       </c>
       <c r="D158" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E158" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4831,6 +5284,9 @@
       <c r="C159" t="s">
         <v>391</v>
       </c>
+      <c r="E159" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
@@ -4843,7 +5299,10 @@
         <v>392</v>
       </c>
       <c r="D160" t="s">
-        <v>550</v>
+        <v>466</v>
+      </c>
+      <c r="E160" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4857,7 +5316,10 @@
         <v>393</v>
       </c>
       <c r="D161" t="s">
-        <v>551</v>
+        <v>466</v>
+      </c>
+      <c r="E161" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4871,10 +5333,10 @@
         <v>394</v>
       </c>
       <c r="D162" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E162" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4888,7 +5350,7 @@
         <v>395</v>
       </c>
       <c r="E163" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4901,6 +5363,9 @@
       <c r="C164" t="s">
         <v>396</v>
       </c>
+      <c r="E164" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
@@ -4912,6 +5377,9 @@
       <c r="C165" t="s">
         <v>397</v>
       </c>
+      <c r="E165" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
@@ -4924,10 +5392,10 @@
         <v>398</v>
       </c>
       <c r="D166" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E166" t="s">
-        <v>679</v>
+        <v>735</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4941,10 +5409,10 @@
         <v>399</v>
       </c>
       <c r="D167" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E167" t="s">
-        <v>680</v>
+        <v>736</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4958,10 +5426,10 @@
         <v>400</v>
       </c>
       <c r="D168" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E168" t="s">
-        <v>681</v>
+        <v>737</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4974,6 +5442,9 @@
       <c r="C169" t="s">
         <v>401</v>
       </c>
+      <c r="E169" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
@@ -4986,10 +5457,10 @@
         <v>402</v>
       </c>
       <c r="D170" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E170" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5003,10 +5474,10 @@
         <v>403</v>
       </c>
       <c r="D171" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E171" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5020,10 +5491,10 @@
         <v>404</v>
       </c>
       <c r="D172" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E172" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5037,10 +5508,10 @@
         <v>405</v>
       </c>
       <c r="D173" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E173" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5054,10 +5525,10 @@
         <v>406</v>
       </c>
       <c r="D174" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E174" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5071,10 +5542,10 @@
         <v>407</v>
       </c>
       <c r="D175" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E175" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5088,10 +5559,10 @@
         <v>408</v>
       </c>
       <c r="D176" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E176" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5104,6 +5575,9 @@
       <c r="C177" t="s">
         <v>409</v>
       </c>
+      <c r="E177" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
@@ -5115,6 +5589,9 @@
       <c r="C178" t="s">
         <v>410</v>
       </c>
+      <c r="E178" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
@@ -5127,10 +5604,10 @@
         <v>411</v>
       </c>
       <c r="D179" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E179" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5144,10 +5621,10 @@
         <v>412</v>
       </c>
       <c r="D180" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E180" t="s">
-        <v>690</v>
+        <v>749</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5161,10 +5638,10 @@
         <v>413</v>
       </c>
       <c r="D181" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E181" t="s">
-        <v>691</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5177,6 +5654,9 @@
       <c r="C182" t="s">
         <v>414</v>
       </c>
+      <c r="E182" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
@@ -5188,6 +5668,9 @@
       <c r="C183" t="s">
         <v>415</v>
       </c>
+      <c r="E183" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
@@ -5199,6 +5682,9 @@
       <c r="C184" t="s">
         <v>416</v>
       </c>
+      <c r="E184" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
@@ -5210,6 +5696,9 @@
       <c r="C185" t="s">
         <v>417</v>
       </c>
+      <c r="E185" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
@@ -5221,6 +5710,9 @@
       <c r="C186" t="s">
         <v>418</v>
       </c>
+      <c r="E186" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
@@ -5233,7 +5725,10 @@
         <v>419</v>
       </c>
       <c r="D187" t="s">
-        <v>566</v>
+        <v>561</v>
+      </c>
+      <c r="E187" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5247,7 +5742,7 @@
         <v>420</v>
       </c>
       <c r="E188" t="s">
-        <v>692</v>
+        <v>757</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5261,10 +5756,10 @@
         <v>421</v>
       </c>
       <c r="D189" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E189" t="s">
-        <v>693</v>
+        <v>758</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5278,7 +5773,7 @@
         <v>422</v>
       </c>
       <c r="E190" t="s">
-        <v>694</v>
+        <v>759</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5292,10 +5787,10 @@
         <v>423</v>
       </c>
       <c r="D191" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E191" t="s">
-        <v>695</v>
+        <v>760</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5309,10 +5804,10 @@
         <v>424</v>
       </c>
       <c r="D192" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E192" t="s">
-        <v>696</v>
+        <v>761</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5325,6 +5820,9 @@
       <c r="C193" t="s">
         <v>425</v>
       </c>
+      <c r="E193" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
@@ -5337,7 +5835,7 @@
         <v>426</v>
       </c>
       <c r="D194" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E194" t="s">
         <v>426</v>
@@ -5354,10 +5852,10 @@
         <v>427</v>
       </c>
       <c r="D195" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E195" t="s">
-        <v>697</v>
+        <v>763</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5371,10 +5869,10 @@
         <v>428</v>
       </c>
       <c r="D196" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E196" t="s">
-        <v>698</v>
+        <v>764</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5387,6 +5885,9 @@
       <c r="C197" t="s">
         <v>429</v>
       </c>
+      <c r="E197" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
@@ -5401,6 +5902,9 @@
       <c r="D198" t="s">
         <v>430</v>
       </c>
+      <c r="E198" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
@@ -5412,8 +5916,11 @@
       <c r="C199" t="s">
         <v>431</v>
       </c>
+      <c r="D199" t="s">
+        <v>568</v>
+      </c>
       <c r="E199" t="s">
-        <v>699</v>
+        <v>767</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5427,10 +5934,10 @@
         <v>432</v>
       </c>
       <c r="D200" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E200" t="s">
-        <v>700</v>
+        <v>768</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5444,10 +5951,10 @@
         <v>433</v>
       </c>
       <c r="D201" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E201" t="s">
-        <v>701</v>
+        <v>769</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5460,6 +5967,9 @@
       <c r="C202" t="s">
         <v>434</v>
       </c>
+      <c r="E202" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
@@ -5472,10 +5982,10 @@
         <v>435</v>
       </c>
       <c r="D203" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E203" t="s">
-        <v>702</v>
+        <v>771</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5489,7 +5999,7 @@
         <v>436</v>
       </c>
       <c r="D204" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E204" t="s">
         <v>436</v>
@@ -5505,6 +6015,9 @@
       <c r="C205" t="s">
         <v>437</v>
       </c>
+      <c r="E205" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
@@ -5516,6 +6029,9 @@
       <c r="C206" t="s">
         <v>438</v>
       </c>
+      <c r="E206" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
@@ -5528,7 +6044,10 @@
         <v>439</v>
       </c>
       <c r="D207" t="s">
-        <v>577</v>
+        <v>573</v>
+      </c>
+      <c r="E207" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5541,6 +6060,9 @@
       <c r="C208" t="s">
         <v>440</v>
       </c>
+      <c r="E208" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
@@ -5553,10 +6075,10 @@
         <v>441</v>
       </c>
       <c r="D209" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E209" t="s">
-        <v>703</v>
+        <v>776</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5570,10 +6092,10 @@
         <v>442</v>
       </c>
       <c r="D210" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E210" t="s">
-        <v>704</v>
+        <v>777</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5586,6 +6108,9 @@
       <c r="C211" t="s">
         <v>443</v>
       </c>
+      <c r="E211" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
@@ -5598,10 +6123,10 @@
         <v>444</v>
       </c>
       <c r="D212" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E212" t="s">
-        <v>705</v>
+        <v>779</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5614,6 +6139,9 @@
       <c r="C213" t="s">
         <v>445</v>
       </c>
+      <c r="E213" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
@@ -5626,7 +6154,7 @@
         <v>446</v>
       </c>
       <c r="E214" t="s">
-        <v>706</v>
+        <v>781</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5639,6 +6167,9 @@
       <c r="C215" t="s">
         <v>447</v>
       </c>
+      <c r="E215" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
@@ -5651,7 +6182,7 @@
         <v>448</v>
       </c>
       <c r="E216" t="s">
-        <v>707</v>
+        <v>783</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5665,10 +6196,10 @@
         <v>449</v>
       </c>
       <c r="D217" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E217" t="s">
-        <v>708</v>
+        <v>784</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5682,10 +6213,10 @@
         <v>450</v>
       </c>
       <c r="D218" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E218" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5699,7 +6230,7 @@
         <v>451</v>
       </c>
       <c r="E219" t="s">
-        <v>710</v>
+        <v>786</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5712,6 +6243,9 @@
       <c r="C220" t="s">
         <v>452</v>
       </c>
+      <c r="E220" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
@@ -5724,10 +6258,10 @@
         <v>453</v>
       </c>
       <c r="D221" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E221" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5743,6 +6277,9 @@
       <c r="D222" t="s">
         <v>454</v>
       </c>
+      <c r="E222" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
@@ -5755,10 +6292,10 @@
         <v>455</v>
       </c>
       <c r="D223" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E223" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5772,10 +6309,10 @@
         <v>456</v>
       </c>
       <c r="D224" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E224" t="s">
-        <v>713</v>
+        <v>791</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5788,6 +6325,9 @@
       <c r="C225" t="s">
         <v>457</v>
       </c>
+      <c r="E225" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
@@ -5800,7 +6340,10 @@
         <v>458</v>
       </c>
       <c r="D226" t="s">
-        <v>586</v>
+        <v>582</v>
+      </c>
+      <c r="E226" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5813,6 +6356,9 @@
       <c r="C227" t="s">
         <v>459</v>
       </c>
+      <c r="E227" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
@@ -5825,7 +6371,7 @@
         <v>460</v>
       </c>
       <c r="E228" t="s">
-        <v>714</v>
+        <v>795</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5839,7 +6385,7 @@
         <v>461</v>
       </c>
       <c r="D229" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E229" t="s">
         <v>461</v>
@@ -5854,6 +6400,9 @@
       </c>
       <c r="C230" t="s">
         <v>462</v>
+      </c>
+      <c r="E230" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="798">
   <si>
     <t>Index</t>
   </si>
@@ -31,2380 +31,2383 @@
     <t>bpi team</t>
   </si>
   <si>
+    <t>San JosÃ© State Spartans</t>
+  </si>
+  <si>
+    <t>Norfolk State Spartans</t>
+  </si>
+  <si>
+    <t>Georgia Southern Eagles</t>
+  </si>
+  <si>
+    <t>Nevada Wolf Pack</t>
+  </si>
+  <si>
+    <t>Sam Houston Bearkats</t>
+  </si>
+  <si>
+    <t>Eastern Michigan Eagles</t>
+  </si>
+  <si>
+    <t>Iowa Hawkeyes</t>
+  </si>
+  <si>
+    <t>Miami (OH) RedHawks</t>
+  </si>
+  <si>
+    <t>Navy Midshipmen</t>
+  </si>
+  <si>
+    <t>Florida Atlantic Owls</t>
+  </si>
+  <si>
+    <t>Furman Paladins</t>
+  </si>
+  <si>
+    <t>Murray State Racers</t>
+  </si>
+  <si>
+    <t>Syracuse Orange</t>
+  </si>
+  <si>
+    <t>Liberty Flames</t>
+  </si>
+  <si>
+    <t>Gardner-Webb Runnin Bulldogs</t>
+  </si>
+  <si>
+    <t>Arizona State Sun Devils</t>
+  </si>
+  <si>
+    <t>Virginia Cavaliers</t>
+  </si>
+  <si>
+    <t>Incarnate Word Cardinals</t>
+  </si>
+  <si>
+    <t>Hawaii Rainbow Warriors</t>
+  </si>
+  <si>
+    <t>Tennessee State Tigers</t>
+  </si>
+  <si>
+    <t>Kennesaw State Owls</t>
+  </si>
+  <si>
+    <t>Arkansas-Pine Bluff Golden Lions</t>
+  </si>
+  <si>
+    <t>Texas Southern Tigers</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky Colonels</t>
+  </si>
+  <si>
+    <t>LSU Tigers</t>
+  </si>
+  <si>
+    <t>Minnesota Golden Gophers</t>
+  </si>
+  <si>
+    <t>New Mexico Lobos</t>
+  </si>
+  <si>
+    <t>James Madison Dukes</t>
+  </si>
+  <si>
+    <t>Ohio State Buckeyes</t>
+  </si>
+  <si>
+    <t>Troy Trojans</t>
+  </si>
+  <si>
+    <t>Memphis Tigers</t>
+  </si>
+  <si>
+    <t>Northern Colorado Bears</t>
+  </si>
+  <si>
+    <t>Utah Tech Trailblazers</t>
+  </si>
+  <si>
+    <t>Georgia Tech Yellow Jackets</t>
+  </si>
+  <si>
+    <t>Tennessee Volunteers</t>
+  </si>
+  <si>
+    <t>South Carolina Gamecocks</t>
+  </si>
+  <si>
+    <t>BYU Cougars</t>
+  </si>
+  <si>
+    <t>San Diego State Aztecs</t>
+  </si>
+  <si>
+    <t>Coastal Carolina Chanticleers</t>
+  </si>
+  <si>
+    <t>Western Michigan Broncos</t>
+  </si>
+  <si>
+    <t>Charlotte 49ers</t>
+  </si>
+  <si>
+    <t>Ball State Cardinals</t>
+  </si>
+  <si>
+    <t>Weber State Wildcats</t>
+  </si>
+  <si>
+    <t>Iowa State Cyclones</t>
+  </si>
+  <si>
+    <t>Ole Miss Rebels</t>
+  </si>
+  <si>
+    <t>Northern Iowa Panthers</t>
+  </si>
+  <si>
+    <t>Central Arkansas Bears</t>
+  </si>
+  <si>
+    <t>Oregon Ducks</t>
+  </si>
+  <si>
+    <t>VMI Keydets</t>
+  </si>
+  <si>
+    <t>Rice Owls</t>
+  </si>
+  <si>
+    <t>UL Monroe Warhawks</t>
+  </si>
+  <si>
+    <t>Bucknell Bison</t>
+  </si>
+  <si>
+    <t>Northwestern State Demons</t>
+  </si>
+  <si>
+    <t>Merrimack Warriors</t>
+  </si>
+  <si>
+    <t>New Hampshire Wildcats</t>
+  </si>
+  <si>
+    <t>Maryland Terrapins</t>
+  </si>
+  <si>
+    <t>Northwestern Wildcats</t>
+  </si>
+  <si>
+    <t>Florida Gators</t>
+  </si>
+  <si>
+    <t>Austin Peay Governors</t>
+  </si>
+  <si>
+    <t>UCF Knights</t>
+  </si>
+  <si>
+    <t>Tennessee Tech Golden Eagles</t>
+  </si>
+  <si>
+    <t>Robert Morris Colonials</t>
+  </si>
+  <si>
+    <t>Fort Valley State Wildcats</t>
+  </si>
+  <si>
+    <t>Stony Brook Seawolves</t>
+  </si>
+  <si>
+    <t>Penn State Nittany Lions</t>
+  </si>
+  <si>
+    <t>Old Dominion Monarchs</t>
+  </si>
+  <si>
+    <t>South Dakota Coyotes</t>
+  </si>
+  <si>
+    <t>North Texas Mean Green</t>
+  </si>
+  <si>
+    <t>West Virginia Mountaineers</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M Bulldogs</t>
+  </si>
+  <si>
+    <t>Holy Cross Crusaders</t>
+  </si>
+  <si>
+    <t>Long Island University Sharks</t>
+  </si>
+  <si>
+    <t>Abilene Christian Wildcats</t>
+  </si>
+  <si>
+    <t>Howard Bison</t>
+  </si>
+  <si>
+    <t>Monmouth Hawks</t>
+  </si>
+  <si>
+    <t>Washington Huskies</t>
+  </si>
+  <si>
+    <t>Colgate Raiders</t>
+  </si>
+  <si>
+    <t>Grambling Tigers</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M Rattlers</t>
+  </si>
+  <si>
+    <t>St. Francis (PA) Red Flash</t>
+  </si>
+  <si>
+    <t>NC State Wolfpack</t>
+  </si>
+  <si>
+    <t>Virginia Tech Hokies</t>
+  </si>
+  <si>
+    <t>Missouri State Bears</t>
+  </si>
+  <si>
+    <t>Auburn Tigers</t>
+  </si>
+  <si>
+    <t>South Florida Bulls</t>
+  </si>
+  <si>
+    <t>Rutgers Scarlet Knights</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M Aggies</t>
+  </si>
+  <si>
+    <t>Stanford Cardinal</t>
+  </si>
+  <si>
+    <t>UT Martin Skyhawks</t>
+  </si>
+  <si>
+    <t>Notre Dame Fighting Irish</t>
+  </si>
+  <si>
+    <t>Wisconsin Badgers</t>
+  </si>
+  <si>
+    <t>Northern Arizona Lumberjacks</t>
+  </si>
+  <si>
+    <t>UCLA Bruins</t>
+  </si>
+  <si>
+    <t>Florida State Seminoles</t>
+  </si>
+  <si>
+    <t>Alabama Crimson Tide</t>
+  </si>
+  <si>
+    <t>Louisiana Ragin Cajuns</t>
+  </si>
+  <si>
+    <t>Southern Miss Golden Eagles</t>
+  </si>
+  <si>
+    <t>Southern Illinois Salukis</t>
+  </si>
+  <si>
+    <t>Maine Black Bears</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin Lumberjacks</t>
+  </si>
+  <si>
+    <t>Arkansas Razorbacks</t>
+  </si>
+  <si>
+    <t>Western Carolina Catamounts</t>
+  </si>
+  <si>
+    <t>Oklahoma Sooners</t>
+  </si>
+  <si>
+    <t>Delaware State Hornets</t>
+  </si>
+  <si>
+    <t>Villanova Wildcats</t>
+  </si>
+  <si>
+    <t>Chattanooga Mocs</t>
+  </si>
+  <si>
+    <t>SE Louisiana Lions</t>
+  </si>
+  <si>
+    <t>Central Michigan Chippewas</t>
+  </si>
+  <si>
+    <t>Idaho State Bengals</t>
+  </si>
+  <si>
+    <t>Louisiana Tech Bulldogs</t>
+  </si>
+  <si>
+    <t>Albright Lions</t>
+  </si>
+  <si>
+    <t>Sacramento State Hornets</t>
+  </si>
+  <si>
+    <t>Alcorn State Braves</t>
+  </si>
+  <si>
+    <t>Cincinnati Bearcats</t>
+  </si>
+  <si>
+    <t>Michigan State Spartans</t>
+  </si>
+  <si>
+    <t>Purdue Boilermakers</t>
+  </si>
+  <si>
+    <t>Samford Bulldogs</t>
+  </si>
+  <si>
+    <t>New Mexico State Aggies</t>
+  </si>
+  <si>
+    <t>Wyoming Cowboys</t>
+  </si>
+  <si>
+    <t>Tulsa Golden Hurricane</t>
+  </si>
+  <si>
+    <t>Marshall Thundering Herd</t>
+  </si>
+  <si>
+    <t>North Dakota Fighting Hawks</t>
+  </si>
+  <si>
+    <t>The Citadel Bulldogs</t>
+  </si>
+  <si>
+    <t>Nicholls Colonels</t>
+  </si>
+  <si>
+    <t>UTEP Miners</t>
+  </si>
+  <si>
+    <t>Western Illinois Leathernecks</t>
+  </si>
+  <si>
+    <t>UAB Blazers</t>
+  </si>
+  <si>
+    <t>Kansas Jayhawks</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Commerce Lions</t>
+  </si>
+  <si>
+    <t>Appalachian State Mountaineers</t>
+  </si>
+  <si>
+    <t>Boise State Broncos</t>
+  </si>
+  <si>
+    <t>Elon Phoenix</t>
+  </si>
+  <si>
+    <t>Campbell Fighting Camels</t>
+  </si>
+  <si>
+    <t>Duke Blue Devils</t>
+  </si>
+  <si>
+    <t>Southern Utah Thunderbirds</t>
+  </si>
+  <si>
+    <t>Bryant Bulldogs</t>
+  </si>
+  <si>
+    <t>USC Trojans</t>
+  </si>
+  <si>
+    <t>Louisville Cardinals</t>
+  </si>
+  <si>
+    <t>Bowling Green Falcons</t>
+  </si>
+  <si>
+    <t>Texas State Bobcats</t>
+  </si>
+  <si>
+    <t>UConn Huskies</t>
+  </si>
+  <si>
+    <t>Vanderbilt Commodores</t>
+  </si>
+  <si>
+    <t>Rhode Island Rams</t>
+  </si>
+  <si>
+    <t>Akron Zips</t>
+  </si>
+  <si>
+    <t>Morgan State Bears</t>
+  </si>
+  <si>
+    <t>McNeese Cowboys</t>
+  </si>
+  <si>
+    <t>Fresno State Bulldogs</t>
+  </si>
+  <si>
+    <t>UC Davis Aggies</t>
+  </si>
+  <si>
+    <t>Houston Cougars</t>
+  </si>
+  <si>
+    <t>Colorado Buffaloes</t>
+  </si>
+  <si>
+    <t>Jacksonville State Gamecocks</t>
+  </si>
+  <si>
+    <t>Baylor Bears</t>
+  </si>
+  <si>
+    <t>Youngstown State Penguins</t>
+  </si>
+  <si>
+    <t>Merchant Marine Mariners</t>
+  </si>
+  <si>
+    <t>Toledo Rockets</t>
+  </si>
+  <si>
+    <t>Georgia State Panthers</t>
+  </si>
+  <si>
+    <t>Miami Hurricanes</t>
+  </si>
+  <si>
+    <t>Florida International Panthers</t>
+  </si>
+  <si>
+    <t>Southeast Missouri State Redhawks</t>
+  </si>
+  <si>
+    <t>Pittsburgh Panthers</t>
+  </si>
+  <si>
+    <t>Illinois Fighting Illini</t>
+  </si>
+  <si>
+    <t>Houston Christian Huskies</t>
+  </si>
+  <si>
+    <t>William &amp; Mary Tribe</t>
+  </si>
+  <si>
+    <t>Bethune-Cookman Wildcats</t>
+  </si>
+  <si>
+    <t>Wagner Seahawks</t>
+  </si>
+  <si>
+    <t>East Carolina Pirates</t>
+  </si>
+  <si>
+    <t>Indiana State Sycamores</t>
+  </si>
+  <si>
+    <t>Kent State Golden Flashes</t>
+  </si>
+  <si>
+    <t>Ohio Bobcats</t>
+  </si>
+  <si>
+    <t>Lafayette Leopards</t>
+  </si>
+  <si>
+    <t>Portland State Vikings</t>
+  </si>
+  <si>
+    <t>Northern Illinois Huskies</t>
+  </si>
+  <si>
+    <t>Wake Forest Demon Deacons</t>
+  </si>
+  <si>
+    <t>Texas Longhorns</t>
+  </si>
+  <si>
+    <t>Mississippi State Bulldogs</t>
+  </si>
+  <si>
+    <t>SMU Mustangs</t>
+  </si>
+  <si>
+    <t>Charleston Southern Buccaneers</t>
+  </si>
+  <si>
+    <t>Duquesne Dukes</t>
+  </si>
+  <si>
+    <t>Prairie View A&amp;M Panthers</t>
+  </si>
+  <si>
+    <t>South Alabama Jaguars</t>
+  </si>
+  <si>
+    <t>UNLV Rebels</t>
+  </si>
+  <si>
+    <t>Utah Utes</t>
+  </si>
+  <si>
+    <t>Middle Tennessee Blue Raiders</t>
+  </si>
+  <si>
+    <t>Wofford Terriers</t>
+  </si>
+  <si>
+    <t>Tulane Green Wave</t>
+  </si>
+  <si>
+    <t>California Golden Bears</t>
+  </si>
+  <si>
+    <t>North Carolina Central Eagles</t>
+  </si>
+  <si>
+    <t>Texas Tech Red Raiders</t>
+  </si>
+  <si>
+    <t>Georgia Bulldogs</t>
+  </si>
+  <si>
+    <t>East Tennessee State Buccaneers</t>
+  </si>
+  <si>
+    <t>Richmond Spiders</t>
+  </si>
+  <si>
+    <t>Oklahoma State Cowboys</t>
+  </si>
+  <si>
+    <t>North Carolina A&amp;T Aggies</t>
+  </si>
+  <si>
+    <t>Temple Owls</t>
+  </si>
+  <si>
+    <t>Sacred Heart Pioneers</t>
+  </si>
+  <si>
+    <t>TCU Horned Frogs</t>
+  </si>
+  <si>
+    <t>Air Force Falcons</t>
+  </si>
+  <si>
+    <t>Utah State Aggies</t>
+  </si>
+  <si>
+    <t>North Carolina Tar Heels</t>
+  </si>
+  <si>
+    <t>Kentucky Wildcats</t>
+  </si>
+  <si>
+    <t>Towson Tigers</t>
+  </si>
+  <si>
+    <t>Washington State Cougars</t>
+  </si>
+  <si>
+    <t>Arizona Wildcats</t>
+  </si>
+  <si>
+    <t>Army Black Knights</t>
+  </si>
+  <si>
+    <t>Buffalo Bulls</t>
+  </si>
+  <si>
+    <t>Cal Poly Mustangs</t>
+  </si>
+  <si>
+    <t>Delaware Fightin Blue Hens</t>
+  </si>
+  <si>
+    <t>Western Kentucky Hilltoppers</t>
+  </si>
+  <si>
+    <t>Arkansas State Red Wolves</t>
+  </si>
+  <si>
+    <t>Clemson Tigers</t>
+  </si>
+  <si>
+    <t>Oregon State Beavers</t>
+  </si>
+  <si>
+    <t>Eastern Washington Eagles</t>
+  </si>
+  <si>
+    <t>Central Connecticut Blue Devils</t>
+  </si>
+  <si>
+    <t>Jackson State Tigers</t>
+  </si>
+  <si>
+    <t>Missouri Tigers</t>
+  </si>
+  <si>
+    <t>Nebraska Cornhuskers</t>
+  </si>
+  <si>
+    <t>North Alabama Lions</t>
+  </si>
+  <si>
+    <t>Michigan Wolverines</t>
+  </si>
+  <si>
+    <t>Massachusetts Minutemen</t>
+  </si>
+  <si>
+    <t>Boston College Eagles</t>
+  </si>
+  <si>
+    <t>Colorado State Rams</t>
+  </si>
+  <si>
+    <t>Indiana Hoosiers</t>
+  </si>
+  <si>
+    <t>UTSA Roadrunners</t>
+  </si>
+  <si>
     <t>South Carolina State Bulldogs</t>
   </si>
   <si>
-    <t>Delaware State Hornets</t>
-  </si>
-  <si>
-    <t>Chattanooga Mocs</t>
-  </si>
-  <si>
-    <t>Kentucky Wildcats</t>
-  </si>
-  <si>
-    <t>Charleston Southern Buccaneers</t>
-  </si>
-  <si>
-    <t>Ball State Cardinals</t>
-  </si>
-  <si>
-    <t>Stephen F. Austin Lumberjacks</t>
-  </si>
-  <si>
-    <t>Liberty Flames</t>
-  </si>
-  <si>
-    <t>Central Connecticut Blue Devils</t>
-  </si>
-  <si>
-    <t>Stony Brook Seawolves</t>
-  </si>
-  <si>
-    <t>Southern Illinois Salukis</t>
-  </si>
-  <si>
-    <t>South Dakota Coyotes</t>
-  </si>
-  <si>
-    <t>Virginia Cavaliers</t>
-  </si>
-  <si>
-    <t>Richmond Spiders</t>
-  </si>
-  <si>
-    <t>Western Kentucky Hilltoppers</t>
-  </si>
-  <si>
-    <t>USC Trojans</t>
-  </si>
-  <si>
-    <t>Wofford Terriers</t>
-  </si>
-  <si>
-    <t>Colorado Buffaloes</t>
-  </si>
-  <si>
-    <t>Howard Bison</t>
-  </si>
-  <si>
-    <t>Maine Black Bears</t>
-  </si>
-  <si>
-    <t>Samford Bulldogs</t>
-  </si>
-  <si>
-    <t>Florida State Seminoles</t>
-  </si>
-  <si>
-    <t>Oregon Ducks</t>
-  </si>
-  <si>
     <t>Kansas State Wildcats</t>
   </si>
   <si>
-    <t>Youngstown State Penguins</t>
-  </si>
-  <si>
-    <t>Ole Miss Rebels</t>
-  </si>
-  <si>
-    <t>Oregon State Beavers</t>
-  </si>
-  <si>
-    <t>Bethune-Cookman Wildcats</t>
-  </si>
-  <si>
-    <t>Norfolk State Spartans</t>
-  </si>
-  <si>
-    <t>Georgia State Panthers</t>
-  </si>
-  <si>
-    <t>Northern Arizona Lumberjacks</t>
-  </si>
-  <si>
-    <t>New Mexico Lobos</t>
-  </si>
-  <si>
-    <t>South Florida Bulls</t>
-  </si>
-  <si>
-    <t>Fresno State Bulldogs</t>
-  </si>
-  <si>
-    <t>Oklahoma Sooners</t>
-  </si>
-  <si>
-    <t>Campbell Fighting Camels</t>
-  </si>
-  <si>
-    <t>UTSA Roadrunners</t>
-  </si>
-  <si>
-    <t>Bryant Bulldogs</t>
-  </si>
-  <si>
-    <t>North Carolina Tar Heels</t>
-  </si>
-  <si>
-    <t>North Carolina A&amp;T Aggies</t>
-  </si>
-  <si>
-    <t>Southeast Missouri State Redhawks</t>
-  </si>
-  <si>
-    <t>Northern Iowa Panthers</t>
-  </si>
-  <si>
-    <t>Towson Tigers</t>
-  </si>
-  <si>
-    <t>Indiana Hoosiers</t>
-  </si>
-  <si>
-    <t>Sacred Heart Pioneers</t>
-  </si>
-  <si>
-    <t>LSU Tigers</t>
-  </si>
-  <si>
-    <t>Alabama A&amp;M Bulldogs</t>
-  </si>
-  <si>
-    <t>Southern Utah Thunderbirds</t>
-  </si>
-  <si>
-    <t>Charlotte 49ers</t>
-  </si>
-  <si>
-    <t>Cincinnati Bearcats</t>
-  </si>
-  <si>
-    <t>Indiana State Sycamores</t>
-  </si>
-  <si>
-    <t>Penn State Nittany Lions</t>
-  </si>
-  <si>
-    <t>Akron Zips</t>
-  </si>
-  <si>
-    <t>Duke Blue Devils</t>
-  </si>
-  <si>
-    <t>Lafayette Leopards</t>
-  </si>
-  <si>
-    <t>Utah Tech Trailblazers</t>
-  </si>
-  <si>
-    <t>Georgia Bulldogs</t>
-  </si>
-  <si>
-    <t>Wake Forest Demon Deacons</t>
+    <t>Tarleton State Texans</t>
+  </si>
+  <si>
+    <t>Eastern Illinois Panthers</t>
   </si>
   <si>
     <t>Idaho Vandals</t>
   </si>
   <si>
-    <t>New Mexico State Aggies</t>
-  </si>
-  <si>
-    <t>Washington State Cougars</t>
-  </si>
-  <si>
-    <t>Louisville Cardinals</t>
-  </si>
-  <si>
-    <t>Pittsburgh Panthers</t>
-  </si>
-  <si>
-    <t>St. Francis (PA) Red Flash</t>
-  </si>
-  <si>
-    <t>San Diego State Aztecs</t>
-  </si>
-  <si>
-    <t>UConn Huskies</t>
-  </si>
-  <si>
-    <t>NC State Wolfpack</t>
-  </si>
-  <si>
-    <t>Austin Peay Governors</t>
-  </si>
-  <si>
-    <t>Rice Owls</t>
-  </si>
-  <si>
-    <t>Eastern Washington Eagles</t>
-  </si>
-  <si>
-    <t>Massachusetts Minutemen</t>
-  </si>
-  <si>
-    <t>Colorado State Rams</t>
-  </si>
-  <si>
-    <t>West Virginia Mountaineers</t>
-  </si>
-  <si>
-    <t>Merrimack Warriors</t>
-  </si>
-  <si>
-    <t>Army Black Knights</t>
-  </si>
-  <si>
-    <t>Texas Southern Tigers</t>
-  </si>
-  <si>
-    <t>McNeese Cowboys</t>
-  </si>
-  <si>
-    <t>Houston Cougars</t>
-  </si>
-  <si>
-    <t>Jackson State Tigers</t>
-  </si>
-  <si>
-    <t>Morgan State Bears</t>
-  </si>
-  <si>
-    <t>Memphis Tigers</t>
-  </si>
-  <si>
-    <t>Missouri State Bears</t>
-  </si>
-  <si>
-    <t>Lambuth Eagles</t>
-  </si>
-  <si>
-    <t>TCU Horned Frogs</t>
-  </si>
-  <si>
-    <t>UTEP Miners</t>
-  </si>
-  <si>
-    <t>Merchant Marine Mariners</t>
-  </si>
-  <si>
-    <t>Colgate Raiders</t>
-  </si>
-  <si>
-    <t>Gardner-Webb Runnin Bulldogs</t>
-  </si>
-  <si>
-    <t>William &amp; Mary Tribe</t>
-  </si>
-  <si>
-    <t>Georgia Tech Yellow Jackets</t>
-  </si>
-  <si>
-    <t>Maryland Terrapins</t>
-  </si>
-  <si>
-    <t>UL Monroe Warhawks</t>
-  </si>
-  <si>
-    <t>Louisiana Tech Bulldogs</t>
-  </si>
-  <si>
-    <t>Sam Houston Bearkats</t>
-  </si>
-  <si>
-    <t>James Madison Dukes</t>
-  </si>
-  <si>
-    <t>New Hampshire Wildcats</t>
-  </si>
-  <si>
-    <t>Eastern Michigan Eagles</t>
-  </si>
-  <si>
-    <t>Texas Longhorns</t>
-  </si>
-  <si>
-    <t>Arkansas-Pine Bluff Golden Lions</t>
-  </si>
-  <si>
-    <t>Oklahoma State Cowboys</t>
-  </si>
-  <si>
-    <t>Kennesaw State Owls</t>
-  </si>
-  <si>
-    <t>UNLV Rebels</t>
-  </si>
-  <si>
-    <t>Monmouth Hawks</t>
-  </si>
-  <si>
-    <t>Kansas Jayhawks</t>
-  </si>
-  <si>
-    <t>Fort Valley State Wildcats</t>
-  </si>
-  <si>
-    <t>UCLA Bruins</t>
-  </si>
-  <si>
-    <t>Arkansas Razorbacks</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M Rattlers</t>
-  </si>
-  <si>
-    <t>Washington Huskies</t>
-  </si>
-  <si>
-    <t>Abilene Christian Wildcats</t>
-  </si>
-  <si>
-    <t>Middle Tennessee Blue Raiders</t>
-  </si>
-  <si>
-    <t>Kent State Golden Flashes</t>
-  </si>
-  <si>
-    <t>Wyoming Cowboys</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M-Commerce Lions</t>
-  </si>
-  <si>
-    <t>Tennessee State Tigers</t>
-  </si>
-  <si>
-    <t>East Tennessee State Buccaneers</t>
-  </si>
-  <si>
-    <t>Temple Owls</t>
-  </si>
-  <si>
-    <t>Miami Hurricanes</t>
-  </si>
-  <si>
-    <t>Central Arkansas Bears</t>
-  </si>
-  <si>
-    <t>Tennessee Tech Golden Eagles</t>
-  </si>
-  <si>
-    <t>Stanford Cardinal</t>
-  </si>
-  <si>
-    <t>South Alabama Jaguars</t>
-  </si>
-  <si>
-    <t>UC Davis Aggies</t>
-  </si>
-  <si>
-    <t>Nicholls Colonels</t>
-  </si>
-  <si>
-    <t>Sacramento State Hornets</t>
-  </si>
-  <si>
-    <t>Duquesne Dukes</t>
-  </si>
-  <si>
-    <t>Notre Dame Fighting Irish</t>
-  </si>
-  <si>
-    <t>Coastal Carolina Chanticleers</t>
-  </si>
-  <si>
-    <t>Syracuse Orange</t>
-  </si>
-  <si>
-    <t>Texas State Bobcats</t>
-  </si>
-  <si>
-    <t>Weber State Wildcats</t>
-  </si>
-  <si>
-    <t>Alabama Crimson Tide</t>
-  </si>
-  <si>
-    <t>Calvin University Knights</t>
-  </si>
-  <si>
-    <t>Auburn Tigers</t>
-  </si>
-  <si>
-    <t>Florida Atlantic Owls</t>
-  </si>
-  <si>
-    <t>Bowling Green Falcons</t>
-  </si>
-  <si>
-    <t>Louisiana Ragin Cajuns</t>
-  </si>
-  <si>
-    <t>Illinois Fighting Illini</t>
-  </si>
-  <si>
-    <t>Northwestern Wildcats</t>
-  </si>
-  <si>
-    <t>Texas Tech Red Raiders</t>
-  </si>
-  <si>
-    <t>Tennessee Volunteers</t>
-  </si>
-  <si>
-    <t>SE Louisiana Lions</t>
-  </si>
-  <si>
-    <t>Long Island University Sharks</t>
-  </si>
-  <si>
-    <t>Michigan State Spartans</t>
-  </si>
-  <si>
-    <t>Boston College Eagles</t>
-  </si>
-  <si>
-    <t>Ohio State Newark Titans</t>
-  </si>
-  <si>
-    <t>Buffalo Bulls</t>
-  </si>
-  <si>
-    <t>Missouri Tigers</t>
-  </si>
-  <si>
-    <t>Purdue Boilermakers</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M Aggies</t>
-  </si>
-  <si>
-    <t>Jacksonville State Gamecocks</t>
-  </si>
-  <si>
-    <t>Virginia Tech Hokies</t>
-  </si>
-  <si>
-    <t>Old Dominion Monarchs</t>
-  </si>
-  <si>
-    <t>Nebraska Cornhuskers</t>
-  </si>
-  <si>
-    <t>Wagner Seahawks</t>
-  </si>
-  <si>
-    <t>BYU Cougars</t>
-  </si>
-  <si>
-    <t>Central Michigan Chippewas</t>
-  </si>
-  <si>
-    <t>The Citadel Bulldogs</t>
-  </si>
-  <si>
-    <t>Eastern Illinois Panthers</t>
-  </si>
-  <si>
-    <t>Cal Poly Mustangs</t>
-  </si>
-  <si>
-    <t>Ohio Bobcats</t>
-  </si>
-  <si>
-    <t>Murray State Racers</t>
-  </si>
-  <si>
-    <t>Elon Phoenix</t>
-  </si>
-  <si>
-    <t>Northern Colorado Bears</t>
-  </si>
-  <si>
-    <t>Wisconsin Badgers</t>
-  </si>
-  <si>
-    <t>East Carolina Pirates</t>
-  </si>
-  <si>
-    <t>Michigan Wolverines</t>
-  </si>
-  <si>
-    <t>VMI Keydets</t>
-  </si>
-  <si>
-    <t>Iowa State Cyclones</t>
-  </si>
-  <si>
-    <t>Minnesota Golden Gophers</t>
-  </si>
-  <si>
-    <t>Arizona Wildcats</t>
-  </si>
-  <si>
-    <t>Mississippi State Bulldogs</t>
-  </si>
-  <si>
-    <t>Arkansas State Red Wolves</t>
-  </si>
-  <si>
-    <t>Western Michigan Broncos</t>
-  </si>
-  <si>
-    <t>Toledo Rockets</t>
-  </si>
-  <si>
-    <t>Prairie View A&amp;M Panthers</t>
-  </si>
-  <si>
-    <t>Robert Morris Colonials</t>
-  </si>
-  <si>
-    <t>Tulsa Golden Hurricane</t>
-  </si>
-  <si>
-    <t>Georgia Southern Eagles</t>
-  </si>
-  <si>
-    <t>Baylor Bears</t>
-  </si>
-  <si>
-    <t>Eastern Kentucky Colonels</t>
-  </si>
-  <si>
-    <t>SMU Mustangs</t>
-  </si>
-  <si>
-    <t>UT Martin Skyhawks</t>
-  </si>
-  <si>
-    <t>Alcorn State Braves</t>
-  </si>
-  <si>
-    <t>North Alabama Lions</t>
-  </si>
-  <si>
-    <t>Troy Trojans</t>
-  </si>
-  <si>
-    <t>Northwestern State Demons</t>
-  </si>
-  <si>
-    <t>Boise State Broncos</t>
-  </si>
-  <si>
-    <t>Western Illinois Leathernecks</t>
-  </si>
-  <si>
-    <t>Southern Miss Golden Eagles</t>
-  </si>
-  <si>
-    <t>Hawaii Rainbow Warriors</t>
-  </si>
-  <si>
-    <t>Villanova Wildcats</t>
-  </si>
-  <si>
-    <t>Utah Utes</t>
-  </si>
-  <si>
-    <t>Arizona State Sun Devils</t>
-  </si>
-  <si>
-    <t>Marshall Thundering Herd</t>
-  </si>
-  <si>
-    <t>North Carolina Central Eagles</t>
-  </si>
-  <si>
-    <t>UCF Knights</t>
-  </si>
-  <si>
-    <t>Appalachian State Mountaineers</t>
-  </si>
-  <si>
-    <t>North Texas Mean Green</t>
-  </si>
-  <si>
-    <t>Nevada Wolf Pack</t>
-  </si>
-  <si>
-    <t>Delaware Fightin Blue Hens</t>
-  </si>
-  <si>
-    <t>Tulane Green Wave</t>
-  </si>
-  <si>
-    <t>Navy Midshipmen</t>
-  </si>
-  <si>
-    <t>Houston Christian Huskies</t>
-  </si>
-  <si>
-    <t>Incarnate Word Cardinals</t>
-  </si>
-  <si>
-    <t>Florida International Panthers</t>
-  </si>
-  <si>
-    <t>Western Carolina Catamounts</t>
-  </si>
-  <si>
-    <t>Florida Gators</t>
-  </si>
-  <si>
-    <t>Rutgers Scarlet Knights</t>
-  </si>
-  <si>
-    <t>Tarleton State Texans</t>
-  </si>
-  <si>
-    <t>South Carolina Gamecocks</t>
-  </si>
-  <si>
-    <t>Portland State Vikings</t>
-  </si>
-  <si>
-    <t>Albright Lions</t>
-  </si>
-  <si>
-    <t>Northern Illinois Huskies</t>
-  </si>
-  <si>
-    <t>North Dakota Fighting Hawks</t>
-  </si>
-  <si>
-    <t>Air Force Falcons</t>
-  </si>
-  <si>
-    <t>Vanderbilt Commodores</t>
-  </si>
-  <si>
-    <t>Idaho State Bengals</t>
-  </si>
-  <si>
-    <t>Rhode Island Rams</t>
-  </si>
-  <si>
-    <t>Utah State Aggies</t>
-  </si>
-  <si>
-    <t>UAB Blazers</t>
-  </si>
-  <si>
-    <t>Miami (OH) RedHawks</t>
-  </si>
-  <si>
-    <t>Clemson Tigers</t>
-  </si>
-  <si>
-    <t>Grambling Tigers</t>
-  </si>
-  <si>
-    <t>San JosÃ© State Spartans</t>
-  </si>
-  <si>
-    <t>Furman Paladins</t>
-  </si>
-  <si>
-    <t>Bucknell Bison</t>
-  </si>
-  <si>
-    <t>Iowa Hawkeyes</t>
-  </si>
-  <si>
-    <t>Holy Cross Crusaders</t>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>GWEB</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>UIW</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>TNST</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>UAPB</t>
+  </si>
+  <si>
+    <t>TXSO</t>
+  </si>
+  <si>
+    <t>EKU</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>UNCO</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>CARK</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>NWST</t>
+  </si>
+  <si>
+    <t>MRMK</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>APSU</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>TNTC</t>
+  </si>
+  <si>
+    <t>RMU</t>
+  </si>
+  <si>
+    <t>FVS</t>
+  </si>
+  <si>
+    <t>STBK</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>SDAK</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LIU</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>MONM</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>COLG</t>
+  </si>
+  <si>
+    <t>GRAM</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>SFPA</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>SIU</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>SFA</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>WCU</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>VILL</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>IDST</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>NICH</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>WIU</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>TAMC</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>BRY</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>YSU</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>SEMO</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>W&amp;M</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>LAF</t>
+  </si>
+  <si>
+    <t>PRST</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>CHSO</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>WOF</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>ETSU</t>
+  </si>
+  <si>
+    <t>RICH</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>NCAT</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>TOW</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>JKST</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>UTSA</t>
   </si>
   <si>
     <t>SCST</t>
   </si>
   <si>
-    <t>DSU</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>CHSO</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>SFA</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>STBK</t>
-  </si>
-  <si>
-    <t>SIU</t>
-  </si>
-  <si>
-    <t>SDAK</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>RICH</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>WOF</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>HOW</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
     <t>KSU</t>
   </si>
   <si>
-    <t>YSU</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>BCU</t>
-  </si>
-  <si>
-    <t>NORF</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>NAU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>BRY</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>NCAT</t>
-  </si>
-  <si>
-    <t>SEMO</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>TOW</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>SHU</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>SUU</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>LAF</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>WAKE</t>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>EIU</t>
   </si>
   <si>
     <t>IDHO</t>
   </si>
   <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>SFPA</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>APSU</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>MRMK</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>TXSO</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>JKST</t>
-  </si>
-  <si>
-    <t>MORG</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>LAM</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>COLG</t>
-  </si>
-  <si>
-    <t>GWEB</t>
-  </si>
-  <si>
-    <t>W&amp;M</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>UAPB</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>MONM</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>TAMC</t>
-  </si>
-  <si>
-    <t>TNST</t>
-  </si>
-  <si>
-    <t>ETSU</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>CARK</t>
-  </si>
-  <si>
-    <t>TNTC</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>NICH</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>DUQ</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>SELA</t>
-  </si>
-  <si>
-    <t>LIU</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>OHI</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>UNCO</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>VMI</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>RMU</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>EKU</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>UTM</t>
-  </si>
-  <si>
-    <t>ALCN</t>
-  </si>
-  <si>
-    <t>UNA</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>NWST</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>WIU</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>VILL</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>NCCU</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>HCU</t>
-  </si>
-  <si>
-    <t>UIW</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>TAR</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>PRST</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>UND</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>IDST</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>FUR</t>
-  </si>
-  <si>
-    <t>BUCK</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>HC</t>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
     <t>Ball St</t>
   </si>
   <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Virginia</t>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
   </si>
   <si>
     <t>W Kentucky</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Oregon</t>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Indiana</t>
   </si>
   <si>
     <t>Kansas St</t>
   </si>
   <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>Kent St</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Iowa</t>
+    <t>SAN JOSE STATE</t>
+  </si>
+  <si>
+    <t>NORFOLK STATE</t>
+  </si>
+  <si>
+    <t>GEORGIA SOUTHERN</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>SAM HOUSTON</t>
+  </si>
+  <si>
+    <t>EASTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>MIAMI OF OHIO</t>
+  </si>
+  <si>
+    <t>FLORIDA ATLANTIC</t>
+  </si>
+  <si>
+    <t>FURMAN</t>
+  </si>
+  <si>
+    <t>MURRAY STATE</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>GARDNER-WEBB</t>
+  </si>
+  <si>
+    <t>ARIZONA STATE</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>INCARNATE WORD</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>KENNESAW STATE</t>
+  </si>
+  <si>
+    <t>PINE BLUFF-ARKANSAS</t>
+  </si>
+  <si>
+    <t>TEXAS SOUTHERN</t>
+  </si>
+  <si>
+    <t>EASTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>JAMES MADISON</t>
+  </si>
+  <si>
+    <t>OHIO STATE</t>
+  </si>
+  <si>
+    <t>TROY STATE</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>NORTHERN COLORADO</t>
+  </si>
+  <si>
+    <t>UTAH TECH</t>
+  </si>
+  <si>
+    <t>GEORGIA TECH</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>BRIGHAM YOUNG</t>
+  </si>
+  <si>
+    <t>SAN DIEGO STATE</t>
+  </si>
+  <si>
+    <t>COASTAL CAROLINA</t>
+  </si>
+  <si>
+    <t>WESTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>UNC - CHARLOTTE</t>
+  </si>
+  <si>
+    <t>BALL STATE</t>
+  </si>
+  <si>
+    <t>WEBER STATE</t>
+  </si>
+  <si>
+    <t>IOWA STATE</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>NORTHERN IOWA</t>
+  </si>
+  <si>
+    <t>CENTRAL ARKANSAS</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>VIRGINIA MILITARY INSTITUTE</t>
+  </si>
+  <si>
+    <t>LA - MONROE</t>
+  </si>
+  <si>
+    <t>BUCKNELL</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN STATE-LA</t>
+  </si>
+  <si>
+    <t>MERRIMACK</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>AUSTIN PEAY</t>
+  </si>
+  <si>
+    <t>CENTRAL FLORIDA</t>
+  </si>
+  <si>
+    <t>TENNESSEE TECH</t>
+  </si>
+  <si>
+    <t>ROBERT MORRIS – PA</t>
+  </si>
+  <si>
+    <t>FORT VALLEY STATE</t>
+  </si>
+  <si>
+    <t>STONY BROOK</t>
+  </si>
+  <si>
+    <t>PENN STATE</t>
+  </si>
+  <si>
+    <t>OLD DOMINION</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>NORTH TEXAS</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>ALABAMA A&amp;M</t>
+  </si>
+  <si>
+    <t>HOLY CROSS</t>
+  </si>
+  <si>
+    <t>ABILENE CHRISTIAN</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>MONMOUTH-NJ</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>COLGATE</t>
+  </si>
+  <si>
+    <t>GRAMBLING</t>
+  </si>
+  <si>
+    <t>FLORIDA A&amp;M</t>
+  </si>
+  <si>
+    <t>ST.FRANCIS-PA</t>
+  </si>
+  <si>
+    <t>NO. CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>VIRGINIA TECH</t>
+  </si>
+  <si>
+    <t>MISSOURI STATE</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>SOUTH FLORIDA</t>
+  </si>
+  <si>
+    <t>RUTGERS</t>
+  </si>
+  <si>
+    <t>TEXAS A&amp;M</t>
+  </si>
+  <si>
+    <t>STANFORD</t>
+  </si>
+  <si>
+    <t>TENNESSEE-MARTIN</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>NORTHERN ARIZONA</t>
+  </si>
+  <si>
+    <t>U.C.L.A.</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>SOUTHERN MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>SOUTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>S.F.AUSTIN</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>WESTERN CAROLINA</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>DELAWARE STATE</t>
+  </si>
+  <si>
+    <t>VILLANOVA</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA-TENNESSEE</t>
+  </si>
+  <si>
+    <t>SO. EAST LOUISIANA</t>
+  </si>
+  <si>
+    <t>CENTRAL CONNECTICUT ST.</t>
+  </si>
+  <si>
+    <t>IDAHO STATE</t>
+  </si>
+  <si>
+    <t>LOUISIANA STATE</t>
+  </si>
+  <si>
+    <t>ALBRIGHT</t>
+  </si>
+  <si>
+    <t>ALCORN STATE</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>MICHIGAN STATE</t>
+  </si>
+  <si>
+    <t>PURDUE</t>
+  </si>
+  <si>
+    <t>SAMFORD</t>
+  </si>
+  <si>
+    <t>NEW MEXICO STATE</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>TULSA</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>THE CITADEL</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>TEXAS-EL PASO</t>
+  </si>
+  <si>
+    <t>WESTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>ALABAMA-BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>APPALACHIAN STATE</t>
+  </si>
+  <si>
+    <t>BOISE</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>BRYANT COLLEGE</t>
+  </si>
+  <si>
+    <t>SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>LOUISVILLE</t>
+  </si>
+  <si>
+    <t>BOWLING GREEN</t>
+  </si>
+  <si>
+    <t>TEXAS STATE-SAN MARCOS</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>VANDERBILT</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>AKRON</t>
+  </si>
+  <si>
+    <t>MORGAN STATE</t>
+  </si>
+  <si>
+    <t>MCNEESE STATE</t>
+  </si>
+  <si>
+    <t>FRESNO STATE</t>
+  </si>
+  <si>
+    <t>CAL-DAVIS</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE STATE</t>
+  </si>
+  <si>
+    <t>BAYLOR</t>
+  </si>
+  <si>
+    <t>YOUNGSTOWN STATE</t>
+  </si>
+  <si>
+    <t>MERCHANT MARINE</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>GEORGIA STATE</t>
+  </si>
+  <si>
+    <t>MIAMI-FL</t>
+  </si>
+  <si>
+    <t>FLORIDA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN MISSOURI</t>
+  </si>
+  <si>
+    <t>PITTSBURGH</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>HOUSTON CHRISTIAN</t>
+  </si>
+  <si>
+    <t>WILLIAM &amp; MARY</t>
+  </si>
+  <si>
+    <t>BETHUNE-COOKMAN</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>EAST CAROLINA</t>
+  </si>
+  <si>
+    <t>INDIANA STATE</t>
+  </si>
+  <si>
+    <t>KENT STATE</t>
+  </si>
+  <si>
+    <t>OHIO UNIV.</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>PORTLAND STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>WAKE FOREST</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI STATE</t>
+  </si>
+  <si>
+    <t>SOUTHERN METHODIST</t>
+  </si>
+  <si>
+    <t>CHARLESTON SOUTHERN</t>
+  </si>
+  <si>
+    <t>DUQUESNE</t>
+  </si>
+  <si>
+    <t>PRAIRIE VIEW A&amp;M</t>
+  </si>
+  <si>
+    <t>SOUTH ALABAMA</t>
+  </si>
+  <si>
+    <t>NEVADA-LAS VEGAS</t>
+  </si>
+  <si>
+    <t>MIDDLE TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>WOFFORD</t>
+  </si>
+  <si>
+    <t>TULANE</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA CENTRAL</t>
+  </si>
+  <si>
+    <t>TEXAS TECH</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>EAST TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>OKLAHOMA STATE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA A&amp;T</t>
+  </si>
+  <si>
+    <t>TEMPLE</t>
+  </si>
+  <si>
+    <t>SACRED HEART</t>
+  </si>
+  <si>
+    <t>TEXAS CHRISTIAN</t>
+  </si>
+  <si>
+    <t>AIR FORCE</t>
+  </si>
+  <si>
+    <t>UTAH STATE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>TOWSON</t>
+  </si>
+  <si>
+    <t>WASHINGTON STATE</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
+  </si>
+  <si>
+    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>WESTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>ARKANSAS STATE</t>
+  </si>
+  <si>
+    <t>CLEMSON</t>
+  </si>
+  <si>
+    <t>OREGON STATE</t>
+  </si>
+  <si>
+    <t>EASTERN WASHINGTON</t>
+  </si>
+  <si>
+    <t>JACKSON STATE</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>NORTH ALABAMA</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>BOSTON COLLEGE</t>
+  </si>
+  <si>
+    <t>COLORADO STATE</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>TEXAS-SAN ANTONIO</t>
   </si>
   <si>
     <t>SOUTH CAROLINA STATE</t>
   </si>
   <si>
-    <t>DELAWARE STATE</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA-TENNESSEE</t>
-  </si>
-  <si>
-    <t>KENTUCKY</t>
-  </si>
-  <si>
-    <t>CHARLESTON SOUTHERN</t>
-  </si>
-  <si>
-    <t>BALL STATE</t>
-  </si>
-  <si>
-    <t>S.F.AUSTIN</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>STONY BROOK</t>
-  </si>
-  <si>
-    <t>SOUTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>WESTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>SOUTHERN CALIFORNIA</t>
-  </si>
-  <si>
-    <t>WOFFORD</t>
-  </si>
-  <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>MAINE</t>
-  </si>
-  <si>
-    <t>SAMFORD</t>
-  </si>
-  <si>
-    <t>FLORIDA STATE</t>
-  </si>
-  <si>
-    <t>OREGON</t>
-  </si>
-  <si>
     <t>KANSAS STATE</t>
   </si>
   <si>
-    <t>YOUNGSTOWN STATE</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>OREGON STATE</t>
-  </si>
-  <si>
-    <t>BETHUNE-COOKMAN</t>
-  </si>
-  <si>
-    <t>NORFOLK STATE</t>
-  </si>
-  <si>
-    <t>GEORGIA STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN ARIZONA</t>
-  </si>
-  <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
-    <t>SOUTH FLORIDA</t>
-  </si>
-  <si>
-    <t>FRESNO STATE</t>
-  </si>
-  <si>
-    <t>OKLAHOMA</t>
-  </si>
-  <si>
-    <t>CAMPBELL</t>
-  </si>
-  <si>
-    <t>TEXAS-SAN ANTONIO</t>
-  </si>
-  <si>
-    <t>BRYANT COLLEGE</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA A&amp;T</t>
-  </si>
-  <si>
-    <t>SOUTH EASTERN MISSOURI</t>
-  </si>
-  <si>
-    <t>NORTHERN IOWA</t>
-  </si>
-  <si>
-    <t>TOWSON</t>
-  </si>
-  <si>
-    <t>INDIANA</t>
-  </si>
-  <si>
-    <t>SACRED HEART</t>
-  </si>
-  <si>
-    <t>LOUISIANA</t>
-  </si>
-  <si>
-    <t>ALABAMA A&amp;M</t>
-  </si>
-  <si>
-    <t>SOUTHERN UTAH</t>
-  </si>
-  <si>
-    <t>CINCINNATI</t>
-  </si>
-  <si>
-    <t>INDIANA STATE</t>
-  </si>
-  <si>
-    <t>PENN STATE</t>
-  </si>
-  <si>
-    <t>AKRON</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>UTAH TECH</t>
-  </si>
-  <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
-    <t>WAKE FOREST</t>
+    <t>TARLETON STATE</t>
+  </si>
+  <si>
+    <t>EASTERN ILLINOIS</t>
   </si>
   <si>
     <t>IDAHO</t>
-  </si>
-  <si>
-    <t>NEW MEXICO STATE</t>
-  </si>
-  <si>
-    <t>WASHINGTON STATE</t>
-  </si>
-  <si>
-    <t>LOUISVILLE</t>
-  </si>
-  <si>
-    <t>PITTSBURGH</t>
-  </si>
-  <si>
-    <t>ST.FRANCIS-PA</t>
-  </si>
-  <si>
-    <t>SAN DIEGO STATE</t>
-  </si>
-  <si>
-    <t>CONNECTICUT</t>
-  </si>
-  <si>
-    <t>NO. CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>AUSTIN PEAY</t>
-  </si>
-  <si>
-    <t>EASTERN WASHINGTON</t>
-  </si>
-  <si>
-    <t>MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>COLORADO STATE</t>
-  </si>
-  <si>
-    <t>WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>MERRIMACK</t>
-  </si>
-  <si>
-    <t>TEXAS SOUTHERN</t>
-  </si>
-  <si>
-    <t>MCNEESE STATE</t>
-  </si>
-  <si>
-    <t>HOUSTON</t>
-  </si>
-  <si>
-    <t>JACKSON STATE</t>
-  </si>
-  <si>
-    <t>MORGAN STATE</t>
-  </si>
-  <si>
-    <t>MEMPHIS</t>
-  </si>
-  <si>
-    <t>MISSOURI STATE</t>
-  </si>
-  <si>
-    <t>TEXAS CHRISTIAN</t>
-  </si>
-  <si>
-    <t>TEXAS-EL PASO</t>
-  </si>
-  <si>
-    <t>MERCHANT MARINE</t>
-  </si>
-  <si>
-    <t>COLGATE</t>
-  </si>
-  <si>
-    <t>GARDNER-WEBB</t>
-  </si>
-  <si>
-    <t>WILLIAM &amp; MARY</t>
-  </si>
-  <si>
-    <t>GEORGIA TECH</t>
-  </si>
-  <si>
-    <t>MARYLAND</t>
-  </si>
-  <si>
-    <t>LA - MONROE</t>
-  </si>
-  <si>
-    <t>LOUISIANA TECH</t>
-  </si>
-  <si>
-    <t>SAM HOUSTON</t>
-  </si>
-  <si>
-    <t>JAMES MADISON</t>
-  </si>
-  <si>
-    <t>NEW HAMPSHIRE</t>
-  </si>
-  <si>
-    <t>EASTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>TEXAS</t>
-  </si>
-  <si>
-    <t>PINE BLUFF-ARKANSAS</t>
-  </si>
-  <si>
-    <t>OKLAHOMA STATE</t>
-  </si>
-  <si>
-    <t>KENNESAW STATE</t>
-  </si>
-  <si>
-    <t>NEVADA-LAS VEGAS</t>
-  </si>
-  <si>
-    <t>MONMOUTH-NJ</t>
-  </si>
-  <si>
-    <t>KANSAS</t>
-  </si>
-  <si>
-    <t>FORT VALLEY STATE</t>
-  </si>
-  <si>
-    <t>U.C.L.A.</t>
-  </si>
-  <si>
-    <t>ARKANSAS</t>
-  </si>
-  <si>
-    <t>FLORIDA A&amp;M</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>ABILENE CHRISTIAN</t>
-  </si>
-  <si>
-    <t>MIDDLE TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>KENT STATE</t>
-  </si>
-  <si>
-    <t>WYOMING</t>
-  </si>
-  <si>
-    <t>TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>EAST TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>TEMPLE</t>
-  </si>
-  <si>
-    <t>MIAMI-FL</t>
-  </si>
-  <si>
-    <t>CENTRAL ARKANSAS</t>
-  </si>
-  <si>
-    <t>TENNESSEE TECH</t>
-  </si>
-  <si>
-    <t>STANFORD</t>
-  </si>
-  <si>
-    <t>SOUTH ALABAMA</t>
-  </si>
-  <si>
-    <t>CAL-DAVIS</t>
-  </si>
-  <si>
-    <t>NICHOLS</t>
-  </si>
-  <si>
-    <t>DUQUESNE</t>
-  </si>
-  <si>
-    <t>NOTRE DAME</t>
-  </si>
-  <si>
-    <t>COASTAL CAROLINA</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>TEXAS STATE-SAN MARCOS</t>
-  </si>
-  <si>
-    <t>WEBER STATE</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>FLORIDA ATLANTIC</t>
-  </si>
-  <si>
-    <t>BOWLING GREEN</t>
-  </si>
-  <si>
-    <t>ILLINOIS</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN</t>
-  </si>
-  <si>
-    <t>TEXAS TECH</t>
-  </si>
-  <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
-    <t>SO. EAST LOUISIANA</t>
-  </si>
-  <si>
-    <t>MICHIGAN STATE</t>
-  </si>
-  <si>
-    <t>BOSTON COLLEGE</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>MISSOURI</t>
-  </si>
-  <si>
-    <t>PURDUE</t>
-  </si>
-  <si>
-    <t>TEXAS A&amp;M</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE STATE</t>
-  </si>
-  <si>
-    <t>VIRGINIA TECH</t>
-  </si>
-  <si>
-    <t>OLD DOMINION</t>
-  </si>
-  <si>
-    <t>NEBRASKA</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>BRIGHAM YOUNG</t>
-  </si>
-  <si>
-    <t>CENTRAL CONNECTICUT ST.</t>
-  </si>
-  <si>
-    <t>THE CITADEL</t>
-  </si>
-  <si>
-    <t>EASTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
-  </si>
-  <si>
-    <t>OHIO UNIV.</t>
-  </si>
-  <si>
-    <t>MURRAY STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN COLORADO</t>
-  </si>
-  <si>
-    <t>WISCONSIN</t>
-  </si>
-  <si>
-    <t>EAST CAROLINA</t>
-  </si>
-  <si>
-    <t>MICHIGAN</t>
-  </si>
-  <si>
-    <t>VIRGINIA MILITARY INSTITUTE</t>
-  </si>
-  <si>
-    <t>IOWA STATE</t>
-  </si>
-  <si>
-    <t>MINNESOTA</t>
-  </si>
-  <si>
-    <t>ARIZONA</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI STATE</t>
-  </si>
-  <si>
-    <t>ARKANSAS STATE</t>
-  </si>
-  <si>
-    <t>WESTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
-    <t>PRAIRIE VIEW A&amp;M</t>
-  </si>
-  <si>
-    <t>ROBERT MORRIS - PA</t>
-  </si>
-  <si>
-    <t>TULSA</t>
-  </si>
-  <si>
-    <t>GEORGIA SOUTHERN</t>
-  </si>
-  <si>
-    <t>BAYLOR</t>
-  </si>
-  <si>
-    <t>EASTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>SOUTHERN METHODIST</t>
-  </si>
-  <si>
-    <t>TENNESSEE-MARTIN</t>
-  </si>
-  <si>
-    <t>ALCORN STATE</t>
-  </si>
-  <si>
-    <t>NORTH ALABAMA</t>
-  </si>
-  <si>
-    <t>TROY STATE</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN STATE-LA</t>
-  </si>
-  <si>
-    <t>BOISE</t>
-  </si>
-  <si>
-    <t>WESTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>SOUTHERN MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
-    <t>VILLANOVA</t>
-  </si>
-  <si>
-    <t>ARIZONA STATE</t>
-  </si>
-  <si>
-    <t>MARSHALL</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA CENTRAL</t>
-  </si>
-  <si>
-    <t>CENTRAL FLORIDA</t>
-  </si>
-  <si>
-    <t>APPALACHIAN STATE</t>
-  </si>
-  <si>
-    <t>NORTH TEXAS</t>
-  </si>
-  <si>
-    <t>NEVADA</t>
-  </si>
-  <si>
-    <t>DELAWARE</t>
-  </si>
-  <si>
-    <t>TULANE</t>
-  </si>
-  <si>
-    <t>HOUSTON CHRISTIAN</t>
-  </si>
-  <si>
-    <t>INCARNATE WORD</t>
-  </si>
-  <si>
-    <t>FLORIDA INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>WESTERN CAROLINA</t>
-  </si>
-  <si>
-    <t>FLORIDA</t>
-  </si>
-  <si>
-    <t>RUTGERS</t>
-  </si>
-  <si>
-    <t>TARLETON STATE</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>PORTLAND STATE</t>
-  </si>
-  <si>
-    <t>ALBRIGHT</t>
-  </si>
-  <si>
-    <t>NORTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>NORTH DAKOTA</t>
-  </si>
-  <si>
-    <t>AIR FORCE</t>
-  </si>
-  <si>
-    <t>VANDERBILT</t>
-  </si>
-  <si>
-    <t>IDAHO STATE</t>
-  </si>
-  <si>
-    <t>RHODE ISLAND</t>
-  </si>
-  <si>
-    <t>UTAH STATE</t>
-  </si>
-  <si>
-    <t>ALABAMA-BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>MIAMI OF OHIO</t>
-  </si>
-  <si>
-    <t>CLEMSON</t>
-  </si>
-  <si>
-    <t>GRAMBLING</t>
-  </si>
-  <si>
-    <t>SAN JOSE STATE</t>
-  </si>
-  <si>
-    <t>FURMAN</t>
-  </si>
-  <si>
-    <t>BUCKNELL</t>
-  </si>
-  <si>
-    <t>HOLY CROSS</t>
   </si>
 </sst>
 </file>
@@ -2762,7 +2765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2793,10 +2796,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2807,10 +2813,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2821,10 +2830,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>463</v>
       </c>
       <c r="E4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2835,13 +2847,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2852,10 +2864,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2866,13 +2881,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2883,10 +2898,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>467</v>
       </c>
       <c r="E8" t="s">
-        <v>590</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2897,13 +2915,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2914,13 +2932,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2931,10 +2949,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>470</v>
       </c>
       <c r="E11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2945,10 +2966,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2959,10 +2983,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>472</v>
       </c>
       <c r="E13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2973,13 +3000,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2990,10 +3017,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>474</v>
       </c>
       <c r="E15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3004,13 +3034,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3021,13 +3051,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="E17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3038,10 +3068,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="D18" t="s">
+        <v>476</v>
       </c>
       <c r="E18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3052,13 +3085,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3069,10 +3102,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="D20" t="s">
+        <v>477</v>
       </c>
       <c r="E20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3083,10 +3119,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
+        <v>471</v>
       </c>
       <c r="E21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3097,10 +3136,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="D22" t="s">
+        <v>471</v>
       </c>
       <c r="E22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3111,13 +3153,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3128,13 +3170,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" t="s">
         <v>471</v>
       </c>
       <c r="E24" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3145,13 +3187,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3162,10 +3204,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3176,13 +3221,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3193,13 +3238,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3210,10 +3255,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="D29" t="s">
+        <v>481</v>
       </c>
       <c r="E29" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3224,10 +3272,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="D30" t="s">
+        <v>482</v>
       </c>
       <c r="E30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3238,13 +3289,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E31" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3255,10 +3306,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="D32" t="s">
+        <v>484</v>
       </c>
       <c r="E32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3269,13 +3323,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3286,13 +3340,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E34" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3303,13 +3357,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3320,13 +3374,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3337,10 +3391,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="D37" t="s">
+        <v>488</v>
       </c>
       <c r="E37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3351,13 +3408,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3368,10 +3425,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="D39" t="s">
+        <v>489</v>
       </c>
       <c r="E39" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3382,13 +3442,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D40" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3399,10 +3459,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="D41" t="s">
+        <v>491</v>
       </c>
       <c r="E41" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3413,10 +3476,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="D42" t="s">
+        <v>492</v>
       </c>
       <c r="E42" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3427,10 +3493,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="D43" t="s">
+        <v>493</v>
       </c>
       <c r="E43" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3441,10 +3510,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="D44" t="s">
+        <v>471</v>
       </c>
       <c r="E44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3455,13 +3527,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D45" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="E45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3472,10 +3544,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="D46" t="s">
+        <v>495</v>
       </c>
       <c r="E46" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3486,13 +3561,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>471</v>
       </c>
       <c r="E47" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3503,10 +3578,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="D48" t="s">
+        <v>471</v>
       </c>
       <c r="E48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3517,10 +3595,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="D49" t="s">
+        <v>496</v>
       </c>
       <c r="E49" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3531,13 +3612,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E50" t="s">
-        <v>466</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3548,13 +3629,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="E51" t="s">
-        <v>631</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3565,10 +3646,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="D52" t="s">
+        <v>498</v>
       </c>
       <c r="E52" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3579,13 +3663,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="E53" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3596,13 +3680,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D54" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="E54" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3613,13 +3697,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D55" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3630,10 +3714,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="D56" t="s">
+        <v>484</v>
       </c>
       <c r="E56" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3644,13 +3731,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D57" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3661,13 +3748,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="E58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3678,13 +3765,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3695,13 +3782,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3712,13 +3799,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D61" t="s">
-        <v>489</v>
+        <v>292</v>
       </c>
       <c r="E61" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3729,13 +3816,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E62" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3746,13 +3833,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D63" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E63" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3763,13 +3850,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D64" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="E64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3780,10 +3867,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="D65" t="s">
+        <v>471</v>
       </c>
       <c r="E65" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3794,13 +3884,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E66" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3811,13 +3901,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D67" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E67" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3828,13 +3918,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D68" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="E68" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3845,10 +3935,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="D69" t="s">
+        <v>504</v>
       </c>
       <c r="E69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3859,13 +3952,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D70" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E70" t="s">
-        <v>302</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3876,7 +3969,10 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="D71" t="s">
+        <v>506</v>
       </c>
       <c r="E71" t="s">
         <v>649</v>
@@ -3890,7 +3986,10 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="D72" t="s">
+        <v>471</v>
       </c>
       <c r="E72" t="s">
         <v>650</v>
@@ -3904,13 +4003,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D73" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="E73" t="s">
-        <v>651</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3921,13 +4020,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D74" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E74" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3938,10 +4037,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="D75" t="s">
+        <v>471</v>
       </c>
       <c r="E75" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3952,13 +4054,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D76" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="E76" t="s">
-        <v>308</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3969,7 +4071,10 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="D77" t="s">
+        <v>508</v>
       </c>
       <c r="E77" t="s">
         <v>654</v>
@@ -3983,7 +4088,10 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>471</v>
       </c>
       <c r="E78" t="s">
         <v>655</v>
@@ -3997,10 +4105,10 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D79" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E79" t="s">
         <v>656</v>
@@ -4014,7 +4122,10 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="D80" t="s">
+        <v>501</v>
       </c>
       <c r="E80" t="s">
         <v>657</v>
@@ -4028,7 +4139,10 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="D81" t="s">
+        <v>471</v>
       </c>
       <c r="E81" t="s">
         <v>658</v>
@@ -4042,10 +4156,10 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D82" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="E82" t="s">
         <v>659</v>
@@ -4059,10 +4173,10 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D83" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="E83" t="s">
         <v>660</v>
@@ -4076,10 +4190,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="D84" t="s">
+        <v>510</v>
       </c>
       <c r="E84" t="s">
-        <v>466</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4090,13 +4207,13 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D85" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E85" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4107,13 +4224,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="E86" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4124,10 +4241,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="D87" t="s">
+        <v>512</v>
       </c>
       <c r="E87" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4138,10 +4258,13 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="D88" t="s">
+        <v>513</v>
       </c>
       <c r="E88" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4152,10 +4275,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="D89" t="s">
+        <v>514</v>
       </c>
       <c r="E89" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4166,10 +4292,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="D90" t="s">
+        <v>471</v>
       </c>
       <c r="E90" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4180,13 +4309,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D91" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E91" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4197,13 +4326,13 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D92" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E92" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4214,13 +4343,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D93" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="E93" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4231,13 +4360,13 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D94" t="s">
-        <v>507</v>
+        <v>325</v>
       </c>
       <c r="E94" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4248,13 +4377,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D95" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E95" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4265,13 +4394,13 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D96" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E96" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4282,10 +4411,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="D97" t="s">
+        <v>519</v>
       </c>
       <c r="E97" t="s">
-        <v>673</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4296,10 +4428,10 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D98" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="E98" t="s">
         <v>674</v>
@@ -4313,10 +4445,10 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="E99" t="s">
         <v>675</v>
@@ -4330,7 +4462,10 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="D100" t="s">
+        <v>471</v>
       </c>
       <c r="E100" t="s">
         <v>676</v>
@@ -4344,10 +4479,10 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D101" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="E101" t="s">
         <v>677</v>
@@ -4361,7 +4496,10 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="D102" t="s">
+        <v>520</v>
       </c>
       <c r="E102" t="s">
         <v>678</v>
@@ -4375,10 +4513,10 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D103" t="s">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="E103" t="s">
         <v>679</v>
@@ -4392,7 +4530,10 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="D104" t="s">
+        <v>521</v>
       </c>
       <c r="E104" t="s">
         <v>680</v>
@@ -4406,10 +4547,10 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D105" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="E105" t="s">
         <v>681</v>
@@ -4423,10 +4564,10 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D106" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E106" t="s">
         <v>682</v>
@@ -4440,10 +4581,10 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D107" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="E107" t="s">
         <v>683</v>
@@ -4457,10 +4598,10 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D108" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="E108" t="s">
         <v>684</v>
@@ -4474,10 +4615,10 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D109" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="E109" t="s">
         <v>685</v>
@@ -4491,10 +4632,10 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="E110" t="s">
         <v>686</v>
@@ -4508,10 +4649,10 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D111" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="E111" t="s">
         <v>687</v>
@@ -4525,10 +4666,10 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D112" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="E112" t="s">
         <v>688</v>
@@ -4542,13 +4683,13 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="E113" t="s">
-        <v>689</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4559,13 +4700,13 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="E114" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4576,10 +4717,13 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="D115" t="s">
+        <v>523</v>
       </c>
       <c r="E115" t="s">
-        <v>466</v>
+        <v>690</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4590,7 +4734,10 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="D116" t="s">
+        <v>524</v>
       </c>
       <c r="E116" t="s">
         <v>691</v>
@@ -4604,7 +4751,10 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="D117" t="s">
+        <v>525</v>
       </c>
       <c r="E117" t="s">
         <v>692</v>
@@ -4618,10 +4768,10 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="E118" t="s">
         <v>693</v>
@@ -4635,10 +4785,10 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D119" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E119" t="s">
         <v>694</v>
@@ -4652,7 +4802,10 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="D120" t="s">
+        <v>527</v>
       </c>
       <c r="E120" t="s">
         <v>695</v>
@@ -4666,7 +4819,10 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="D121" t="s">
+        <v>528</v>
       </c>
       <c r="E121" t="s">
         <v>696</v>
@@ -4680,10 +4836,10 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D122" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E122" t="s">
         <v>697</v>
@@ -4697,10 +4853,10 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="E123" t="s">
         <v>698</v>
@@ -4714,7 +4870,10 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="D124" t="s">
+        <v>471</v>
       </c>
       <c r="E124" t="s">
         <v>699</v>
@@ -4728,7 +4887,10 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="D125" t="s">
+        <v>471</v>
       </c>
       <c r="E125" t="s">
         <v>700</v>
@@ -4742,13 +4904,13 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="E126" t="s">
-        <v>466</v>
+        <v>701</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4759,10 +4921,13 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="D127" t="s">
+        <v>471</v>
       </c>
       <c r="E127" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4773,13 +4938,13 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D128" t="s">
-        <v>523</v>
+        <v>359</v>
       </c>
       <c r="E128" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4790,13 +4955,13 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D129" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E129" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4807,13 +4972,13 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D130" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="E130" t="s">
-        <v>704</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4824,10 +4989,10 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D131" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E131" t="s">
         <v>705</v>
@@ -4841,7 +5006,10 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="D132" t="s">
+        <v>533</v>
       </c>
       <c r="E132" t="s">
         <v>706</v>
@@ -4855,13 +5023,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D133" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="E133" t="s">
-        <v>707</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4872,10 +5040,13 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>366</v>
+        <v>365</v>
+      </c>
+      <c r="D134" t="s">
+        <v>471</v>
       </c>
       <c r="E134" t="s">
-        <v>466</v>
+        <v>707</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4886,13 +5057,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D135" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E135" t="s">
-        <v>708</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4903,13 +5074,13 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="E136" t="s">
-        <v>709</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4920,13 +5091,13 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D137" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="E137" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4937,13 +5108,13 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D138" t="s">
-        <v>531</v>
+        <v>369</v>
       </c>
       <c r="E138" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4954,13 +5125,13 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D139" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E139" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4971,13 +5142,13 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D140" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E140" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4988,13 +5159,13 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D141" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E141" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5005,13 +5176,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D142" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E142" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5022,10 +5193,13 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="D143" t="s">
+        <v>539</v>
       </c>
       <c r="E143" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5036,10 +5210,13 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="D144" t="s">
+        <v>471</v>
       </c>
       <c r="E144" t="s">
-        <v>466</v>
+        <v>715</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5050,10 +5227,10 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D145" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E145" t="s">
         <v>716</v>
@@ -5067,10 +5244,10 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D146" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="E146" t="s">
         <v>717</v>
@@ -5084,10 +5261,13 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="D147" t="s">
+        <v>471</v>
       </c>
       <c r="E147" t="s">
-        <v>466</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5098,13 +5278,13 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D148" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E148" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5115,13 +5295,13 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D149" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="E149" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5132,13 +5312,13 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D150" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E150" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5149,13 +5329,13 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D151" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E151" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5166,13 +5346,13 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D152" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E152" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5183,13 +5363,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D153" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E153" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5200,13 +5380,13 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D154" t="s">
-        <v>544</v>
+        <v>471</v>
       </c>
       <c r="E154" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5217,13 +5397,13 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D155" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="E155" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5234,10 +5414,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>388</v>
+        <v>387</v>
+      </c>
+      <c r="D156" t="s">
+        <v>546</v>
       </c>
       <c r="E156" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5248,13 +5431,13 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D157" t="s">
-        <v>389</v>
+        <v>547</v>
       </c>
       <c r="E157" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5265,13 +5448,13 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D158" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E158" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5282,10 +5465,13 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="D159" t="s">
+        <v>549</v>
       </c>
       <c r="E159" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5296,13 +5482,13 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D160" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E160" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5313,13 +5499,13 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D161" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
       <c r="E161" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5330,13 +5516,13 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D162" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E162" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5347,10 +5533,13 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="D163" t="s">
+        <v>471</v>
       </c>
       <c r="E163" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5361,10 +5550,13 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+      <c r="D164" t="s">
+        <v>471</v>
       </c>
       <c r="E164" t="s">
-        <v>396</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5375,10 +5567,13 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="D165" t="s">
+        <v>471</v>
       </c>
       <c r="E165" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5389,13 +5584,13 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D166" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="E166" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5406,13 +5601,13 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D167" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E167" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5423,13 +5618,13 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D168" t="s">
-        <v>550</v>
+        <v>471</v>
       </c>
       <c r="E168" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5440,10 +5635,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="D169" t="s">
+        <v>553</v>
       </c>
       <c r="E169" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5454,13 +5652,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D170" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E170" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5471,13 +5669,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D171" t="s">
-        <v>552</v>
+        <v>471</v>
       </c>
       <c r="E171" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5488,13 +5686,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D172" t="s">
-        <v>553</v>
+        <v>471</v>
       </c>
       <c r="E172" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5505,13 +5703,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E173" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5522,13 +5720,13 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D174" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E174" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5539,13 +5737,13 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D175" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E175" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5556,13 +5754,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D176" t="s">
-        <v>557</v>
+        <v>472</v>
       </c>
       <c r="E176" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5573,10 +5771,13 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="D177" t="s">
+        <v>471</v>
       </c>
       <c r="E177" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5587,10 +5788,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>410</v>
+        <v>409</v>
+      </c>
+      <c r="D178" t="s">
+        <v>471</v>
       </c>
       <c r="E178" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5601,13 +5805,13 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D179" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5618,13 +5822,13 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>559</v>
+        <v>471</v>
       </c>
       <c r="E180" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5635,13 +5839,13 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D181" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
       <c r="E181" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5652,10 +5856,13 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="D182" t="s">
+        <v>413</v>
       </c>
       <c r="E182" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5666,10 +5873,13 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="D183" t="s">
+        <v>558</v>
       </c>
       <c r="E183" t="s">
-        <v>752</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5680,10 +5890,13 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="D184" t="s">
+        <v>559</v>
       </c>
       <c r="E184" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5694,10 +5907,13 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="D185" t="s">
+        <v>471</v>
       </c>
       <c r="E185" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5708,10 +5924,13 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>418</v>
+        <v>417</v>
+      </c>
+      <c r="D186" t="s">
+        <v>560</v>
       </c>
       <c r="E186" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5722,13 +5941,13 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D187" t="s">
         <v>561</v>
       </c>
       <c r="E187" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5739,10 +5958,13 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="D188" t="s">
+        <v>471</v>
       </c>
       <c r="E188" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5753,13 +5975,13 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D189" t="s">
         <v>562</v>
       </c>
       <c r="E189" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5770,10 +5992,13 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="D190" t="s">
+        <v>563</v>
       </c>
       <c r="E190" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5784,13 +6009,13 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D191" t="s">
-        <v>563</v>
+        <v>471</v>
       </c>
       <c r="E191" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5801,13 +6026,13 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D192" t="s">
-        <v>564</v>
+        <v>471</v>
       </c>
       <c r="E192" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5818,10 +6043,13 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="D193" t="s">
+        <v>564</v>
       </c>
       <c r="E193" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5832,13 +6060,13 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D194" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
       <c r="E194" t="s">
-        <v>426</v>
+        <v>764</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5849,13 +6077,13 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D195" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E195" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5866,13 +6094,13 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D196" t="s">
-        <v>567</v>
+        <v>471</v>
       </c>
       <c r="E196" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5883,10 +6111,13 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="D197" t="s">
+        <v>507</v>
       </c>
       <c r="E197" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5897,13 +6128,13 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D198" t="s">
-        <v>430</v>
+        <v>566</v>
       </c>
       <c r="E198" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5914,13 +6145,13 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D199" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E199" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5931,13 +6162,13 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E200" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5948,13 +6179,13 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>570</v>
+        <v>478</v>
       </c>
       <c r="E201" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5965,10 +6196,13 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="D202" t="s">
+        <v>471</v>
       </c>
       <c r="E202" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5979,13 +6213,13 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D203" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E203" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5996,13 +6230,13 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D204" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E204" t="s">
-        <v>436</v>
+        <v>774</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6013,10 +6247,13 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>437</v>
+        <v>436</v>
+      </c>
+      <c r="D205" t="s">
+        <v>571</v>
       </c>
       <c r="E205" t="s">
-        <v>772</v>
+        <v>436</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6027,10 +6264,13 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="D206" t="s">
+        <v>572</v>
       </c>
       <c r="E206" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6041,13 +6281,13 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D207" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="E207" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6058,10 +6298,13 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="D208" t="s">
+        <v>471</v>
       </c>
       <c r="E208" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6072,13 +6315,13 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D209" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E209" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6089,13 +6332,13 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D210" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E210" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6106,10 +6349,13 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>443</v>
+        <v>442</v>
+      </c>
+      <c r="D211" t="s">
+        <v>575</v>
       </c>
       <c r="E211" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6120,13 +6366,13 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D212" t="s">
         <v>576</v>
       </c>
       <c r="E212" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6137,10 +6383,13 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="D213" t="s">
+        <v>471</v>
       </c>
       <c r="E213" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6151,10 +6400,13 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="D214" t="s">
+        <v>538</v>
       </c>
       <c r="E214" t="s">
-        <v>781</v>
+        <v>713</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6165,10 +6417,13 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="D215" t="s">
+        <v>471</v>
       </c>
       <c r="E215" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6179,10 +6434,13 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="D216" t="s">
+        <v>510</v>
       </c>
       <c r="E216" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6193,13 +6451,13 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D217" t="s">
         <v>577</v>
       </c>
       <c r="E217" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6210,13 +6468,13 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D218" t="s">
-        <v>578</v>
+        <v>471</v>
       </c>
       <c r="E218" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6227,10 +6485,13 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="D219" t="s">
+        <v>578</v>
       </c>
       <c r="E219" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6241,10 +6502,13 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="D220" t="s">
+        <v>471</v>
       </c>
       <c r="E220" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6255,13 +6519,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D221" t="s">
         <v>579</v>
       </c>
       <c r="E221" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6272,13 +6536,13 @@
         <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D222" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="E222" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6289,13 +6553,13 @@
         <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D223" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E223" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6306,13 +6570,13 @@
         <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D224" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="E224" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6323,10 +6587,13 @@
         <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="D225" t="s">
+        <v>471</v>
       </c>
       <c r="E225" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6337,13 +6604,13 @@
         <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D226" t="s">
         <v>582</v>
       </c>
       <c r="E226" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6354,10 +6621,13 @@
         <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>459</v>
+        <v>458</v>
+      </c>
+      <c r="D227" t="s">
+        <v>471</v>
       </c>
       <c r="E227" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6368,10 +6638,13 @@
         <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="D228" t="s">
+        <v>471</v>
       </c>
       <c r="E228" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6382,27 +6655,13 @@
         <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D229" t="s">
-        <v>583</v>
+        <v>471</v>
       </c>
       <c r="E229" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>233</v>
-      </c>
-      <c r="C230" t="s">
-        <v>462</v>
-      </c>
-      <c r="E230" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="802">
   <si>
     <t>Index</t>
   </si>
@@ -31,2383 +31,2395 @@
     <t>bpi team</t>
   </si>
   <si>
+    <t>Oregon State Beavers</t>
+  </si>
+  <si>
+    <t>Southern Miss Golden Eagles</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky Colonels</t>
+  </si>
+  <si>
+    <t>Pittsburgh Panthers</t>
+  </si>
+  <si>
+    <t>Holy Cross Crusaders</t>
+  </si>
+  <si>
+    <t>Jackson State Tigers</t>
+  </si>
+  <si>
+    <t>Grambling Tigers</t>
+  </si>
+  <si>
+    <t>Colorado Buffaloes</t>
+  </si>
+  <si>
+    <t>Liberty Flames</t>
+  </si>
+  <si>
+    <t>Purdue Boilermakers</t>
+  </si>
+  <si>
+    <t>Stony Brook Seawolves</t>
+  </si>
+  <si>
+    <t>William &amp; Mary Tribe</t>
+  </si>
+  <si>
+    <t>UC Davis Aggies</t>
+  </si>
+  <si>
+    <t>Charlotte 49ers</t>
+  </si>
+  <si>
+    <t>SMU Mustangs</t>
+  </si>
+  <si>
+    <t>Michigan State Spartans</t>
+  </si>
+  <si>
+    <t>Auburn Tigers</t>
+  </si>
+  <si>
+    <t>Sam Houston Bearkats</t>
+  </si>
+  <si>
+    <t>Sacred Heart Pioneers</t>
+  </si>
+  <si>
+    <t>Alcorn State Braves</t>
+  </si>
+  <si>
+    <t>Idaho State Bengals</t>
+  </si>
+  <si>
+    <t>Lafayette Leopards</t>
+  </si>
+  <si>
+    <t>Prairie View A&amp;M Panthers</t>
+  </si>
+  <si>
+    <t>Howard Bison</t>
+  </si>
+  <si>
+    <t>Wofford Terriers</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M Bulldogs</t>
+  </si>
+  <si>
+    <t>Southeast Missouri State Redhawks</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin Lumberjacks</t>
+  </si>
+  <si>
+    <t>Tennessee Volunteers</t>
+  </si>
+  <si>
+    <t>Texas Tech Red Raiders</t>
+  </si>
+  <si>
+    <t>Idaho Vandals</t>
+  </si>
+  <si>
+    <t>UTSA Roadrunners</t>
+  </si>
+  <si>
+    <t>Southern Illinois Salukis</t>
+  </si>
+  <si>
+    <t>Delaware State Hornets</t>
+  </si>
+  <si>
+    <t>Eastern Michigan Eagles</t>
+  </si>
+  <si>
+    <t>Baylor Bears</t>
+  </si>
+  <si>
+    <t>Miami Hurricanes</t>
+  </si>
+  <si>
+    <t>UCF Knights</t>
+  </si>
+  <si>
+    <t>Syracuse Orange</t>
+  </si>
+  <si>
+    <t>Iowa State Cyclones</t>
+  </si>
+  <si>
+    <t>Tennessee State Tigers</t>
+  </si>
+  <si>
+    <t>Ohio Bobcats</t>
+  </si>
+  <si>
+    <t>Portland State Vikings</t>
+  </si>
+  <si>
+    <t>Minnesota Golden Gophers</t>
+  </si>
+  <si>
+    <t>Fort Valley State Wildcats</t>
+  </si>
+  <si>
+    <t>Maryland Terrapins</t>
+  </si>
+  <si>
+    <t>Colorado State Rams</t>
+  </si>
+  <si>
+    <t>Northern Colorado Bears</t>
+  </si>
+  <si>
+    <t>Cincinnati Bearcats</t>
+  </si>
+  <si>
+    <t>New Mexico Lobos</t>
+  </si>
+  <si>
+    <t>Utah Utes</t>
+  </si>
+  <si>
+    <t>Washington Huskies</t>
+  </si>
+  <si>
+    <t>Florida Atlantic Owls</t>
+  </si>
+  <si>
+    <t>Ball State Cardinals</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M Rattlers</t>
+  </si>
+  <si>
+    <t>Indiana Hoosiers</t>
+  </si>
+  <si>
+    <t>Houston Christian Huskies</t>
+  </si>
+  <si>
+    <t>Rhode Island Rams</t>
+  </si>
+  <si>
+    <t>Tulsa Golden Hurricane</t>
+  </si>
+  <si>
+    <t>Georgia Tech Yellow Jackets</t>
+  </si>
+  <si>
+    <t>South Carolina State Bulldogs</t>
+  </si>
+  <si>
+    <t>Tarleton State Texans</t>
+  </si>
+  <si>
+    <t>New Mexico State Aggies</t>
+  </si>
+  <si>
+    <t>North Dakota Fighting Hawks</t>
+  </si>
+  <si>
+    <t>Oklahoma Sooners</t>
+  </si>
+  <si>
+    <t>Murray State Racers</t>
+  </si>
+  <si>
+    <t>Bethune-Cookman Wildcats</t>
+  </si>
+  <si>
+    <t>Missouri State Bears</t>
+  </si>
+  <si>
+    <t>Vanderbilt Commodores</t>
+  </si>
+  <si>
+    <t>UL Monroe Warhawks</t>
+  </si>
+  <si>
+    <t>Iowa Hawkeyes</t>
+  </si>
+  <si>
+    <t>Oklahoma State Cowboys</t>
+  </si>
+  <si>
+    <t>Tulane Green Wave</t>
+  </si>
+  <si>
+    <t>Central Arkansas Bears</t>
+  </si>
+  <si>
+    <t>USC Trojans</t>
+  </si>
+  <si>
+    <t>Southern Utah Thunderbirds</t>
+  </si>
+  <si>
+    <t>Notre Dame Fighting Irish</t>
+  </si>
+  <si>
+    <t>Bucknell Bison</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Commerce Lions</t>
+  </si>
+  <si>
+    <t>Sacramento State Hornets</t>
+  </si>
+  <si>
+    <t>Fresno State Bulldogs</t>
+  </si>
+  <si>
+    <t>North Alabama Lions</t>
+  </si>
+  <si>
+    <t>Furman Paladins</t>
+  </si>
+  <si>
+    <t>Albright Lions</t>
+  </si>
+  <si>
+    <t>Nevada Wolf Pack</t>
+  </si>
+  <si>
+    <t>Louisville Cardinals</t>
+  </si>
+  <si>
+    <t>Clemson Tigers</t>
+  </si>
+  <si>
+    <t>Memphis Tigers</t>
+  </si>
+  <si>
+    <t>Jacksonville State Gamecocks</t>
+  </si>
+  <si>
+    <t>Old Dominion Monarchs</t>
+  </si>
+  <si>
+    <t>Louisiana Tech Bulldogs</t>
+  </si>
+  <si>
+    <t>Elon Phoenix</t>
+  </si>
+  <si>
+    <t>Towson Tigers</t>
+  </si>
+  <si>
+    <t>UAB Blazers</t>
+  </si>
+  <si>
+    <t>South Dakota Coyotes</t>
+  </si>
+  <si>
+    <t>Alabama Crimson Tide</t>
+  </si>
+  <si>
+    <t>Air Force Falcons</t>
+  </si>
+  <si>
+    <t>Eastern Washington Eagles</t>
+  </si>
+  <si>
+    <t>The Citadel Bulldogs</t>
+  </si>
+  <si>
+    <t>Austin Peay Governors</t>
+  </si>
+  <si>
+    <t>Texas State Bobcats</t>
+  </si>
+  <si>
+    <t>Mississippi State Bulldogs</t>
+  </si>
+  <si>
+    <t>Texas Longhorns</t>
+  </si>
+  <si>
+    <t>Arkansas State Red Wolves</t>
+  </si>
+  <si>
+    <t>Campbell Fighting Camels</t>
+  </si>
+  <si>
+    <t>UCLA Bruins</t>
+  </si>
+  <si>
+    <t>SE Louisiana Lions</t>
+  </si>
+  <si>
+    <t>Eastern Illinois Panthers</t>
+  </si>
+  <si>
+    <t>UTEP Miners</t>
+  </si>
+  <si>
+    <t>Long Island University Sharks</t>
+  </si>
+  <si>
+    <t>California Golden Bears</t>
+  </si>
+  <si>
+    <t>Wake Forest Demon Deacons</t>
+  </si>
+  <si>
+    <t>Penn State Nittany Lions</t>
+  </si>
+  <si>
+    <t>Florida International Panthers</t>
+  </si>
+  <si>
+    <t>Akron Zips</t>
+  </si>
+  <si>
+    <t>Nicholls Colonels</t>
+  </si>
+  <si>
+    <t>Toledo Rockets</t>
+  </si>
+  <si>
+    <t>Louisiana Ragin Cajuns</t>
+  </si>
+  <si>
+    <t>UNLV Rebels</t>
+  </si>
+  <si>
+    <t>Marshall Thundering Herd</t>
+  </si>
+  <si>
+    <t>Utah Tech Trailblazers</t>
+  </si>
+  <si>
+    <t>Michigan Wolverines</t>
+  </si>
+  <si>
+    <t>Kennesaw State Owls</t>
+  </si>
+  <si>
+    <t>Northern Iowa Panthers</t>
+  </si>
+  <si>
+    <t>Kansas Jayhawks</t>
+  </si>
+  <si>
+    <t>Richmond Spiders</t>
+  </si>
+  <si>
+    <t>Arkansas-Pine Bluff Golden Lions</t>
+  </si>
+  <si>
+    <t>Charleston Southern Buccaneers</t>
+  </si>
+  <si>
+    <t>Arizona Wildcats</t>
+  </si>
+  <si>
+    <t>North Carolina Tar Heels</t>
+  </si>
+  <si>
+    <t>Oregon Ducks</t>
+  </si>
+  <si>
+    <t>Duquesne Dukes</t>
+  </si>
+  <si>
+    <t>Ole Miss Rebels</t>
+  </si>
+  <si>
+    <t>Washington State Cougars</t>
+  </si>
+  <si>
+    <t>Bowling Green Falcons</t>
+  </si>
+  <si>
+    <t>Abilene Christian Wildcats</t>
+  </si>
+  <si>
+    <t>Appalachian State Mountaineers</t>
+  </si>
+  <si>
+    <t>North Carolina Central Eagles</t>
+  </si>
+  <si>
+    <t>Texas Southern Tigers</t>
+  </si>
+  <si>
+    <t>Youngstown State Penguins</t>
+  </si>
+  <si>
+    <t>Northern Arizona Lumberjacks</t>
+  </si>
+  <si>
+    <t>Wagner Seahawks</t>
+  </si>
+  <si>
+    <t>VMI Keydets</t>
+  </si>
+  <si>
+    <t>San Diego State Aztecs</t>
+  </si>
+  <si>
+    <t>Navy Midshipmen</t>
+  </si>
+  <si>
+    <t>Central Michigan Chippewas</t>
+  </si>
+  <si>
+    <t>Tennessee Tech Golden Eagles</t>
+  </si>
+  <si>
+    <t>Robert Morris Colonials</t>
+  </si>
+  <si>
+    <t>Wyoming Cowboys</t>
+  </si>
+  <si>
+    <t>Bryant Bulldogs</t>
+  </si>
+  <si>
+    <t>Utah State Aggies</t>
+  </si>
+  <si>
+    <t>Nebraska Cornhuskers</t>
+  </si>
+  <si>
+    <t>Norfolk State Spartans</t>
+  </si>
+  <si>
+    <t>East Tennessee State Buccaneers</t>
+  </si>
+  <si>
+    <t>Buffalo Bulls</t>
+  </si>
+  <si>
+    <t>LSU Tigers</t>
+  </si>
+  <si>
+    <t>Illinois Fighting Illini</t>
+  </si>
+  <si>
+    <t>Houston Cougars</t>
+  </si>
+  <si>
+    <t>Rice Owls</t>
+  </si>
+  <si>
+    <t>West Virginia Mountaineers</t>
+  </si>
+  <si>
+    <t>Boston College Eagles</t>
+  </si>
+  <si>
+    <t>Colgate Raiders</t>
+  </si>
+  <si>
+    <t>Florida State Seminoles</t>
+  </si>
+  <si>
+    <t>South Florida Bulls</t>
+  </si>
+  <si>
+    <t>Villanova Wildcats</t>
+  </si>
+  <si>
+    <t>Kansas State Wildcats</t>
+  </si>
+  <si>
+    <t>Boise State Broncos</t>
+  </si>
+  <si>
+    <t>UT Martin Skyhawks</t>
+  </si>
+  <si>
+    <t>Wisconsin Badgers</t>
+  </si>
+  <si>
+    <t>Rutgers Scarlet Knights</t>
+  </si>
+  <si>
+    <t>New Hampshire Wildcats</t>
+  </si>
+  <si>
+    <t>Hawaii Rainbow Warriors</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M Aggies</t>
+  </si>
+  <si>
+    <t>St. Francis (PA) Red Flash</t>
+  </si>
+  <si>
+    <t>Morgan State Bears</t>
+  </si>
+  <si>
+    <t>Merchant Marine Mariners</t>
+  </si>
+  <si>
+    <t>Samford Bulldogs</t>
+  </si>
+  <si>
+    <t>UConn Huskies</t>
+  </si>
+  <si>
+    <t>Temple Owls</t>
+  </si>
+  <si>
+    <t>Georgia Bulldogs</t>
+  </si>
+  <si>
+    <t>Northern Illinois Huskies</t>
+  </si>
+  <si>
+    <t>South Alabama Jaguars</t>
+  </si>
+  <si>
+    <t>Western Illinois Leathernecks</t>
+  </si>
+  <si>
+    <t>Merrimack Warriors</t>
+  </si>
+  <si>
+    <t>Northwestern State Demons</t>
+  </si>
+  <si>
+    <t>Virginia Tech Hokies</t>
+  </si>
+  <si>
+    <t>North Carolina A&amp;T Aggies</t>
+  </si>
+  <si>
+    <t>Florida Gators</t>
+  </si>
+  <si>
+    <t>McNeese Cowboys</t>
+  </si>
+  <si>
+    <t>North Texas Mean Green</t>
+  </si>
+  <si>
+    <t>Missouri Tigers</t>
+  </si>
+  <si>
+    <t>Western Kentucky Hilltoppers</t>
+  </si>
+  <si>
+    <t>Massachusetts Minutemen</t>
+  </si>
+  <si>
+    <t>South Carolina Gamecocks</t>
+  </si>
+  <si>
+    <t>Miami (OH) RedHawks</t>
+  </si>
+  <si>
+    <t>Western Michigan Broncos</t>
+  </si>
+  <si>
+    <t>Ohio State Buckeyes</t>
+  </si>
+  <si>
+    <t>Weber State Wildcats</t>
+  </si>
+  <si>
+    <t>Gardner-Webb Runnin Bulldogs</t>
+  </si>
+  <si>
+    <t>Army Black Knights</t>
+  </si>
+  <si>
+    <t>Arizona State Sun Devils</t>
+  </si>
+  <si>
+    <t>Stanford Cardinal</t>
+  </si>
+  <si>
+    <t>Middle Tennessee Blue Raiders</t>
+  </si>
+  <si>
+    <t>TCU Horned Frogs</t>
+  </si>
+  <si>
+    <t>Maine Black Bears</t>
+  </si>
+  <si>
+    <t>Georgia State Panthers</t>
+  </si>
+  <si>
+    <t>Coastal Carolina Chanticleers</t>
+  </si>
+  <si>
+    <t>Arkansas Razorbacks</t>
+  </si>
+  <si>
+    <t>East Carolina Pirates</t>
+  </si>
+  <si>
+    <t>Delaware Fightin Blue Hens</t>
+  </si>
+  <si>
+    <t>Virginia Cavaliers</t>
+  </si>
+  <si>
+    <t>Chattanooga Mocs</t>
+  </si>
+  <si>
+    <t>Duke Blue Devils</t>
+  </si>
+  <si>
+    <t>Western Carolina Catamounts</t>
+  </si>
+  <si>
+    <t>Central Connecticut Blue Devils</t>
+  </si>
+  <si>
+    <t>BYU Cougars</t>
+  </si>
+  <si>
+    <t>Kentucky Wildcats</t>
+  </si>
+  <si>
+    <t>NC State Wolfpack</t>
+  </si>
+  <si>
+    <t>Georgia Southern Eagles</t>
+  </si>
+  <si>
+    <t>Northwestern Wildcats</t>
+  </si>
+  <si>
+    <t>Incarnate Word Cardinals</t>
+  </si>
+  <si>
+    <t>Monmouth Hawks</t>
+  </si>
+  <si>
+    <t>Troy Trojans</t>
+  </si>
+  <si>
+    <t>James Madison Dukes</t>
+  </si>
+  <si>
+    <t>Indiana State Sycamores</t>
+  </si>
+  <si>
+    <t>Cal Poly Mustangs</t>
+  </si>
+  <si>
     <t>San JosÃ© State Spartans</t>
   </si>
   <si>
-    <t>Norfolk State Spartans</t>
-  </si>
-  <si>
-    <t>Georgia Southern Eagles</t>
-  </si>
-  <si>
-    <t>Nevada Wolf Pack</t>
-  </si>
-  <si>
-    <t>Sam Houston Bearkats</t>
-  </si>
-  <si>
-    <t>Eastern Michigan Eagles</t>
-  </si>
-  <si>
-    <t>Iowa Hawkeyes</t>
-  </si>
-  <si>
-    <t>Miami (OH) RedHawks</t>
-  </si>
-  <si>
-    <t>Navy Midshipmen</t>
-  </si>
-  <si>
-    <t>Florida Atlantic Owls</t>
-  </si>
-  <si>
-    <t>Furman Paladins</t>
-  </si>
-  <si>
-    <t>Murray State Racers</t>
-  </si>
-  <si>
-    <t>Syracuse Orange</t>
-  </si>
-  <si>
-    <t>Liberty Flames</t>
-  </si>
-  <si>
-    <t>Gardner-Webb Runnin Bulldogs</t>
-  </si>
-  <si>
-    <t>Arizona State Sun Devils</t>
-  </si>
-  <si>
-    <t>Virginia Cavaliers</t>
-  </si>
-  <si>
-    <t>Incarnate Word Cardinals</t>
-  </si>
-  <si>
-    <t>Hawaii Rainbow Warriors</t>
-  </si>
-  <si>
-    <t>Tennessee State Tigers</t>
-  </si>
-  <si>
-    <t>Kennesaw State Owls</t>
-  </si>
-  <si>
-    <t>Arkansas-Pine Bluff Golden Lions</t>
-  </si>
-  <si>
-    <t>Texas Southern Tigers</t>
-  </si>
-  <si>
-    <t>Eastern Kentucky Colonels</t>
-  </si>
-  <si>
-    <t>LSU Tigers</t>
-  </si>
-  <si>
-    <t>Minnesota Golden Gophers</t>
-  </si>
-  <si>
-    <t>New Mexico Lobos</t>
-  </si>
-  <si>
-    <t>James Madison Dukes</t>
-  </si>
-  <si>
-    <t>Ohio State Buckeyes</t>
-  </si>
-  <si>
-    <t>Troy Trojans</t>
-  </si>
-  <si>
-    <t>Memphis Tigers</t>
-  </si>
-  <si>
-    <t>Northern Colorado Bears</t>
-  </si>
-  <si>
-    <t>Utah Tech Trailblazers</t>
-  </si>
-  <si>
-    <t>Georgia Tech Yellow Jackets</t>
-  </si>
-  <si>
-    <t>Tennessee Volunteers</t>
-  </si>
-  <si>
-    <t>South Carolina Gamecocks</t>
-  </si>
-  <si>
-    <t>BYU Cougars</t>
-  </si>
-  <si>
-    <t>San Diego State Aztecs</t>
-  </si>
-  <si>
-    <t>Coastal Carolina Chanticleers</t>
-  </si>
-  <si>
-    <t>Western Michigan Broncos</t>
-  </si>
-  <si>
-    <t>Charlotte 49ers</t>
-  </si>
-  <si>
-    <t>Ball State Cardinals</t>
-  </si>
-  <si>
-    <t>Weber State Wildcats</t>
-  </si>
-  <si>
-    <t>Iowa State Cyclones</t>
-  </si>
-  <si>
-    <t>Ole Miss Rebels</t>
-  </si>
-  <si>
-    <t>Northern Iowa Panthers</t>
-  </si>
-  <si>
-    <t>Central Arkansas Bears</t>
-  </si>
-  <si>
-    <t>Oregon Ducks</t>
-  </si>
-  <si>
-    <t>VMI Keydets</t>
-  </si>
-  <si>
-    <t>Rice Owls</t>
-  </si>
-  <si>
-    <t>UL Monroe Warhawks</t>
-  </si>
-  <si>
-    <t>Bucknell Bison</t>
-  </si>
-  <si>
-    <t>Northwestern State Demons</t>
-  </si>
-  <si>
-    <t>Merrimack Warriors</t>
-  </si>
-  <si>
-    <t>New Hampshire Wildcats</t>
-  </si>
-  <si>
-    <t>Maryland Terrapins</t>
-  </si>
-  <si>
-    <t>Northwestern Wildcats</t>
-  </si>
-  <si>
-    <t>Florida Gators</t>
-  </si>
-  <si>
-    <t>Austin Peay Governors</t>
-  </si>
-  <si>
-    <t>UCF Knights</t>
-  </si>
-  <si>
-    <t>Tennessee Tech Golden Eagles</t>
-  </si>
-  <si>
-    <t>Robert Morris Colonials</t>
-  </si>
-  <si>
-    <t>Fort Valley State Wildcats</t>
-  </si>
-  <si>
-    <t>Stony Brook Seawolves</t>
-  </si>
-  <si>
-    <t>Penn State Nittany Lions</t>
-  </si>
-  <si>
-    <t>Old Dominion Monarchs</t>
-  </si>
-  <si>
-    <t>South Dakota Coyotes</t>
-  </si>
-  <si>
-    <t>North Texas Mean Green</t>
-  </si>
-  <si>
-    <t>West Virginia Mountaineers</t>
-  </si>
-  <si>
-    <t>Alabama A&amp;M Bulldogs</t>
-  </si>
-  <si>
-    <t>Holy Cross Crusaders</t>
-  </si>
-  <si>
-    <t>Long Island University Sharks</t>
-  </si>
-  <si>
-    <t>Abilene Christian Wildcats</t>
-  </si>
-  <si>
-    <t>Howard Bison</t>
-  </si>
-  <si>
-    <t>Monmouth Hawks</t>
-  </si>
-  <si>
-    <t>Washington Huskies</t>
-  </si>
-  <si>
-    <t>Colgate Raiders</t>
-  </si>
-  <si>
-    <t>Grambling Tigers</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M Rattlers</t>
-  </si>
-  <si>
-    <t>St. Francis (PA) Red Flash</t>
-  </si>
-  <si>
-    <t>NC State Wolfpack</t>
-  </si>
-  <si>
-    <t>Virginia Tech Hokies</t>
-  </si>
-  <si>
-    <t>Missouri State Bears</t>
-  </si>
-  <si>
-    <t>Auburn Tigers</t>
-  </si>
-  <si>
-    <t>South Florida Bulls</t>
-  </si>
-  <si>
-    <t>Rutgers Scarlet Knights</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M Aggies</t>
-  </si>
-  <si>
-    <t>Stanford Cardinal</t>
-  </si>
-  <si>
-    <t>UT Martin Skyhawks</t>
-  </si>
-  <si>
-    <t>Notre Dame Fighting Irish</t>
-  </si>
-  <si>
-    <t>Wisconsin Badgers</t>
-  </si>
-  <si>
-    <t>Northern Arizona Lumberjacks</t>
-  </si>
-  <si>
-    <t>UCLA Bruins</t>
-  </si>
-  <si>
-    <t>Florida State Seminoles</t>
-  </si>
-  <si>
-    <t>Alabama Crimson Tide</t>
-  </si>
-  <si>
-    <t>Louisiana Ragin Cajuns</t>
-  </si>
-  <si>
-    <t>Southern Miss Golden Eagles</t>
-  </si>
-  <si>
-    <t>Southern Illinois Salukis</t>
-  </si>
-  <si>
-    <t>Maine Black Bears</t>
-  </si>
-  <si>
-    <t>Stephen F. Austin Lumberjacks</t>
-  </si>
-  <si>
-    <t>Arkansas Razorbacks</t>
-  </si>
-  <si>
-    <t>Western Carolina Catamounts</t>
-  </si>
-  <si>
-    <t>Oklahoma Sooners</t>
-  </si>
-  <si>
-    <t>Delaware State Hornets</t>
-  </si>
-  <si>
-    <t>Villanova Wildcats</t>
-  </si>
-  <si>
-    <t>Chattanooga Mocs</t>
-  </si>
-  <si>
-    <t>SE Louisiana Lions</t>
-  </si>
-  <si>
-    <t>Central Michigan Chippewas</t>
-  </si>
-  <si>
-    <t>Idaho State Bengals</t>
-  </si>
-  <si>
-    <t>Louisiana Tech Bulldogs</t>
-  </si>
-  <si>
-    <t>Albright Lions</t>
-  </si>
-  <si>
-    <t>Sacramento State Hornets</t>
-  </si>
-  <si>
-    <t>Alcorn State Braves</t>
-  </si>
-  <si>
-    <t>Cincinnati Bearcats</t>
-  </si>
-  <si>
-    <t>Michigan State Spartans</t>
-  </si>
-  <si>
-    <t>Purdue Boilermakers</t>
-  </si>
-  <si>
-    <t>Samford Bulldogs</t>
-  </si>
-  <si>
-    <t>New Mexico State Aggies</t>
-  </si>
-  <si>
-    <t>Wyoming Cowboys</t>
-  </si>
-  <si>
-    <t>Tulsa Golden Hurricane</t>
-  </si>
-  <si>
-    <t>Marshall Thundering Herd</t>
-  </si>
-  <si>
-    <t>North Dakota Fighting Hawks</t>
-  </si>
-  <si>
-    <t>The Citadel Bulldogs</t>
-  </si>
-  <si>
-    <t>Nicholls Colonels</t>
-  </si>
-  <si>
-    <t>UTEP Miners</t>
-  </si>
-  <si>
-    <t>Western Illinois Leathernecks</t>
-  </si>
-  <si>
-    <t>UAB Blazers</t>
-  </si>
-  <si>
-    <t>Kansas Jayhawks</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M-Commerce Lions</t>
-  </si>
-  <si>
-    <t>Appalachian State Mountaineers</t>
-  </si>
-  <si>
-    <t>Boise State Broncos</t>
-  </si>
-  <si>
-    <t>Elon Phoenix</t>
-  </si>
-  <si>
-    <t>Campbell Fighting Camels</t>
-  </si>
-  <si>
-    <t>Duke Blue Devils</t>
-  </si>
-  <si>
-    <t>Southern Utah Thunderbirds</t>
-  </si>
-  <si>
-    <t>Bryant Bulldogs</t>
-  </si>
-  <si>
-    <t>USC Trojans</t>
-  </si>
-  <si>
-    <t>Louisville Cardinals</t>
-  </si>
-  <si>
-    <t>Bowling Green Falcons</t>
-  </si>
-  <si>
-    <t>Texas State Bobcats</t>
-  </si>
-  <si>
-    <t>UConn Huskies</t>
-  </si>
-  <si>
-    <t>Vanderbilt Commodores</t>
-  </si>
-  <si>
-    <t>Rhode Island Rams</t>
-  </si>
-  <si>
-    <t>Akron Zips</t>
-  </si>
-  <si>
-    <t>Morgan State Bears</t>
-  </si>
-  <si>
-    <t>McNeese Cowboys</t>
-  </si>
-  <si>
-    <t>Fresno State Bulldogs</t>
-  </si>
-  <si>
-    <t>UC Davis Aggies</t>
-  </si>
-  <si>
-    <t>Houston Cougars</t>
-  </si>
-  <si>
-    <t>Colorado Buffaloes</t>
-  </si>
-  <si>
-    <t>Jacksonville State Gamecocks</t>
-  </si>
-  <si>
-    <t>Baylor Bears</t>
-  </si>
-  <si>
-    <t>Youngstown State Penguins</t>
-  </si>
-  <si>
-    <t>Merchant Marine Mariners</t>
-  </si>
-  <si>
-    <t>Toledo Rockets</t>
-  </si>
-  <si>
-    <t>Georgia State Panthers</t>
-  </si>
-  <si>
-    <t>Miami Hurricanes</t>
-  </si>
-  <si>
-    <t>Florida International Panthers</t>
-  </si>
-  <si>
-    <t>Southeast Missouri State Redhawks</t>
-  </si>
-  <si>
-    <t>Pittsburgh Panthers</t>
-  </si>
-  <si>
-    <t>Illinois Fighting Illini</t>
-  </si>
-  <si>
-    <t>Houston Christian Huskies</t>
-  </si>
-  <si>
-    <t>William &amp; Mary Tribe</t>
-  </si>
-  <si>
-    <t>Bethune-Cookman Wildcats</t>
-  </si>
-  <si>
-    <t>Wagner Seahawks</t>
-  </si>
-  <si>
-    <t>East Carolina Pirates</t>
-  </si>
-  <si>
-    <t>Indiana State Sycamores</t>
-  </si>
-  <si>
     <t>Kent State Golden Flashes</t>
   </si>
   <si>
-    <t>Ohio Bobcats</t>
-  </si>
-  <si>
-    <t>Lafayette Leopards</t>
-  </si>
-  <si>
-    <t>Portland State Vikings</t>
-  </si>
-  <si>
-    <t>Northern Illinois Huskies</t>
-  </si>
-  <si>
-    <t>Wake Forest Demon Deacons</t>
-  </si>
-  <si>
-    <t>Texas Longhorns</t>
-  </si>
-  <si>
-    <t>Mississippi State Bulldogs</t>
-  </si>
-  <si>
-    <t>SMU Mustangs</t>
-  </si>
-  <si>
-    <t>Charleston Southern Buccaneers</t>
-  </si>
-  <si>
-    <t>Duquesne Dukes</t>
-  </si>
-  <si>
-    <t>Prairie View A&amp;M Panthers</t>
-  </si>
-  <si>
-    <t>South Alabama Jaguars</t>
-  </si>
-  <si>
-    <t>UNLV Rebels</t>
-  </si>
-  <si>
-    <t>Utah Utes</t>
-  </si>
-  <si>
-    <t>Middle Tennessee Blue Raiders</t>
-  </si>
-  <si>
-    <t>Wofford Terriers</t>
-  </si>
-  <si>
-    <t>Tulane Green Wave</t>
-  </si>
-  <si>
-    <t>California Golden Bears</t>
-  </si>
-  <si>
-    <t>North Carolina Central Eagles</t>
-  </si>
-  <si>
-    <t>Texas Tech Red Raiders</t>
-  </si>
-  <si>
-    <t>Georgia Bulldogs</t>
-  </si>
-  <si>
-    <t>East Tennessee State Buccaneers</t>
-  </si>
-  <si>
-    <t>Richmond Spiders</t>
-  </si>
-  <si>
-    <t>Oklahoma State Cowboys</t>
-  </si>
-  <si>
-    <t>North Carolina A&amp;T Aggies</t>
-  </si>
-  <si>
-    <t>Temple Owls</t>
-  </si>
-  <si>
-    <t>Sacred Heart Pioneers</t>
-  </si>
-  <si>
-    <t>TCU Horned Frogs</t>
-  </si>
-  <si>
-    <t>Air Force Falcons</t>
-  </si>
-  <si>
-    <t>Utah State Aggies</t>
-  </si>
-  <si>
-    <t>North Carolina Tar Heels</t>
-  </si>
-  <si>
-    <t>Kentucky Wildcats</t>
-  </si>
-  <si>
-    <t>Towson Tigers</t>
-  </si>
-  <si>
-    <t>Washington State Cougars</t>
-  </si>
-  <si>
-    <t>Arizona Wildcats</t>
-  </si>
-  <si>
-    <t>Army Black Knights</t>
-  </si>
-  <si>
-    <t>Buffalo Bulls</t>
-  </si>
-  <si>
-    <t>Cal Poly Mustangs</t>
-  </si>
-  <si>
-    <t>Delaware Fightin Blue Hens</t>
-  </si>
-  <si>
-    <t>Western Kentucky Hilltoppers</t>
-  </si>
-  <si>
-    <t>Arkansas State Red Wolves</t>
-  </si>
-  <si>
-    <t>Clemson Tigers</t>
-  </si>
-  <si>
-    <t>Oregon State Beavers</t>
-  </si>
-  <si>
-    <t>Eastern Washington Eagles</t>
-  </si>
-  <si>
-    <t>Central Connecticut Blue Devils</t>
-  </si>
-  <si>
-    <t>Jackson State Tigers</t>
-  </si>
-  <si>
-    <t>Missouri Tigers</t>
-  </si>
-  <si>
-    <t>Nebraska Cornhuskers</t>
-  </si>
-  <si>
-    <t>North Alabama Lions</t>
-  </si>
-  <si>
-    <t>Michigan Wolverines</t>
-  </si>
-  <si>
-    <t>Massachusetts Minutemen</t>
-  </si>
-  <si>
-    <t>Boston College Eagles</t>
-  </si>
-  <si>
-    <t>Colorado State Rams</t>
-  </si>
-  <si>
-    <t>Indiana Hoosiers</t>
-  </si>
-  <si>
-    <t>UTSA Roadrunners</t>
-  </si>
-  <si>
-    <t>South Carolina State Bulldogs</t>
-  </si>
-  <si>
-    <t>Kansas State Wildcats</t>
-  </si>
-  <si>
-    <t>Tarleton State Texans</t>
-  </si>
-  <si>
-    <t>Eastern Illinois Panthers</t>
-  </si>
-  <si>
-    <t>Idaho Vandals</t>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>EKU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>JKST</t>
+  </si>
+  <si>
+    <t>GRAM</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>STBK</t>
+  </si>
+  <si>
+    <t>W&amp;M</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>IDST</t>
+  </si>
+  <si>
+    <t>LAF</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>WOF</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>SEMO</t>
+  </si>
+  <si>
+    <t>SFA</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>IDHO</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>SIU</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>TNST</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>PRST</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>FVS</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>UNCO</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>SCST</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>CARK</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>TAMC</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>TOW</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>SDAK</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>APSU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>LIU</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>NICH</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>RICH</t>
+  </si>
+  <si>
+    <t>UAPB</t>
+  </si>
+  <si>
+    <t>CHSO</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>TXSO</t>
+  </si>
+  <si>
+    <t>YSU</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>TNTC</t>
+  </si>
+  <si>
+    <t>RMU</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>BRY</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>ETSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>COLG</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>VILL</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>SFPA</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>WIU</t>
+  </si>
+  <si>
+    <t>MRMK</t>
+  </si>
+  <si>
+    <t>NWST</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>NCAT</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>GWEB</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>WCU</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>UIW</t>
+  </si>
+  <si>
+    <t>MONM</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>CP</t>
   </si>
   <si>
     <t>SJSU</t>
   </si>
   <si>
-    <t>NORF</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>FUR</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>GWEB</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>UIW</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>TNST</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>UAPB</t>
-  </si>
-  <si>
-    <t>TXSO</t>
-  </si>
-  <si>
-    <t>EKU</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>UNCO</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>CARK</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>VMI</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>BUCK</t>
-  </si>
-  <si>
-    <t>NWST</t>
-  </si>
-  <si>
-    <t>MRMK</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>APSU</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>TNTC</t>
-  </si>
-  <si>
-    <t>RMU</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>STBK</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>SDAK</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>LIU</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>HOW</t>
-  </si>
-  <si>
-    <t>MONM</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>COLG</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>SFPA</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>UTM</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>NAU</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>SIU</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>SFA</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>DSU</t>
-  </si>
-  <si>
-    <t>VILL</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>SELA</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>IDST</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>ALCN</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>UND</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>NICH</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>WIU</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>TAMC</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>SUU</t>
-  </si>
-  <si>
-    <t>BRY</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>MORG</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>YSU</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>SEMO</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>HCU</t>
-  </si>
-  <si>
-    <t>W&amp;M</t>
-  </si>
-  <si>
-    <t>BCU</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
     <t>KENT</t>
   </si>
   <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>LAF</t>
-  </si>
-  <si>
-    <t>PRST</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>CHSO</t>
-  </si>
-  <si>
-    <t>DUQ</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>WOF</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>NCCU</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>ETSU</t>
-  </si>
-  <si>
-    <t>RICH</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>NCAT</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>SHU</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>TOW</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>JKST</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>UNA</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>SCST</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>TAR</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>IDHO</t>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>James Mad</t>
   </si>
   <si>
     <t>San Jose St</t>
   </si>
   <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
     <t>Kent St</t>
   </si>
   <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
+    <t>OREGON STATE</t>
+  </si>
+  <si>
+    <t>SOUTHERN MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>EASTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>PITTSBURGH</t>
+  </si>
+  <si>
+    <t>HOLY CROSS</t>
+  </si>
+  <si>
+    <t>JACKSON STATE</t>
+  </si>
+  <si>
+    <t>GRAMBLING</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>PURDUE</t>
+  </si>
+  <si>
+    <t>STONY BROOK</t>
+  </si>
+  <si>
+    <t>WILLIAM &amp; MARY</t>
+  </si>
+  <si>
+    <t>CAL-DAVIS</t>
+  </si>
+  <si>
+    <t>UNC - CHARLOTTE</t>
+  </si>
+  <si>
+    <t>SOUTHERN METHODIST</t>
+  </si>
+  <si>
+    <t>MICHIGAN STATE</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>SAM HOUSTON</t>
+  </si>
+  <si>
+    <t>SACRED HEART</t>
+  </si>
+  <si>
+    <t>ALCORN STATE</t>
+  </si>
+  <si>
+    <t>IDAHO STATE</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>PRAIRIE VIEW A&amp;M</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>WOFFORD</t>
+  </si>
+  <si>
+    <t>ALABAMA A&amp;M</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN MISSOURI</t>
+  </si>
+  <si>
+    <t>S.F.AUSTIN</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>TEXAS TECH</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>TEXAS-SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>SOUTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>DELAWARE STATE</t>
+  </si>
+  <si>
+    <t>EASTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>BAYLOR</t>
+  </si>
+  <si>
+    <t>MIAMI-FL</t>
+  </si>
+  <si>
+    <t>CENTRAL FLORIDA</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>IOWA STATE</t>
+  </si>
+  <si>
+    <t>TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>OHIO UNIV.</t>
+  </si>
+  <si>
+    <t>PORTLAND STATE</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>FORT VALLEY STATE</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>COLORADO STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN COLORADO</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>FLORIDA ATLANTIC</t>
+  </si>
+  <si>
+    <t>BALL STATE</t>
+  </si>
+  <si>
+    <t>FLORIDA A&amp;M</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>HOUSTON CHRISTIAN</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>TULSA</t>
+  </si>
+  <si>
+    <t>GEORGIA TECH</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>TARLETON STATE</t>
+  </si>
+  <si>
+    <t>NEW MEXICO STATE</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>MURRAY STATE</t>
+  </si>
+  <si>
+    <t>BETHUNE-COOKMAN</t>
+  </si>
+  <si>
+    <t>MISSOURI STATE</t>
+  </si>
+  <si>
+    <t>VANDERBILT</t>
+  </si>
+  <si>
+    <t>LA - MONROE</t>
+  </si>
+  <si>
+    <t>OKLAHOMA STATE</t>
+  </si>
+  <si>
+    <t>TULANE</t>
+  </si>
+  <si>
+    <t>CENTRAL ARKANSAS</t>
+  </si>
+  <si>
+    <t>SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>BUCKNELL</t>
+  </si>
+  <si>
+    <t>FRESNO STATE</t>
+  </si>
+  <si>
+    <t>NORTH ALABAMA</t>
+  </si>
+  <si>
+    <t>FURMAN</t>
+  </si>
+  <si>
+    <t>ALBRIGHT</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>LOUISVILLE</t>
+  </si>
+  <si>
+    <t>CLEMSON</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE STATE</t>
+  </si>
+  <si>
+    <t>OLD DOMINION</t>
+  </si>
+  <si>
+    <t>LOUISIANA STATE</t>
+  </si>
+  <si>
+    <t>TOWSON</t>
+  </si>
+  <si>
+    <t>ALABAMA-BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>AIR FORCE</t>
+  </si>
+  <si>
+    <t>EASTERN WASHINGTON</t>
+  </si>
+  <si>
+    <t>THE CITADEL</t>
+  </si>
+  <si>
+    <t>AUSTIN PEAY</t>
+  </si>
+  <si>
+    <t>TEXAS STATE-SAN MARCOS</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI STATE</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>ARKANSAS STATE</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>U.C.L.A.</t>
+  </si>
+  <si>
+    <t>SO. EAST LOUISIANA</t>
+  </si>
+  <si>
+    <t>EASTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>TEXAS-EL PASO</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>WAKE FOREST</t>
+  </si>
+  <si>
+    <t>PENN STATE</t>
+  </si>
+  <si>
+    <t>FLORIDA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>AKRON</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>NEVADA-LAS VEGAS</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
+  </si>
+  <si>
+    <t>UTAH TECH</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>KENNESAW STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN IOWA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>PINE BLUFF-ARKANSAS</t>
+  </si>
+  <si>
+    <t>CHARLESTON SOUTHERN</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>DUQUESNE</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>WASHINGTON STATE</t>
+  </si>
+  <si>
+    <t>BOWLING GREEN</t>
+  </si>
+  <si>
+    <t>ABILENE CHRISTIAN</t>
+  </si>
+  <si>
+    <t>APPALACHIAN STATE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA CENTRAL</t>
+  </si>
+  <si>
+    <t>TEXAS SOUTHERN</t>
+  </si>
+  <si>
+    <t>YOUNGSTOWN STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN ARIZONA</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>VIRGINIA MILITARY INSTITUTE</t>
+  </si>
+  <si>
+    <t>SAN DIEGO STATE</t>
+  </si>
+  <si>
+    <t>CENTRAL CONNECTICUT ST.</t>
+  </si>
+  <si>
+    <t>TENNESSEE TECH</t>
+  </si>
+  <si>
+    <t>ROBERT MORRIS – PA</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>BRYANT COLLEGE</t>
+  </si>
+  <si>
+    <t>UTAH STATE</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>NORFOLK STATE</t>
+  </si>
+  <si>
+    <t>EAST TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>BOSTON COLLEGE</t>
+  </si>
+  <si>
+    <t>COLGATE</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE</t>
+  </si>
+  <si>
+    <t>SOUTH FLORIDA</t>
+  </si>
+  <si>
+    <t>VILLANOVA</t>
+  </si>
+  <si>
+    <t>KANSAS STATE</t>
+  </si>
+  <si>
+    <t>BOISE</t>
+  </si>
+  <si>
+    <t>TENNESSEE-MARTIN</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>RUTGERS</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>TEXAS A&amp;M</t>
+  </si>
+  <si>
+    <t>ST.FRANCIS-PA</t>
+  </si>
+  <si>
+    <t>MORGAN STATE</t>
+  </si>
+  <si>
+    <t>MERCHANT MARINE</t>
+  </si>
+  <si>
+    <t>SAMFORD</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>TEMPLE</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>NORTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>SOUTH ALABAMA</t>
+  </si>
+  <si>
+    <t>WESTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>MERRIMACK</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN STATE-LA</t>
+  </si>
+  <si>
+    <t>VIRGINIA TECH</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA A&amp;T</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>MCNEESE STATE</t>
+  </si>
+  <si>
+    <t>NORTH TEXAS</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>WESTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>MIAMI OF OHIO</t>
+  </si>
+  <si>
+    <t>WESTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>OHIO STATE</t>
+  </si>
+  <si>
+    <t>WEBER STATE</t>
+  </si>
+  <si>
+    <t>GARDNER-WEBB</t>
+  </si>
+  <si>
+    <t>ARIZONA STATE</t>
+  </si>
+  <si>
+    <t>STANFORD</t>
+  </si>
+  <si>
+    <t>MIDDLE TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>TEXAS CHRISTIAN</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>GEORGIA STATE</t>
+  </si>
+  <si>
+    <t>COASTAL CAROLINA</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>EAST CAROLINA</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA-TENNESSEE</t>
+  </si>
+  <si>
+    <t>WESTERN CAROLINA</t>
+  </si>
+  <si>
+    <t>BRIGHAM YOUNG</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>NO. CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>GEORGIA SOUTHERN</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN</t>
+  </si>
+  <si>
+    <t>INCARNATE WORD</t>
+  </si>
+  <si>
+    <t>MONMOUTH-NJ</t>
+  </si>
+  <si>
+    <t>TROY STATE</t>
+  </si>
+  <si>
+    <t>JAMES MADISON</t>
+  </si>
+  <si>
+    <t>INDIANA STATE</t>
+  </si>
+  <si>
+    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
   </si>
   <si>
     <t>SAN JOSE STATE</t>
   </si>
   <si>
-    <t>NORFOLK STATE</t>
-  </si>
-  <si>
-    <t>GEORGIA SOUTHERN</t>
-  </si>
-  <si>
-    <t>NEVADA</t>
-  </si>
-  <si>
-    <t>SAM HOUSTON</t>
-  </si>
-  <si>
-    <t>EASTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>MIAMI OF OHIO</t>
-  </si>
-  <si>
-    <t>FLORIDA ATLANTIC</t>
-  </si>
-  <si>
-    <t>FURMAN</t>
-  </si>
-  <si>
-    <t>MURRAY STATE</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>GARDNER-WEBB</t>
-  </si>
-  <si>
-    <t>ARIZONA STATE</t>
-  </si>
-  <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
-    <t>INCARNATE WORD</t>
-  </si>
-  <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
-    <t>TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>KENNESAW STATE</t>
-  </si>
-  <si>
-    <t>PINE BLUFF-ARKANSAS</t>
-  </si>
-  <si>
-    <t>TEXAS SOUTHERN</t>
-  </si>
-  <si>
-    <t>EASTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>LOUISIANA</t>
-  </si>
-  <si>
-    <t>MINNESOTA</t>
-  </si>
-  <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
-    <t>JAMES MADISON</t>
-  </si>
-  <si>
-    <t>OHIO STATE</t>
-  </si>
-  <si>
-    <t>TROY STATE</t>
-  </si>
-  <si>
-    <t>MEMPHIS</t>
-  </si>
-  <si>
-    <t>NORTHERN COLORADO</t>
-  </si>
-  <si>
-    <t>UTAH TECH</t>
-  </si>
-  <si>
-    <t>GEORGIA TECH</t>
-  </si>
-  <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>BRIGHAM YOUNG</t>
-  </si>
-  <si>
-    <t>SAN DIEGO STATE</t>
-  </si>
-  <si>
-    <t>COASTAL CAROLINA</t>
-  </si>
-  <si>
-    <t>WESTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>UNC - CHARLOTTE</t>
-  </si>
-  <si>
-    <t>BALL STATE</t>
-  </si>
-  <si>
-    <t>WEBER STATE</t>
-  </si>
-  <si>
-    <t>IOWA STATE</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>NORTHERN IOWA</t>
-  </si>
-  <si>
-    <t>CENTRAL ARKANSAS</t>
-  </si>
-  <si>
-    <t>OREGON</t>
-  </si>
-  <si>
-    <t>VIRGINIA MILITARY INSTITUTE</t>
-  </si>
-  <si>
-    <t>LA - MONROE</t>
-  </si>
-  <si>
-    <t>BUCKNELL</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN STATE-LA</t>
-  </si>
-  <si>
-    <t>MERRIMACK</t>
-  </si>
-  <si>
-    <t>NEW HAMPSHIRE</t>
-  </si>
-  <si>
-    <t>MARYLAND</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN</t>
-  </si>
-  <si>
-    <t>FLORIDA</t>
-  </si>
-  <si>
-    <t>AUSTIN PEAY</t>
-  </si>
-  <si>
-    <t>CENTRAL FLORIDA</t>
-  </si>
-  <si>
-    <t>TENNESSEE TECH</t>
-  </si>
-  <si>
-    <t>ROBERT MORRIS – PA</t>
-  </si>
-  <si>
-    <t>FORT VALLEY STATE</t>
-  </si>
-  <si>
-    <t>STONY BROOK</t>
-  </si>
-  <si>
-    <t>PENN STATE</t>
-  </si>
-  <si>
-    <t>OLD DOMINION</t>
-  </si>
-  <si>
-    <t>SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>NORTH TEXAS</t>
-  </si>
-  <si>
-    <t>WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>ALABAMA A&amp;M</t>
-  </si>
-  <si>
-    <t>HOLY CROSS</t>
-  </si>
-  <si>
-    <t>ABILENE CHRISTIAN</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>MONMOUTH-NJ</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>COLGATE</t>
-  </si>
-  <si>
-    <t>GRAMBLING</t>
-  </si>
-  <si>
-    <t>FLORIDA A&amp;M</t>
-  </si>
-  <si>
-    <t>ST.FRANCIS-PA</t>
-  </si>
-  <si>
-    <t>NO. CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>VIRGINIA TECH</t>
-  </si>
-  <si>
-    <t>MISSOURI STATE</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>SOUTH FLORIDA</t>
-  </si>
-  <si>
-    <t>RUTGERS</t>
-  </si>
-  <si>
-    <t>TEXAS A&amp;M</t>
-  </si>
-  <si>
-    <t>STANFORD</t>
-  </si>
-  <si>
-    <t>TENNESSEE-MARTIN</t>
-  </si>
-  <si>
-    <t>NOTRE DAME</t>
-  </si>
-  <si>
-    <t>WISCONSIN</t>
-  </si>
-  <si>
-    <t>NORTHERN ARIZONA</t>
-  </si>
-  <si>
-    <t>U.C.L.A.</t>
-  </si>
-  <si>
-    <t>FLORIDA STATE</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>SOUTHERN MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>SOUTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>MAINE</t>
-  </si>
-  <si>
-    <t>S.F.AUSTIN</t>
-  </si>
-  <si>
-    <t>ARKANSAS</t>
-  </si>
-  <si>
-    <t>WESTERN CAROLINA</t>
-  </si>
-  <si>
-    <t>OKLAHOMA</t>
-  </si>
-  <si>
-    <t>DELAWARE STATE</t>
-  </si>
-  <si>
-    <t>VILLANOVA</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA-TENNESSEE</t>
-  </si>
-  <si>
-    <t>SO. EAST LOUISIANA</t>
-  </si>
-  <si>
-    <t>CENTRAL CONNECTICUT ST.</t>
-  </si>
-  <si>
-    <t>IDAHO STATE</t>
-  </si>
-  <si>
-    <t>LOUISIANA STATE</t>
-  </si>
-  <si>
-    <t>ALBRIGHT</t>
-  </si>
-  <si>
-    <t>ALCORN STATE</t>
-  </si>
-  <si>
-    <t>CINCINNATI</t>
-  </si>
-  <si>
-    <t>MICHIGAN STATE</t>
-  </si>
-  <si>
-    <t>PURDUE</t>
-  </si>
-  <si>
-    <t>SAMFORD</t>
-  </si>
-  <si>
-    <t>NEW MEXICO STATE</t>
-  </si>
-  <si>
-    <t>WYOMING</t>
-  </si>
-  <si>
-    <t>TULSA</t>
-  </si>
-  <si>
-    <t>MARSHALL</t>
-  </si>
-  <si>
-    <t>NORTH DAKOTA</t>
-  </si>
-  <si>
-    <t>THE CITADEL</t>
-  </si>
-  <si>
-    <t>NICHOLS</t>
-  </si>
-  <si>
-    <t>TEXAS-EL PASO</t>
-  </si>
-  <si>
-    <t>WESTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>ALABAMA-BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>KANSAS</t>
-  </si>
-  <si>
-    <t>APPALACHIAN STATE</t>
-  </si>
-  <si>
-    <t>BOISE</t>
-  </si>
-  <si>
-    <t>CAMPBELL</t>
-  </si>
-  <si>
-    <t>BRYANT COLLEGE</t>
-  </si>
-  <si>
-    <t>SOUTHERN CALIFORNIA</t>
-  </si>
-  <si>
-    <t>LOUISVILLE</t>
-  </si>
-  <si>
-    <t>BOWLING GREEN</t>
-  </si>
-  <si>
-    <t>TEXAS STATE-SAN MARCOS</t>
-  </si>
-  <si>
-    <t>CONNECTICUT</t>
-  </si>
-  <si>
-    <t>VANDERBILT</t>
-  </si>
-  <si>
-    <t>RHODE ISLAND</t>
-  </si>
-  <si>
-    <t>AKRON</t>
-  </si>
-  <si>
-    <t>MORGAN STATE</t>
-  </si>
-  <si>
-    <t>MCNEESE STATE</t>
-  </si>
-  <si>
-    <t>FRESNO STATE</t>
-  </si>
-  <si>
-    <t>CAL-DAVIS</t>
-  </si>
-  <si>
-    <t>HOUSTON</t>
-  </si>
-  <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE STATE</t>
-  </si>
-  <si>
-    <t>BAYLOR</t>
-  </si>
-  <si>
-    <t>YOUNGSTOWN STATE</t>
-  </si>
-  <si>
-    <t>MERCHANT MARINE</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
-    <t>GEORGIA STATE</t>
-  </si>
-  <si>
-    <t>MIAMI-FL</t>
-  </si>
-  <si>
-    <t>FLORIDA INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>SOUTH EASTERN MISSOURI</t>
-  </si>
-  <si>
-    <t>PITTSBURGH</t>
-  </si>
-  <si>
-    <t>ILLINOIS</t>
-  </si>
-  <si>
-    <t>HOUSTON CHRISTIAN</t>
-  </si>
-  <si>
-    <t>WILLIAM &amp; MARY</t>
-  </si>
-  <si>
-    <t>BETHUNE-COOKMAN</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>EAST CAROLINA</t>
-  </si>
-  <si>
-    <t>INDIANA STATE</t>
-  </si>
-  <si>
     <t>KENT STATE</t>
-  </si>
-  <si>
-    <t>OHIO UNIV.</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>PORTLAND STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>WAKE FOREST</t>
-  </si>
-  <si>
-    <t>TEXAS</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI STATE</t>
-  </si>
-  <si>
-    <t>SOUTHERN METHODIST</t>
-  </si>
-  <si>
-    <t>CHARLESTON SOUTHERN</t>
-  </si>
-  <si>
-    <t>DUQUESNE</t>
-  </si>
-  <si>
-    <t>PRAIRIE VIEW A&amp;M</t>
-  </si>
-  <si>
-    <t>SOUTH ALABAMA</t>
-  </si>
-  <si>
-    <t>NEVADA-LAS VEGAS</t>
-  </si>
-  <si>
-    <t>MIDDLE TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>WOFFORD</t>
-  </si>
-  <si>
-    <t>TULANE</t>
-  </si>
-  <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA CENTRAL</t>
-  </si>
-  <si>
-    <t>TEXAS TECH</t>
-  </si>
-  <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
-    <t>EAST TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>OKLAHOMA STATE</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA A&amp;T</t>
-  </si>
-  <si>
-    <t>TEMPLE</t>
-  </si>
-  <si>
-    <t>SACRED HEART</t>
-  </si>
-  <si>
-    <t>TEXAS CHRISTIAN</t>
-  </si>
-  <si>
-    <t>AIR FORCE</t>
-  </si>
-  <si>
-    <t>UTAH STATE</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>KENTUCKY</t>
-  </si>
-  <si>
-    <t>TOWSON</t>
-  </si>
-  <si>
-    <t>WASHINGTON STATE</t>
-  </si>
-  <si>
-    <t>ARIZONA</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
-  </si>
-  <si>
-    <t>DELAWARE</t>
-  </si>
-  <si>
-    <t>WESTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>ARKANSAS STATE</t>
-  </si>
-  <si>
-    <t>CLEMSON</t>
-  </si>
-  <si>
-    <t>OREGON STATE</t>
-  </si>
-  <si>
-    <t>EASTERN WASHINGTON</t>
-  </si>
-  <si>
-    <t>JACKSON STATE</t>
-  </si>
-  <si>
-    <t>MISSOURI</t>
-  </si>
-  <si>
-    <t>NEBRASKA</t>
-  </si>
-  <si>
-    <t>NORTH ALABAMA</t>
-  </si>
-  <si>
-    <t>MICHIGAN</t>
-  </si>
-  <si>
-    <t>MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>BOSTON COLLEGE</t>
-  </si>
-  <si>
-    <t>COLORADO STATE</t>
-  </si>
-  <si>
-    <t>INDIANA</t>
-  </si>
-  <si>
-    <t>TEXAS-SAN ANTONIO</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>KANSAS STATE</t>
-  </si>
-  <si>
-    <t>TARLETON STATE</t>
-  </si>
-  <si>
-    <t>EASTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>IDAHO</t>
   </si>
 </sst>
 </file>
@@ -2802,7 +2814,7 @@
         <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2819,7 +2831,7 @@
         <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2836,7 +2848,7 @@
         <v>463</v>
       </c>
       <c r="E4" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2853,7 +2865,7 @@
         <v>464</v>
       </c>
       <c r="E5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2870,7 +2882,7 @@
         <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2884,10 +2896,10 @@
         <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2901,10 +2913,10 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2918,10 +2930,10 @@
         <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E9" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2935,10 +2947,10 @@
         <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2952,10 +2964,10 @@
         <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2969,10 +2981,10 @@
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E12" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2986,10 +2998,10 @@
         <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3003,10 +3015,10 @@
         <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3020,10 +3032,10 @@
         <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E15" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3037,10 +3049,10 @@
         <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E16" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3054,10 +3066,10 @@
         <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E17" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3071,10 +3083,10 @@
         <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E18" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3088,10 +3100,10 @@
         <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E19" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3105,10 +3117,10 @@
         <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3122,10 +3134,10 @@
         <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E21" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3139,10 +3151,10 @@
         <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E22" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3156,10 +3168,10 @@
         <v>254</v>
       </c>
       <c r="D23" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E23" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3173,10 +3185,10 @@
         <v>255</v>
       </c>
       <c r="D24" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E24" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3190,10 +3202,10 @@
         <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E25" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3207,10 +3219,10 @@
         <v>257</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3224,10 +3236,10 @@
         <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E27" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3241,10 +3253,10 @@
         <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E28" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3258,10 +3270,10 @@
         <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="E29" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3275,10 +3287,10 @@
         <v>261</v>
       </c>
       <c r="D30" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E30" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3292,10 +3304,10 @@
         <v>262</v>
       </c>
       <c r="D31" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E31" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3309,10 +3321,10 @@
         <v>263</v>
       </c>
       <c r="D32" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="E32" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3326,10 +3338,10 @@
         <v>264</v>
       </c>
       <c r="D33" t="s">
-        <v>471</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3343,10 +3355,10 @@
         <v>265</v>
       </c>
       <c r="D34" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="E34" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3360,10 +3372,10 @@
         <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="E35" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3377,10 +3389,10 @@
         <v>267</v>
       </c>
       <c r="D36" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E36" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3394,10 +3406,10 @@
         <v>268</v>
       </c>
       <c r="D37" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E37" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3411,10 +3423,10 @@
         <v>269</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="E38" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3428,10 +3440,10 @@
         <v>270</v>
       </c>
       <c r="D39" t="s">
-        <v>489</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3445,10 +3457,10 @@
         <v>271</v>
       </c>
       <c r="D40" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E40" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3462,10 +3474,10 @@
         <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E41" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3479,10 +3491,10 @@
         <v>273</v>
       </c>
       <c r="D42" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="E42" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3496,10 +3508,10 @@
         <v>274</v>
       </c>
       <c r="D43" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E43" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3513,10 +3525,10 @@
         <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E44" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3530,10 +3542,10 @@
         <v>276</v>
       </c>
       <c r="D45" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E45" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3547,10 +3559,10 @@
         <v>277</v>
       </c>
       <c r="D46" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="E46" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3564,10 +3576,10 @@
         <v>278</v>
       </c>
       <c r="D47" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="E47" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3581,10 +3593,10 @@
         <v>279</v>
       </c>
       <c r="D48" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="E48" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3598,10 +3610,10 @@
         <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="E49" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3615,10 +3627,10 @@
         <v>281</v>
       </c>
       <c r="D50" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="E50" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3632,10 +3644,10 @@
         <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E51" t="s">
-        <v>282</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3649,10 +3661,10 @@
         <v>283</v>
       </c>
       <c r="D52" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E52" t="s">
-        <v>630</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3666,10 +3678,10 @@
         <v>284</v>
       </c>
       <c r="D53" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E53" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3683,10 +3695,10 @@
         <v>285</v>
       </c>
       <c r="D54" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="E54" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3700,10 +3712,10 @@
         <v>286</v>
       </c>
       <c r="D55" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="E55" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3717,10 +3729,10 @@
         <v>287</v>
       </c>
       <c r="D56" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E56" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3734,10 +3746,10 @@
         <v>288</v>
       </c>
       <c r="D57" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E57" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3751,10 +3763,10 @@
         <v>289</v>
       </c>
       <c r="D58" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="E58" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3768,10 +3780,10 @@
         <v>290</v>
       </c>
       <c r="D59" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="E59" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3785,10 +3797,10 @@
         <v>291</v>
       </c>
       <c r="D60" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="E60" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3802,10 +3814,10 @@
         <v>292</v>
       </c>
       <c r="D61" t="s">
-        <v>292</v>
+        <v>495</v>
       </c>
       <c r="E61" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3819,10 +3831,10 @@
         <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E62" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3836,10 +3848,10 @@
         <v>294</v>
       </c>
       <c r="D63" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E63" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3853,10 +3865,10 @@
         <v>295</v>
       </c>
       <c r="D64" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="E64" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3870,10 +3882,10 @@
         <v>296</v>
       </c>
       <c r="D65" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3887,10 +3899,10 @@
         <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E66" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3904,10 +3916,10 @@
         <v>298</v>
       </c>
       <c r="D67" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E67" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3921,10 +3933,10 @@
         <v>299</v>
       </c>
       <c r="D68" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E68" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3938,10 +3950,10 @@
         <v>300</v>
       </c>
       <c r="D69" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3955,10 +3967,10 @@
         <v>301</v>
       </c>
       <c r="D70" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E70" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3972,10 +3984,10 @@
         <v>302</v>
       </c>
       <c r="D71" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E71" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3989,10 +4001,10 @@
         <v>303</v>
       </c>
       <c r="D72" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="E72" t="s">
-        <v>650</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4006,10 +4018,10 @@
         <v>304</v>
       </c>
       <c r="D73" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="E73" t="s">
-        <v>471</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4023,10 +4035,10 @@
         <v>305</v>
       </c>
       <c r="D74" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E74" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4040,10 +4052,10 @@
         <v>306</v>
       </c>
       <c r="D75" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E75" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4057,10 +4069,10 @@
         <v>307</v>
       </c>
       <c r="D76" t="s">
-        <v>471</v>
+        <v>307</v>
       </c>
       <c r="E76" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4074,10 +4086,10 @@
         <v>308</v>
       </c>
       <c r="D77" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="E77" t="s">
-        <v>654</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4091,10 +4103,10 @@
         <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="E78" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4108,10 +4120,10 @@
         <v>310</v>
       </c>
       <c r="D79" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E79" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4125,10 +4137,10 @@
         <v>311</v>
       </c>
       <c r="D80" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="E80" t="s">
-        <v>657</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4142,10 +4154,10 @@
         <v>312</v>
       </c>
       <c r="D81" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E81" t="s">
-        <v>658</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4159,10 +4171,10 @@
         <v>313</v>
       </c>
       <c r="D82" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="E82" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4176,10 +4188,10 @@
         <v>314</v>
       </c>
       <c r="D83" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="E83" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4193,10 +4205,10 @@
         <v>315</v>
       </c>
       <c r="D84" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="E84" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4210,10 +4222,10 @@
         <v>316</v>
       </c>
       <c r="D85" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="E85" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4227,10 +4239,10 @@
         <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="E86" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4244,10 +4256,10 @@
         <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E87" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4261,10 +4273,10 @@
         <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E88" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4278,10 +4290,10 @@
         <v>320</v>
       </c>
       <c r="D89" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E89" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4295,10 +4307,10 @@
         <v>321</v>
       </c>
       <c r="D90" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="E90" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4312,10 +4324,10 @@
         <v>322</v>
       </c>
       <c r="D91" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E91" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4329,10 +4341,10 @@
         <v>323</v>
       </c>
       <c r="D92" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E92" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4346,10 +4358,10 @@
         <v>324</v>
       </c>
       <c r="D93" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E93" t="s">
-        <v>670</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4363,10 +4375,10 @@
         <v>325</v>
       </c>
       <c r="D94" t="s">
-        <v>325</v>
+        <v>465</v>
       </c>
       <c r="E94" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4380,10 +4392,10 @@
         <v>326</v>
       </c>
       <c r="D95" t="s">
-        <v>517</v>
+        <v>326</v>
       </c>
       <c r="E95" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4397,10 +4409,10 @@
         <v>327</v>
       </c>
       <c r="D96" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="E96" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4414,10 +4426,10 @@
         <v>328</v>
       </c>
       <c r="D97" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E97" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4431,10 +4443,10 @@
         <v>329</v>
       </c>
       <c r="D98" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="E98" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4448,10 +4460,10 @@
         <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E99" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4465,10 +4477,10 @@
         <v>331</v>
       </c>
       <c r="D100" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E100" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4482,10 +4494,10 @@
         <v>332</v>
       </c>
       <c r="D101" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E101" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4499,10 +4511,10 @@
         <v>333</v>
       </c>
       <c r="D102" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E102" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4516,10 +4528,10 @@
         <v>334</v>
       </c>
       <c r="D103" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="E103" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4533,10 +4545,10 @@
         <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E104" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4550,10 +4562,10 @@
         <v>336</v>
       </c>
       <c r="D105" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="E105" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4567,10 +4579,10 @@
         <v>337</v>
       </c>
       <c r="D106" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E106" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4584,10 +4596,10 @@
         <v>338</v>
       </c>
       <c r="D107" t="s">
-        <v>471</v>
+        <v>338</v>
       </c>
       <c r="E107" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4601,10 +4613,10 @@
         <v>339</v>
       </c>
       <c r="D108" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E108" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4618,10 +4630,10 @@
         <v>340</v>
       </c>
       <c r="D109" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="E109" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4635,10 +4647,10 @@
         <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="E110" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4652,10 +4664,10 @@
         <v>342</v>
       </c>
       <c r="D111" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="E111" t="s">
-        <v>687</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4669,10 +4681,10 @@
         <v>343</v>
       </c>
       <c r="D112" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="E112" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4686,10 +4698,10 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="E113" t="s">
-        <v>471</v>
+        <v>691</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4703,10 +4715,10 @@
         <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="E114" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4723,7 +4735,7 @@
         <v>523</v>
       </c>
       <c r="E115" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4740,7 +4752,7 @@
         <v>524</v>
       </c>
       <c r="E116" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4754,10 +4766,10 @@
         <v>348</v>
       </c>
       <c r="D117" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="E117" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4771,10 +4783,10 @@
         <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="E118" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4791,7 +4803,7 @@
         <v>526</v>
       </c>
       <c r="E119" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4805,10 +4817,10 @@
         <v>351</v>
       </c>
       <c r="D120" t="s">
-        <v>527</v>
+        <v>351</v>
       </c>
       <c r="E120" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4822,10 +4834,10 @@
         <v>352</v>
       </c>
       <c r="D121" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E121" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4839,10 +4851,10 @@
         <v>353</v>
       </c>
       <c r="D122" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E122" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4856,10 +4868,10 @@
         <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="E123" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4873,10 +4885,10 @@
         <v>355</v>
       </c>
       <c r="D124" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E124" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4890,10 +4902,10 @@
         <v>356</v>
       </c>
       <c r="D125" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E125" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4907,10 +4919,10 @@
         <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E126" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4924,10 +4936,10 @@
         <v>358</v>
       </c>
       <c r="D127" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E127" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4941,10 +4953,10 @@
         <v>359</v>
       </c>
       <c r="D128" t="s">
-        <v>359</v>
+        <v>465</v>
       </c>
       <c r="E128" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4958,10 +4970,10 @@
         <v>360</v>
       </c>
       <c r="D129" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="E129" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4975,10 +4987,10 @@
         <v>361</v>
       </c>
       <c r="D130" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="E130" t="s">
-        <v>471</v>
+        <v>708</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4992,10 +5004,10 @@
         <v>362</v>
       </c>
       <c r="D131" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E131" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5009,10 +5021,10 @@
         <v>363</v>
       </c>
       <c r="D132" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E132" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5026,10 +5038,10 @@
         <v>364</v>
       </c>
       <c r="D133" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E133" t="s">
-        <v>364</v>
+        <v>711</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5043,10 +5055,10 @@
         <v>365</v>
       </c>
       <c r="D134" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="E134" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5063,7 +5075,7 @@
         <v>534</v>
       </c>
       <c r="E135" t="s">
-        <v>366</v>
+        <v>713</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5077,10 +5089,10 @@
         <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="E136" t="s">
-        <v>471</v>
+        <v>714</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5094,10 +5106,10 @@
         <v>368</v>
       </c>
       <c r="D137" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="E137" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5111,10 +5123,10 @@
         <v>369</v>
       </c>
       <c r="D138" t="s">
-        <v>369</v>
+        <v>537</v>
       </c>
       <c r="E138" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5128,10 +5140,10 @@
         <v>370</v>
       </c>
       <c r="D139" t="s">
-        <v>535</v>
+        <v>465</v>
       </c>
       <c r="E139" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5145,10 +5157,10 @@
         <v>371</v>
       </c>
       <c r="D140" t="s">
-        <v>536</v>
+        <v>465</v>
       </c>
       <c r="E140" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5162,10 +5174,10 @@
         <v>372</v>
       </c>
       <c r="D141" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="E141" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5179,10 +5191,10 @@
         <v>373</v>
       </c>
       <c r="D142" t="s">
-        <v>538</v>
+        <v>465</v>
       </c>
       <c r="E142" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5196,10 +5208,10 @@
         <v>374</v>
       </c>
       <c r="D143" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="E143" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5213,10 +5225,10 @@
         <v>375</v>
       </c>
       <c r="D144" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E144" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5230,10 +5242,10 @@
         <v>376</v>
       </c>
       <c r="D145" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E145" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5247,10 +5259,10 @@
         <v>377</v>
       </c>
       <c r="D146" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="E146" t="s">
-        <v>717</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5264,10 +5276,10 @@
         <v>378</v>
       </c>
       <c r="D147" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="E147" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5281,10 +5293,10 @@
         <v>379</v>
       </c>
       <c r="D148" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="E148" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5298,10 +5310,10 @@
         <v>380</v>
       </c>
       <c r="D149" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E149" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5315,10 +5327,10 @@
         <v>381</v>
       </c>
       <c r="D150" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E150" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5332,10 +5344,10 @@
         <v>382</v>
       </c>
       <c r="D151" t="s">
-        <v>543</v>
+        <v>465</v>
       </c>
       <c r="E151" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5349,10 +5361,10 @@
         <v>383</v>
       </c>
       <c r="D152" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E152" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5366,10 +5378,10 @@
         <v>384</v>
       </c>
       <c r="D153" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E153" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5383,10 +5395,10 @@
         <v>385</v>
       </c>
       <c r="D154" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="E154" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5400,10 +5412,10 @@
         <v>386</v>
       </c>
       <c r="D155" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E155" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5417,10 +5429,10 @@
         <v>387</v>
       </c>
       <c r="D156" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E156" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5434,10 +5446,10 @@
         <v>388</v>
       </c>
       <c r="D157" t="s">
-        <v>547</v>
+        <v>388</v>
       </c>
       <c r="E157" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5451,10 +5463,10 @@
         <v>389</v>
       </c>
       <c r="D158" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E158" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5468,10 +5480,10 @@
         <v>390</v>
       </c>
       <c r="D159" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E159" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5485,10 +5497,10 @@
         <v>391</v>
       </c>
       <c r="D160" t="s">
-        <v>471</v>
+        <v>548</v>
       </c>
       <c r="E160" t="s">
-        <v>731</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5502,10 +5514,10 @@
         <v>392</v>
       </c>
       <c r="D161" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E161" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5519,10 +5531,10 @@
         <v>393</v>
       </c>
       <c r="D162" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E162" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5536,10 +5548,10 @@
         <v>394</v>
       </c>
       <c r="D163" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E163" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5553,10 +5565,10 @@
         <v>395</v>
       </c>
       <c r="D164" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="E164" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5570,10 +5582,10 @@
         <v>396</v>
       </c>
       <c r="D165" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="E165" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5587,10 +5599,10 @@
         <v>397</v>
       </c>
       <c r="D166" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E166" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5604,10 +5616,10 @@
         <v>398</v>
       </c>
       <c r="D167" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E167" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5621,10 +5633,10 @@
         <v>399</v>
       </c>
       <c r="D168" t="s">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="E168" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5638,10 +5650,10 @@
         <v>400</v>
       </c>
       <c r="D169" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
       <c r="E169" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5655,10 +5667,10 @@
         <v>401</v>
       </c>
       <c r="D170" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E170" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5672,10 +5684,10 @@
         <v>402</v>
       </c>
       <c r="D171" t="s">
-        <v>471</v>
+        <v>556</v>
       </c>
       <c r="E171" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5689,10 +5701,10 @@
         <v>403</v>
       </c>
       <c r="D172" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="E172" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5706,10 +5718,10 @@
         <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E173" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5723,10 +5735,10 @@
         <v>405</v>
       </c>
       <c r="D174" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E174" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5740,10 +5752,10 @@
         <v>406</v>
       </c>
       <c r="D175" t="s">
-        <v>557</v>
+        <v>465</v>
       </c>
       <c r="E175" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5757,10 +5769,10 @@
         <v>407</v>
       </c>
       <c r="D176" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E176" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5774,10 +5786,10 @@
         <v>408</v>
       </c>
       <c r="D177" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E177" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5791,10 +5803,10 @@
         <v>409</v>
       </c>
       <c r="D178" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E178" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5808,10 +5820,10 @@
         <v>410</v>
       </c>
       <c r="D179" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
       <c r="E179" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5825,10 +5837,10 @@
         <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="E180" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5842,10 +5854,10 @@
         <v>412</v>
       </c>
       <c r="D181" t="s">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="E181" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5859,10 +5871,10 @@
         <v>413</v>
       </c>
       <c r="D182" t="s">
-        <v>413</v>
+        <v>562</v>
       </c>
       <c r="E182" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5876,10 +5888,10 @@
         <v>414</v>
       </c>
       <c r="D183" t="s">
-        <v>558</v>
+        <v>465</v>
       </c>
       <c r="E183" t="s">
-        <v>414</v>
+        <v>758</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5893,10 +5905,10 @@
         <v>415</v>
       </c>
       <c r="D184" t="s">
-        <v>559</v>
+        <v>465</v>
       </c>
       <c r="E184" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5910,10 +5922,10 @@
         <v>416</v>
       </c>
       <c r="D185" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E185" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5927,10 +5939,10 @@
         <v>417</v>
       </c>
       <c r="D186" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
       <c r="E186" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5944,10 +5956,10 @@
         <v>418</v>
       </c>
       <c r="D187" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E187" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5961,10 +5973,10 @@
         <v>419</v>
       </c>
       <c r="D188" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E188" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5978,10 +5990,10 @@
         <v>420</v>
       </c>
       <c r="D189" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="E189" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5995,10 +6007,10 @@
         <v>421</v>
       </c>
       <c r="D190" t="s">
-        <v>563</v>
+        <v>465</v>
       </c>
       <c r="E190" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6012,10 +6024,10 @@
         <v>422</v>
       </c>
       <c r="D191" t="s">
-        <v>471</v>
+        <v>564</v>
       </c>
       <c r="E191" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6029,10 +6041,10 @@
         <v>423</v>
       </c>
       <c r="D192" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="E192" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6046,10 +6058,10 @@
         <v>424</v>
       </c>
       <c r="D193" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E193" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6063,10 +6075,10 @@
         <v>425</v>
       </c>
       <c r="D194" t="s">
-        <v>471</v>
+        <v>566</v>
       </c>
       <c r="E194" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6080,10 +6092,10 @@
         <v>426</v>
       </c>
       <c r="D195" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E195" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6097,10 +6109,10 @@
         <v>427</v>
       </c>
       <c r="D196" t="s">
-        <v>471</v>
+        <v>568</v>
       </c>
       <c r="E196" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6114,10 +6126,10 @@
         <v>428</v>
       </c>
       <c r="D197" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="E197" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6131,10 +6143,10 @@
         <v>429</v>
       </c>
       <c r="D198" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E198" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6148,10 +6160,10 @@
         <v>430</v>
       </c>
       <c r="D199" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="E199" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6165,10 +6177,10 @@
         <v>431</v>
       </c>
       <c r="D200" t="s">
-        <v>568</v>
+        <v>465</v>
       </c>
       <c r="E200" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6182,10 +6194,10 @@
         <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>478</v>
+        <v>571</v>
       </c>
       <c r="E201" t="s">
-        <v>771</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6199,10 +6211,10 @@
         <v>433</v>
       </c>
       <c r="D202" t="s">
-        <v>471</v>
+        <v>572</v>
       </c>
       <c r="E202" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6216,10 +6228,10 @@
         <v>434</v>
       </c>
       <c r="D203" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E203" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6233,10 +6245,10 @@
         <v>435</v>
       </c>
       <c r="D204" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E204" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6250,10 +6262,10 @@
         <v>436</v>
       </c>
       <c r="D205" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="E205" t="s">
-        <v>436</v>
+        <v>779</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6267,10 +6279,10 @@
         <v>437</v>
       </c>
       <c r="D206" t="s">
-        <v>572</v>
+        <v>465</v>
       </c>
       <c r="E206" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6284,10 +6296,10 @@
         <v>438</v>
       </c>
       <c r="D207" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="E207" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6301,10 +6313,10 @@
         <v>439</v>
       </c>
       <c r="D208" t="s">
-        <v>471</v>
+        <v>576</v>
       </c>
       <c r="E208" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6318,10 +6330,10 @@
         <v>440</v>
       </c>
       <c r="D209" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E209" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6335,10 +6347,10 @@
         <v>441</v>
       </c>
       <c r="D210" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E210" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6352,10 +6364,10 @@
         <v>442</v>
       </c>
       <c r="D211" t="s">
-        <v>575</v>
+        <v>465</v>
       </c>
       <c r="E211" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6369,10 +6381,10 @@
         <v>443</v>
       </c>
       <c r="D212" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E212" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6386,10 +6398,10 @@
         <v>444</v>
       </c>
       <c r="D213" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E213" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6403,10 +6415,10 @@
         <v>445</v>
       </c>
       <c r="D214" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="E214" t="s">
-        <v>713</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6420,10 +6432,10 @@
         <v>446</v>
       </c>
       <c r="D215" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E215" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6437,10 +6449,10 @@
         <v>447</v>
       </c>
       <c r="D216" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="E216" t="s">
-        <v>784</v>
+        <v>754</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6454,10 +6466,10 @@
         <v>448</v>
       </c>
       <c r="D217" t="s">
-        <v>577</v>
+        <v>448</v>
       </c>
       <c r="E217" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6471,10 +6483,10 @@
         <v>449</v>
       </c>
       <c r="D218" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E218" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6488,10 +6500,10 @@
         <v>450</v>
       </c>
       <c r="D219" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="E219" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6505,10 +6517,10 @@
         <v>451</v>
       </c>
       <c r="D220" t="s">
-        <v>471</v>
+        <v>581</v>
       </c>
       <c r="E220" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6522,10 +6534,10 @@
         <v>452</v>
       </c>
       <c r="D221" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E221" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6539,10 +6551,10 @@
         <v>453</v>
       </c>
       <c r="D222" t="s">
-        <v>580</v>
+        <v>465</v>
       </c>
       <c r="E222" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6556,10 +6568,10 @@
         <v>454</v>
       </c>
       <c r="D223" t="s">
-        <v>581</v>
+        <v>465</v>
       </c>
       <c r="E223" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6573,10 +6585,10 @@
         <v>455</v>
       </c>
       <c r="D224" t="s">
-        <v>455</v>
+        <v>583</v>
       </c>
       <c r="E224" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6590,10 +6602,10 @@
         <v>456</v>
       </c>
       <c r="D225" t="s">
-        <v>471</v>
+        <v>584</v>
       </c>
       <c r="E225" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6607,10 +6619,10 @@
         <v>457</v>
       </c>
       <c r="D226" t="s">
-        <v>582</v>
+        <v>465</v>
       </c>
       <c r="E226" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6624,10 +6636,10 @@
         <v>458</v>
       </c>
       <c r="D227" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6641,10 +6653,10 @@
         <v>459</v>
       </c>
       <c r="D228" t="s">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="E228" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6658,10 +6670,10 @@
         <v>460</v>
       </c>
       <c r="D229" t="s">
-        <v>471</v>
+        <v>586</v>
       </c>
       <c r="E229" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="803">
   <si>
     <t>Index</t>
   </si>
@@ -1558,9 +1558,6 @@
     <t>LA Tech</t>
   </si>
   <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
     <t>Air Force</t>
   </si>
   <si>
@@ -1996,12 +1993,21 @@
     <t>SOUTHERN CALIFORNIA</t>
   </si>
   <si>
+    <t>SOUTHERN UTAH</t>
+  </si>
+  <si>
     <t>NOTRE DAME</t>
   </si>
   <si>
     <t>BUCKNELL</t>
   </si>
   <si>
+    <t>TEXAS A&amp;M</t>
+  </si>
+  <si>
+    <t>CAL-SACRAMENTO</t>
+  </si>
+  <si>
     <t>FRESNO STATE</t>
   </si>
   <si>
@@ -2194,7 +2200,7 @@
     <t>TENNESSEE TECH</t>
   </si>
   <si>
-    <t>ROBERT MORRIS – PA</t>
+    <t>ROBERT MORRIS - PA</t>
   </si>
   <si>
     <t>WYOMING</t>
@@ -2261,9 +2267,6 @@
   </si>
   <si>
     <t>HAWAII</t>
-  </si>
-  <si>
-    <t>TEXAS A&amp;M</t>
   </si>
   <si>
     <t>ST.FRANCIS-PA</t>
@@ -2814,7 +2817,7 @@
         <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2831,7 +2834,7 @@
         <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2848,7 +2851,7 @@
         <v>463</v>
       </c>
       <c r="E4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2865,7 +2868,7 @@
         <v>464</v>
       </c>
       <c r="E5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2882,7 +2885,7 @@
         <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2899,7 +2902,7 @@
         <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2916,7 +2919,7 @@
         <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2933,7 +2936,7 @@
         <v>466</v>
       </c>
       <c r="E9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2950,7 +2953,7 @@
         <v>467</v>
       </c>
       <c r="E10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2967,7 +2970,7 @@
         <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2984,7 +2987,7 @@
         <v>465</v>
       </c>
       <c r="E12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3001,7 +3004,7 @@
         <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3018,7 +3021,7 @@
         <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3035,7 +3038,7 @@
         <v>469</v>
       </c>
       <c r="E15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3052,7 +3055,7 @@
         <v>470</v>
       </c>
       <c r="E16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3069,7 +3072,7 @@
         <v>471</v>
       </c>
       <c r="E17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3086,7 +3089,7 @@
         <v>472</v>
       </c>
       <c r="E18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3103,7 +3106,7 @@
         <v>473</v>
       </c>
       <c r="E19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3120,7 +3123,7 @@
         <v>465</v>
       </c>
       <c r="E20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3137,7 +3140,7 @@
         <v>465</v>
       </c>
       <c r="E21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3154,7 +3157,7 @@
         <v>465</v>
       </c>
       <c r="E22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3171,7 +3174,7 @@
         <v>465</v>
       </c>
       <c r="E23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3188,7 +3191,7 @@
         <v>465</v>
       </c>
       <c r="E24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3205,7 +3208,7 @@
         <v>465</v>
       </c>
       <c r="E25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3222,7 +3225,7 @@
         <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3239,7 +3242,7 @@
         <v>474</v>
       </c>
       <c r="E27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3256,7 +3259,7 @@
         <v>465</v>
       </c>
       <c r="E28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3273,7 +3276,7 @@
         <v>465</v>
       </c>
       <c r="E29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3290,7 +3293,7 @@
         <v>475</v>
       </c>
       <c r="E30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3307,7 +3310,7 @@
         <v>476</v>
       </c>
       <c r="E31" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3324,7 +3327,7 @@
         <v>465</v>
       </c>
       <c r="E32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3341,7 +3344,7 @@
         <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3358,7 +3361,7 @@
         <v>465</v>
       </c>
       <c r="E34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3375,7 +3378,7 @@
         <v>465</v>
       </c>
       <c r="E35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3392,7 +3395,7 @@
         <v>477</v>
       </c>
       <c r="E36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3409,7 +3412,7 @@
         <v>478</v>
       </c>
       <c r="E37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3426,7 +3429,7 @@
         <v>479</v>
       </c>
       <c r="E38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3443,7 +3446,7 @@
         <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3460,7 +3463,7 @@
         <v>480</v>
       </c>
       <c r="E40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3477,7 +3480,7 @@
         <v>481</v>
       </c>
       <c r="E41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3494,7 +3497,7 @@
         <v>465</v>
       </c>
       <c r="E42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3511,7 +3514,7 @@
         <v>482</v>
       </c>
       <c r="E43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3528,7 +3531,7 @@
         <v>465</v>
       </c>
       <c r="E44" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3545,7 +3548,7 @@
         <v>483</v>
       </c>
       <c r="E45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3562,7 +3565,7 @@
         <v>465</v>
       </c>
       <c r="E46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3579,7 +3582,7 @@
         <v>484</v>
       </c>
       <c r="E47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3596,7 +3599,7 @@
         <v>485</v>
       </c>
       <c r="E48" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3613,7 +3616,7 @@
         <v>465</v>
       </c>
       <c r="E49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3630,7 +3633,7 @@
         <v>486</v>
       </c>
       <c r="E50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3647,7 +3650,7 @@
         <v>487</v>
       </c>
       <c r="E51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3681,7 +3684,7 @@
         <v>489</v>
       </c>
       <c r="E53" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3698,7 +3701,7 @@
         <v>490</v>
       </c>
       <c r="E54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3715,7 +3718,7 @@
         <v>491</v>
       </c>
       <c r="E55" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3732,7 +3735,7 @@
         <v>492</v>
       </c>
       <c r="E56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3749,7 +3752,7 @@
         <v>493</v>
       </c>
       <c r="E57" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3766,7 +3769,7 @@
         <v>465</v>
       </c>
       <c r="E58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3783,7 +3786,7 @@
         <v>465</v>
       </c>
       <c r="E59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3800,7 +3803,7 @@
         <v>494</v>
       </c>
       <c r="E60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3817,7 +3820,7 @@
         <v>495</v>
       </c>
       <c r="E61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3834,7 +3837,7 @@
         <v>465</v>
       </c>
       <c r="E62" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3851,7 +3854,7 @@
         <v>465</v>
       </c>
       <c r="E63" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3868,7 +3871,7 @@
         <v>496</v>
       </c>
       <c r="E64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3885,7 +3888,7 @@
         <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3902,7 +3905,7 @@
         <v>497</v>
       </c>
       <c r="E66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3919,7 +3922,7 @@
         <v>498</v>
       </c>
       <c r="E67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3936,7 +3939,7 @@
         <v>465</v>
       </c>
       <c r="E68" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3953,7 +3956,7 @@
         <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3970,7 +3973,7 @@
         <v>500</v>
       </c>
       <c r="E70" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3987,7 +3990,7 @@
         <v>501</v>
       </c>
       <c r="E71" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4021,7 +4024,7 @@
         <v>503</v>
       </c>
       <c r="E73" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4038,7 +4041,7 @@
         <v>504</v>
       </c>
       <c r="E74" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4055,7 +4058,7 @@
         <v>465</v>
       </c>
       <c r="E75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4072,7 +4075,7 @@
         <v>307</v>
       </c>
       <c r="E76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4089,7 +4092,7 @@
         <v>465</v>
       </c>
       <c r="E77" t="s">
-        <v>465</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4140,7 +4143,7 @@
         <v>465</v>
       </c>
       <c r="E80" t="s">
-        <v>465</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4157,7 +4160,7 @@
         <v>465</v>
       </c>
       <c r="E81" t="s">
-        <v>465</v>
+        <v>663</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4174,7 +4177,7 @@
         <v>506</v>
       </c>
       <c r="E82" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4191,7 +4194,7 @@
         <v>465</v>
       </c>
       <c r="E83" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4208,7 +4211,7 @@
         <v>465</v>
       </c>
       <c r="E84" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4225,7 +4228,7 @@
         <v>465</v>
       </c>
       <c r="E85" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4242,7 +4245,7 @@
         <v>507</v>
       </c>
       <c r="E86" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4259,7 +4262,7 @@
         <v>508</v>
       </c>
       <c r="E87" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4276,7 +4279,7 @@
         <v>509</v>
       </c>
       <c r="E88" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4293,7 +4296,7 @@
         <v>510</v>
       </c>
       <c r="E89" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4310,7 +4313,7 @@
         <v>511</v>
       </c>
       <c r="E90" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4327,7 +4330,7 @@
         <v>512</v>
       </c>
       <c r="E91" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4344,7 +4347,7 @@
         <v>513</v>
       </c>
       <c r="E92" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4378,7 +4381,7 @@
         <v>465</v>
       </c>
       <c r="E94" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4395,7 +4398,7 @@
         <v>326</v>
       </c>
       <c r="E95" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4412,7 +4415,7 @@
         <v>465</v>
       </c>
       <c r="E96" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4426,10 +4429,10 @@
         <v>328</v>
       </c>
       <c r="D97" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="E97" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4443,10 +4446,10 @@
         <v>329</v>
       </c>
       <c r="D98" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E98" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4463,7 +4466,7 @@
         <v>465</v>
       </c>
       <c r="E99" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4480,7 +4483,7 @@
         <v>465</v>
       </c>
       <c r="E100" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4497,7 +4500,7 @@
         <v>465</v>
       </c>
       <c r="E101" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4511,10 +4514,10 @@
         <v>333</v>
       </c>
       <c r="D102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E102" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4531,7 +4534,7 @@
         <v>498</v>
       </c>
       <c r="E103" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4545,10 +4548,10 @@
         <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E104" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4562,10 +4565,10 @@
         <v>336</v>
       </c>
       <c r="D105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E105" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4582,7 +4585,7 @@
         <v>465</v>
       </c>
       <c r="E106" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4599,7 +4602,7 @@
         <v>338</v>
       </c>
       <c r="E107" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4616,7 +4619,7 @@
         <v>465</v>
       </c>
       <c r="E108" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4633,7 +4636,7 @@
         <v>465</v>
       </c>
       <c r="E109" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4647,10 +4650,10 @@
         <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E110" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4681,10 +4684,10 @@
         <v>343</v>
       </c>
       <c r="D112" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E112" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4698,10 +4701,10 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E113" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4715,10 +4718,10 @@
         <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E114" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4732,10 +4735,10 @@
         <v>346</v>
       </c>
       <c r="D115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E115" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4749,10 +4752,10 @@
         <v>347</v>
       </c>
       <c r="D116" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E116" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4769,7 +4772,7 @@
         <v>465</v>
       </c>
       <c r="E117" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4783,10 +4786,10 @@
         <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E118" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4800,10 +4803,10 @@
         <v>350</v>
       </c>
       <c r="D119" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E119" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4820,7 +4823,7 @@
         <v>351</v>
       </c>
       <c r="E120" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4834,10 +4837,10 @@
         <v>352</v>
       </c>
       <c r="D121" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E121" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4854,7 +4857,7 @@
         <v>513</v>
       </c>
       <c r="E122" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4868,10 +4871,10 @@
         <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E123" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4888,7 +4891,7 @@
         <v>465</v>
       </c>
       <c r="E124" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4905,7 +4908,7 @@
         <v>465</v>
       </c>
       <c r="E125" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4919,10 +4922,10 @@
         <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E126" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4939,7 +4942,7 @@
         <v>465</v>
       </c>
       <c r="E127" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4956,7 +4959,7 @@
         <v>465</v>
       </c>
       <c r="E128" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4973,7 +4976,7 @@
         <v>465</v>
       </c>
       <c r="E129" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4987,10 +4990,10 @@
         <v>361</v>
       </c>
       <c r="D130" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E130" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5004,10 +5007,10 @@
         <v>362</v>
       </c>
       <c r="D131" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E131" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5021,10 +5024,10 @@
         <v>363</v>
       </c>
       <c r="D132" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E132" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5041,7 +5044,7 @@
         <v>465</v>
       </c>
       <c r="E133" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5055,10 +5058,10 @@
         <v>365</v>
       </c>
       <c r="D134" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E134" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5072,10 +5075,10 @@
         <v>366</v>
       </c>
       <c r="D135" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E135" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5089,10 +5092,10 @@
         <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E136" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5106,10 +5109,10 @@
         <v>368</v>
       </c>
       <c r="D137" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E137" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5123,10 +5126,10 @@
         <v>369</v>
       </c>
       <c r="D138" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E138" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5143,7 +5146,7 @@
         <v>465</v>
       </c>
       <c r="E139" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5160,7 +5163,7 @@
         <v>465</v>
       </c>
       <c r="E140" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5177,7 +5180,7 @@
         <v>465</v>
       </c>
       <c r="E141" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5194,7 +5197,7 @@
         <v>465</v>
       </c>
       <c r="E142" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5211,7 +5214,7 @@
         <v>465</v>
       </c>
       <c r="E143" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5228,7 +5231,7 @@
         <v>465</v>
       </c>
       <c r="E144" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5242,10 +5245,10 @@
         <v>376</v>
       </c>
       <c r="D145" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E145" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5259,7 +5262,7 @@
         <v>377</v>
       </c>
       <c r="D146" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E146" t="s">
         <v>377</v>
@@ -5276,10 +5279,10 @@
         <v>378</v>
       </c>
       <c r="D147" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E147" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5296,7 +5299,7 @@
         <v>465</v>
       </c>
       <c r="E148" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5313,7 +5316,7 @@
         <v>465</v>
       </c>
       <c r="E149" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5327,10 +5330,10 @@
         <v>381</v>
       </c>
       <c r="D150" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E150" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5347,7 +5350,7 @@
         <v>465</v>
       </c>
       <c r="E151" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5361,10 +5364,10 @@
         <v>383</v>
       </c>
       <c r="D152" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E152" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5378,10 +5381,10 @@
         <v>384</v>
       </c>
       <c r="D153" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E153" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5395,10 +5398,10 @@
         <v>385</v>
       </c>
       <c r="D154" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E154" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5415,7 +5418,7 @@
         <v>465</v>
       </c>
       <c r="E155" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5429,10 +5432,10 @@
         <v>387</v>
       </c>
       <c r="D156" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E156" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5449,7 +5452,7 @@
         <v>388</v>
       </c>
       <c r="E157" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5463,10 +5466,10 @@
         <v>389</v>
       </c>
       <c r="D158" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E158" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5480,10 +5483,10 @@
         <v>390</v>
       </c>
       <c r="D159" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E159" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5497,7 +5500,7 @@
         <v>391</v>
       </c>
       <c r="D160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E160" t="s">
         <v>391</v>
@@ -5514,10 +5517,10 @@
         <v>392</v>
       </c>
       <c r="D161" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E161" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5531,10 +5534,10 @@
         <v>393</v>
       </c>
       <c r="D162" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E162" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5551,7 +5554,7 @@
         <v>465</v>
       </c>
       <c r="E163" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5565,10 +5568,10 @@
         <v>395</v>
       </c>
       <c r="D164" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E164" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5582,10 +5585,10 @@
         <v>396</v>
       </c>
       <c r="D165" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E165" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5602,7 +5605,7 @@
         <v>465</v>
       </c>
       <c r="E166" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5616,10 +5619,10 @@
         <v>398</v>
       </c>
       <c r="D167" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E167" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5633,10 +5636,10 @@
         <v>399</v>
       </c>
       <c r="D168" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E168" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5653,7 +5656,7 @@
         <v>465</v>
       </c>
       <c r="E169" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5667,10 +5670,10 @@
         <v>401</v>
       </c>
       <c r="D170" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E170" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5684,10 +5687,10 @@
         <v>402</v>
       </c>
       <c r="D171" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E171" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5704,7 +5707,7 @@
         <v>510</v>
       </c>
       <c r="E172" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5718,10 +5721,10 @@
         <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E173" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5735,10 +5738,10 @@
         <v>405</v>
       </c>
       <c r="D174" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E174" t="s">
-        <v>749</v>
+        <v>662</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5755,7 +5758,7 @@
         <v>465</v>
       </c>
       <c r="E175" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5772,7 +5775,7 @@
         <v>465</v>
       </c>
       <c r="E176" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5789,7 +5792,7 @@
         <v>465</v>
       </c>
       <c r="E177" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5806,7 +5809,7 @@
         <v>465</v>
       </c>
       <c r="E178" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5820,10 +5823,10 @@
         <v>410</v>
       </c>
       <c r="D179" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E179" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5837,10 +5840,10 @@
         <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E180" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5854,10 +5857,10 @@
         <v>412</v>
       </c>
       <c r="D181" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E181" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5871,10 +5874,10 @@
         <v>413</v>
       </c>
       <c r="D182" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E182" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5891,7 +5894,7 @@
         <v>465</v>
       </c>
       <c r="E183" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5908,7 +5911,7 @@
         <v>465</v>
       </c>
       <c r="E184" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5925,7 +5928,7 @@
         <v>465</v>
       </c>
       <c r="E185" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5942,7 +5945,7 @@
         <v>465</v>
       </c>
       <c r="E186" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5956,10 +5959,10 @@
         <v>418</v>
       </c>
       <c r="D187" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E187" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5976,7 +5979,7 @@
         <v>465</v>
       </c>
       <c r="E188" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5993,7 +5996,7 @@
         <v>492</v>
       </c>
       <c r="E189" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6010,7 +6013,7 @@
         <v>465</v>
       </c>
       <c r="E190" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6024,10 +6027,10 @@
         <v>422</v>
       </c>
       <c r="D191" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E191" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6044,7 +6047,7 @@
         <v>499</v>
       </c>
       <c r="E192" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6058,10 +6061,10 @@
         <v>424</v>
       </c>
       <c r="D193" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E193" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6075,10 +6078,10 @@
         <v>425</v>
       </c>
       <c r="D194" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E194" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6092,10 +6095,10 @@
         <v>426</v>
       </c>
       <c r="D195" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E195" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6109,10 +6112,10 @@
         <v>427</v>
       </c>
       <c r="D196" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E196" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6126,10 +6129,10 @@
         <v>428</v>
       </c>
       <c r="D197" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E197" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6143,10 +6146,10 @@
         <v>429</v>
       </c>
       <c r="D198" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E198" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6163,7 +6166,7 @@
         <v>465</v>
       </c>
       <c r="E199" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6180,7 +6183,7 @@
         <v>465</v>
       </c>
       <c r="E200" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6194,7 +6197,7 @@
         <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E201" t="s">
         <v>432</v>
@@ -6211,10 +6214,10 @@
         <v>433</v>
       </c>
       <c r="D202" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E202" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6228,10 +6231,10 @@
         <v>434</v>
       </c>
       <c r="D203" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E203" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6245,10 +6248,10 @@
         <v>435</v>
       </c>
       <c r="D204" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E204" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6262,10 +6265,10 @@
         <v>436</v>
       </c>
       <c r="D205" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E205" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6282,7 +6285,7 @@
         <v>465</v>
       </c>
       <c r="E206" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6296,10 +6299,10 @@
         <v>438</v>
       </c>
       <c r="D207" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E207" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6313,10 +6316,10 @@
         <v>439</v>
       </c>
       <c r="D208" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E208" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6330,10 +6333,10 @@
         <v>440</v>
       </c>
       <c r="D209" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E209" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6347,10 +6350,10 @@
         <v>441</v>
       </c>
       <c r="D210" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E210" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6367,7 +6370,7 @@
         <v>465</v>
       </c>
       <c r="E211" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6381,10 +6384,10 @@
         <v>443</v>
       </c>
       <c r="D212" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E212" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6401,7 +6404,7 @@
         <v>465</v>
       </c>
       <c r="E213" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6415,7 +6418,7 @@
         <v>445</v>
       </c>
       <c r="D214" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E214" t="s">
         <v>445</v>
@@ -6435,7 +6438,7 @@
         <v>465</v>
       </c>
       <c r="E215" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6449,10 +6452,10 @@
         <v>447</v>
       </c>
       <c r="D216" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E216" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6469,7 +6472,7 @@
         <v>448</v>
       </c>
       <c r="E217" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6486,7 +6489,7 @@
         <v>463</v>
       </c>
       <c r="E218" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6500,10 +6503,10 @@
         <v>450</v>
       </c>
       <c r="D219" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E219" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6517,10 +6520,10 @@
         <v>451</v>
       </c>
       <c r="D220" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E220" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6534,10 +6537,10 @@
         <v>452</v>
       </c>
       <c r="D221" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E221" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6554,7 +6557,7 @@
         <v>465</v>
       </c>
       <c r="E222" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6571,7 +6574,7 @@
         <v>465</v>
       </c>
       <c r="E223" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6585,10 +6588,10 @@
         <v>455</v>
       </c>
       <c r="D224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E224" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6602,10 +6605,10 @@
         <v>456</v>
       </c>
       <c r="D225" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E225" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6622,7 +6625,7 @@
         <v>465</v>
       </c>
       <c r="E226" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6636,10 +6639,10 @@
         <v>458</v>
       </c>
       <c r="D227" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E227" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6653,10 +6656,10 @@
         <v>459</v>
       </c>
       <c r="D228" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E228" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6670,10 +6673,10 @@
         <v>460</v>
       </c>
       <c r="D229" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E229" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="804">
   <si>
     <t>Index</t>
   </si>
@@ -1438,124 +1438,127 @@
     <t>Sam Hous St</t>
   </si>
   <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
     <t>Alabama</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
   </si>
   <si>
     <t>Air Force</t>
@@ -2817,7 +2820,7 @@
         <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2834,7 +2837,7 @@
         <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2851,7 +2854,7 @@
         <v>463</v>
       </c>
       <c r="E4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2868,7 +2871,7 @@
         <v>464</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2885,7 +2888,7 @@
         <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2902,7 +2905,7 @@
         <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2919,7 +2922,7 @@
         <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2936,7 +2939,7 @@
         <v>466</v>
       </c>
       <c r="E9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2953,7 +2956,7 @@
         <v>467</v>
       </c>
       <c r="E10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2970,7 +2973,7 @@
         <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2987,7 +2990,7 @@
         <v>465</v>
       </c>
       <c r="E12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3004,7 +3007,7 @@
         <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3021,7 +3024,7 @@
         <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3038,7 +3041,7 @@
         <v>469</v>
       </c>
       <c r="E15" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3055,7 +3058,7 @@
         <v>470</v>
       </c>
       <c r="E16" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3072,7 +3075,7 @@
         <v>471</v>
       </c>
       <c r="E17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3089,7 +3092,7 @@
         <v>472</v>
       </c>
       <c r="E18" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3106,7 +3109,7 @@
         <v>473</v>
       </c>
       <c r="E19" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3123,7 +3126,7 @@
         <v>465</v>
       </c>
       <c r="E20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3140,7 +3143,7 @@
         <v>465</v>
       </c>
       <c r="E21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3157,7 +3160,7 @@
         <v>465</v>
       </c>
       <c r="E22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3174,7 +3177,7 @@
         <v>465</v>
       </c>
       <c r="E23" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3191,7 +3194,7 @@
         <v>465</v>
       </c>
       <c r="E24" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3208,7 +3211,7 @@
         <v>465</v>
       </c>
       <c r="E25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3225,7 +3228,7 @@
         <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3242,7 +3245,7 @@
         <v>474</v>
       </c>
       <c r="E27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3259,7 +3262,7 @@
         <v>465</v>
       </c>
       <c r="E28" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3276,7 +3279,7 @@
         <v>465</v>
       </c>
       <c r="E29" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3293,7 +3296,7 @@
         <v>475</v>
       </c>
       <c r="E30" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3310,7 +3313,7 @@
         <v>476</v>
       </c>
       <c r="E31" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3327,7 +3330,7 @@
         <v>465</v>
       </c>
       <c r="E32" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3344,7 +3347,7 @@
         <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3361,7 +3364,7 @@
         <v>465</v>
       </c>
       <c r="E34" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3378,7 +3381,7 @@
         <v>465</v>
       </c>
       <c r="E35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3395,7 +3398,7 @@
         <v>477</v>
       </c>
       <c r="E36" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3412,7 +3415,7 @@
         <v>478</v>
       </c>
       <c r="E37" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3429,7 +3432,7 @@
         <v>479</v>
       </c>
       <c r="E38" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3446,7 +3449,7 @@
         <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3463,7 +3466,7 @@
         <v>480</v>
       </c>
       <c r="E40" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3480,7 +3483,7 @@
         <v>481</v>
       </c>
       <c r="E41" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3497,7 +3500,7 @@
         <v>465</v>
       </c>
       <c r="E42" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3514,7 +3517,7 @@
         <v>482</v>
       </c>
       <c r="E43" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3531,7 +3534,7 @@
         <v>465</v>
       </c>
       <c r="E44" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3548,7 +3551,7 @@
         <v>483</v>
       </c>
       <c r="E45" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3565,7 +3568,7 @@
         <v>465</v>
       </c>
       <c r="E46" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3582,7 +3585,7 @@
         <v>484</v>
       </c>
       <c r="E47" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3599,7 +3602,7 @@
         <v>485</v>
       </c>
       <c r="E48" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3616,7 +3619,7 @@
         <v>465</v>
       </c>
       <c r="E49" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3633,7 +3636,7 @@
         <v>486</v>
       </c>
       <c r="E50" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3650,7 +3653,7 @@
         <v>487</v>
       </c>
       <c r="E51" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3684,7 +3687,7 @@
         <v>489</v>
       </c>
       <c r="E53" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3701,7 +3704,7 @@
         <v>490</v>
       </c>
       <c r="E54" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3718,7 +3721,7 @@
         <v>491</v>
       </c>
       <c r="E55" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3735,7 +3738,7 @@
         <v>492</v>
       </c>
       <c r="E56" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3752,7 +3755,7 @@
         <v>493</v>
       </c>
       <c r="E57" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3769,7 +3772,7 @@
         <v>465</v>
       </c>
       <c r="E58" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3786,7 +3789,7 @@
         <v>465</v>
       </c>
       <c r="E59" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3803,7 +3806,7 @@
         <v>494</v>
       </c>
       <c r="E60" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3820,7 +3823,7 @@
         <v>495</v>
       </c>
       <c r="E61" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3837,7 +3840,7 @@
         <v>465</v>
       </c>
       <c r="E62" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3854,7 +3857,7 @@
         <v>465</v>
       </c>
       <c r="E63" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3871,7 +3874,7 @@
         <v>496</v>
       </c>
       <c r="E64" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3888,7 +3891,7 @@
         <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3905,7 +3908,7 @@
         <v>497</v>
       </c>
       <c r="E66" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3922,7 +3925,7 @@
         <v>498</v>
       </c>
       <c r="E67" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3939,7 +3942,7 @@
         <v>465</v>
       </c>
       <c r="E68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3956,7 +3959,7 @@
         <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3973,7 +3976,7 @@
         <v>500</v>
       </c>
       <c r="E70" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3990,7 +3993,7 @@
         <v>501</v>
       </c>
       <c r="E71" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4024,7 +4027,7 @@
         <v>503</v>
       </c>
       <c r="E73" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4041,7 +4044,7 @@
         <v>504</v>
       </c>
       <c r="E74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4058,7 +4061,7 @@
         <v>465</v>
       </c>
       <c r="E75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4075,7 +4078,7 @@
         <v>307</v>
       </c>
       <c r="E76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4092,7 +4095,7 @@
         <v>465</v>
       </c>
       <c r="E77" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4109,7 +4112,7 @@
         <v>505</v>
       </c>
       <c r="E78" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4126,7 +4129,7 @@
         <v>465</v>
       </c>
       <c r="E79" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4143,7 +4146,7 @@
         <v>465</v>
       </c>
       <c r="E80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4160,7 +4163,7 @@
         <v>465</v>
       </c>
       <c r="E81" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4177,7 +4180,7 @@
         <v>506</v>
       </c>
       <c r="E82" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4194,7 +4197,7 @@
         <v>465</v>
       </c>
       <c r="E83" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4211,7 +4214,7 @@
         <v>465</v>
       </c>
       <c r="E84" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4228,7 +4231,7 @@
         <v>465</v>
       </c>
       <c r="E85" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4245,7 +4248,7 @@
         <v>507</v>
       </c>
       <c r="E86" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4262,7 +4265,7 @@
         <v>508</v>
       </c>
       <c r="E87" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4279,7 +4282,7 @@
         <v>509</v>
       </c>
       <c r="E88" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4296,7 +4299,7 @@
         <v>510</v>
       </c>
       <c r="E89" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4313,7 +4316,7 @@
         <v>511</v>
       </c>
       <c r="E90" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4330,7 +4333,7 @@
         <v>512</v>
       </c>
       <c r="E91" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4347,7 +4350,7 @@
         <v>513</v>
       </c>
       <c r="E92" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4381,7 +4384,7 @@
         <v>465</v>
       </c>
       <c r="E94" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4398,7 +4401,7 @@
         <v>326</v>
       </c>
       <c r="E95" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4415,7 +4418,7 @@
         <v>465</v>
       </c>
       <c r="E96" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4429,10 +4432,10 @@
         <v>328</v>
       </c>
       <c r="D97" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="E97" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4446,10 +4449,10 @@
         <v>329</v>
       </c>
       <c r="D98" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E98" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4466,7 +4469,7 @@
         <v>465</v>
       </c>
       <c r="E99" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4483,7 +4486,7 @@
         <v>465</v>
       </c>
       <c r="E100" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4500,7 +4503,7 @@
         <v>465</v>
       </c>
       <c r="E101" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4514,10 +4517,10 @@
         <v>333</v>
       </c>
       <c r="D102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E102" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4534,7 +4537,7 @@
         <v>498</v>
       </c>
       <c r="E103" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4548,10 +4551,10 @@
         <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E104" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4565,10 +4568,10 @@
         <v>336</v>
       </c>
       <c r="D105" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E105" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4585,7 +4588,7 @@
         <v>465</v>
       </c>
       <c r="E106" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4602,7 +4605,7 @@
         <v>338</v>
       </c>
       <c r="E107" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4619,7 +4622,7 @@
         <v>465</v>
       </c>
       <c r="E108" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4636,7 +4639,7 @@
         <v>465</v>
       </c>
       <c r="E109" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4650,10 +4653,10 @@
         <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E110" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4684,10 +4687,10 @@
         <v>343</v>
       </c>
       <c r="D112" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E112" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4701,10 +4704,10 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E113" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4718,10 +4721,10 @@
         <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E114" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4735,10 +4738,10 @@
         <v>346</v>
       </c>
       <c r="D115" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E115" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4752,10 +4755,10 @@
         <v>347</v>
       </c>
       <c r="D116" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E116" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4772,7 +4775,7 @@
         <v>465</v>
       </c>
       <c r="E117" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4786,10 +4789,10 @@
         <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E118" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4803,10 +4806,10 @@
         <v>350</v>
       </c>
       <c r="D119" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E119" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4823,7 +4826,7 @@
         <v>351</v>
       </c>
       <c r="E120" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4837,10 +4840,10 @@
         <v>352</v>
       </c>
       <c r="D121" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E121" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4857,7 +4860,7 @@
         <v>513</v>
       </c>
       <c r="E122" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4871,10 +4874,10 @@
         <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E123" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4891,7 +4894,7 @@
         <v>465</v>
       </c>
       <c r="E124" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4908,7 +4911,7 @@
         <v>465</v>
       </c>
       <c r="E125" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4922,10 +4925,10 @@
         <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E126" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4942,7 +4945,7 @@
         <v>465</v>
       </c>
       <c r="E127" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4959,7 +4962,7 @@
         <v>465</v>
       </c>
       <c r="E128" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4976,7 +4979,7 @@
         <v>465</v>
       </c>
       <c r="E129" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4990,10 +4993,10 @@
         <v>361</v>
       </c>
       <c r="D130" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E130" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5007,10 +5010,10 @@
         <v>362</v>
       </c>
       <c r="D131" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E131" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5024,10 +5027,10 @@
         <v>363</v>
       </c>
       <c r="D132" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E132" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5044,7 +5047,7 @@
         <v>465</v>
       </c>
       <c r="E133" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5058,10 +5061,10 @@
         <v>365</v>
       </c>
       <c r="D134" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E134" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5075,10 +5078,10 @@
         <v>366</v>
       </c>
       <c r="D135" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E135" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5092,10 +5095,10 @@
         <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E136" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5109,10 +5112,10 @@
         <v>368</v>
       </c>
       <c r="D137" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E137" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5126,10 +5129,10 @@
         <v>369</v>
       </c>
       <c r="D138" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E138" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5146,7 +5149,7 @@
         <v>465</v>
       </c>
       <c r="E139" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5163,7 +5166,7 @@
         <v>465</v>
       </c>
       <c r="E140" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5180,7 +5183,7 @@
         <v>465</v>
       </c>
       <c r="E141" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5197,7 +5200,7 @@
         <v>465</v>
       </c>
       <c r="E142" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5214,7 +5217,7 @@
         <v>465</v>
       </c>
       <c r="E143" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5231,7 +5234,7 @@
         <v>465</v>
       </c>
       <c r="E144" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5245,10 +5248,10 @@
         <v>376</v>
       </c>
       <c r="D145" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E145" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5262,7 +5265,7 @@
         <v>377</v>
       </c>
       <c r="D146" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E146" t="s">
         <v>377</v>
@@ -5279,10 +5282,10 @@
         <v>378</v>
       </c>
       <c r="D147" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E147" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5299,7 +5302,7 @@
         <v>465</v>
       </c>
       <c r="E148" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5316,7 +5319,7 @@
         <v>465</v>
       </c>
       <c r="E149" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5330,10 +5333,10 @@
         <v>381</v>
       </c>
       <c r="D150" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E150" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5350,7 +5353,7 @@
         <v>465</v>
       </c>
       <c r="E151" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5364,10 +5367,10 @@
         <v>383</v>
       </c>
       <c r="D152" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E152" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5381,10 +5384,10 @@
         <v>384</v>
       </c>
       <c r="D153" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E153" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5398,10 +5401,10 @@
         <v>385</v>
       </c>
       <c r="D154" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E154" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5418,7 +5421,7 @@
         <v>465</v>
       </c>
       <c r="E155" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5432,10 +5435,10 @@
         <v>387</v>
       </c>
       <c r="D156" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E156" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5452,7 +5455,7 @@
         <v>388</v>
       </c>
       <c r="E157" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5466,10 +5469,10 @@
         <v>389</v>
       </c>
       <c r="D158" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E158" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5483,10 +5486,10 @@
         <v>390</v>
       </c>
       <c r="D159" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E159" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5500,7 +5503,7 @@
         <v>391</v>
       </c>
       <c r="D160" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E160" t="s">
         <v>391</v>
@@ -5517,10 +5520,10 @@
         <v>392</v>
       </c>
       <c r="D161" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E161" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5534,10 +5537,10 @@
         <v>393</v>
       </c>
       <c r="D162" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E162" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5554,7 +5557,7 @@
         <v>465</v>
       </c>
       <c r="E163" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5568,10 +5571,10 @@
         <v>395</v>
       </c>
       <c r="D164" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E164" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5585,10 +5588,10 @@
         <v>396</v>
       </c>
       <c r="D165" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E165" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5605,7 +5608,7 @@
         <v>465</v>
       </c>
       <c r="E166" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5619,10 +5622,10 @@
         <v>398</v>
       </c>
       <c r="D167" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E167" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5636,10 +5639,10 @@
         <v>399</v>
       </c>
       <c r="D168" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E168" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5656,7 +5659,7 @@
         <v>465</v>
       </c>
       <c r="E169" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5670,10 +5673,10 @@
         <v>401</v>
       </c>
       <c r="D170" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E170" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5687,10 +5690,10 @@
         <v>402</v>
       </c>
       <c r="D171" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E171" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5707,7 +5710,7 @@
         <v>510</v>
       </c>
       <c r="E172" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5721,10 +5724,10 @@
         <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E173" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5738,10 +5741,10 @@
         <v>405</v>
       </c>
       <c r="D174" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E174" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5758,7 +5761,7 @@
         <v>465</v>
       </c>
       <c r="E175" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5775,7 +5778,7 @@
         <v>465</v>
       </c>
       <c r="E176" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5792,7 +5795,7 @@
         <v>465</v>
       </c>
       <c r="E177" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5809,7 +5812,7 @@
         <v>465</v>
       </c>
       <c r="E178" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5823,10 +5826,10 @@
         <v>410</v>
       </c>
       <c r="D179" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E179" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5840,10 +5843,10 @@
         <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E180" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5857,10 +5860,10 @@
         <v>412</v>
       </c>
       <c r="D181" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E181" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5874,10 +5877,10 @@
         <v>413</v>
       </c>
       <c r="D182" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E182" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5894,7 +5897,7 @@
         <v>465</v>
       </c>
       <c r="E183" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5911,7 +5914,7 @@
         <v>465</v>
       </c>
       <c r="E184" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5928,7 +5931,7 @@
         <v>465</v>
       </c>
       <c r="E185" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5945,7 +5948,7 @@
         <v>465</v>
       </c>
       <c r="E186" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5959,10 +5962,10 @@
         <v>418</v>
       </c>
       <c r="D187" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E187" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5979,7 +5982,7 @@
         <v>465</v>
       </c>
       <c r="E188" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5996,7 +5999,7 @@
         <v>492</v>
       </c>
       <c r="E189" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6013,7 +6016,7 @@
         <v>465</v>
       </c>
       <c r="E190" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6027,10 +6030,10 @@
         <v>422</v>
       </c>
       <c r="D191" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E191" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6047,7 +6050,7 @@
         <v>499</v>
       </c>
       <c r="E192" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6061,10 +6064,10 @@
         <v>424</v>
       </c>
       <c r="D193" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E193" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6078,10 +6081,10 @@
         <v>425</v>
       </c>
       <c r="D194" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E194" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6095,10 +6098,10 @@
         <v>426</v>
       </c>
       <c r="D195" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E195" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6112,10 +6115,10 @@
         <v>427</v>
       </c>
       <c r="D196" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E196" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6129,10 +6132,10 @@
         <v>428</v>
       </c>
       <c r="D197" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E197" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6146,10 +6149,10 @@
         <v>429</v>
       </c>
       <c r="D198" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E198" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6166,7 +6169,7 @@
         <v>465</v>
       </c>
       <c r="E199" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6183,7 +6186,7 @@
         <v>465</v>
       </c>
       <c r="E200" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6197,7 +6200,7 @@
         <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E201" t="s">
         <v>432</v>
@@ -6214,10 +6217,10 @@
         <v>433</v>
       </c>
       <c r="D202" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E202" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6231,10 +6234,10 @@
         <v>434</v>
       </c>
       <c r="D203" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E203" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6248,10 +6251,10 @@
         <v>435</v>
       </c>
       <c r="D204" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E204" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6265,10 +6268,10 @@
         <v>436</v>
       </c>
       <c r="D205" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E205" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6285,7 +6288,7 @@
         <v>465</v>
       </c>
       <c r="E206" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6299,10 +6302,10 @@
         <v>438</v>
       </c>
       <c r="D207" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E207" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6316,10 +6319,10 @@
         <v>439</v>
       </c>
       <c r="D208" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E208" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6333,10 +6336,10 @@
         <v>440</v>
       </c>
       <c r="D209" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E209" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6350,10 +6353,10 @@
         <v>441</v>
       </c>
       <c r="D210" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E210" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6370,7 +6373,7 @@
         <v>465</v>
       </c>
       <c r="E211" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6384,10 +6387,10 @@
         <v>443</v>
       </c>
       <c r="D212" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E212" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6404,7 +6407,7 @@
         <v>465</v>
       </c>
       <c r="E213" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6418,7 +6421,7 @@
         <v>445</v>
       </c>
       <c r="D214" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E214" t="s">
         <v>445</v>
@@ -6438,7 +6441,7 @@
         <v>465</v>
       </c>
       <c r="E215" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6452,10 +6455,10 @@
         <v>447</v>
       </c>
       <c r="D216" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E216" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6472,7 +6475,7 @@
         <v>448</v>
       </c>
       <c r="E217" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6489,7 +6492,7 @@
         <v>463</v>
       </c>
       <c r="E218" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6503,10 +6506,10 @@
         <v>450</v>
       </c>
       <c r="D219" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E219" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6520,10 +6523,10 @@
         <v>451</v>
       </c>
       <c r="D220" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E220" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6537,10 +6540,10 @@
         <v>452</v>
       </c>
       <c r="D221" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E221" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6557,7 +6560,7 @@
         <v>465</v>
       </c>
       <c r="E222" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6574,7 +6577,7 @@
         <v>465</v>
       </c>
       <c r="E223" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6588,10 +6591,10 @@
         <v>455</v>
       </c>
       <c r="D224" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E224" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6605,10 +6608,10 @@
         <v>456</v>
       </c>
       <c r="D225" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E225" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6625,7 +6628,7 @@
         <v>465</v>
       </c>
       <c r="E226" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6639,10 +6642,10 @@
         <v>458</v>
       </c>
       <c r="D227" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6656,10 +6659,10 @@
         <v>459</v>
       </c>
       <c r="D228" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E228" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6673,10 +6676,10 @@
         <v>460</v>
       </c>
       <c r="D229" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E229" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="700">
   <si>
     <t>Index</t>
   </si>
@@ -31,2401 +31,2089 @@
     <t>bpi team</t>
   </si>
   <si>
-    <t>Oregon State Beavers</t>
-  </si>
-  <si>
-    <t>Southern Miss Golden Eagles</t>
-  </si>
-  <si>
-    <t>Eastern Kentucky Colonels</t>
-  </si>
-  <si>
-    <t>Pittsburgh Panthers</t>
-  </si>
-  <si>
-    <t>Holy Cross Crusaders</t>
-  </si>
-  <si>
-    <t>Jackson State Tigers</t>
-  </si>
-  <si>
-    <t>Grambling Tigers</t>
-  </si>
-  <si>
-    <t>Colorado Buffaloes</t>
-  </si>
-  <si>
-    <t>Liberty Flames</t>
-  </si>
-  <si>
-    <t>Purdue Boilermakers</t>
-  </si>
-  <si>
-    <t>Stony Brook Seawolves</t>
-  </si>
-  <si>
-    <t>William &amp; Mary Tribe</t>
-  </si>
-  <si>
-    <t>UC Davis Aggies</t>
-  </si>
-  <si>
-    <t>Charlotte 49ers</t>
-  </si>
-  <si>
-    <t>SMU Mustangs</t>
-  </si>
-  <si>
-    <t>Michigan State Spartans</t>
-  </si>
-  <si>
-    <t>Auburn Tigers</t>
-  </si>
-  <si>
-    <t>Sam Houston Bearkats</t>
-  </si>
-  <si>
-    <t>Sacred Heart Pioneers</t>
-  </si>
-  <si>
-    <t>Alcorn State Braves</t>
-  </si>
-  <si>
-    <t>Idaho State Bengals</t>
-  </si>
-  <si>
-    <t>Lafayette Leopards</t>
-  </si>
-  <si>
-    <t>Prairie View A&amp;M Panthers</t>
-  </si>
-  <si>
-    <t>Howard Bison</t>
-  </si>
-  <si>
-    <t>Wofford Terriers</t>
-  </si>
-  <si>
-    <t>Alabama A&amp;M Bulldogs</t>
-  </si>
-  <si>
-    <t>Southeast Missouri State Redhawks</t>
-  </si>
-  <si>
-    <t>Stephen F. Austin Lumberjacks</t>
-  </si>
-  <si>
-    <t>Tennessee Volunteers</t>
-  </si>
-  <si>
-    <t>Texas Tech Red Raiders</t>
-  </si>
-  <si>
-    <t>Idaho Vandals</t>
-  </si>
-  <si>
-    <t>UTSA Roadrunners</t>
-  </si>
-  <si>
-    <t>Southern Illinois Salukis</t>
-  </si>
-  <si>
-    <t>Delaware State Hornets</t>
-  </si>
-  <si>
-    <t>Eastern Michigan Eagles</t>
-  </si>
-  <si>
-    <t>Baylor Bears</t>
-  </si>
-  <si>
-    <t>Miami Hurricanes</t>
-  </si>
-  <si>
-    <t>UCF Knights</t>
-  </si>
-  <si>
-    <t>Syracuse Orange</t>
-  </si>
-  <si>
-    <t>Iowa State Cyclones</t>
-  </si>
-  <si>
-    <t>Tennessee State Tigers</t>
-  </si>
-  <si>
-    <t>Ohio Bobcats</t>
-  </si>
-  <si>
-    <t>Portland State Vikings</t>
-  </si>
-  <si>
-    <t>Minnesota Golden Gophers</t>
-  </si>
-  <si>
-    <t>Fort Valley State Wildcats</t>
-  </si>
-  <si>
-    <t>Maryland Terrapins</t>
-  </si>
-  <si>
-    <t>Colorado State Rams</t>
-  </si>
-  <si>
-    <t>Northern Colorado Bears</t>
-  </si>
-  <si>
-    <t>Cincinnati Bearcats</t>
-  </si>
-  <si>
-    <t>New Mexico Lobos</t>
-  </si>
-  <si>
-    <t>Utah Utes</t>
-  </si>
-  <si>
-    <t>Washington Huskies</t>
-  </si>
-  <si>
-    <t>Florida Atlantic Owls</t>
-  </si>
-  <si>
-    <t>Ball State Cardinals</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M Rattlers</t>
-  </si>
-  <si>
-    <t>Indiana Hoosiers</t>
-  </si>
-  <si>
-    <t>Houston Christian Huskies</t>
-  </si>
-  <si>
-    <t>Rhode Island Rams</t>
-  </si>
-  <si>
-    <t>Tulsa Golden Hurricane</t>
-  </si>
-  <si>
-    <t>Georgia Tech Yellow Jackets</t>
-  </si>
-  <si>
-    <t>South Carolina State Bulldogs</t>
-  </si>
-  <si>
-    <t>Tarleton State Texans</t>
-  </si>
-  <si>
-    <t>New Mexico State Aggies</t>
-  </si>
-  <si>
-    <t>North Dakota Fighting Hawks</t>
-  </si>
-  <si>
-    <t>Oklahoma Sooners</t>
-  </si>
-  <si>
-    <t>Murray State Racers</t>
-  </si>
-  <si>
-    <t>Bethune-Cookman Wildcats</t>
-  </si>
-  <si>
-    <t>Missouri State Bears</t>
-  </si>
-  <si>
-    <t>Vanderbilt Commodores</t>
-  </si>
-  <si>
-    <t>UL Monroe Warhawks</t>
-  </si>
-  <si>
-    <t>Iowa Hawkeyes</t>
-  </si>
-  <si>
-    <t>Oklahoma State Cowboys</t>
-  </si>
-  <si>
-    <t>Tulane Green Wave</t>
-  </si>
-  <si>
-    <t>Central Arkansas Bears</t>
-  </si>
-  <si>
-    <t>USC Trojans</t>
-  </si>
-  <si>
-    <t>Southern Utah Thunderbirds</t>
-  </si>
-  <si>
-    <t>Notre Dame Fighting Irish</t>
-  </si>
-  <si>
-    <t>Bucknell Bison</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M-Commerce Lions</t>
-  </si>
-  <si>
-    <t>Sacramento State Hornets</t>
-  </si>
-  <si>
-    <t>Fresno State Bulldogs</t>
-  </si>
-  <si>
-    <t>North Alabama Lions</t>
-  </si>
-  <si>
-    <t>Furman Paladins</t>
-  </si>
-  <si>
-    <t>Albright Lions</t>
-  </si>
-  <si>
-    <t>Nevada Wolf Pack</t>
-  </si>
-  <si>
-    <t>Louisville Cardinals</t>
-  </si>
-  <si>
-    <t>Clemson Tigers</t>
-  </si>
-  <si>
-    <t>Memphis Tigers</t>
-  </si>
-  <si>
-    <t>Jacksonville State Gamecocks</t>
-  </si>
-  <si>
-    <t>Old Dominion Monarchs</t>
-  </si>
-  <si>
-    <t>Louisiana Tech Bulldogs</t>
-  </si>
-  <si>
-    <t>Elon Phoenix</t>
-  </si>
-  <si>
-    <t>Towson Tigers</t>
-  </si>
-  <si>
-    <t>UAB Blazers</t>
-  </si>
-  <si>
-    <t>South Dakota Coyotes</t>
-  </si>
-  <si>
-    <t>Alabama Crimson Tide</t>
-  </si>
-  <si>
-    <t>Air Force Falcons</t>
-  </si>
-  <si>
-    <t>Eastern Washington Eagles</t>
-  </si>
-  <si>
-    <t>The Citadel Bulldogs</t>
-  </si>
-  <si>
-    <t>Austin Peay Governors</t>
-  </si>
-  <si>
-    <t>Texas State Bobcats</t>
-  </si>
-  <si>
-    <t>Mississippi State Bulldogs</t>
-  </si>
-  <si>
-    <t>Texas Longhorns</t>
-  </si>
-  <si>
-    <t>Arkansas State Red Wolves</t>
-  </si>
-  <si>
-    <t>Campbell Fighting Camels</t>
-  </si>
-  <si>
-    <t>UCLA Bruins</t>
-  </si>
-  <si>
-    <t>SE Louisiana Lions</t>
-  </si>
-  <si>
-    <t>Eastern Illinois Panthers</t>
-  </si>
-  <si>
-    <t>UTEP Miners</t>
-  </si>
-  <si>
-    <t>Long Island University Sharks</t>
-  </si>
-  <si>
-    <t>California Golden Bears</t>
-  </si>
-  <si>
-    <t>Wake Forest Demon Deacons</t>
-  </si>
-  <si>
-    <t>Penn State Nittany Lions</t>
-  </si>
-  <si>
-    <t>Florida International Panthers</t>
-  </si>
-  <si>
-    <t>Akron Zips</t>
-  </si>
-  <si>
-    <t>Nicholls Colonels</t>
-  </si>
-  <si>
-    <t>Toledo Rockets</t>
-  </si>
-  <si>
-    <t>Louisiana Ragin Cajuns</t>
-  </si>
-  <si>
-    <t>UNLV Rebels</t>
-  </si>
-  <si>
-    <t>Marshall Thundering Herd</t>
-  </si>
-  <si>
-    <t>Utah Tech Trailblazers</t>
-  </si>
-  <si>
-    <t>Michigan Wolverines</t>
-  </si>
-  <si>
-    <t>Kennesaw State Owls</t>
-  </si>
-  <si>
-    <t>Northern Iowa Panthers</t>
-  </si>
-  <si>
-    <t>Kansas Jayhawks</t>
-  </si>
-  <si>
-    <t>Richmond Spiders</t>
-  </si>
-  <si>
-    <t>Arkansas-Pine Bluff Golden Lions</t>
-  </si>
-  <si>
-    <t>Charleston Southern Buccaneers</t>
-  </si>
-  <si>
-    <t>Arizona Wildcats</t>
-  </si>
-  <si>
-    <t>North Carolina Tar Heels</t>
-  </si>
-  <si>
-    <t>Oregon Ducks</t>
-  </si>
-  <si>
-    <t>Duquesne Dukes</t>
-  </si>
-  <si>
-    <t>Ole Miss Rebels</t>
-  </si>
-  <si>
-    <t>Washington State Cougars</t>
-  </si>
-  <si>
-    <t>Bowling Green Falcons</t>
-  </si>
-  <si>
-    <t>Abilene Christian Wildcats</t>
-  </si>
-  <si>
-    <t>Appalachian State Mountaineers</t>
-  </si>
-  <si>
-    <t>North Carolina Central Eagles</t>
-  </si>
-  <si>
-    <t>Texas Southern Tigers</t>
-  </si>
-  <si>
-    <t>Youngstown State Penguins</t>
-  </si>
-  <si>
-    <t>Northern Arizona Lumberjacks</t>
-  </si>
-  <si>
-    <t>Wagner Seahawks</t>
-  </si>
-  <si>
-    <t>VMI Keydets</t>
-  </si>
-  <si>
-    <t>San Diego State Aztecs</t>
-  </si>
-  <si>
-    <t>Navy Midshipmen</t>
-  </si>
-  <si>
-    <t>Central Michigan Chippewas</t>
-  </si>
-  <si>
-    <t>Tennessee Tech Golden Eagles</t>
-  </si>
-  <si>
-    <t>Robert Morris Colonials</t>
-  </si>
-  <si>
-    <t>Wyoming Cowboys</t>
-  </si>
-  <si>
-    <t>Bryant Bulldogs</t>
-  </si>
-  <si>
-    <t>Utah State Aggies</t>
-  </si>
-  <si>
-    <t>Nebraska Cornhuskers</t>
-  </si>
-  <si>
-    <t>Norfolk State Spartans</t>
-  </si>
-  <si>
-    <t>East Tennessee State Buccaneers</t>
-  </si>
-  <si>
-    <t>Buffalo Bulls</t>
-  </si>
-  <si>
-    <t>LSU Tigers</t>
-  </si>
-  <si>
-    <t>Illinois Fighting Illini</t>
-  </si>
-  <si>
-    <t>Houston Cougars</t>
-  </si>
-  <si>
-    <t>Rice Owls</t>
-  </si>
-  <si>
-    <t>West Virginia Mountaineers</t>
-  </si>
-  <si>
-    <t>Boston College Eagles</t>
-  </si>
-  <si>
-    <t>Colgate Raiders</t>
-  </si>
-  <si>
-    <t>Florida State Seminoles</t>
-  </si>
-  <si>
-    <t>South Florida Bulls</t>
-  </si>
-  <si>
-    <t>Villanova Wildcats</t>
-  </si>
-  <si>
-    <t>Kansas State Wildcats</t>
-  </si>
-  <si>
-    <t>Boise State Broncos</t>
-  </si>
-  <si>
-    <t>UT Martin Skyhawks</t>
-  </si>
-  <si>
-    <t>Wisconsin Badgers</t>
-  </si>
-  <si>
-    <t>Rutgers Scarlet Knights</t>
-  </si>
-  <si>
-    <t>New Hampshire Wildcats</t>
-  </si>
-  <si>
-    <t>Hawaii Rainbow Warriors</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M Aggies</t>
-  </si>
-  <si>
-    <t>St. Francis (PA) Red Flash</t>
-  </si>
-  <si>
-    <t>Morgan State Bears</t>
-  </si>
-  <si>
-    <t>Merchant Marine Mariners</t>
-  </si>
-  <si>
-    <t>Samford Bulldogs</t>
-  </si>
-  <si>
-    <t>UConn Huskies</t>
-  </si>
-  <si>
-    <t>Temple Owls</t>
-  </si>
-  <si>
-    <t>Georgia Bulldogs</t>
-  </si>
-  <si>
-    <t>Northern Illinois Huskies</t>
-  </si>
-  <si>
-    <t>South Alabama Jaguars</t>
-  </si>
-  <si>
-    <t>Western Illinois Leathernecks</t>
-  </si>
-  <si>
-    <t>Merrimack Warriors</t>
-  </si>
-  <si>
-    <t>Northwestern State Demons</t>
-  </si>
-  <si>
-    <t>Virginia Tech Hokies</t>
-  </si>
-  <si>
-    <t>North Carolina A&amp;T Aggies</t>
-  </si>
-  <si>
-    <t>Florida Gators</t>
-  </si>
-  <si>
-    <t>McNeese Cowboys</t>
-  </si>
-  <si>
-    <t>North Texas Mean Green</t>
-  </si>
-  <si>
-    <t>Missouri Tigers</t>
-  </si>
-  <si>
-    <t>Western Kentucky Hilltoppers</t>
-  </si>
-  <si>
-    <t>Massachusetts Minutemen</t>
-  </si>
-  <si>
-    <t>South Carolina Gamecocks</t>
-  </si>
-  <si>
-    <t>Miami (OH) RedHawks</t>
-  </si>
-  <si>
-    <t>Western Michigan Broncos</t>
-  </si>
-  <si>
-    <t>Ohio State Buckeyes</t>
-  </si>
-  <si>
-    <t>Weber State Wildcats</t>
-  </si>
-  <si>
-    <t>Gardner-Webb Runnin Bulldogs</t>
-  </si>
-  <si>
-    <t>Army Black Knights</t>
-  </si>
-  <si>
-    <t>Arizona State Sun Devils</t>
-  </si>
-  <si>
-    <t>Stanford Cardinal</t>
-  </si>
-  <si>
-    <t>Middle Tennessee Blue Raiders</t>
-  </si>
-  <si>
-    <t>TCU Horned Frogs</t>
-  </si>
-  <si>
-    <t>Maine Black Bears</t>
-  </si>
-  <si>
-    <t>Georgia State Panthers</t>
-  </si>
-  <si>
-    <t>Coastal Carolina Chanticleers</t>
-  </si>
-  <si>
-    <t>Arkansas Razorbacks</t>
-  </si>
-  <si>
-    <t>East Carolina Pirates</t>
-  </si>
-  <si>
-    <t>Delaware Fightin Blue Hens</t>
-  </si>
-  <si>
-    <t>Virginia Cavaliers</t>
-  </si>
-  <si>
-    <t>Chattanooga Mocs</t>
-  </si>
-  <si>
-    <t>Duke Blue Devils</t>
-  </si>
-  <si>
-    <t>Western Carolina Catamounts</t>
-  </si>
-  <si>
-    <t>Central Connecticut Blue Devils</t>
-  </si>
-  <si>
-    <t>BYU Cougars</t>
-  </si>
-  <si>
-    <t>Kentucky Wildcats</t>
-  </si>
-  <si>
-    <t>NC State Wolfpack</t>
-  </si>
-  <si>
-    <t>Georgia Southern Eagles</t>
-  </si>
-  <si>
-    <t>Northwestern Wildcats</t>
-  </si>
-  <si>
-    <t>Incarnate Word Cardinals</t>
-  </si>
-  <si>
-    <t>Monmouth Hawks</t>
-  </si>
-  <si>
-    <t>Troy Trojans</t>
-  </si>
-  <si>
-    <t>James Madison Dukes</t>
-  </si>
-  <si>
-    <t>Indiana State Sycamores</t>
-  </si>
-  <si>
-    <t>Cal Poly Mustangs</t>
-  </si>
-  <si>
-    <t>San JosÃ© State Spartans</t>
-  </si>
-  <si>
-    <t>Kent State Golden Flashes</t>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>William &amp; Mary</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SE Missouri</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Tennessee St</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>E Washington</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Utah Tech</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Appalachian St</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M</t>
+  </si>
+  <si>
+    <t>Hou Christian</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>McNeese</t>
+  </si>
+  <si>
+    <t>Abilene Chrstn</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Samford</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Merrimack</t>
+  </si>
+  <si>
+    <t>Missouri St</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>W Carolina</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Tennessee Tech</t>
+  </si>
+  <si>
+    <t>New Mexico St</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>JVille St</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>The Citadel</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>SE Louisiana</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Alcorn St</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>NC A&amp;T</t>
+  </si>
+  <si>
+    <t>Grambling</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Gardner-Webb</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Towson</t>
+  </si>
+  <si>
+    <t>N Colorado</t>
+  </si>
+  <si>
+    <t>Bethune</t>
+  </si>
+  <si>
+    <t>ETSU</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Washington St</t>
+  </si>
+  <si>
+    <t>Morgan St</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Tarleton St</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Weber St</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>SC State</t>
+  </si>
+  <si>
+    <t>Portland St</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Prairie View</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Western KY</t>
+  </si>
+  <si>
+    <t>Youngstown St</t>
+  </si>
+  <si>
+    <t>W Illinois</t>
+  </si>
+  <si>
+    <t>Delaware St</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>C Michigan</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Incarnate Word</t>
+  </si>
+  <si>
+    <t>N Arizona</t>
+  </si>
+  <si>
+    <t>Charleston So</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>Sacred Heart</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>Albright</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Southern Utah</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Duquesne</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Jackson St</t>
+  </si>
+  <si>
+    <t>NWestern St</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>E Kentucky</t>
+  </si>
+  <si>
+    <t>Idaho St</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>UT Martin</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Indiana St</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>SF Austin</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Comm</t>
+  </si>
+  <si>
+    <t>Norfolk St</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Cal Poly</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>AR-Pine Bluff</t>
+  </si>
+  <si>
+    <t>Sam Houston</t>
+  </si>
+  <si>
+    <t>St Francis PA</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t>Ft Valley</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>C Arkansas</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Nicholls</t>
+  </si>
+  <si>
+    <t>NC Central</t>
+  </si>
+  <si>
+    <t>Murray St</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Mrchnt Mar</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>S Illinois</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>North Alabama</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>C Connecticut</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Sacramento St</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>W&amp;M</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SDAK</t>
+  </si>
+  <si>
+    <t>SEMO</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>TNST</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>COLG</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>MRMK</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>WCU</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>TNTC</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>LAF</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>TXSO</t>
+  </si>
+  <si>
+    <t>NCAT</t>
+  </si>
+  <si>
+    <t>GRAM</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>GWEB</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>TOW</t>
+  </si>
+  <si>
+    <t>UNCO</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>WYO</t>
   </si>
   <si>
     <t>ORST</t>
   </si>
   <si>
-    <t>USM</t>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>SCST</t>
+  </si>
+  <si>
+    <t>PRST</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>YSU</t>
+  </si>
+  <si>
+    <t>WIU</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>WOF</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>UIW</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>CHSO</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>RICH</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>RMU</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>JKST</t>
+  </si>
+  <si>
+    <t>NWST</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>APSU</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>MRSH</t>
   </si>
   <si>
     <t>EKU</t>
   </si>
   <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>JKST</t>
-  </si>
-  <si>
-    <t>GRAM</t>
+    <t>IDST</t>
+  </si>
+  <si>
+    <t>MONM</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>SFA</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>TAMC</t>
+  </si>
+  <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>VILL</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>UAPB</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>SFPA</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>FVS</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>CARK</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>LIU</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>NICH</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>STBK</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>BRY</t>
+  </si>
+  <si>
+    <t>IDHO</t>
+  </si>
+  <si>
+    <t>SIU</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>WAG</t>
   </si>
   <si>
     <t>COLO</t>
   </si>
   <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>STBK</t>
-  </si>
-  <si>
-    <t>W&amp;M</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>SHU</t>
-  </si>
-  <si>
-    <t>ALCN</t>
-  </si>
-  <si>
-    <t>IDST</t>
-  </si>
-  <si>
-    <t>LAF</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>HOW</t>
-  </si>
-  <si>
-    <t>WOF</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>SEMO</t>
-  </si>
-  <si>
-    <t>SFA</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>IDHO</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>SIU</t>
-  </si>
-  <si>
-    <t>DSU</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>TNST</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>PRST</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>UNCO</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
     <t>UTAH</t>
   </si>
   <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>HCU</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>SCST</t>
-  </si>
-  <si>
-    <t>TAR</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>UND</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>BCU</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>CARK</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>SUU</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>BUCK</t>
-  </si>
-  <si>
-    <t>TAMC</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>UNA</t>
-  </si>
-  <si>
-    <t>FUR</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>TOW</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>SDAK</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>APSU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>SELA</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>LIU</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>NICH</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>RICH</t>
-  </si>
-  <si>
-    <t>UAPB</t>
-  </si>
-  <si>
-    <t>CHSO</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>DUQ</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>NCCU</t>
-  </si>
-  <si>
-    <t>TXSO</t>
-  </si>
-  <si>
-    <t>YSU</t>
-  </si>
-  <si>
-    <t>NAU</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>VMI</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>TNTC</t>
-  </si>
-  <si>
-    <t>RMU</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>BRY</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>NORF</t>
-  </si>
-  <si>
-    <t>ETSU</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>COLG</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>VILL</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>UTM</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>SFPA</t>
-  </si>
-  <si>
-    <t>MORG</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>WIU</t>
-  </si>
-  <si>
-    <t>MRMK</t>
-  </si>
-  <si>
-    <t>NWST</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>NCAT</t>
-  </si>
-  <si>
     <t>FLA</t>
   </si>
   <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>GWEB</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>UIW</t>
-  </si>
-  <si>
-    <t>MONM</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
   </si>
   <si>
     <t>S Mississippi</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
   </si>
   <si>
     <t>S Methodist</t>
   </si>
   <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Auburn</t>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
   </si>
   <si>
     <t>Sam Hous St</t>
   </si>
   <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
     <t>S Florida</t>
   </si>
   <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Kent St</t>
+    <t>BAYLOR</t>
+  </si>
+  <si>
+    <t>MIAMI OF OHIO</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>SOUTH ALABAMA</t>
+  </si>
+  <si>
+    <t>WILLIAM &amp; MARY</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN MISSOURI</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>SAN DIEGO STATE</t>
+  </si>
+  <si>
+    <t>COASTAL CAROLINA</t>
+  </si>
+  <si>
+    <t>TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>GEORGIA SOUTHERN</t>
+  </si>
+  <si>
+    <t>EASTERN WASHINGTON</t>
+  </si>
+  <si>
+    <t>STANFORD</t>
+  </si>
+  <si>
+    <t>UTAH TECH</t>
+  </si>
+  <si>
+    <t>FLORIDA ATLANTIC</t>
+  </si>
+  <si>
+    <t>UNC - CHARLOTTE</t>
+  </si>
+  <si>
+    <t>PITTSBURGH</t>
+  </si>
+  <si>
+    <t>APPALACHIAN STATE</t>
+  </si>
+  <si>
+    <t>KENT STATE</t>
+  </si>
+  <si>
+    <t>ALABAMA A&amp;M</t>
+  </si>
+  <si>
+    <t>HOUSTON CHRISTIAN</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>SAM HOUSTON</t>
+  </si>
+  <si>
+    <t>MCNEESE STATE</t>
+  </si>
+  <si>
+    <t>ABILENE CHRISTIAN</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>COLGATE</t>
+  </si>
+  <si>
+    <t>SAMFORD</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>TULANE</t>
+  </si>
+  <si>
+    <t>TEXAS CHRISTIAN</t>
+  </si>
+  <si>
+    <t>ARIZONA STATE</t>
+  </si>
+  <si>
+    <t>MERRIMACK</t>
+  </si>
+  <si>
+    <t>MISSOURI STATE</t>
+  </si>
+  <si>
+    <t>MICHIGAN STATE</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA-TENNESSEE</t>
+  </si>
+  <si>
+    <t>WESTERN CAROLINA</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>TENNESSEE TECH</t>
+  </si>
+  <si>
+    <t>NEW MEXICO STATE</t>
+  </si>
+  <si>
+    <t>CLEMSON</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE STATE</t>
+  </si>
+  <si>
+    <t>MIDDLE TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>THE CITADEL</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>TEXAS STATE-SAN MARCOS</t>
+  </si>
+  <si>
+    <t>WESTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>TEXAS TECH</t>
+  </si>
+  <si>
+    <t>SOUTHERN MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>COLORADO STATE</t>
+  </si>
+  <si>
+    <t>HOLY CROSS</t>
+  </si>
+  <si>
+    <t>SO. EAST LOUISIANA</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>LOUISVILLE</t>
+  </si>
+  <si>
+    <t>GEORGIA STATE</t>
+  </si>
+  <si>
+    <t>ALCORN STATE</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>ARKANSAS STATE</t>
+  </si>
+  <si>
+    <t>TEXAS SOUTHERN</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA A&amp;T</t>
+  </si>
+  <si>
+    <t>GRAMBLING</t>
+  </si>
+  <si>
+    <t>BOWLING GREEN</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>GARDNER-WEBB</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>TOWSON</t>
+  </si>
+  <si>
+    <t>NORTHERN COLORADO</t>
+  </si>
+  <si>
+    <t>BETHUNE-COOKMAN</t>
+  </si>
+  <si>
+    <t>EAST TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>LA - MONROE</t>
+  </si>
+  <si>
+    <t>NORTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>SAN JOSE STATE</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
   </si>
   <si>
     <t>OREGON STATE</t>
   </si>
   <si>
-    <t>SOUTHERN MISSISSIPPI</t>
+    <t>NORTHWESTERN</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>MORGAN STATE</t>
+  </si>
+  <si>
+    <t>TEXAS-EL PASO</t>
+  </si>
+  <si>
+    <t>UTAH STATE</t>
+  </si>
+  <si>
+    <t>TARLETON STATE</t>
+  </si>
+  <si>
+    <t>WAKE FOREST</t>
+  </si>
+  <si>
+    <t>WEBER STATE</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>PORTLAND STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN IOWA</t>
+  </si>
+  <si>
+    <t>IOWA STATE</t>
+  </si>
+  <si>
+    <t>PRAIRIE VIEW A&amp;M</t>
+  </si>
+  <si>
+    <t>OHIO UNIV.</t>
+  </si>
+  <si>
+    <t>WESTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>YOUNGSTOWN STATE</t>
+  </si>
+  <si>
+    <t>WESTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>DELAWARE STATE</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>U.C.L.A.</t>
+  </si>
+  <si>
+    <t>CENTRAL CONNECTICUT ST.</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>WOFFORD</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>INCARNATE WORD</t>
+  </si>
+  <si>
+    <t>NORTHERN ARIZONA</t>
+  </si>
+  <si>
+    <t>CHARLESTON SOUTHERN</t>
+  </si>
+  <si>
+    <t>BRIGHAM YOUNG</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>KENNESAW STATE</t>
+  </si>
+  <si>
+    <t>SACRED HEART</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>EASTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>GEORGIA TECH</t>
+  </si>
+  <si>
+    <t>LOUISIANA STATE</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>BOISE</t>
+  </si>
+  <si>
+    <t>ROBERT MORRIS - PA</t>
+  </si>
+  <si>
+    <t>ALBRIGHT</t>
+  </si>
+  <si>
+    <t>FURMAN</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>SOUTHERN UTAH</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>RUTGERS</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>DUQUESNE</t>
+  </si>
+  <si>
+    <t>AKRON</t>
+  </si>
+  <si>
+    <t>JACKSON STATE</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN STATE-LA</t>
+  </si>
+  <si>
+    <t>AIR FORCE</t>
+  </si>
+  <si>
+    <t>AUSTIN PEAY</t>
+  </si>
+  <si>
+    <t>BUCKNELL</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
   </si>
   <si>
     <t>EASTERN KENTUCKY</t>
   </si>
   <si>
-    <t>PITTSBURGH</t>
-  </si>
-  <si>
-    <t>HOLY CROSS</t>
-  </si>
-  <si>
-    <t>JACKSON STATE</t>
-  </si>
-  <si>
-    <t>GRAMBLING</t>
+    <t>IDAHO STATE</t>
+  </si>
+  <si>
+    <t>MONMOUTH-NJ</t>
+  </si>
+  <si>
+    <t>TENNESSEE-MARTIN</t>
+  </si>
+  <si>
+    <t>JAMES MADISON</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>OLD DOMINION</t>
+  </si>
+  <si>
+    <t>INDIANA STATE</t>
+  </si>
+  <si>
+    <t>CENTRAL FLORIDA</t>
+  </si>
+  <si>
+    <t>S.F.AUSTIN</t>
+  </si>
+  <si>
+    <t>PURDUE</t>
+  </si>
+  <si>
+    <t>FLORIDA A&amp;M</t>
+  </si>
+  <si>
+    <t>FRESNO STATE</t>
+  </si>
+  <si>
+    <t>TEMPLE</t>
+  </si>
+  <si>
+    <t>TEXAS A&amp;M</t>
+  </si>
+  <si>
+    <t>NORFOLK STATE</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
+  </si>
+  <si>
+    <t>VILLANOVA</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>OKLAHOMA STATE</t>
+  </si>
+  <si>
+    <t>PINE BLUFF-ARKANSAS</t>
+  </si>
+  <si>
+    <t>ST.FRANCIS-PA</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>EASTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>FORT VALLEY STATE</t>
+  </si>
+  <si>
+    <t>BALL STATE</t>
+  </si>
+  <si>
+    <t>VANDERBILT</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>CENTRAL ARKANSAS</t>
+  </si>
+  <si>
+    <t>MIAMI-FL</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>SOUTHERN METHODIST</t>
+  </si>
+  <si>
+    <t>TEXAS-SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA CENTRAL</t>
+  </si>
+  <si>
+    <t>MURRAY STATE</t>
+  </si>
+  <si>
+    <t>VIRGINIA TECH</t>
+  </si>
+  <si>
+    <t>STONY BROOK</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>CAL-DAVIS</t>
+  </si>
+  <si>
+    <t>VIRGINIA MILITARY INSTITUTE</t>
+  </si>
+  <si>
+    <t>SOUTH FLORIDA</t>
+  </si>
+  <si>
+    <t>PENN STATE</t>
+  </si>
+  <si>
+    <t>NORTH TEXAS</t>
+  </si>
+  <si>
+    <t>MERCHANT MARINE</t>
+  </si>
+  <si>
+    <t>BRYANT COLLEGE</t>
+  </si>
+  <si>
+    <t>FLORIDA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>SOUTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>OHIO STATE</t>
+  </si>
+  <si>
+    <t>BOSTON COLLEGE</t>
+  </si>
+  <si>
+    <t>ALABAMA-BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>EAST CAROLINA</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>NO. CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>KANSAS STATE</t>
+  </si>
+  <si>
+    <t>NORTH ALABAMA</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI STATE</t>
+  </si>
+  <si>
+    <t>TROY STATE</t>
+  </si>
+  <si>
+    <t>SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
   </si>
   <si>
     <t>COLORADO</t>
   </si>
   <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>PURDUE</t>
-  </si>
-  <si>
-    <t>STONY BROOK</t>
-  </si>
-  <si>
-    <t>WILLIAM &amp; MARY</t>
-  </si>
-  <si>
-    <t>CAL-DAVIS</t>
-  </si>
-  <si>
-    <t>UNC - CHARLOTTE</t>
-  </si>
-  <si>
-    <t>SOUTHERN METHODIST</t>
-  </si>
-  <si>
-    <t>MICHIGAN STATE</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>SAM HOUSTON</t>
-  </si>
-  <si>
-    <t>SACRED HEART</t>
-  </si>
-  <si>
-    <t>ALCORN STATE</t>
-  </si>
-  <si>
-    <t>IDAHO STATE</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>PRAIRIE VIEW A&amp;M</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>WOFFORD</t>
-  </si>
-  <si>
-    <t>ALABAMA A&amp;M</t>
-  </si>
-  <si>
-    <t>SOUTH EASTERN MISSOURI</t>
-  </si>
-  <si>
-    <t>S.F.AUSTIN</t>
-  </si>
-  <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
-    <t>TEXAS TECH</t>
-  </si>
-  <si>
-    <t>IDAHO</t>
-  </si>
-  <si>
-    <t>TEXAS-SAN ANTONIO</t>
-  </si>
-  <si>
-    <t>SOUTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>DELAWARE STATE</t>
-  </si>
-  <si>
-    <t>EASTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>BAYLOR</t>
-  </si>
-  <si>
-    <t>MIAMI-FL</t>
-  </si>
-  <si>
-    <t>CENTRAL FLORIDA</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>IOWA STATE</t>
-  </si>
-  <si>
-    <t>TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>OHIO UNIV.</t>
-  </si>
-  <si>
-    <t>PORTLAND STATE</t>
-  </si>
-  <si>
-    <t>MINNESOTA</t>
-  </si>
-  <si>
-    <t>FORT VALLEY STATE</t>
-  </si>
-  <si>
-    <t>MARYLAND</t>
-  </si>
-  <si>
-    <t>COLORADO STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN COLORADO</t>
-  </si>
-  <si>
-    <t>CINCINNATI</t>
-  </si>
-  <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>FLORIDA ATLANTIC</t>
-  </si>
-  <si>
-    <t>BALL STATE</t>
-  </si>
-  <si>
-    <t>FLORIDA A&amp;M</t>
-  </si>
-  <si>
-    <t>INDIANA</t>
-  </si>
-  <si>
-    <t>HOUSTON CHRISTIAN</t>
-  </si>
-  <si>
-    <t>RHODE ISLAND</t>
-  </si>
-  <si>
     <t>TULSA</t>
   </si>
   <si>
-    <t>GEORGIA TECH</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>TARLETON STATE</t>
-  </si>
-  <si>
-    <t>NEW MEXICO STATE</t>
-  </si>
-  <si>
-    <t>NORTH DAKOTA</t>
-  </si>
-  <si>
-    <t>OKLAHOMA</t>
-  </si>
-  <si>
-    <t>MURRAY STATE</t>
-  </si>
-  <si>
-    <t>BETHUNE-COOKMAN</t>
-  </si>
-  <si>
-    <t>MISSOURI STATE</t>
-  </si>
-  <si>
-    <t>VANDERBILT</t>
-  </si>
-  <si>
-    <t>LA - MONROE</t>
-  </si>
-  <si>
-    <t>OKLAHOMA STATE</t>
-  </si>
-  <si>
-    <t>TULANE</t>
-  </si>
-  <si>
-    <t>CENTRAL ARKANSAS</t>
-  </si>
-  <si>
-    <t>SOUTHERN CALIFORNIA</t>
-  </si>
-  <si>
-    <t>SOUTHERN UTAH</t>
-  </si>
-  <si>
-    <t>NOTRE DAME</t>
-  </si>
-  <si>
-    <t>BUCKNELL</t>
-  </si>
-  <si>
-    <t>TEXAS A&amp;M</t>
-  </si>
-  <si>
     <t>CAL-SACRAMENTO</t>
   </si>
   <si>
-    <t>FRESNO STATE</t>
-  </si>
-  <si>
-    <t>NORTH ALABAMA</t>
-  </si>
-  <si>
-    <t>FURMAN</t>
-  </si>
-  <si>
-    <t>ALBRIGHT</t>
-  </si>
-  <si>
-    <t>NEVADA</t>
-  </si>
-  <si>
-    <t>LOUISVILLE</t>
-  </si>
-  <si>
-    <t>CLEMSON</t>
-  </si>
-  <si>
-    <t>MEMPHIS</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE STATE</t>
-  </si>
-  <si>
-    <t>OLD DOMINION</t>
-  </si>
-  <si>
-    <t>LOUISIANA STATE</t>
-  </si>
-  <si>
-    <t>TOWSON</t>
-  </si>
-  <si>
-    <t>ALABAMA-BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>AIR FORCE</t>
-  </si>
-  <si>
-    <t>EASTERN WASHINGTON</t>
-  </si>
-  <si>
-    <t>THE CITADEL</t>
-  </si>
-  <si>
-    <t>AUSTIN PEAY</t>
-  </si>
-  <si>
-    <t>TEXAS STATE-SAN MARCOS</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI STATE</t>
-  </si>
-  <si>
-    <t>TEXAS</t>
-  </si>
-  <si>
-    <t>ARKANSAS STATE</t>
-  </si>
-  <si>
-    <t>CAMPBELL</t>
-  </si>
-  <si>
-    <t>U.C.L.A.</t>
-  </si>
-  <si>
-    <t>SO. EAST LOUISIANA</t>
-  </si>
-  <si>
-    <t>EASTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>TEXAS-EL PASO</t>
-  </si>
-  <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>WAKE FOREST</t>
-  </si>
-  <si>
-    <t>PENN STATE</t>
-  </si>
-  <si>
-    <t>FLORIDA INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>AKRON</t>
-  </si>
-  <si>
-    <t>NICHOLS</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
-    <t>LOUISIANA</t>
-  </si>
-  <si>
     <t>NEVADA-LAS VEGAS</t>
   </si>
   <si>
-    <t>MARSHALL</t>
-  </si>
-  <si>
-    <t>UTAH TECH</t>
-  </si>
-  <si>
-    <t>MICHIGAN</t>
-  </si>
-  <si>
-    <t>KENNESAW STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN IOWA</t>
-  </si>
-  <si>
-    <t>KANSAS</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>PINE BLUFF-ARKANSAS</t>
-  </si>
-  <si>
-    <t>CHARLESTON SOUTHERN</t>
-  </si>
-  <si>
-    <t>ARIZONA</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>OREGON</t>
-  </si>
-  <si>
-    <t>DUQUESNE</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>WASHINGTON STATE</t>
-  </si>
-  <si>
-    <t>BOWLING GREEN</t>
-  </si>
-  <si>
-    <t>ABILENE CHRISTIAN</t>
-  </si>
-  <si>
-    <t>APPALACHIAN STATE</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA CENTRAL</t>
-  </si>
-  <si>
-    <t>TEXAS SOUTHERN</t>
-  </si>
-  <si>
-    <t>YOUNGSTOWN STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN ARIZONA</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>VIRGINIA MILITARY INSTITUTE</t>
-  </si>
-  <si>
-    <t>SAN DIEGO STATE</t>
-  </si>
-  <si>
-    <t>CENTRAL CONNECTICUT ST.</t>
-  </si>
-  <si>
-    <t>TENNESSEE TECH</t>
-  </si>
-  <si>
-    <t>ROBERT MORRIS - PA</t>
-  </si>
-  <si>
-    <t>WYOMING</t>
-  </si>
-  <si>
-    <t>BRYANT COLLEGE</t>
-  </si>
-  <si>
-    <t>UTAH STATE</t>
-  </si>
-  <si>
-    <t>NEBRASKA</t>
-  </si>
-  <si>
-    <t>NORFOLK STATE</t>
-  </si>
-  <si>
-    <t>EAST TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>ILLINOIS</t>
-  </si>
-  <si>
-    <t>HOUSTON</t>
-  </si>
-  <si>
-    <t>WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>BOSTON COLLEGE</t>
-  </si>
-  <si>
-    <t>COLGATE</t>
-  </si>
-  <si>
-    <t>FLORIDA STATE</t>
-  </si>
-  <si>
-    <t>SOUTH FLORIDA</t>
-  </si>
-  <si>
-    <t>VILLANOVA</t>
-  </si>
-  <si>
-    <t>KANSAS STATE</t>
-  </si>
-  <si>
-    <t>BOISE</t>
-  </si>
-  <si>
-    <t>TENNESSEE-MARTIN</t>
-  </si>
-  <si>
-    <t>WISCONSIN</t>
-  </si>
-  <si>
-    <t>RUTGERS</t>
-  </si>
-  <si>
-    <t>NEW HAMPSHIRE</t>
-  </si>
-  <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
-    <t>ST.FRANCIS-PA</t>
-  </si>
-  <si>
-    <t>MORGAN STATE</t>
-  </si>
-  <si>
-    <t>MERCHANT MARINE</t>
-  </si>
-  <si>
-    <t>SAMFORD</t>
-  </si>
-  <si>
-    <t>CONNECTICUT</t>
-  </si>
-  <si>
-    <t>TEMPLE</t>
-  </si>
-  <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
-    <t>NORTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>SOUTH ALABAMA</t>
-  </si>
-  <si>
-    <t>WESTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>MERRIMACK</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN STATE-LA</t>
-  </si>
-  <si>
-    <t>VIRGINIA TECH</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA A&amp;T</t>
-  </si>
-  <si>
     <t>FLORIDA</t>
-  </si>
-  <si>
-    <t>MCNEESE STATE</t>
-  </si>
-  <si>
-    <t>NORTH TEXAS</t>
-  </si>
-  <si>
-    <t>MISSOURI</t>
-  </si>
-  <si>
-    <t>WESTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>MIAMI OF OHIO</t>
-  </si>
-  <si>
-    <t>WESTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>OHIO STATE</t>
-  </si>
-  <si>
-    <t>WEBER STATE</t>
-  </si>
-  <si>
-    <t>GARDNER-WEBB</t>
-  </si>
-  <si>
-    <t>ARIZONA STATE</t>
-  </si>
-  <si>
-    <t>STANFORD</t>
-  </si>
-  <si>
-    <t>MIDDLE TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>TEXAS CHRISTIAN</t>
-  </si>
-  <si>
-    <t>MAINE</t>
-  </si>
-  <si>
-    <t>GEORGIA STATE</t>
-  </si>
-  <si>
-    <t>COASTAL CAROLINA</t>
-  </si>
-  <si>
-    <t>ARKANSAS</t>
-  </si>
-  <si>
-    <t>EAST CAROLINA</t>
-  </si>
-  <si>
-    <t>DELAWARE</t>
-  </si>
-  <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA-TENNESSEE</t>
-  </si>
-  <si>
-    <t>WESTERN CAROLINA</t>
-  </si>
-  <si>
-    <t>BRIGHAM YOUNG</t>
-  </si>
-  <si>
-    <t>KENTUCKY</t>
-  </si>
-  <si>
-    <t>NO. CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>GEORGIA SOUTHERN</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN</t>
-  </si>
-  <si>
-    <t>INCARNATE WORD</t>
-  </si>
-  <si>
-    <t>MONMOUTH-NJ</t>
-  </si>
-  <si>
-    <t>TROY STATE</t>
-  </si>
-  <si>
-    <t>JAMES MADISON</t>
-  </si>
-  <si>
-    <t>INDIANA STATE</t>
-  </si>
-  <si>
-    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
-  </si>
-  <si>
-    <t>SAN JOSE STATE</t>
-  </si>
-  <si>
-    <t>KENT STATE</t>
   </si>
 </sst>
 </file>
@@ -2817,10 +2505,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>587</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2834,10 +2522,10 @@
         <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2851,10 +2539,10 @@
         <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>589</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2868,10 +2556,10 @@
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>590</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2885,10 +2573,10 @@
         <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>591</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2902,10 +2590,10 @@
         <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>592</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2919,10 +2607,10 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="E8" t="s">
-        <v>593</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2936,10 +2624,10 @@
         <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E9" t="s">
-        <v>594</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2953,10 +2641,10 @@
         <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>467</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>595</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2970,10 +2658,10 @@
         <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="E11" t="s">
-        <v>596</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2987,10 +2675,10 @@
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E12" t="s">
-        <v>597</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3004,10 +2692,10 @@
         <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>465</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>598</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3021,10 +2709,10 @@
         <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>465</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>599</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3038,10 +2726,10 @@
         <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>469</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>600</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3055,10 +2743,10 @@
         <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="E16" t="s">
-        <v>601</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3072,10 +2760,10 @@
         <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>471</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>602</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3089,10 +2777,10 @@
         <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="E18" t="s">
-        <v>603</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3106,10 +2794,10 @@
         <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>473</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>604</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3123,10 +2811,10 @@
         <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E20" t="s">
-        <v>605</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3137,13 +2825,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E21" t="s">
-        <v>606</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3154,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
-        <v>465</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>607</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3171,13 +2859,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D23" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E23" t="s">
-        <v>608</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3188,13 +2876,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E24" t="s">
-        <v>609</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3205,13 +2893,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>610</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3222,13 +2910,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E26" t="s">
-        <v>611</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3239,13 +2927,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D27" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="E27" t="s">
-        <v>612</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3256,13 +2944,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E28" t="s">
-        <v>613</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3273,13 +2961,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>614</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3290,13 +2978,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="E30" t="s">
-        <v>615</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3307,13 +2995,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="E31" t="s">
-        <v>616</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3324,13 +3012,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>465</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>617</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3341,13 +3029,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>447</v>
       </c>
       <c r="E33" t="s">
-        <v>618</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3358,13 +3046,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D34" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E34" t="s">
-        <v>619</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3375,13 +3063,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D35" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E35" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3392,13 +3080,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>621</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3409,13 +3097,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D37" t="s">
-        <v>478</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>622</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3426,13 +3114,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>479</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>623</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3443,13 +3131,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="E39" t="s">
-        <v>624</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3460,13 +3148,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>625</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3477,13 +3165,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="E41" t="s">
-        <v>626</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3494,13 +3182,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D42" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E42" t="s">
-        <v>627</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3511,13 +3199,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3528,13 +3216,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E44" t="s">
-        <v>629</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3545,13 +3233,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="E45" t="s">
-        <v>630</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3562,13 +3250,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>465</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>631</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3579,13 +3267,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D47" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="E47" t="s">
-        <v>632</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3596,13 +3284,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D48" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="E48" t="s">
-        <v>633</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3613,13 +3301,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D49" t="s">
-        <v>465</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>634</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3630,13 +3318,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D50" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="E50" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3647,13 +3335,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="E51" t="s">
-        <v>636</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3664,13 +3352,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="E52" t="s">
-        <v>283</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3681,13 +3369,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="E53" t="s">
-        <v>637</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3698,13 +3386,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>490</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>638</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3715,13 +3403,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
-        <v>491</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>639</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3732,13 +3420,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
-        <v>492</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>640</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3749,13 +3437,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D57" t="s">
-        <v>493</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>641</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3766,13 +3454,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D58" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E58" t="s">
-        <v>642</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3783,13 +3471,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E59" t="s">
-        <v>643</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3800,13 +3488,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D60" t="s">
-        <v>494</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>644</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3817,13 +3505,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D61" t="s">
-        <v>495</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>645</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3834,13 +3522,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D62" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E62" t="s">
-        <v>646</v>
+        <v>544</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3851,13 +3539,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E63" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3868,13 +3556,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D64" t="s">
-        <v>496</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>648</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3885,13 +3573,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
-        <v>465</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>649</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3902,13 +3590,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D66" t="s">
-        <v>497</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>650</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3919,13 +3607,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>651</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3936,13 +3624,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D68" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E68" t="s">
-        <v>652</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3953,13 +3641,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
-        <v>499</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>653</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3970,13 +3658,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>654</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3987,13 +3675,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D71" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="E71" t="s">
-        <v>655</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4004,13 +3692,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4021,13 +3709,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D73" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="E73" t="s">
-        <v>656</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4038,13 +3726,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
-        <v>504</v>
+        <v>458</v>
       </c>
       <c r="E74" t="s">
-        <v>657</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4055,13 +3743,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>658</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4072,13 +3760,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>447</v>
       </c>
       <c r="E76" t="s">
-        <v>659</v>
+        <v>558</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4089,13 +3777,13 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>465</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>660</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4106,13 +3794,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D78" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="E78" t="s">
-        <v>661</v>
+        <v>560</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4123,13 +3811,13 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D79" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E79" t="s">
-        <v>662</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4140,13 +3828,13 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E80" t="s">
-        <v>663</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4157,13 +3845,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E81" t="s">
-        <v>664</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4174,13 +3862,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D82" t="s">
-        <v>506</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>665</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4191,13 +3879,13 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E83" t="s">
-        <v>666</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4208,13 +3896,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D84" t="s">
-        <v>465</v>
+        <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>667</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4225,13 +3913,13 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D85" t="s">
-        <v>465</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>668</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4242,13 +3930,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>507</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>669</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4259,13 +3947,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D87" t="s">
-        <v>508</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>670</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4276,13 +3964,13 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s">
-        <v>509</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>671</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4293,13 +3981,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="E89" t="s">
-        <v>672</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4310,13 +3998,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="E90" t="s">
-        <v>673</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4327,13 +4015,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>512</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>674</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4344,13 +4032,13 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="E92" t="s">
-        <v>675</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4361,13 +4049,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4378,13 +4066,13 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D94" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E94" t="s">
-        <v>676</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4395,13 +4083,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D95" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>677</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4412,13 +4100,13 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D96" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E96" t="s">
-        <v>678</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4429,13 +4117,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D97" t="s">
-        <v>514</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>679</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4446,13 +4134,13 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="E98" t="s">
-        <v>680</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4463,13 +4151,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D99" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E99" t="s">
-        <v>681</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4480,13 +4168,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D100" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E100" t="s">
-        <v>682</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4497,13 +4185,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D101" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E101" t="s">
-        <v>683</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4514,13 +4202,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D102" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
       <c r="E102" t="s">
-        <v>684</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4531,13 +4219,13 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D103" t="s">
-        <v>498</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>685</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4548,13 +4236,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D104" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="E104" t="s">
-        <v>686</v>
+        <v>585</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4565,13 +4253,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D105" t="s">
-        <v>518</v>
+        <v>447</v>
       </c>
       <c r="E105" t="s">
-        <v>687</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4582,13 +4270,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D106" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E106" t="s">
-        <v>688</v>
+        <v>587</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4599,13 +4287,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D107" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="E107" t="s">
-        <v>689</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4616,13 +4304,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D108" t="s">
-        <v>465</v>
+        <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>690</v>
+        <v>589</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4633,13 +4321,13 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>465</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>691</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4650,13 +4338,13 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D110" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="E110" t="s">
-        <v>692</v>
+        <v>591</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4667,13 +4355,13 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D111" t="s">
-        <v>465</v>
+        <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>465</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4684,13 +4372,13 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D112" t="s">
-        <v>520</v>
+        <v>447</v>
       </c>
       <c r="E112" t="s">
-        <v>693</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4701,13 +4389,13 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D113" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="E113" t="s">
-        <v>694</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4718,13 +4406,13 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D114" t="s">
-        <v>522</v>
+        <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>695</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4735,13 +4423,13 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D115" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="E115" t="s">
-        <v>696</v>
+        <v>595</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4752,13 +4440,13 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D116" t="s">
-        <v>524</v>
+        <v>447</v>
       </c>
       <c r="E116" t="s">
-        <v>697</v>
+        <v>596</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4769,13 +4457,13 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D117" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E117" t="s">
-        <v>698</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4786,13 +4474,13 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="E118" t="s">
-        <v>699</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4803,13 +4491,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>350</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>526</v>
+        <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>700</v>
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4820,13 +4508,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D120" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>701</v>
+        <v>600</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4837,13 +4525,13 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D121" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
       <c r="E121" t="s">
-        <v>702</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4854,13 +4542,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D122" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="E122" t="s">
-        <v>703</v>
+        <v>602</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4871,13 +4559,13 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D123" t="s">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="E123" t="s">
-        <v>704</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4888,13 +4576,13 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D124" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>705</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4905,13 +4593,13 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D125" t="s">
-        <v>465</v>
+        <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>706</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4922,13 +4610,13 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D126" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="E126" t="s">
-        <v>707</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4939,13 +4627,13 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D127" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E127" t="s">
-        <v>708</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4956,13 +4644,13 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D128" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E128" t="s">
-        <v>709</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4973,13 +4661,13 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D129" t="s">
-        <v>465</v>
+        <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>710</v>
+        <v>608</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4990,13 +4678,13 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D130" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
       <c r="E130" t="s">
-        <v>711</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5007,13 +4695,13 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="E131" t="s">
-        <v>712</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5024,13 +4712,13 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D132" t="s">
-        <v>532</v>
+        <v>447</v>
       </c>
       <c r="E132" t="s">
-        <v>713</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5041,13 +4729,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D133" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E133" t="s">
-        <v>714</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5058,13 +4746,13 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D134" t="s">
-        <v>533</v>
+        <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>715</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5075,13 +4763,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D135" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="E135" t="s">
-        <v>716</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5092,13 +4780,13 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>367</v>
+        <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>535</v>
+        <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>717</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5109,13 +4797,13 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D137" t="s">
-        <v>536</v>
+        <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>718</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5126,13 +4814,13 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D138" t="s">
-        <v>537</v>
+        <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>719</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5143,13 +4831,13 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D139" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>720</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5160,13 +4848,13 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D140" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E140" t="s">
-        <v>721</v>
+        <v>617</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5177,13 +4865,13 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D141" t="s">
-        <v>465</v>
+        <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>722</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5194,13 +4882,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D142" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E142" t="s">
-        <v>723</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5211,13 +4899,13 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D143" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E143" t="s">
-        <v>724</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5228,13 +4916,13 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D144" t="s">
-        <v>465</v>
+        <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>725</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5245,13 +4933,13 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D145" t="s">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="E145" t="s">
-        <v>726</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5262,13 +4950,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D146" t="s">
-        <v>539</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>377</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5279,13 +4967,13 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D147" t="s">
-        <v>540</v>
+        <v>447</v>
       </c>
       <c r="E147" t="s">
-        <v>727</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5296,13 +4984,13 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D148" t="s">
-        <v>465</v>
+        <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>728</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5313,13 +5001,13 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D149" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E149" t="s">
-        <v>729</v>
+        <v>625</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5330,13 +5018,13 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D150" t="s">
-        <v>541</v>
+        <v>447</v>
       </c>
       <c r="E150" t="s">
-        <v>730</v>
+        <v>626</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5347,13 +5035,13 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D151" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E151" t="s">
-        <v>731</v>
+        <v>627</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5364,13 +5052,13 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D152" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="E152" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5381,13 +5069,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D153" t="s">
-        <v>543</v>
+        <v>468</v>
       </c>
       <c r="E153" t="s">
-        <v>733</v>
+        <v>629</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5398,13 +5086,13 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D154" t="s">
-        <v>544</v>
+        <v>469</v>
       </c>
       <c r="E154" t="s">
-        <v>734</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5415,13 +5103,13 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D155" t="s">
-        <v>465</v>
+        <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>735</v>
+        <v>631</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5432,13 +5120,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D156" t="s">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="E156" t="s">
-        <v>736</v>
+        <v>632</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5449,13 +5137,13 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>700</v>
+        <v>633</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5466,13 +5154,13 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D158" t="s">
-        <v>546</v>
+        <v>447</v>
       </c>
       <c r="E158" t="s">
-        <v>737</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5483,13 +5171,13 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D159" t="s">
-        <v>547</v>
+        <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>738</v>
+        <v>635</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5500,13 +5188,13 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D160" t="s">
-        <v>548</v>
+        <v>232</v>
       </c>
       <c r="E160" t="s">
-        <v>391</v>
+        <v>636</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5517,13 +5205,13 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D161" t="s">
-        <v>549</v>
+        <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5534,13 +5222,13 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D162" t="s">
-        <v>550</v>
+        <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5551,13 +5239,13 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D163" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E163" t="s">
-        <v>741</v>
+        <v>639</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5568,13 +5256,13 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D164" t="s">
-        <v>551</v>
+        <v>447</v>
       </c>
       <c r="E164" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5585,13 +5273,13 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D165" t="s">
-        <v>552</v>
+        <v>447</v>
       </c>
       <c r="E165" t="s">
-        <v>743</v>
+        <v>641</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5602,13 +5290,13 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D166" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E166" t="s">
-        <v>744</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5619,13 +5307,13 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D167" t="s">
-        <v>553</v>
+        <v>447</v>
       </c>
       <c r="E167" t="s">
-        <v>745</v>
+        <v>643</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5636,13 +5324,13 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D168" t="s">
-        <v>554</v>
+        <v>447</v>
       </c>
       <c r="E168" t="s">
-        <v>746</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5653,13 +5341,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D169" t="s">
-        <v>465</v>
+        <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5670,13 +5358,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D170" t="s">
-        <v>555</v>
+        <v>447</v>
       </c>
       <c r="E170" t="s">
-        <v>748</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5687,13 +5375,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D171" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
       <c r="E171" t="s">
-        <v>749</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5704,13 +5392,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D172" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="E172" t="s">
-        <v>750</v>
+        <v>647</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5721,13 +5409,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D173" t="s">
-        <v>557</v>
+        <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>751</v>
+        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5738,13 +5426,13 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D174" t="s">
-        <v>558</v>
+        <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5755,13 +5443,13 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D175" t="s">
-        <v>465</v>
+        <v>187</v>
       </c>
       <c r="E175" t="s">
-        <v>752</v>
+        <v>650</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5772,13 +5460,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D176" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E176" t="s">
-        <v>753</v>
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5789,13 +5477,13 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D177" t="s">
-        <v>465</v>
+        <v>219</v>
       </c>
       <c r="E177" t="s">
-        <v>754</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5806,13 +5494,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D178" t="s">
-        <v>465</v>
+        <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>755</v>
+        <v>653</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5823,13 +5511,13 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D179" t="s">
-        <v>559</v>
+        <v>447</v>
       </c>
       <c r="E179" t="s">
-        <v>756</v>
+        <v>654</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5840,13 +5528,13 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D180" t="s">
-        <v>560</v>
+        <v>447</v>
       </c>
       <c r="E180" t="s">
-        <v>757</v>
+        <v>655</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5857,13 +5545,13 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D181" t="s">
-        <v>561</v>
+        <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>758</v>
+        <v>656</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5874,13 +5562,13 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D182" t="s">
-        <v>562</v>
+        <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>759</v>
+        <v>657</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5891,13 +5579,13 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D183" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E183" t="s">
-        <v>760</v>
+        <v>447</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5908,13 +5596,13 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D184" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
       <c r="E184" t="s">
-        <v>761</v>
+        <v>658</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5925,13 +5613,13 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D185" t="s">
-        <v>465</v>
+        <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>762</v>
+        <v>639</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5942,13 +5630,13 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E186" t="s">
-        <v>763</v>
+        <v>659</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5959,13 +5647,13 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>563</v>
+        <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>764</v>
+        <v>660</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5976,13 +5664,13 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D188" t="s">
-        <v>465</v>
+        <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>765</v>
+        <v>661</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5993,13 +5681,13 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D189" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>766</v>
+        <v>662</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6010,13 +5698,13 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D190" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E190" t="s">
-        <v>767</v>
+        <v>663</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6027,13 +5715,13 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D191" t="s">
-        <v>564</v>
+        <v>447</v>
       </c>
       <c r="E191" t="s">
-        <v>768</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6044,13 +5732,13 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D192" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="E192" t="s">
-        <v>769</v>
+        <v>665</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6061,13 +5749,13 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D193" t="s">
-        <v>565</v>
+        <v>447</v>
       </c>
       <c r="E193" t="s">
-        <v>770</v>
+        <v>666</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6078,13 +5766,13 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D194" t="s">
-        <v>566</v>
+        <v>447</v>
       </c>
       <c r="E194" t="s">
-        <v>771</v>
+        <v>667</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6095,13 +5783,13 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D195" t="s">
-        <v>567</v>
+        <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>772</v>
+        <v>668</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6112,13 +5800,13 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D196" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="E196" t="s">
-        <v>773</v>
+        <v>669</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6129,13 +5817,13 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>428</v>
+        <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>569</v>
+        <v>447</v>
       </c>
       <c r="E197" t="s">
-        <v>774</v>
+        <v>670</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6146,13 +5834,13 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D198" t="s">
-        <v>570</v>
+        <v>447</v>
       </c>
       <c r="E198" t="s">
-        <v>775</v>
+        <v>671</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6163,13 +5851,13 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D199" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E199" t="s">
-        <v>776</v>
+        <v>672</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6180,13 +5868,13 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D200" t="s">
-        <v>465</v>
+        <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>777</v>
+        <v>673</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6197,13 +5885,13 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D201" t="s">
-        <v>571</v>
+        <v>447</v>
       </c>
       <c r="E201" t="s">
-        <v>432</v>
+        <v>674</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6214,13 +5902,13 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D202" t="s">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="E202" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6231,13 +5919,13 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>434</v>
+        <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>573</v>
+        <v>475</v>
       </c>
       <c r="E203" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6248,13 +5936,13 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D204" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
       <c r="E204" t="s">
-        <v>780</v>
+        <v>677</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6265,13 +5953,13 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D205" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
       <c r="E205" t="s">
-        <v>781</v>
+        <v>678</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6282,13 +5970,13 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D206" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="E206" t="s">
-        <v>782</v>
+        <v>679</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6299,13 +5987,13 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D207" t="s">
-        <v>575</v>
+        <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>783</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6316,13 +6004,13 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D208" t="s">
-        <v>576</v>
+        <v>477</v>
       </c>
       <c r="E208" t="s">
-        <v>784</v>
+        <v>680</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6333,13 +6021,13 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D209" t="s">
-        <v>577</v>
+        <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>785</v>
+        <v>427</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6350,13 +6038,13 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>441</v>
+        <v>213</v>
       </c>
       <c r="D210" t="s">
-        <v>578</v>
+        <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>786</v>
+        <v>681</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6367,13 +6055,13 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="E211" t="s">
-        <v>787</v>
+        <v>682</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6384,13 +6072,13 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D212" t="s">
-        <v>579</v>
+        <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>788</v>
+        <v>683</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6401,13 +6089,13 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D213" t="s">
-        <v>465</v>
+        <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>789</v>
+        <v>684</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6418,13 +6106,13 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D214" t="s">
-        <v>580</v>
+        <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>445</v>
+        <v>685</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6435,13 +6123,13 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D215" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E215" t="s">
-        <v>790</v>
+        <v>686</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6452,13 +6140,13 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D216" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="E216" t="s">
-        <v>756</v>
+        <v>687</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6469,13 +6157,13 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D217" t="s">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>791</v>
+        <v>688</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6486,13 +6174,13 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D218" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E218" t="s">
-        <v>792</v>
+        <v>689</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6503,13 +6191,13 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D219" t="s">
-        <v>544</v>
+        <v>480</v>
       </c>
       <c r="E219" t="s">
-        <v>793</v>
+        <v>690</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6520,13 +6208,13 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D220" t="s">
-        <v>581</v>
+        <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>794</v>
+        <v>691</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6537,13 +6225,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>452</v>
+        <v>224</v>
       </c>
       <c r="D221" t="s">
-        <v>582</v>
+        <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>795</v>
+        <v>692</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6554,13 +6242,13 @@
         <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D222" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E222" t="s">
-        <v>796</v>
+        <v>693</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6571,13 +6259,13 @@
         <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D223" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="E223" t="s">
-        <v>797</v>
+        <v>644</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6588,13 +6276,13 @@
         <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D224" t="s">
-        <v>583</v>
+        <v>447</v>
       </c>
       <c r="E224" t="s">
-        <v>798</v>
+        <v>694</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6605,13 +6293,13 @@
         <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D225" t="s">
-        <v>584</v>
+        <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>799</v>
+        <v>695</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6622,13 +6310,13 @@
         <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D226" t="s">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>800</v>
+        <v>696</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6639,13 +6327,13 @@
         <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D227" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="E227" t="s">
-        <v>801</v>
+        <v>697</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6656,13 +6344,13 @@
         <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="D228" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>802</v>
+        <v>698</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6673,13 +6361,13 @@
         <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D229" t="s">
-        <v>586</v>
+        <v>483</v>
       </c>
       <c r="E229" t="s">
-        <v>803</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -31,94 +31,682 @@
     <t>bpi team</t>
   </si>
   <si>
+    <t>C Connecticut</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Prairie View</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t>Merrimack</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>NWestern St</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>NC Central</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Charleston So</t>
+  </si>
+  <si>
+    <t>UT Martin</t>
+  </si>
+  <si>
+    <t>Murray St</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>North Alabama</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Samford</t>
+  </si>
+  <si>
+    <t>Delaware St</t>
+  </si>
+  <si>
+    <t>Incarnate Word</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Bethune</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Abilene Chrstn</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>S Illinois</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>N Arizona</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Washington St</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Missouri St</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>E Kentucky</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>SE Louisiana</t>
+  </si>
+  <si>
+    <t>C Michigan</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Norfolk St</t>
+  </si>
+  <si>
+    <t>Jackson St</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Morgan St</t>
+  </si>
+  <si>
+    <t>Nicholls</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>E Washington</t>
+  </si>
+  <si>
+    <t>Youngstown St</t>
+  </si>
+  <si>
+    <t>Towson</t>
+  </si>
+  <si>
+    <t>Tennessee Tech</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>W Illinois</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Albright</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Sacred Heart</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>ETSU</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Southern Utah</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>William &amp; Mary</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Duquesne</t>
+  </si>
+  <si>
+    <t>SE Missouri</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Sacramento St</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>SF Austin</t>
+  </si>
+  <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>SC State</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>McNeese</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>The Citadel</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>Indiana St</t>
+  </si>
+  <si>
+    <t>Grambling</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Bryant</t>
   </si>
   <si>
     <t>Nebraska</t>
   </si>
   <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Tarleton St</t>
+  </si>
+  <si>
+    <t>Ft Valley</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Appalachian St</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Alcorn St</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>C Arkansas</t>
+  </si>
+  <si>
+    <t>Utah Tech</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>NC A&amp;T</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>W Carolina</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>St Francis PA</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Weber St</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>N Colorado</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>AR-Pine Bluff</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Western KY</t>
+  </si>
+  <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>New Mexico St</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Gardner-Webb</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Portland St</t>
+  </si>
+  <si>
+    <t>Idaho St</t>
+  </si>
+  <si>
+    <t>Cal Poly</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Hou Christian</t>
+  </si>
+  <si>
+    <t>JVille St</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Comm</t>
+  </si>
+  <si>
+    <t>Sam Houston</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>South Alabama</t>
-  </si>
-  <si>
-    <t>William &amp; Mary</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>SE Missouri</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
     <t>Tennessee St</t>
   </si>
   <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>E Washington</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Utah Tech</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>Appalachian St</t>
-  </si>
-  <si>
-    <t>Kent State</t>
-  </si>
-  <si>
-    <t>Alabama A&amp;M</t>
-  </si>
-  <si>
-    <t>Hou Christian</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>McNeese</t>
-  </si>
-  <si>
-    <t>Abilene Chrstn</t>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Mrchnt Mar</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>Miami</t>
   </si>
   <si>
     <t>Oklahoma</t>
@@ -127,679 +715,634 @@
     <t>Colgate</t>
   </si>
   <si>
-    <t>Samford</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Merrimack</t>
-  </si>
-  <si>
-    <t>Missouri St</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Chattanooga</t>
-  </si>
-  <si>
-    <t>W Carolina</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Tennessee Tech</t>
-  </si>
-  <si>
-    <t>New Mexico St</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>JVille St</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>The Citadel</t>
-  </si>
-  <si>
-    <t>Lafayette</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Southern Miss</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Holy Cross</t>
-  </si>
-  <si>
-    <t>SE Louisiana</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Alcorn St</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Texas Southern</t>
-  </si>
-  <si>
-    <t>NC A&amp;T</t>
-  </si>
-  <si>
-    <t>Grambling</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Gardner-Webb</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Towson</t>
-  </si>
-  <si>
-    <t>N Colorado</t>
-  </si>
-  <si>
-    <t>Bethune</t>
-  </si>
-  <si>
-    <t>ETSU</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Washington St</t>
-  </si>
-  <si>
-    <t>Morgan St</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>Utah State</t>
-  </si>
-  <si>
-    <t>Tarleton St</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Weber St</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>SC State</t>
-  </si>
-  <si>
-    <t>Portland St</t>
-  </si>
-  <si>
-    <t>Northern Iowa</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>Prairie View</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Western KY</t>
-  </si>
-  <si>
-    <t>Youngstown St</t>
-  </si>
-  <si>
-    <t>W Illinois</t>
-  </si>
-  <si>
-    <t>Delaware St</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>C Michigan</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Wofford</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Incarnate Word</t>
-  </si>
-  <si>
-    <t>N Arizona</t>
-  </si>
-  <si>
-    <t>Charleston So</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Kennesaw St</t>
-  </si>
-  <si>
-    <t>Sacred Heart</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Louisiana Tech</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>Robert Morris</t>
-  </si>
-  <si>
-    <t>Albright</t>
-  </si>
-  <si>
-    <t>Furman</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Southern Utah</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Duquesne</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Jackson St</t>
-  </si>
-  <si>
-    <t>NWestern St</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Austin Peay</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Bucknell</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>E Kentucky</t>
-  </si>
-  <si>
-    <t>Idaho St</t>
-  </si>
-  <si>
-    <t>Monmouth</t>
-  </si>
-  <si>
-    <t>UT Martin</t>
-  </si>
-  <si>
-    <t>James Madison</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Indiana St</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>SF Austin</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M-Comm</t>
-  </si>
-  <si>
-    <t>Norfolk St</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Cal Poly</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>AR-Pine Bluff</t>
-  </si>
-  <si>
-    <t>Sam Houston</t>
-  </si>
-  <si>
-    <t>St Francis PA</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>E Illinois</t>
-  </si>
-  <si>
-    <t>Ft Valley</t>
-  </si>
-  <si>
-    <t>Ball State</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>C Arkansas</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Long Island</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Nicholls</t>
-  </si>
-  <si>
-    <t>NC Central</t>
-  </si>
-  <si>
-    <t>Murray St</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>Stony Brook</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>UC Davis</t>
-  </si>
-  <si>
-    <t>VMI</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>Mrchnt Mar</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>S Illinois</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>East Carolina</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>North Alabama</t>
-  </si>
-  <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>C Connecticut</t>
-  </si>
-  <si>
-    <t>Wagner</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Sacramento St</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Florida</t>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>MRMK</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>NWST</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>CHSO</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>UIW</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>SIU</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>EKU</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>JKST</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
+    <t>NICH</t>
+  </si>
+  <si>
+    <t>RICH</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>YSU</t>
+  </si>
+  <si>
+    <t>TOW</t>
+  </si>
+  <si>
+    <t>TNTC</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>LAF</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>WIU</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>IDHO</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>STBK</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>APSU</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>TXSO</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>W&amp;M</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>SEMO</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>SFA</t>
   </si>
   <si>
     <t>BAY</t>
   </si>
   <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>ARK</t>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>SDAK</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>LIU</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>SCST</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>MONM</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>GRAM</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>BRY</t>
   </si>
   <si>
     <t>NEB</t>
   </si>
   <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>FVS</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>CARK</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NCAT</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>WCU</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>SFPA</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>UNCO</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>UAPB</t>
+  </si>
+  <si>
+    <t>WOF</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>GWEB</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>PRST</t>
+  </si>
+  <si>
+    <t>IDST</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>RMU</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>TAMC</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
     <t>MIZ</t>
   </si>
   <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>W&amp;M</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SDAK</t>
-  </si>
-  <si>
-    <t>SEMO</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
     <t>TNST</t>
   </si>
   <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>HCU</t>
-  </si>
-  <si>
-    <t>UND</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>ACU</t>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>VILL</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>MIA</t>
   </si>
   <si>
     <t>OU</t>
@@ -808,1312 +1351,769 @@
     <t>COLG</t>
   </si>
   <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>MRMK</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>TNTC</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>LAF</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>SELA</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>ALCN</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>TXSO</t>
-  </si>
-  <si>
-    <t>NCAT</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>GWEB</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>TOW</t>
-  </si>
-  <si>
-    <t>UNCO</t>
-  </si>
-  <si>
-    <t>BCU</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>MORG</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>TAR</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>SCST</t>
-  </si>
-  <si>
-    <t>PRST</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>YSU</t>
-  </si>
-  <si>
-    <t>WIU</t>
-  </si>
-  <si>
-    <t>DSU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>WOF</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>UIW</t>
-  </si>
-  <si>
-    <t>NAU</t>
-  </si>
-  <si>
-    <t>CHSO</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>SHU</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>RICH</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>RMU</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>FUR</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>SUU</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>DUQ</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>JKST</t>
-  </si>
-  <si>
-    <t>NWST</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>APSU</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>BUCK</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>EKU</t>
-  </si>
-  <si>
-    <t>IDST</t>
-  </si>
-  <si>
-    <t>MONM</t>
-  </si>
-  <si>
-    <t>UTM</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
-    <t>SFA</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>TAMC</t>
-  </si>
-  <si>
-    <t>NORF</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>VILL</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>UAPB</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>SFPA</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>CARK</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>LIU</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>NICH</t>
-  </si>
-  <si>
-    <t>NCCU</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>STBK</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>BRY</t>
-  </si>
-  <si>
-    <t>IDHO</t>
-  </si>
-  <si>
-    <t>SIU</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>UNA</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>HOW</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>FLA</t>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
   </si>
   <si>
     <t>Miami (OH)</t>
   </si>
   <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
     <t>S Alabama</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Ball St</t>
   </si>
   <si>
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>Kent St</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
+    <t>W Virginia</t>
   </si>
   <si>
     <t>Jksnville St</t>
   </si>
   <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
     <t>Florida Intl</t>
   </si>
   <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>S Florida</t>
+    <t>CENTRAL CONNECTICUT ST.</t>
+  </si>
+  <si>
+    <t>AIR FORCE</t>
+  </si>
+  <si>
+    <t>PRAIRIE VIEW A&amp;M</t>
+  </si>
+  <si>
+    <t>EASTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>MERRIMACK</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN STATE-LA</t>
+  </si>
+  <si>
+    <t>KANSAS STATE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA CENTRAL</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>WAKE FOREST</t>
+  </si>
+  <si>
+    <t>CHARLESTON SOUTHERN</t>
+  </si>
+  <si>
+    <t>TENNESSEE-MARTIN</t>
+  </si>
+  <si>
+    <t>MURRAY STATE</t>
+  </si>
+  <si>
+    <t>PENN STATE</t>
+  </si>
+  <si>
+    <t>HOLY CROSS</t>
+  </si>
+  <si>
+    <t>CENTRAL MICHIGAN</t>
+  </si>
+  <si>
+    <t>STANFORD</t>
+  </si>
+  <si>
+    <t>NORTH ALABAMA</t>
+  </si>
+  <si>
+    <t>ALABAMA A&amp;M</t>
+  </si>
+  <si>
+    <t>UNC - CHARLOTTE</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>SAMFORD</t>
+  </si>
+  <si>
+    <t>DELAWARE STATE</t>
+  </si>
+  <si>
+    <t>INCARNATE WORD</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>BETHUNE-COOKMAN</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>ALABAMA-BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA-TENNESSEE</t>
+  </si>
+  <si>
+    <t>ABILENE CHRISTIAN</t>
+  </si>
+  <si>
+    <t>SAM HOUSTON</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>SAN JOSE STATE</t>
+  </si>
+  <si>
+    <t>SOUTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>TROY STATE</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN</t>
+  </si>
+  <si>
+    <t>NORTHERN ARIZONA</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>NEVADA-LAS VEGAS</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>U.C.L.A.</t>
+  </si>
+  <si>
+    <t>BUCKNELL</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>BOWLING GREEN</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>MISSOURI STATE</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>EASTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>GEORGIA TECH</t>
+  </si>
+  <si>
+    <t>JAMES MADISON</t>
+  </si>
+  <si>
+    <t>TEXAS-SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE</t>
+  </si>
+  <si>
+    <t>TEXAS STATE-SAN MARCOS</t>
+  </si>
+  <si>
+    <t>SO. EAST LOUISIANA</t>
+  </si>
+  <si>
+    <t>CENTRAL FLORIDA</t>
+  </si>
+  <si>
+    <t>MIDDLE TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>BRIGHAM YOUNG</t>
+  </si>
+  <si>
+    <t>LOUISIANA STATE</t>
+  </si>
+  <si>
+    <t>NORTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>TEXAS TECH</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>NORFOLK STATE</t>
+  </si>
+  <si>
+    <t>JACKSON STATE</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>COLORADO STATE</t>
+  </si>
+  <si>
+    <t>FURMAN</t>
+  </si>
+  <si>
+    <t>KENT STATE</t>
+  </si>
+  <si>
+    <t>COASTAL CAROLINA</t>
+  </si>
+  <si>
+    <t>MORGAN STATE</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>EASTERN WASHINGTON</t>
+  </si>
+  <si>
+    <t>YOUNGSTOWN STATE</t>
+  </si>
+  <si>
+    <t>TOWSON</t>
+  </si>
+  <si>
+    <t>TENNESSEE TECH</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>NORTH TEXAS</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>FLORIDA A&amp;M</t>
+  </si>
+  <si>
+    <t>WESTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>FLORIDA ATLANTIC</t>
+  </si>
+  <si>
+    <t>TEXAS CHRISTIAN</t>
+  </si>
+  <si>
+    <t>ALBRIGHT</t>
+  </si>
+  <si>
+    <t>OHIO STATE</t>
+  </si>
+  <si>
+    <t>SOUTHERN MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>MIAMI OF OHIO</t>
+  </si>
+  <si>
+    <t>BOSTON COLLEGE</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
+  </si>
+  <si>
+    <t>SACRED HEART</t>
+  </si>
+  <si>
+    <t>NO. CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>SAN DIEGO STATE</t>
+  </si>
+  <si>
+    <t>EAST TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>STONY BROOK</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>OREGON STATE</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>KENNESAW STATE</t>
+  </si>
+  <si>
+    <t>SOUTHERN UTAH</t>
+  </si>
+  <si>
+    <t>AUSTIN PEAY</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>TEXAS SOUTHERN</t>
+  </si>
+  <si>
+    <t>RUTGERS</t>
+  </si>
+  <si>
+    <t>EAST CAROLINA</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>WILLIAM &amp; MARY</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>DUQUESNE</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN MISSOURI</t>
+  </si>
+  <si>
+    <t>ARKANSAS STATE</t>
+  </si>
+  <si>
+    <t>CAL-SACRAMENTO</t>
+  </si>
+  <si>
+    <t>OKLAHOMA STATE</t>
+  </si>
+  <si>
+    <t>EASTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>BOISE</t>
+  </si>
+  <si>
+    <t>VIRGINIA TECH</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>S.F.AUSTIN</t>
   </si>
   <si>
     <t>BAYLOR</t>
   </si>
   <si>
-    <t>MIAMI OF OHIO</t>
-  </si>
-  <si>
-    <t>ARKANSAS</t>
+    <t>PURDUE</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>IOWA STATE</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>MCNEESE STATE</t>
+  </si>
+  <si>
+    <t>GEORGIA SOUTHERN</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>THE CITADEL</t>
+  </si>
+  <si>
+    <t>MONMOUTH-NJ</t>
+  </si>
+  <si>
+    <t>INDIANA STATE</t>
+  </si>
+  <si>
+    <t>GRAMBLING</t>
+  </si>
+  <si>
+    <t>FRESNO STATE</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>TEMPLE</t>
+  </si>
+  <si>
+    <t>BRYANT COLLEGE</t>
   </si>
   <si>
     <t>NEBRASKA</t>
   </si>
   <si>
+    <t>TARLETON STATE</t>
+  </si>
+  <si>
+    <t>FORT VALLEY STATE</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>APPALACHIAN STATE</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>ALCORN STATE</t>
+  </si>
+  <si>
+    <t>SOUTH FLORIDA</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>CENTRAL ARKANSAS</t>
+  </si>
+  <si>
+    <t>UTAH TECH</t>
+  </si>
+  <si>
+    <t>AKRON</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA A&amp;T</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI STATE</t>
+  </si>
+  <si>
+    <t>LOUISVILLE</t>
+  </si>
+  <si>
+    <t>WESTERN CAROLINA</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>ST.FRANCIS-PA</t>
+  </si>
+  <si>
+    <t>TULANE</t>
+  </si>
+  <si>
+    <t>WEBER STATE</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>NORTHERN COLORADO</t>
+  </si>
+  <si>
+    <t>UTAH STATE</t>
+  </si>
+  <si>
+    <t>PINE BLUFF-ARKANSAS</t>
+  </si>
+  <si>
+    <t>WOFFORD</t>
+  </si>
+  <si>
+    <t>TULSA</t>
+  </si>
+  <si>
+    <t>GEORGIA STATE</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>WESTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>OLD DOMINION</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>NEW MEXICO STATE</t>
+  </si>
+  <si>
+    <t>LA - MONROE</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>VANDERBILT</t>
+  </si>
+  <si>
+    <t>SOUTHERN METHODIST</t>
+  </si>
+  <si>
+    <t>GARDNER-WEBB</t>
+  </si>
+  <si>
+    <t>SOUTH ALABAMA</t>
+  </si>
+  <si>
+    <t>NORTHERN IOWA</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>PORTLAND STATE</t>
+  </si>
+  <si>
+    <t>IDAHO STATE</t>
+  </si>
+  <si>
+    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
+  </si>
+  <si>
+    <t>VIRGINIA MILITARY INSTITUTE</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>BALL STATE</t>
+  </si>
+  <si>
+    <t>ROBERT MORRIS - PA</t>
+  </si>
+  <si>
+    <t>MICHIGAN STATE</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
+  </si>
+  <si>
+    <t>PITTSBURGH</t>
+  </si>
+  <si>
+    <t>CLEMSON</t>
+  </si>
+  <si>
+    <t>TEXAS-EL PASO</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>HOUSTON CHRISTIAN</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE STATE</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>ARIZONA STATE</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>CAL-DAVIS</t>
+  </si>
+  <si>
+    <t>TEXAS A&amp;M</t>
+  </si>
+  <si>
     <t>MISSOURI</t>
   </si>
   <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
-    <t>SOUTH ALABAMA</t>
-  </si>
-  <si>
-    <t>WILLIAM &amp; MARY</t>
-  </si>
-  <si>
-    <t>LOUISIANA</t>
-  </si>
-  <si>
-    <t>SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>SOUTH EASTERN MISSOURI</t>
-  </si>
-  <si>
-    <t>OREGON</t>
-  </si>
-  <si>
-    <t>SAN DIEGO STATE</t>
-  </si>
-  <si>
-    <t>COASTAL CAROLINA</t>
-  </si>
-  <si>
     <t>TENNESSEE STATE</t>
   </si>
   <si>
-    <t>GEORGIA SOUTHERN</t>
-  </si>
-  <si>
-    <t>EASTERN WASHINGTON</t>
-  </si>
-  <si>
-    <t>STANFORD</t>
-  </si>
-  <si>
-    <t>UTAH TECH</t>
-  </si>
-  <si>
-    <t>FLORIDA ATLANTIC</t>
-  </si>
-  <si>
-    <t>UNC - CHARLOTTE</t>
-  </si>
-  <si>
-    <t>PITTSBURGH</t>
-  </si>
-  <si>
-    <t>APPALACHIAN STATE</t>
-  </si>
-  <si>
-    <t>KENT STATE</t>
-  </si>
-  <si>
-    <t>ALABAMA A&amp;M</t>
-  </si>
-  <si>
-    <t>HOUSTON CHRISTIAN</t>
-  </si>
-  <si>
-    <t>NORTH DAKOTA</t>
-  </si>
-  <si>
-    <t>SAM HOUSTON</t>
-  </si>
-  <si>
-    <t>MCNEESE STATE</t>
-  </si>
-  <si>
-    <t>ABILENE CHRISTIAN</t>
+    <t>OHIO UNIV.</t>
+  </si>
+  <si>
+    <t>VILLANOVA</t>
+  </si>
+  <si>
+    <t>MERCHANT MARINE</t>
+  </si>
+  <si>
+    <t>FLORIDA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>MIAMI-FL</t>
   </si>
   <si>
     <t>OKLAHOMA</t>
   </si>
   <si>
     <t>COLGATE</t>
-  </si>
-  <si>
-    <t>SAMFORD</t>
-  </si>
-  <si>
-    <t>DELAWARE</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>MARYLAND</t>
-  </si>
-  <si>
-    <t>TULANE</t>
-  </si>
-  <si>
-    <t>TEXAS CHRISTIAN</t>
-  </si>
-  <si>
-    <t>ARIZONA STATE</t>
-  </si>
-  <si>
-    <t>MERRIMACK</t>
-  </si>
-  <si>
-    <t>MISSOURI STATE</t>
-  </si>
-  <si>
-    <t>MICHIGAN STATE</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA-TENNESSEE</t>
-  </si>
-  <si>
-    <t>WESTERN CAROLINA</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>TENNESSEE TECH</t>
-  </si>
-  <si>
-    <t>NEW MEXICO STATE</t>
-  </si>
-  <si>
-    <t>CLEMSON</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE STATE</t>
-  </si>
-  <si>
-    <t>MIDDLE TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>THE CITADEL</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>HOUSTON</t>
-  </si>
-  <si>
-    <t>TEXAS STATE-SAN MARCOS</t>
-  </si>
-  <si>
-    <t>WESTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>TEXAS TECH</t>
-  </si>
-  <si>
-    <t>SOUTHERN MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>MEMPHIS</t>
-  </si>
-  <si>
-    <t>COLORADO STATE</t>
-  </si>
-  <si>
-    <t>HOLY CROSS</t>
-  </si>
-  <si>
-    <t>SO. EAST LOUISIANA</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
-    <t>LOUISVILLE</t>
-  </si>
-  <si>
-    <t>GEORGIA STATE</t>
-  </si>
-  <si>
-    <t>ALCORN STATE</t>
-  </si>
-  <si>
-    <t>MICHIGAN</t>
-  </si>
-  <si>
-    <t>ARKANSAS STATE</t>
-  </si>
-  <si>
-    <t>TEXAS SOUTHERN</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA A&amp;T</t>
-  </si>
-  <si>
-    <t>GRAMBLING</t>
-  </si>
-  <si>
-    <t>BOWLING GREEN</t>
-  </si>
-  <si>
-    <t>CINCINNATI</t>
-  </si>
-  <si>
-    <t>GARDNER-WEBB</t>
-  </si>
-  <si>
-    <t>WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>TOWSON</t>
-  </si>
-  <si>
-    <t>NORTHERN COLORADO</t>
-  </si>
-  <si>
-    <t>BETHUNE-COOKMAN</t>
-  </si>
-  <si>
-    <t>EAST TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>LA - MONROE</t>
-  </si>
-  <si>
-    <t>NORTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>INDIANA</t>
-  </si>
-  <si>
-    <t>SAN JOSE STATE</t>
-  </si>
-  <si>
-    <t>WYOMING</t>
-  </si>
-  <si>
-    <t>OREGON STATE</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>MORGAN STATE</t>
-  </si>
-  <si>
-    <t>TEXAS-EL PASO</t>
-  </si>
-  <si>
-    <t>UTAH STATE</t>
-  </si>
-  <si>
-    <t>TARLETON STATE</t>
-  </si>
-  <si>
-    <t>WAKE FOREST</t>
-  </si>
-  <si>
-    <t>WEBER STATE</t>
-  </si>
-  <si>
-    <t>TEXAS</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>PORTLAND STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN IOWA</t>
-  </si>
-  <si>
-    <t>IOWA STATE</t>
-  </si>
-  <si>
-    <t>PRAIRIE VIEW A&amp;M</t>
-  </si>
-  <si>
-    <t>OHIO UNIV.</t>
-  </si>
-  <si>
-    <t>WESTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>YOUNGSTOWN STATE</t>
-  </si>
-  <si>
-    <t>WESTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>DELAWARE STATE</t>
-  </si>
-  <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
-    <t>U.C.L.A.</t>
-  </si>
-  <si>
-    <t>CENTRAL CONNECTICUT ST.</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>WOFFORD</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>RHODE ISLAND</t>
-  </si>
-  <si>
-    <t>INCARNATE WORD</t>
-  </si>
-  <si>
-    <t>NORTHERN ARIZONA</t>
-  </si>
-  <si>
-    <t>CHARLESTON SOUTHERN</t>
-  </si>
-  <si>
-    <t>BRIGHAM YOUNG</t>
-  </si>
-  <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
-    <t>KENNESAW STATE</t>
-  </si>
-  <si>
-    <t>SACRED HEART</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>EASTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>GEORGIA TECH</t>
-  </si>
-  <si>
-    <t>LOUISIANA STATE</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>BOISE</t>
-  </si>
-  <si>
-    <t>ROBERT MORRIS - PA</t>
-  </si>
-  <si>
-    <t>ALBRIGHT</t>
-  </si>
-  <si>
-    <t>FURMAN</t>
-  </si>
-  <si>
-    <t>WISCONSIN</t>
-  </si>
-  <si>
-    <t>SOUTHERN UTAH</t>
-  </si>
-  <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>RUTGERS</t>
-  </si>
-  <si>
-    <t>ARIZONA</t>
-  </si>
-  <si>
-    <t>DUQUESNE</t>
-  </si>
-  <si>
-    <t>AKRON</t>
-  </si>
-  <si>
-    <t>JACKSON STATE</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN STATE-LA</t>
-  </si>
-  <si>
-    <t>AIR FORCE</t>
-  </si>
-  <si>
-    <t>AUSTIN PEAY</t>
-  </si>
-  <si>
-    <t>BUCKNELL</t>
-  </si>
-  <si>
-    <t>MARSHALL</t>
-  </si>
-  <si>
-    <t>EASTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>IDAHO STATE</t>
-  </si>
-  <si>
-    <t>MONMOUTH-NJ</t>
-  </si>
-  <si>
-    <t>TENNESSEE-MARTIN</t>
-  </si>
-  <si>
-    <t>JAMES MADISON</t>
-  </si>
-  <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
-    <t>OLD DOMINION</t>
-  </si>
-  <si>
-    <t>INDIANA STATE</t>
-  </si>
-  <si>
-    <t>CENTRAL FLORIDA</t>
-  </si>
-  <si>
-    <t>S.F.AUSTIN</t>
-  </si>
-  <si>
-    <t>PURDUE</t>
-  </si>
-  <si>
-    <t>FLORIDA A&amp;M</t>
-  </si>
-  <si>
-    <t>FRESNO STATE</t>
-  </si>
-  <si>
-    <t>TEMPLE</t>
-  </si>
-  <si>
-    <t>TEXAS A&amp;M</t>
-  </si>
-  <si>
-    <t>NORFOLK STATE</t>
-  </si>
-  <si>
-    <t>NEW HAMPSHIRE</t>
-  </si>
-  <si>
-    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
-  </si>
-  <si>
-    <t>VILLANOVA</t>
-  </si>
-  <si>
-    <t>CONNECTICUT</t>
-  </si>
-  <si>
-    <t>OKLAHOMA STATE</t>
-  </si>
-  <si>
-    <t>PINE BLUFF-ARKANSAS</t>
-  </si>
-  <si>
-    <t>ST.FRANCIS-PA</t>
-  </si>
-  <si>
-    <t>MINNESOTA</t>
-  </si>
-  <si>
-    <t>KANSAS</t>
-  </si>
-  <si>
-    <t>EASTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>FORT VALLEY STATE</t>
-  </si>
-  <si>
-    <t>BALL STATE</t>
-  </si>
-  <si>
-    <t>VANDERBILT</t>
-  </si>
-  <si>
-    <t>CAMPBELL</t>
-  </si>
-  <si>
-    <t>CENTRAL ARKANSAS</t>
-  </si>
-  <si>
-    <t>MIAMI-FL</t>
-  </si>
-  <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
-    <t>ILLINOIS</t>
-  </si>
-  <si>
-    <t>SOUTHERN METHODIST</t>
-  </si>
-  <si>
-    <t>TEXAS-SAN ANTONIO</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>NICHOLS</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA CENTRAL</t>
-  </si>
-  <si>
-    <t>MURRAY STATE</t>
-  </si>
-  <si>
-    <t>VIRGINIA TECH</t>
-  </si>
-  <si>
-    <t>STONY BROOK</t>
-  </si>
-  <si>
-    <t>NOTRE DAME</t>
-  </si>
-  <si>
-    <t>CAL-DAVIS</t>
-  </si>
-  <si>
-    <t>VIRGINIA MILITARY INSTITUTE</t>
-  </si>
-  <si>
-    <t>SOUTH FLORIDA</t>
-  </si>
-  <si>
-    <t>PENN STATE</t>
-  </si>
-  <si>
-    <t>NORTH TEXAS</t>
-  </si>
-  <si>
-    <t>MERCHANT MARINE</t>
-  </si>
-  <si>
-    <t>BRYANT COLLEGE</t>
-  </si>
-  <si>
-    <t>FLORIDA INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>IDAHO</t>
-  </si>
-  <si>
-    <t>SOUTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>OHIO STATE</t>
-  </si>
-  <si>
-    <t>BOSTON COLLEGE</t>
-  </si>
-  <si>
-    <t>ALABAMA-BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>EAST CAROLINA</t>
-  </si>
-  <si>
-    <t>FLORIDA STATE</t>
-  </si>
-  <si>
-    <t>KENTUCKY</t>
-  </si>
-  <si>
-    <t>NEVADA</t>
-  </si>
-  <si>
-    <t>MAINE</t>
-  </si>
-  <si>
-    <t>NO. CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>KANSAS STATE</t>
-  </si>
-  <si>
-    <t>NORTH ALABAMA</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI STATE</t>
-  </si>
-  <si>
-    <t>TROY STATE</t>
-  </si>
-  <si>
-    <t>SOUTHERN CALIFORNIA</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
-    <t>TULSA</t>
-  </si>
-  <si>
-    <t>CAL-SACRAMENTO</t>
-  </si>
-  <si>
-    <t>NEVADA-LAS VEGAS</t>
-  </si>
-  <si>
-    <t>FLORIDA</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2505,7 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
         <v>484</v>
@@ -2522,7 +2522,7 @@
         <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>485</v>
@@ -2539,7 +2539,7 @@
         <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>446</v>
       </c>
       <c r="E4" t="s">
         <v>486</v>
@@ -2556,7 +2556,7 @@
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
         <v>487</v>
@@ -2573,7 +2573,7 @@
         <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="E6" t="s">
         <v>488</v>
@@ -2607,7 +2607,7 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>490</v>
@@ -2624,7 +2624,7 @@
         <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>491</v>
@@ -2641,7 +2641,7 @@
         <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="E10" t="s">
         <v>492</v>
@@ -2658,7 +2658,7 @@
         <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>493</v>
@@ -2675,7 +2675,7 @@
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>494</v>
@@ -2692,7 +2692,7 @@
         <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="E13" t="s">
         <v>495</v>
@@ -2709,7 +2709,7 @@
         <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
         <v>496</v>
@@ -2726,7 +2726,7 @@
         <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="E15" t="s">
         <v>497</v>
@@ -2760,7 +2760,7 @@
         <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="E17" t="s">
         <v>499</v>
@@ -2777,7 +2777,7 @@
         <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>500</v>
@@ -2811,7 +2811,7 @@
         <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E20" t="s">
         <v>502</v>
@@ -2825,13 +2825,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>449</v>
-      </c>
       <c r="E21" t="s">
-        <v>503</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>446</v>
       </c>
       <c r="E22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2859,13 +2859,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D23" t="s">
-        <v>450</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2876,13 +2876,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2893,13 +2893,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2910,13 +2910,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2927,13 +2927,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2944,13 +2944,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2961,13 +2961,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="E29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2978,13 +2978,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2995,13 +2995,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3015,10 +3015,10 @@
         <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>446</v>
       </c>
       <c r="E32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3032,10 +3032,10 @@
         <v>263</v>
       </c>
       <c r="D33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3049,10 +3049,10 @@
         <v>264</v>
       </c>
       <c r="D34" t="s">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3066,10 +3066,10 @@
         <v>265</v>
       </c>
       <c r="D35" t="s">
-        <v>447</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3083,10 +3083,10 @@
         <v>266</v>
       </c>
       <c r="D36" t="s">
-        <v>453</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3100,10 +3100,10 @@
         <v>267</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>446</v>
       </c>
       <c r="E37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3120,7 +3120,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3131,13 +3131,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
-        <v>447</v>
-      </c>
       <c r="E39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3148,13 +3148,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>446</v>
       </c>
       <c r="E40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3165,13 +3165,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D41" t="s">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3182,13 +3182,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3202,10 +3202,10 @@
         <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="E43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3216,13 +3216,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>447</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3233,13 +3233,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3250,13 +3250,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>449</v>
       </c>
       <c r="E46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3267,13 +3267,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3284,13 +3284,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>455</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3301,13 +3301,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>451</v>
       </c>
       <c r="E49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3318,13 +3318,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D50" t="s">
-        <v>456</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3335,13 +3335,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="D51" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3355,10 +3355,10 @@
         <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E52" t="s">
-        <v>534</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3372,10 +3372,10 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E53" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3389,10 +3389,10 @@
         <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>453</v>
       </c>
       <c r="E54" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3403,13 +3403,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3420,13 +3420,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3437,13 +3437,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3454,13 +3454,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E58" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3471,13 +3471,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D59" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E59" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3488,13 +3488,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>455</v>
       </c>
       <c r="E60" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3505,13 +3505,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3522,13 +3522,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>447</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3539,13 +3539,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
-        <v>447</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3556,13 +3556,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D64" t="s">
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3573,13 +3573,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3590,13 +3590,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3607,13 +3607,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>446</v>
       </c>
       <c r="E67" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3624,13 +3624,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D68" t="s">
-        <v>447</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3641,13 +3641,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>456</v>
       </c>
       <c r="E69" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3658,13 +3658,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3675,13 +3675,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E71" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3692,13 +3692,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D72" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E72" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3709,13 +3709,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D73" t="s">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3726,13 +3726,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E74" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3743,13 +3743,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="E75" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3760,13 +3760,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E76" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3777,13 +3777,13 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>446</v>
       </c>
       <c r="E77" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3794,13 +3794,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D78" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E78" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3811,13 +3811,13 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E79" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3828,13 +3828,13 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E80" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3845,13 +3845,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" t="s">
         <v>84</v>
       </c>
-      <c r="D81" t="s">
-        <v>447</v>
-      </c>
       <c r="E81" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3862,13 +3862,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3879,13 +3879,13 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E83" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3896,13 +3896,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>446</v>
       </c>
       <c r="E84" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3913,13 +3913,13 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3930,13 +3930,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>446</v>
       </c>
       <c r="E86" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3947,13 +3947,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>458</v>
       </c>
       <c r="E87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3964,13 +3964,13 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>315</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>448</v>
       </c>
       <c r="E88" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3981,13 +3981,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D89" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E89" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3998,13 +3998,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D90" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E90" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4015,13 +4015,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D91" t="s">
-        <v>94</v>
+        <v>460</v>
       </c>
       <c r="E91" t="s">
-        <v>318</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4032,13 +4032,13 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="E92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4049,13 +4049,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D93" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4066,13 +4066,13 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E94" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4083,13 +4083,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s">
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4100,13 +4100,13 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4117,13 +4117,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D97" t="s">
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4134,13 +4134,13 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D98" t="s">
-        <v>447</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4151,13 +4151,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>325</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E99" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4168,13 +4168,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E100" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4185,13 +4185,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D101" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E101" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4202,13 +4202,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D102" t="s">
-        <v>447</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4219,13 +4219,13 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D103" t="s">
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4236,13 +4236,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D104" t="s">
-        <v>462</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>585</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4253,13 +4253,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D105" t="s">
-        <v>447</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4270,13 +4270,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D106" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E106" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4287,13 +4287,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D107" t="s">
-        <v>447</v>
+        <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>588</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4304,13 +4304,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="E108" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4321,13 +4321,13 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="E109" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4338,13 +4338,13 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D110" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="E110" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4355,13 +4355,13 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D111" t="s">
-        <v>114</v>
+        <v>446</v>
       </c>
       <c r="E111" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4372,13 +4372,13 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4389,13 +4389,13 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D113" t="s">
         <v>464</v>
       </c>
       <c r="E113" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4406,13 +4406,13 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D114" t="s">
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>339</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4423,13 +4423,13 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D115" t="s">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4440,13 +4440,13 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D116" t="s">
-        <v>447</v>
+        <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4457,13 +4457,13 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D117" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E117" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4474,13 +4474,13 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D118" t="s">
-        <v>447</v>
+        <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4491,13 +4491,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="D119" t="s">
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4508,13 +4508,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D120" t="s">
-        <v>123</v>
+        <v>446</v>
       </c>
       <c r="E120" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4525,13 +4525,13 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D121" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E121" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4542,13 +4542,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D122" t="s">
-        <v>447</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4559,13 +4559,13 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D123" t="s">
         <v>465</v>
       </c>
       <c r="E123" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4576,13 +4576,13 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D124" t="s">
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>348</v>
+        <v>602</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4593,13 +4593,13 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D125" t="s">
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4610,13 +4610,13 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D126" t="s">
-        <v>466</v>
+        <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4627,13 +4627,13 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D127" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E127" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4644,13 +4644,13 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="E128" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4661,13 +4661,13 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>446</v>
       </c>
       <c r="E129" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4678,13 +4678,13 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D130" t="s">
-        <v>447</v>
+        <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>354</v>
+        <v>608</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4695,10 +4695,10 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D131" t="s">
-        <v>447</v>
+        <v>134</v>
       </c>
       <c r="E131" t="s">
         <v>609</v>
@@ -4712,10 +4712,10 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D132" t="s">
-        <v>447</v>
+        <v>135</v>
       </c>
       <c r="E132" t="s">
         <v>610</v>
@@ -4729,10 +4729,10 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>447</v>
+        <v>136</v>
       </c>
       <c r="E133" t="s">
         <v>611</v>
@@ -4746,10 +4746,10 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="E134" t="s">
         <v>612</v>
@@ -4763,10 +4763,10 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>447</v>
+        <v>138</v>
       </c>
       <c r="E135" t="s">
         <v>613</v>
@@ -4780,13 +4780,13 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>492</v>
+        <v>614</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4797,13 +4797,13 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D137" t="s">
-        <v>140</v>
+        <v>446</v>
       </c>
       <c r="E137" t="s">
-        <v>614</v>
+        <v>446</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4814,10 +4814,10 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>468</v>
       </c>
       <c r="E138" t="s">
         <v>615</v>
@@ -4831,10 +4831,10 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>446</v>
       </c>
       <c r="E139" t="s">
         <v>616</v>
@@ -4848,13 +4848,13 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>363</v>
+        <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>447</v>
+        <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>617</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4865,13 +4865,13 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D141" t="s">
-        <v>144</v>
+        <v>446</v>
       </c>
       <c r="E141" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4882,13 +4882,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D142" t="s">
-        <v>447</v>
+        <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4899,13 +4899,13 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D143" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E143" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4916,13 +4916,13 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D144" t="s">
-        <v>147</v>
+        <v>446</v>
       </c>
       <c r="E144" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4933,13 +4933,13 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D145" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E145" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4950,13 +4950,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>446</v>
       </c>
       <c r="E146" t="s">
-        <v>548</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4967,10 +4967,10 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E147" t="s">
         <v>623</v>
@@ -4984,7 +4984,7 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D148" t="s">
         <v>151</v>
@@ -5001,10 +5001,10 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D149" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E149" t="s">
         <v>625</v>
@@ -5018,10 +5018,10 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D150" t="s">
-        <v>447</v>
+        <v>153</v>
       </c>
       <c r="E150" t="s">
         <v>626</v>
@@ -5035,10 +5035,10 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D151" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E151" t="s">
         <v>627</v>
@@ -5052,10 +5052,10 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D152" t="s">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="E152" t="s">
         <v>628</v>
@@ -5069,13 +5069,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D153" t="s">
-        <v>468</v>
+        <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>629</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5086,13 +5086,13 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D154" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5103,13 +5103,13 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D155" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="E155" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5120,13 +5120,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D156" t="s">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5137,13 +5137,13 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>469</v>
       </c>
       <c r="E157" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5154,13 +5154,13 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D158" t="s">
-        <v>447</v>
+        <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5171,13 +5171,13 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D159" t="s">
-        <v>162</v>
+        <v>446</v>
       </c>
       <c r="E159" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5188,13 +5188,13 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D160" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="E160" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5205,13 +5205,13 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D161" t="s">
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>637</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5222,13 +5222,13 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>446</v>
       </c>
       <c r="E162" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5239,13 +5239,13 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D163" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E163" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5256,13 +5256,13 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D164" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="E164" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5273,13 +5273,13 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D165" t="s">
-        <v>447</v>
+        <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5290,13 +5290,13 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D166" t="s">
-        <v>470</v>
+        <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5307,13 +5307,13 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E167" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5324,13 +5324,13 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D168" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E168" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5341,13 +5341,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D169" t="s">
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5358,13 +5358,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D170" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E170" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5375,13 +5375,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D171" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E171" t="s">
-        <v>511</v>
+        <v>645</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5392,13 +5392,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D172" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E172" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5409,13 +5409,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D173" t="s">
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5426,13 +5426,13 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D174" t="s">
-        <v>177</v>
+        <v>446</v>
       </c>
       <c r="E174" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5443,13 +5443,13 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D175" t="s">
-        <v>187</v>
+        <v>446</v>
       </c>
       <c r="E175" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5460,13 +5460,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D176" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="E176" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5477,13 +5477,13 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D177" t="s">
-        <v>219</v>
+        <v>471</v>
       </c>
       <c r="E177" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5494,13 +5494,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D178" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="E178" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5511,13 +5511,13 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D179" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E179" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5528,13 +5528,13 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D180" t="s">
-        <v>447</v>
+        <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5545,13 +5545,13 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D181" t="s">
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>656</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5562,13 +5562,13 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D182" t="s">
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5579,13 +5579,13 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D183" t="s">
-        <v>447</v>
+        <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>447</v>
+        <v>656</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5596,13 +5596,13 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D184" t="s">
-        <v>86</v>
+        <v>472</v>
       </c>
       <c r="E184" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5613,13 +5613,13 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D185" t="s">
-        <v>188</v>
+        <v>473</v>
       </c>
       <c r="E185" t="s">
-        <v>639</v>
+        <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5630,13 +5630,13 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
+        <v>406</v>
+      </c>
+      <c r="D186" t="s">
         <v>189</v>
       </c>
-      <c r="D186" t="s">
-        <v>447</v>
-      </c>
       <c r="E186" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5647,13 +5647,13 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>190</v>
+        <v>407</v>
       </c>
       <c r="D187" t="s">
-        <v>190</v>
+        <v>474</v>
       </c>
       <c r="E187" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5667,10 +5667,10 @@
         <v>408</v>
       </c>
       <c r="D188" t="s">
-        <v>191</v>
+        <v>475</v>
       </c>
       <c r="E188" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5687,7 +5687,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5701,10 +5701,10 @@
         <v>410</v>
       </c>
       <c r="D190" t="s">
-        <v>447</v>
+        <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5718,10 +5718,10 @@
         <v>411</v>
       </c>
       <c r="D191" t="s">
-        <v>447</v>
+        <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5732,13 +5732,13 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>412</v>
+        <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="E192" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5749,13 +5749,13 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E193" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5766,13 +5766,13 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D194" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="E194" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5783,13 +5783,13 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D195" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
       <c r="E195" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5800,13 +5800,13 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D196" t="s">
-        <v>473</v>
+        <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5817,13 +5817,13 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="D197" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E197" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5837,10 +5837,10 @@
         <v>417</v>
       </c>
       <c r="D198" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E198" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5854,10 +5854,10 @@
         <v>418</v>
       </c>
       <c r="D199" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E199" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5868,13 +5868,13 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>419</v>
+        <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="E200" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5885,13 +5885,13 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D201" t="s">
-        <v>447</v>
+        <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5902,13 +5902,13 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D202" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="E202" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5919,13 +5919,13 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>206</v>
+        <v>421</v>
       </c>
       <c r="D203" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="E203" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5939,10 +5939,10 @@
         <v>422</v>
       </c>
       <c r="D204" t="s">
-        <v>447</v>
+        <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5956,10 +5956,10 @@
         <v>423</v>
       </c>
       <c r="D205" t="s">
-        <v>447</v>
+        <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5973,10 +5973,10 @@
         <v>424</v>
       </c>
       <c r="D206" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E206" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5993,7 +5993,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>425</v>
+        <v>679</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6004,10 +6004,10 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>426</v>
+        <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E208" t="s">
         <v>680</v>
@@ -6021,13 +6021,13 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D209" t="s">
-        <v>212</v>
+        <v>481</v>
       </c>
       <c r="E209" t="s">
-        <v>427</v>
+        <v>681</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6038,13 +6038,13 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>213</v>
+        <v>427</v>
       </c>
       <c r="D210" t="s">
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6058,10 +6058,10 @@
         <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="E211" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6075,10 +6075,10 @@
         <v>429</v>
       </c>
       <c r="D212" t="s">
-        <v>215</v>
+        <v>482</v>
       </c>
       <c r="E212" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6095,7 +6095,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6106,13 +6106,13 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>431</v>
+        <v>217</v>
       </c>
       <c r="D214" t="s">
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6123,13 +6123,13 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D215" t="s">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6140,13 +6140,13 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D216" t="s">
-        <v>479</v>
+        <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6157,13 +6157,13 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D217" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="E217" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6174,13 +6174,13 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D218" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E218" t="s">
-        <v>689</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6191,13 +6191,13 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D219" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E219" t="s">
-        <v>690</v>
+        <v>515</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6208,13 +6208,13 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D220" t="s">
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6225,13 +6225,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>224</v>
+        <v>437</v>
       </c>
       <c r="D221" t="s">
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6245,10 +6245,10 @@
         <v>438</v>
       </c>
       <c r="D222" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E222" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6262,10 +6262,10 @@
         <v>439</v>
       </c>
       <c r="D223" t="s">
-        <v>481</v>
+        <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6279,7 +6279,7 @@
         <v>440</v>
       </c>
       <c r="D224" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E224" t="s">
         <v>694</v>
@@ -6296,7 +6296,7 @@
         <v>441</v>
       </c>
       <c r="D225" t="s">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="E225" t="s">
         <v>695</v>
@@ -6310,10 +6310,10 @@
         <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>442</v>
+        <v>229</v>
       </c>
       <c r="D226" t="s">
-        <v>229</v>
+        <v>483</v>
       </c>
       <c r="E226" t="s">
         <v>696</v>
@@ -6327,10 +6327,10 @@
         <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D227" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="E227" t="s">
         <v>697</v>
@@ -6344,7 +6344,7 @@
         <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>231</v>
+        <v>443</v>
       </c>
       <c r="D228" t="s">
         <v>231</v>
@@ -6364,7 +6364,7 @@
         <v>444</v>
       </c>
       <c r="D229" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="E229" t="s">
         <v>699</v>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="701">
   <si>
     <t>Index</t>
   </si>
@@ -1351,118 +1351,121 @@
     <t>COLG</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
     <t>Connecticut</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>S Florida</t>
   </si>
   <si>
     <t>Miss State</t>
   </si>
   <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Kent St</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
   </si>
   <si>
     <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
   </si>
   <si>
     <t>Florida Intl</t>
@@ -2508,7 +2511,7 @@
         <v>445</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2525,7 +2528,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2542,7 +2545,7 @@
         <v>446</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2556,10 +2559,10 @@
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2573,10 +2576,10 @@
         <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2593,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2607,10 +2610,10 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2627,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2641,10 +2644,10 @@
         <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2661,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2678,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2692,10 +2695,10 @@
         <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2712,7 +2715,7 @@
         <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2726,10 +2729,10 @@
         <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2746,7 +2749,7 @@
         <v>447</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2760,10 +2763,10 @@
         <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2780,7 +2783,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2797,7 +2800,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2814,7 +2817,7 @@
         <v>446</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2845,10 +2848,10 @@
         <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2865,7 +2868,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2882,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2899,7 +2902,7 @@
         <v>446</v>
       </c>
       <c r="E25" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2916,7 +2919,7 @@
         <v>446</v>
       </c>
       <c r="E26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2930,10 +2933,10 @@
         <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2950,7 +2953,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2964,10 +2967,10 @@
         <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2984,7 +2987,7 @@
         <v>446</v>
       </c>
       <c r="E30" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3001,7 +3004,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3015,10 +3018,10 @@
         <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3032,10 +3035,10 @@
         <v>263</v>
       </c>
       <c r="D33" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3052,7 +3055,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3069,7 +3072,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3086,7 +3089,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3103,7 +3106,7 @@
         <v>446</v>
       </c>
       <c r="E37" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3120,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3137,7 +3140,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3154,7 +3157,7 @@
         <v>446</v>
       </c>
       <c r="E40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3171,7 +3174,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3188,7 +3191,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3205,7 +3208,7 @@
         <v>446</v>
       </c>
       <c r="E43" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3222,7 +3225,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3236,10 +3239,10 @@
         <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E45" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3253,10 +3256,10 @@
         <v>274</v>
       </c>
       <c r="D46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E46" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3270,10 +3273,10 @@
         <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E47" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3290,7 +3293,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3304,10 +3307,10 @@
         <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E49" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3324,7 +3327,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3338,10 +3341,10 @@
         <v>279</v>
       </c>
       <c r="D51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3355,7 +3358,7 @@
         <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E52" t="s">
         <v>280</v>
@@ -3372,10 +3375,10 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E53" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3389,10 +3392,10 @@
         <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E54" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3409,7 +3412,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3426,7 +3429,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3443,7 +3446,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3460,7 +3463,7 @@
         <v>446</v>
       </c>
       <c r="E58" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3474,10 +3477,10 @@
         <v>286</v>
       </c>
       <c r="D59" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E59" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3491,10 +3494,10 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E60" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3511,7 +3514,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3528,7 +3531,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3545,7 +3548,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3562,7 +3565,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3579,7 +3582,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3593,10 +3596,10 @@
         <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="E66" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3610,10 +3613,10 @@
         <v>291</v>
       </c>
       <c r="D67" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E67" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3630,7 +3633,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3644,10 +3647,10 @@
         <v>293</v>
       </c>
       <c r="D69" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E69" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3664,7 +3667,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3678,10 +3681,10 @@
         <v>295</v>
       </c>
       <c r="D71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E71" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3695,10 +3698,10 @@
         <v>296</v>
       </c>
       <c r="D72" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E72" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3715,7 +3718,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3729,10 +3732,10 @@
         <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E74" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3749,7 +3752,7 @@
         <v>446</v>
       </c>
       <c r="E75" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3766,7 +3769,7 @@
         <v>446</v>
       </c>
       <c r="E76" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3780,10 +3783,10 @@
         <v>301</v>
       </c>
       <c r="D77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E77" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3800,7 +3803,7 @@
         <v>446</v>
       </c>
       <c r="E78" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3817,7 +3820,7 @@
         <v>446</v>
       </c>
       <c r="E79" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3834,7 +3837,7 @@
         <v>446</v>
       </c>
       <c r="E80" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3851,7 +3854,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3868,7 +3871,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3882,10 +3885,10 @@
         <v>307</v>
       </c>
       <c r="D83" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E83" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3899,10 +3902,10 @@
         <v>308</v>
       </c>
       <c r="D84" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E84" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3916,10 +3919,10 @@
         <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>445</v>
       </c>
       <c r="E85" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3936,7 +3939,7 @@
         <v>446</v>
       </c>
       <c r="E86" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3950,10 +3953,10 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E87" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3967,10 +3970,10 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E88" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3984,10 +3987,10 @@
         <v>311</v>
       </c>
       <c r="D89" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E89" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4001,10 +4004,10 @@
         <v>312</v>
       </c>
       <c r="D90" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E90" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4018,10 +4021,10 @@
         <v>313</v>
       </c>
       <c r="D91" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E91" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4035,10 +4038,10 @@
         <v>314</v>
       </c>
       <c r="D92" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E92" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4052,10 +4055,10 @@
         <v>315</v>
       </c>
       <c r="D93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E93" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4069,10 +4072,10 @@
         <v>316</v>
       </c>
       <c r="D94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E94" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4089,7 +4092,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4106,7 +4109,7 @@
         <v>446</v>
       </c>
       <c r="E96" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4123,7 +4126,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4140,7 +4143,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4154,10 +4157,10 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E99" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4174,7 +4177,7 @@
         <v>446</v>
       </c>
       <c r="E100" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4188,10 +4191,10 @@
         <v>322</v>
       </c>
       <c r="D101" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E101" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4208,7 +4211,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4225,7 +4228,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4259,7 +4262,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4273,10 +4276,10 @@
         <v>327</v>
       </c>
       <c r="D106" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E106" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4310,7 +4313,7 @@
         <v>446</v>
       </c>
       <c r="E108" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4324,10 +4327,10 @@
         <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E109" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4341,10 +4344,10 @@
         <v>331</v>
       </c>
       <c r="D110" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="E110" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4361,7 +4364,7 @@
         <v>446</v>
       </c>
       <c r="E111" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4378,7 +4381,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4395,7 +4398,7 @@
         <v>464</v>
       </c>
       <c r="E113" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4412,7 +4415,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4429,7 +4432,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4446,7 +4449,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4463,7 +4466,7 @@
         <v>446</v>
       </c>
       <c r="E117" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4480,7 +4483,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4497,7 +4500,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4511,10 +4514,10 @@
         <v>341</v>
       </c>
       <c r="D120" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E120" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4531,7 +4534,7 @@
         <v>446</v>
       </c>
       <c r="E121" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4548,7 +4551,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4562,10 +4565,10 @@
         <v>344</v>
       </c>
       <c r="D123" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="E123" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4582,7 +4585,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4599,7 +4602,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4616,7 +4619,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4630,10 +4633,10 @@
         <v>348</v>
       </c>
       <c r="D127" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E127" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4647,10 +4650,10 @@
         <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E128" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4667,7 +4670,7 @@
         <v>446</v>
       </c>
       <c r="E129" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4684,7 +4687,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4701,7 +4704,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4718,7 +4721,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4735,7 +4738,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4752,7 +4755,7 @@
         <v>446</v>
       </c>
       <c r="E134" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4769,7 +4772,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4786,7 +4789,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4800,10 +4803,10 @@
         <v>358</v>
       </c>
       <c r="D137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4817,10 +4820,10 @@
         <v>359</v>
       </c>
       <c r="D138" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E138" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4837,7 +4840,7 @@
         <v>446</v>
       </c>
       <c r="E139" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4854,7 +4857,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4868,10 +4871,10 @@
         <v>361</v>
       </c>
       <c r="D141" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E141" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4888,7 +4891,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4905,7 +4908,7 @@
         <v>446</v>
       </c>
       <c r="E143" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4922,7 +4925,7 @@
         <v>446</v>
       </c>
       <c r="E144" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4936,10 +4939,10 @@
         <v>365</v>
       </c>
       <c r="D145" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E145" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4953,10 +4956,10 @@
         <v>366</v>
       </c>
       <c r="D146" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E146" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4970,10 +4973,10 @@
         <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E147" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4990,7 +4993,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5007,7 +5010,7 @@
         <v>446</v>
       </c>
       <c r="E149" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5024,7 +5027,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5038,10 +5041,10 @@
         <v>371</v>
       </c>
       <c r="D151" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E151" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5058,7 +5061,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5092,7 +5095,7 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5106,10 +5109,10 @@
         <v>375</v>
       </c>
       <c r="D155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E155" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5126,7 +5129,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5140,10 +5143,10 @@
         <v>377</v>
       </c>
       <c r="D157" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E157" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5160,7 +5163,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5174,10 +5177,10 @@
         <v>379</v>
       </c>
       <c r="D159" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E159" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5191,10 +5194,10 @@
         <v>380</v>
       </c>
       <c r="D160" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E160" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5228,7 +5231,7 @@
         <v>446</v>
       </c>
       <c r="E162" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5242,10 +5245,10 @@
         <v>383</v>
       </c>
       <c r="D163" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E163" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5259,10 +5262,10 @@
         <v>384</v>
       </c>
       <c r="D164" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="E164" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5279,7 +5282,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5296,7 +5299,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5310,10 +5313,10 @@
         <v>387</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E167" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5327,10 +5330,10 @@
         <v>388</v>
       </c>
       <c r="D168" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="E168" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5347,7 +5350,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5364,7 +5367,7 @@
         <v>446</v>
       </c>
       <c r="E170" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5378,10 +5381,10 @@
         <v>391</v>
       </c>
       <c r="D171" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E171" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5398,7 +5401,7 @@
         <v>446</v>
       </c>
       <c r="E172" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5415,7 +5418,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5432,7 +5435,7 @@
         <v>446</v>
       </c>
       <c r="E174" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5446,10 +5449,10 @@
         <v>395</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E175" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5466,7 +5469,7 @@
         <v>446</v>
       </c>
       <c r="E176" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5483,7 +5486,7 @@
         <v>471</v>
       </c>
       <c r="E177" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5500,7 +5503,7 @@
         <v>446</v>
       </c>
       <c r="E178" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5517,7 +5520,7 @@
         <v>446</v>
       </c>
       <c r="E179" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5534,7 +5537,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5568,7 +5571,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5585,7 +5588,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5602,7 +5605,7 @@
         <v>472</v>
       </c>
       <c r="E184" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5619,7 +5622,7 @@
         <v>473</v>
       </c>
       <c r="E185" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5636,7 +5639,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5653,7 +5656,7 @@
         <v>474</v>
       </c>
       <c r="E187" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5670,7 +5673,7 @@
         <v>475</v>
       </c>
       <c r="E188" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5687,7 +5690,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5704,7 +5707,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5721,7 +5724,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5738,7 +5741,7 @@
         <v>476</v>
       </c>
       <c r="E192" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5755,7 +5758,7 @@
         <v>446</v>
       </c>
       <c r="E193" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5772,7 +5775,7 @@
         <v>477</v>
       </c>
       <c r="E194" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5789,7 +5792,7 @@
         <v>446</v>
       </c>
       <c r="E195" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5806,7 +5809,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5823,7 +5826,7 @@
         <v>446</v>
       </c>
       <c r="E197" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5837,10 +5840,10 @@
         <v>417</v>
       </c>
       <c r="D198" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E198" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5854,10 +5857,10 @@
         <v>418</v>
       </c>
       <c r="D199" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="E199" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5874,7 +5877,7 @@
         <v>446</v>
       </c>
       <c r="E200" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5891,7 +5894,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5905,10 +5908,10 @@
         <v>420</v>
       </c>
       <c r="D202" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E202" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5925,7 +5928,7 @@
         <v>446</v>
       </c>
       <c r="E203" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5942,7 +5945,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5959,7 +5962,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5973,10 +5976,10 @@
         <v>424</v>
       </c>
       <c r="D206" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E206" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5993,7 +5996,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6007,10 +6010,10 @@
         <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E208" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6027,7 +6030,7 @@
         <v>481</v>
       </c>
       <c r="E209" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6044,7 +6047,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6058,10 +6061,10 @@
         <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E211" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6078,7 +6081,7 @@
         <v>482</v>
       </c>
       <c r="E212" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6095,7 +6098,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6112,7 +6115,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6129,7 +6132,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6146,7 +6149,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6163,7 +6166,7 @@
         <v>446</v>
       </c>
       <c r="E217" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6180,7 +6183,7 @@
         <v>446</v>
       </c>
       <c r="E218" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6194,10 +6197,10 @@
         <v>435</v>
       </c>
       <c r="D219" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="E219" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6214,7 +6217,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6231,7 +6234,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6248,7 +6251,7 @@
         <v>446</v>
       </c>
       <c r="E222" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6265,7 +6268,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6282,7 +6285,7 @@
         <v>446</v>
       </c>
       <c r="E224" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6296,10 +6299,10 @@
         <v>441</v>
       </c>
       <c r="D225" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E225" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6313,10 +6316,10 @@
         <v>229</v>
       </c>
       <c r="D226" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E226" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6333,7 +6336,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6350,7 +6353,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6364,10 +6367,10 @@
         <v>444</v>
       </c>
       <c r="D229" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E229" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/defaults/merge.xlsx
+++ b/defaults/merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="703">
   <si>
     <t>Index</t>
   </si>
@@ -31,2092 +31,2098 @@
     <t>bpi team</t>
   </si>
   <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Portland St</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Missouri St</t>
+  </si>
+  <si>
+    <t>Youngstown St</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
     <t>C Connecticut</t>
   </si>
   <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Sam Houston</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Towson</t>
+  </si>
+  <si>
+    <t>Tarleton St</t>
+  </si>
+  <si>
+    <t>Bethune</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Washington St</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t>Charleston So</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>UT Martin</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Sacramento St</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>NC Central</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Comm</t>
+  </si>
+  <si>
+    <t>N Arizona</t>
+  </si>
+  <si>
+    <t>Incarnate Word</t>
+  </si>
+  <si>
+    <t>Appalachian St</t>
+  </si>
+  <si>
+    <t>W Illinois</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Cal Poly</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>Utah Tech</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>NC A&amp;T</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>Grambling</t>
+  </si>
+  <si>
+    <t>N Colorado</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>SE Missouri</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Prairie View</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>New Mexico St</t>
+  </si>
+  <si>
+    <t>North Alabama</t>
+  </si>
+  <si>
+    <t>Tennessee Tech</t>
+  </si>
+  <si>
+    <t>Gardner-Webb</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>Samford</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>E Washington</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>The Citadel</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Delaware St</t>
+  </si>
+  <si>
+    <t>St Francis PA</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Merrimack</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>NWestern St</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>McNeese</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>SC State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Ft Valley</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>C Michigan</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Tennessee St</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>William &amp; Mary</t>
+  </si>
+  <si>
+    <t>Jackson St</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>JVille St</t>
+  </si>
+  <si>
+    <t>Western KY</t>
+  </si>
+  <si>
+    <t>Sacred Heart</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Nicholls</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>SE Louisiana</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>Duquesne</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Abilene Chrstn</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>E Kentucky</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Norfolk St</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Air Force</t>
   </si>
   <si>
-    <t>Prairie View</t>
-  </si>
-  <si>
-    <t>E Illinois</t>
-  </si>
-  <si>
-    <t>Merrimack</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>NWestern St</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>NC Central</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Charleston So</t>
-  </si>
-  <si>
-    <t>UT Martin</t>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Alcorn St</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>SF Austin</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Indiana St</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Weber St</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
   </si>
   <si>
     <t>Murray St</t>
   </si>
   <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Idaho St</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>AR-Pine Bluff</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>C Arkansas</t>
+  </si>
+  <si>
+    <t>Mrchnt Mar</t>
+  </si>
+  <si>
+    <t>S Illinois</t>
+  </si>
+  <si>
+    <t>Southern Utah</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Hou Christian</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Albright</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Morgan St</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>ETSU</t>
+  </si>
+  <si>
+    <t>W Carolina</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
     <t>Penn State</t>
   </si>
   <si>
-    <t>Holy Cross</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>North Alabama</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Alabama A&amp;M</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Samford</t>
-  </si>
-  <si>
-    <t>Delaware St</t>
-  </si>
-  <si>
-    <t>Incarnate Word</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Bethune</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Chattanooga</t>
-  </si>
-  <si>
-    <t>Abilene Chrstn</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>S Illinois</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>N Arizona</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Bucknell</t>
-  </si>
-  <si>
-    <t>Washington St</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Missouri St</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>E Kentucky</t>
-  </si>
-  <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>James Madison</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>SE Louisiana</t>
-  </si>
-  <si>
-    <t>C Michigan</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Norfolk St</t>
-  </si>
-  <si>
-    <t>Jackson St</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Furman</t>
-  </si>
-  <si>
-    <t>Kent State</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Morgan St</t>
-  </si>
-  <si>
-    <t>Nicholls</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>E Washington</t>
-  </si>
-  <si>
-    <t>Youngstown St</t>
-  </si>
-  <si>
-    <t>Towson</t>
-  </si>
-  <si>
-    <t>Tennessee Tech</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Lafayette</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M</t>
-  </si>
-  <si>
-    <t>W Illinois</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Albright</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Southern Miss</t>
-  </si>
-  <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Sacred Heart</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>ETSU</t>
-  </si>
-  <si>
-    <t>Stony Brook</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Kennesaw St</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Southern Utah</t>
-  </si>
-  <si>
-    <t>Austin Peay</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
-    <t>Texas Southern</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>East Carolina</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>William &amp; Mary</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Duquesne</t>
-  </si>
-  <si>
-    <t>SE Missouri</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Sacramento St</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>SF Austin</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Long Island</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>SC State</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>McNeese</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>Wagner</t>
-  </si>
-  <si>
-    <t>The Citadel</t>
-  </si>
-  <si>
-    <t>Monmouth</t>
-  </si>
-  <si>
-    <t>Indiana St</t>
-  </si>
-  <si>
-    <t>Grambling</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Tarleton St</t>
-  </si>
-  <si>
-    <t>Ft Valley</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Appalachian St</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Alcorn St</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>C Arkansas</t>
-  </si>
-  <si>
-    <t>Utah Tech</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>NC A&amp;T</t>
-  </si>
-  <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>W Carolina</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>St Francis PA</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Weber St</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>N Colorado</t>
-  </si>
-  <si>
-    <t>Utah State</t>
-  </si>
-  <si>
-    <t>AR-Pine Bluff</t>
-  </si>
-  <si>
-    <t>Wofford</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Western KY</t>
-  </si>
-  <si>
-    <t>Louisiana Tech</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>New Mexico St</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>Gardner-Webb</t>
-  </si>
-  <si>
-    <t>South Alabama</t>
-  </si>
-  <si>
-    <t>Northern Iowa</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Portland St</t>
-  </si>
-  <si>
-    <t>Idaho St</t>
-  </si>
-  <si>
-    <t>Cal Poly</t>
-  </si>
-  <si>
-    <t>VMI</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ball State</t>
-  </si>
-  <si>
-    <t>Robert Morris</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Hou Christian</t>
-  </si>
-  <si>
-    <t>JVille St</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>UC Davis</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M-Comm</t>
-  </si>
-  <si>
-    <t>Sam Houston</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Tennessee St</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
-    <t>Mrchnt Mar</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Colgate</t>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>PRST</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>YSU</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>STAN</t>
   </si>
   <si>
     <t>CCSU</t>
   </si>
   <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>SDAK</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>IDHO</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>TOW</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>VILL</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>CHSO</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>TAMC</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>UIW</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>WIU</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>WOF</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>NCAT</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>LIU</t>
+  </si>
+  <si>
+    <t>GRAM</t>
+  </si>
+  <si>
+    <t>UNCO</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>SEMO</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>TNTC</t>
+  </si>
+  <si>
+    <t>GWEB</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>BRY</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>SFPA</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>MRMK</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>NWST</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>COLG</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>SCST</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>FVS</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>TNST</t>
+  </si>
+  <si>
+    <t>LAF</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>W&amp;M</t>
+  </si>
+  <si>
+    <t>JKST</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>NICH</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>EKU</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
     <t>AFA</t>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>MRMK</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>NWST</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>NCCU</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>CHSO</t>
-  </si>
-  <si>
-    <t>UTM</t>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>STBK</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>MONM</t>
+  </si>
+  <si>
+    <t>SFA</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>RMU</t>
   </si>
   <si>
     <t>MUR</t>
   </si>
   <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>IDST</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>UAPB</t>
+  </si>
+  <si>
+    <t>APSU</t>
+  </si>
+  <si>
+    <t>TXSO</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>CARK</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>SIU</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>RICH</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
+    <t>WCU</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
     <t>PSU</t>
   </si>
   <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>UNA</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>DSU</t>
-  </si>
-  <si>
-    <t>UIW</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>BCU</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>SIU</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>NAU</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>BUCK</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>EKU</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>SELA</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>NORF</t>
-  </si>
-  <si>
-    <t>JKST</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>FUR</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>MORG</t>
-  </si>
-  <si>
-    <t>NICH</t>
-  </si>
-  <si>
-    <t>RICH</t>
-  </si>
-  <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>YSU</t>
-  </si>
-  <si>
-    <t>TOW</t>
-  </si>
-  <si>
-    <t>TNTC</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>LAF</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>WIU</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>IDHO</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>SHU</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>STBK</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>SUU</t>
-  </si>
-  <si>
-    <t>APSU</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>TXSO</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>W&amp;M</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>DUQ</t>
-  </si>
-  <si>
-    <t>SEMO</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>SFA</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>SDAK</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>LIU</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>SCST</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>MONM</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>BRY</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>TAR</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>ALCN</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>UND</t>
-  </si>
-  <si>
-    <t>CARK</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>NCAT</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
-    <t>HOW</t>
-  </si>
-  <si>
-    <t>SFPA</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>UNCO</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>UAPB</t>
-  </si>
-  <si>
-    <t>WOF</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>GWEB</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>PRST</t>
-  </si>
-  <si>
-    <t>IDST</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>RMU</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>HCU</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>TAMC</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>TNST</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>VILL</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>COLG</t>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
   </si>
   <si>
     <t>Penn St</t>
   </si>
   <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Kent St</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
+    <t>UNC - CHARLOTTE</t>
+  </si>
+  <si>
+    <t>KENT STATE</t>
+  </si>
+  <si>
+    <t>PORTLAND STATE</t>
+  </si>
+  <si>
+    <t>LOUISIANA STATE</t>
+  </si>
+  <si>
+    <t>MIAMI OF OHIO</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>BOISE</t>
+  </si>
+  <si>
+    <t>MISSOURI STATE</t>
+  </si>
+  <si>
+    <t>YOUNGSTOWN STATE</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>STANFORD</t>
   </si>
   <si>
     <t>CENTRAL CONNECTICUT ST.</t>
   </si>
   <si>
+    <t>CHATTANOOGA-TENNESSEE</t>
+  </si>
+  <si>
+    <t>SAM HOUSTON</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>COLORADO STATE</t>
+  </si>
+  <si>
+    <t>VIRGINIA MILITARY INSTITUTE</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>TOWSON</t>
+  </si>
+  <si>
+    <t>TARLETON STATE</t>
+  </si>
+  <si>
+    <t>BETHUNE-COOKMAN</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE</t>
+  </si>
+  <si>
+    <t>WASHINGTON STATE</t>
+  </si>
+  <si>
+    <t>VILLANOVA</t>
+  </si>
+  <si>
+    <t>EASTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>CHARLESTON SOUTHERN</t>
+  </si>
+  <si>
+    <t>ARIZONA STATE</t>
+  </si>
+  <si>
+    <t>SOUTH FLORIDA</t>
+  </si>
+  <si>
+    <t>EASTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>OLD DOMINION</t>
+  </si>
+  <si>
+    <t>TENNESSEE-MARTIN</t>
+  </si>
+  <si>
+    <t>GEORGIA TECH</t>
+  </si>
+  <si>
+    <t>TULANE</t>
+  </si>
+  <si>
+    <t>BOSTON COLLEGE</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>BAYLOR</t>
+  </si>
+  <si>
+    <t>BRIGHAM YOUNG</t>
+  </si>
+  <si>
+    <t>CAL-SACRAMENTO</t>
+  </si>
+  <si>
+    <t>ARKANSAS STATE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA CENTRAL</t>
+  </si>
+  <si>
+    <t>NORTHERN ARIZONA</t>
+  </si>
+  <si>
+    <t>INCARNATE WORD</t>
+  </si>
+  <si>
+    <t>APPALACHIAN STATE</t>
+  </si>
+  <si>
+    <t>WESTERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>JAMES MADISON</t>
+  </si>
+  <si>
+    <t>SAN JOSE STATE</t>
+  </si>
+  <si>
+    <t>MICHIGAN STATE</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
+  </si>
+  <si>
+    <t>TULSA</t>
+  </si>
+  <si>
+    <t>EAST CAROLINA</t>
+  </si>
+  <si>
+    <t>CLEMSON</t>
+  </si>
+  <si>
+    <t>WOFFORD</t>
+  </si>
+  <si>
+    <t>UTAH TECH</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA A&amp;T</t>
+  </si>
+  <si>
+    <t>KANSAS STATE</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
+  </si>
+  <si>
+    <t>TROY STATE</t>
+  </si>
+  <si>
+    <t>GRAMBLING</t>
+  </si>
+  <si>
+    <t>NORTHERN COLORADO</t>
+  </si>
+  <si>
+    <t>PITTSBURGH</t>
+  </si>
+  <si>
+    <t>SOUTH ALABAMA</t>
+  </si>
+  <si>
+    <t>BUCKNELL</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN MISSOURI</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>CENTRAL FLORIDA</t>
+  </si>
+  <si>
+    <t>OHIO STATE</t>
+  </si>
+  <si>
+    <t>SOUTHERN MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>PRAIRIE VIEW A&amp;M</t>
+  </si>
+  <si>
+    <t>LOUISVILLE</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>NEW MEXICO STATE</t>
+  </si>
+  <si>
+    <t>NORTH ALABAMA</t>
+  </si>
+  <si>
+    <t>TENNESSEE TECH</t>
+  </si>
+  <si>
+    <t>GARDNER-WEBB</t>
+  </si>
+  <si>
+    <t>MIDDLE TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>SAMFORD</t>
+  </si>
+  <si>
+    <t>TEXAS-EL PASO</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>HOLY CROSS</t>
+  </si>
+  <si>
+    <t>EASTERN WASHINGTON</t>
+  </si>
+  <si>
+    <t>NEVADA-LAS VEGAS</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>BRYANT COLLEGE</t>
+  </si>
+  <si>
+    <t>THE CITADEL</t>
+  </si>
+  <si>
+    <t>ALABAMA-BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>DELAWARE STATE</t>
+  </si>
+  <si>
+    <t>ST.FRANCIS-PA</t>
+  </si>
+  <si>
+    <t>KENNESAW STATE</t>
+  </si>
+  <si>
+    <t>LA - MONROE</t>
+  </si>
+  <si>
+    <t>MERRIMACK</t>
+  </si>
+  <si>
+    <t>SAN DIEGO STATE</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN STATE-LA</t>
+  </si>
+  <si>
+    <t>OREGON STATE</t>
+  </si>
+  <si>
+    <t>MCNEESE STATE</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>FURMAN</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>COLGATE</t>
+  </si>
+  <si>
+    <t>VIRGINIA TECH</t>
+  </si>
+  <si>
+    <t>TEXAS STATE-SAN MARCOS</t>
+  </si>
+  <si>
+    <t>BALL STATE</t>
+  </si>
+  <si>
+    <t>FLORIDA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>RUTGERS</t>
+  </si>
+  <si>
+    <t>NORTH TEXAS</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>FORT VALLEY STATE</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>TEMPLE</t>
+  </si>
+  <si>
+    <t>SOUTHERN METHODIST</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>NO. CAROLINA STATE</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>CENTRAL MICHIGAN</t>
+  </si>
+  <si>
+    <t>PURDUE</t>
+  </si>
+  <si>
+    <t>OHIO UNIV.</t>
+  </si>
+  <si>
+    <t>MIAMI-FL</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
+  </si>
+  <si>
+    <t>TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>WILLIAM &amp; MARY</t>
+  </si>
+  <si>
+    <t>JACKSON STATE</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE STATE</t>
+  </si>
+  <si>
+    <t>WESTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>SACRED HEART</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>TEXAS A&amp;M</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>CAL-DAVIS</t>
+  </si>
+  <si>
+    <t>UTAH STATE</t>
+  </si>
+  <si>
+    <t>SO. EAST LOUISIANA</t>
+  </si>
+  <si>
+    <t>OKLAHOMA STATE</t>
+  </si>
+  <si>
+    <t>WAKE FOREST</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>NORTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>DUQUESNE</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>U.C.L.A.</t>
+  </si>
+  <si>
+    <t>BOWLING GREEN</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>AKRON</t>
+  </si>
+  <si>
+    <t>ABILENE CHRISTIAN</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>EASTERN KENTUCKY</t>
+  </si>
+  <si>
+    <t>WESTERN MICHIGAN</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI STATE</t>
+  </si>
+  <si>
+    <t>NORFOLK STATE</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
     <t>AIR FORCE</t>
   </si>
   <si>
-    <t>PRAIRIE VIEW A&amp;M</t>
-  </si>
-  <si>
-    <t>EASTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>MERRIMACK</t>
-  </si>
-  <si>
-    <t>ARKANSAS</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN STATE-LA</t>
-  </si>
-  <si>
-    <t>KANSAS STATE</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA CENTRAL</t>
-  </si>
-  <si>
-    <t>MICHIGAN</t>
-  </si>
-  <si>
-    <t>WAKE FOREST</t>
-  </si>
-  <si>
-    <t>CHARLESTON SOUTHERN</t>
-  </si>
-  <si>
-    <t>TENNESSEE-MARTIN</t>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>STONY BROOK</t>
+  </si>
+  <si>
+    <t>COASTAL CAROLINA</t>
+  </si>
+  <si>
+    <t>ALCORN STATE</t>
+  </si>
+  <si>
+    <t>TEXAS TECH</t>
+  </si>
+  <si>
+    <t>MONMOUTH-NJ</t>
+  </si>
+  <si>
+    <t>S.F.AUSTIN</t>
+  </si>
+  <si>
+    <t>VANDERBILT</t>
+  </si>
+  <si>
+    <t>IOWA STATE</t>
+  </si>
+  <si>
+    <t>TEXAS CHRISTIAN</t>
+  </si>
+  <si>
+    <t>INDIANA STATE</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>WEBER STATE</t>
+  </si>
+  <si>
+    <t>ROBERT MORRIS - PA</t>
   </si>
   <si>
     <t>MURRAY STATE</t>
   </si>
   <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>IDAHO STATE</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>PINE BLUFF-ARKANSAS</t>
+  </si>
+  <si>
+    <t>FLORIDA ATLANTIC</t>
+  </si>
+  <si>
+    <t>AUSTIN PEAY</t>
+  </si>
+  <si>
+    <t>TEXAS SOUTHERN</t>
+  </si>
+  <si>
+    <t>FLORIDA A&amp;M</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>CENTRAL ARKANSAS</t>
+  </si>
+  <si>
+    <t>MERCHANT MARINE</t>
+  </si>
+  <si>
+    <t>SOUTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>SOUTHERN UTAH</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>HOUSTON CHRISTIAN</t>
+  </si>
+  <si>
+    <t>NORTHERN IOWA</t>
+  </si>
+  <si>
+    <t>GEORGIA SOUTHERN</t>
+  </si>
+  <si>
+    <t>FRESNO STATE</t>
+  </si>
+  <si>
+    <t>ALBRIGHT</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>MORGAN STATE</t>
+  </si>
+  <si>
+    <t>TEXAS-SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>EAST TENNESSEE STATE</t>
+  </si>
+  <si>
+    <t>WESTERN CAROLINA</t>
+  </si>
+  <si>
+    <t>ALABAMA A&amp;M</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>GEORGIA STATE</t>
+  </si>
+  <si>
     <t>PENN STATE</t>
-  </si>
-  <si>
-    <t>HOLY CROSS</t>
-  </si>
-  <si>
-    <t>CENTRAL MICHIGAN</t>
-  </si>
-  <si>
-    <t>STANFORD</t>
-  </si>
-  <si>
-    <t>NORTH ALABAMA</t>
-  </si>
-  <si>
-    <t>ALABAMA A&amp;M</t>
-  </si>
-  <si>
-    <t>UNC - CHARLOTTE</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
-    <t>SAMFORD</t>
-  </si>
-  <si>
-    <t>DELAWARE STATE</t>
-  </si>
-  <si>
-    <t>INCARNATE WORD</t>
-  </si>
-  <si>
-    <t>LOUISIANA</t>
-  </si>
-  <si>
-    <t>BETHUNE-COOKMAN</t>
-  </si>
-  <si>
-    <t>RHODE ISLAND</t>
-  </si>
-  <si>
-    <t>ALABAMA-BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA-TENNESSEE</t>
-  </si>
-  <si>
-    <t>ABILENE CHRISTIAN</t>
-  </si>
-  <si>
-    <t>SAM HOUSTON</t>
-  </si>
-  <si>
-    <t>MEMPHIS</t>
-  </si>
-  <si>
-    <t>SAN JOSE STATE</t>
-  </si>
-  <si>
-    <t>SOUTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>TROY STATE</t>
-  </si>
-  <si>
-    <t>NORTHWESTERN</t>
-  </si>
-  <si>
-    <t>NORTHERN ARIZONA</t>
-  </si>
-  <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
-    <t>NEVADA-LAS VEGAS</t>
-  </si>
-  <si>
-    <t>NEW HAMPSHIRE</t>
-  </si>
-  <si>
-    <t>U.C.L.A.</t>
-  </si>
-  <si>
-    <t>BUCKNELL</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>BOWLING GREEN</t>
-  </si>
-  <si>
-    <t>KANSAS</t>
-  </si>
-  <si>
-    <t>MISSOURI STATE</t>
-  </si>
-  <si>
-    <t>OREGON</t>
-  </si>
-  <si>
-    <t>EASTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>GEORGIA TECH</t>
-  </si>
-  <si>
-    <t>JAMES MADISON</t>
-  </si>
-  <si>
-    <t>TEXAS-SAN ANTONIO</t>
-  </si>
-  <si>
-    <t>FLORIDA STATE</t>
-  </si>
-  <si>
-    <t>TEXAS STATE-SAN MARCOS</t>
-  </si>
-  <si>
-    <t>SO. EAST LOUISIANA</t>
-  </si>
-  <si>
-    <t>CENTRAL FLORIDA</t>
-  </si>
-  <si>
-    <t>MIDDLE TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>BRIGHAM YOUNG</t>
-  </si>
-  <si>
-    <t>LOUISIANA STATE</t>
-  </si>
-  <si>
-    <t>NORTHERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>TEXAS TECH</t>
-  </si>
-  <si>
-    <t>ARIZONA</t>
-  </si>
-  <si>
-    <t>NORFOLK STATE</t>
-  </si>
-  <si>
-    <t>JACKSON STATE</t>
-  </si>
-  <si>
-    <t>WYOMING</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>COLORADO STATE</t>
-  </si>
-  <si>
-    <t>FURMAN</t>
-  </si>
-  <si>
-    <t>KENT STATE</t>
-  </si>
-  <si>
-    <t>COASTAL CAROLINA</t>
-  </si>
-  <si>
-    <t>MORGAN STATE</t>
-  </si>
-  <si>
-    <t>NICHOLS</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>EASTERN WASHINGTON</t>
-  </si>
-  <si>
-    <t>YOUNGSTOWN STATE</t>
-  </si>
-  <si>
-    <t>TOWSON</t>
-  </si>
-  <si>
-    <t>TENNESSEE TECH</t>
-  </si>
-  <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
-    <t>NORTH TEXAS</t>
-  </si>
-  <si>
-    <t>MAINE</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>FLORIDA A&amp;M</t>
-  </si>
-  <si>
-    <t>WESTERN ILLINOIS</t>
-  </si>
-  <si>
-    <t>FLORIDA ATLANTIC</t>
-  </si>
-  <si>
-    <t>TEXAS CHRISTIAN</t>
-  </si>
-  <si>
-    <t>ALBRIGHT</t>
-  </si>
-  <si>
-    <t>OHIO STATE</t>
-  </si>
-  <si>
-    <t>SOUTHERN MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>MIAMI OF OHIO</t>
-  </si>
-  <si>
-    <t>BOSTON COLLEGE</t>
-  </si>
-  <si>
-    <t>IDAHO</t>
-  </si>
-  <si>
-    <t>MARSHALL</t>
-  </si>
-  <si>
-    <t>SACRED HEART</t>
-  </si>
-  <si>
-    <t>NO. CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>SAN DIEGO STATE</t>
-  </si>
-  <si>
-    <t>EAST TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>STONY BROOK</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>OREGON STATE</t>
-  </si>
-  <si>
-    <t>TEXAS</t>
-  </si>
-  <si>
-    <t>KENNESAW STATE</t>
-  </si>
-  <si>
-    <t>SOUTHERN UTAH</t>
-  </si>
-  <si>
-    <t>AUSTIN PEAY</t>
-  </si>
-  <si>
-    <t>CONNECTICUT</t>
-  </si>
-  <si>
-    <t>TEXAS SOUTHERN</t>
-  </si>
-  <si>
-    <t>RUTGERS</t>
-  </si>
-  <si>
-    <t>EAST CAROLINA</t>
-  </si>
-  <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
-    <t>NEVADA</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>WILLIAM &amp; MARY</t>
-  </si>
-  <si>
-    <t>WISCONSIN</t>
-  </si>
-  <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>DUQUESNE</t>
-  </si>
-  <si>
-    <t>SOUTH EASTERN MISSOURI</t>
-  </si>
-  <si>
-    <t>ARKANSAS STATE</t>
-  </si>
-  <si>
-    <t>CAL-SACRAMENTO</t>
-  </si>
-  <si>
-    <t>OKLAHOMA STATE</t>
-  </si>
-  <si>
-    <t>EASTERN MICHIGAN</t>
-  </si>
-  <si>
-    <t>BOISE</t>
-  </si>
-  <si>
-    <t>VIRGINIA TECH</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>S.F.AUSTIN</t>
-  </si>
-  <si>
-    <t>BAYLOR</t>
-  </si>
-  <si>
-    <t>PURDUE</t>
-  </si>
-  <si>
-    <t>HOUSTON</t>
-  </si>
-  <si>
-    <t>ILLINOIS</t>
-  </si>
-  <si>
-    <t>SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>FLORIDA</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>IOWA STATE</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA STATE</t>
-  </si>
-  <si>
-    <t>MCNEESE STATE</t>
-  </si>
-  <si>
-    <t>GEORGIA SOUTHERN</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>THE CITADEL</t>
-  </si>
-  <si>
-    <t>MONMOUTH-NJ</t>
-  </si>
-  <si>
-    <t>INDIANA STATE</t>
-  </si>
-  <si>
-    <t>GRAMBLING</t>
-  </si>
-  <si>
-    <t>FRESNO STATE</t>
-  </si>
-  <si>
-    <t>DELAWARE</t>
-  </si>
-  <si>
-    <t>TEMPLE</t>
-  </si>
-  <si>
-    <t>BRYANT COLLEGE</t>
-  </si>
-  <si>
-    <t>NEBRASKA</t>
-  </si>
-  <si>
-    <t>TARLETON STATE</t>
-  </si>
-  <si>
-    <t>FORT VALLEY STATE</t>
-  </si>
-  <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
-    <t>APPALACHIAN STATE</t>
-  </si>
-  <si>
-    <t>KENTUCKY</t>
-  </si>
-  <si>
-    <t>ALCORN STATE</t>
-  </si>
-  <si>
-    <t>SOUTH FLORIDA</t>
-  </si>
-  <si>
-    <t>NORTH DAKOTA</t>
-  </si>
-  <si>
-    <t>CENTRAL ARKANSAS</t>
-  </si>
-  <si>
-    <t>UTAH TECH</t>
-  </si>
-  <si>
-    <t>AKRON</t>
-  </si>
-  <si>
-    <t>MARYLAND</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA A&amp;T</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI STATE</t>
-  </si>
-  <si>
-    <t>LOUISVILLE</t>
-  </si>
-  <si>
-    <t>WESTERN CAROLINA</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>ST.FRANCIS-PA</t>
-  </si>
-  <si>
-    <t>TULANE</t>
-  </si>
-  <si>
-    <t>WEBER STATE</t>
-  </si>
-  <si>
-    <t>CAMPBELL</t>
-  </si>
-  <si>
-    <t>NORTHERN COLORADO</t>
-  </si>
-  <si>
-    <t>UTAH STATE</t>
-  </si>
-  <si>
-    <t>PINE BLUFF-ARKANSAS</t>
-  </si>
-  <si>
-    <t>WOFFORD</t>
-  </si>
-  <si>
-    <t>TULSA</t>
-  </si>
-  <si>
-    <t>GEORGIA STATE</t>
-  </si>
-  <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
-    <t>WESTERN KENTUCKY</t>
-  </si>
-  <si>
-    <t>OLD DOMINION</t>
-  </si>
-  <si>
-    <t>MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>NEW MEXICO STATE</t>
-  </si>
-  <si>
-    <t>LA - MONROE</t>
-  </si>
-  <si>
-    <t>CINCINNATI</t>
-  </si>
-  <si>
-    <t>VANDERBILT</t>
-  </si>
-  <si>
-    <t>SOUTHERN METHODIST</t>
-  </si>
-  <si>
-    <t>GARDNER-WEBB</t>
-  </si>
-  <si>
-    <t>SOUTH ALABAMA</t>
-  </si>
-  <si>
-    <t>NORTHERN IOWA</t>
-  </si>
-  <si>
-    <t>INDIANA</t>
-  </si>
-  <si>
-    <t>PORTLAND STATE</t>
-  </si>
-  <si>
-    <t>IDAHO STATE</t>
-  </si>
-  <si>
-    <t>CAL-POLY (SAN LOUIS OBISPO)</t>
-  </si>
-  <si>
-    <t>VIRGINIA MILITARY INSTITUTE</t>
-  </si>
-  <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
-    <t>BALL STATE</t>
-  </si>
-  <si>
-    <t>ROBERT MORRIS - PA</t>
-  </si>
-  <si>
-    <t>MICHIGAN STATE</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>PITTSBURGH</t>
-  </si>
-  <si>
-    <t>CLEMSON</t>
-  </si>
-  <si>
-    <t>TEXAS-EL PASO</t>
-  </si>
-  <si>
-    <t>WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>MINNESOTA</t>
-  </si>
-  <si>
-    <t>HOUSTON CHRISTIAN</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE STATE</t>
-  </si>
-  <si>
-    <t>NOTRE DAME</t>
-  </si>
-  <si>
-    <t>SOUTHERN CALIFORNIA</t>
-  </si>
-  <si>
-    <t>ARIZONA STATE</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>CAL-DAVIS</t>
-  </si>
-  <si>
-    <t>TEXAS A&amp;M</t>
-  </si>
-  <si>
-    <t>MISSOURI</t>
-  </si>
-  <si>
-    <t>TENNESSEE STATE</t>
-  </si>
-  <si>
-    <t>OHIO UNIV.</t>
-  </si>
-  <si>
-    <t>VILLANOVA</t>
-  </si>
-  <si>
-    <t>MERCHANT MARINE</t>
-  </si>
-  <si>
-    <t>FLORIDA INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>MIAMI-FL</t>
-  </si>
-  <si>
-    <t>OKLAHOMA</t>
-  </si>
-  <si>
-    <t>COLGATE</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2514,7 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>485</v>
@@ -2525,7 +2531,7 @@
         <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
         <v>486</v>
@@ -2556,10 +2562,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>488</v>
@@ -2573,10 +2579,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E6" t="s">
         <v>489</v>
@@ -2590,10 +2596,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>448</v>
       </c>
       <c r="E7" t="s">
         <v>490</v>
@@ -2607,10 +2613,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>491</v>
@@ -2624,10 +2630,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="E9" t="s">
         <v>492</v>
@@ -2641,10 +2647,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E10" t="s">
         <v>493</v>
@@ -2658,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -2675,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -2692,10 +2698,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>496</v>
@@ -2709,10 +2715,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>497</v>
@@ -2726,10 +2732,10 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E15" t="s">
         <v>498</v>
@@ -2743,10 +2749,10 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E16" t="s">
         <v>499</v>
@@ -2760,10 +2766,10 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E17" t="s">
         <v>500</v>
@@ -2777,10 +2783,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>446</v>
       </c>
       <c r="E18" t="s">
         <v>501</v>
@@ -2794,7 +2800,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2811,7 +2817,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>446</v>
@@ -2828,13 +2834,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2845,10 +2851,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E22" t="s">
         <v>504</v>
@@ -2862,7 +2868,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2879,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -2896,7 +2902,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
         <v>446</v>
@@ -2913,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
         <v>446</v>
@@ -2930,10 +2936,10 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D27" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E27" t="s">
         <v>509</v>
@@ -2947,7 +2953,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -2964,10 +2970,10 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E29" t="s">
         <v>511</v>
@@ -2981,7 +2987,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
         <v>446</v>
@@ -2998,10 +3004,10 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>448</v>
       </c>
       <c r="E31" t="s">
         <v>513</v>
@@ -3015,10 +3021,10 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D32" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E32" t="s">
         <v>514</v>
@@ -3032,10 +3038,10 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33" t="s">
-        <v>445</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
         <v>515</v>
@@ -3049,10 +3055,10 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>451</v>
       </c>
       <c r="E34" t="s">
         <v>516</v>
@@ -3066,7 +3072,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -3083,7 +3089,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
@@ -3100,7 +3106,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
         <v>446</v>
@@ -3117,10 +3123,10 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="E38" t="s">
         <v>520</v>
@@ -3134,7 +3140,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
@@ -3151,10 +3157,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E40" t="s">
         <v>522</v>
@@ -3168,7 +3174,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -3185,7 +3191,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -3202,10 +3208,10 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>446</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
         <v>525</v>
@@ -3219,10 +3225,10 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>448</v>
       </c>
       <c r="E44" t="s">
         <v>526</v>
@@ -3239,7 +3245,7 @@
         <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>445</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
         <v>527</v>
@@ -3273,10 +3279,10 @@
         <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E47" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3290,10 +3296,10 @@
         <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>446</v>
       </c>
       <c r="E48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3307,10 +3313,10 @@
         <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3324,10 +3330,10 @@
         <v>278</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>454</v>
       </c>
       <c r="E50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3341,10 +3347,10 @@
         <v>279</v>
       </c>
       <c r="D51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3358,10 +3364,10 @@
         <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3375,7 +3381,7 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>450</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
         <v>534</v>
@@ -3392,7 +3398,7 @@
         <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>451</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
         <v>535</v>
@@ -3406,7 +3412,7 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
@@ -3423,7 +3429,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
@@ -3440,10 +3446,10 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>448</v>
       </c>
       <c r="E57" t="s">
         <v>538</v>
@@ -3457,10 +3463,10 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D58" t="s">
-        <v>446</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
         <v>539</v>
@@ -3474,10 +3480,10 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E59" t="s">
         <v>540</v>
@@ -3491,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" t="s">
         <v>63</v>
-      </c>
-      <c r="D60" t="s">
-        <v>453</v>
       </c>
       <c r="E60" t="s">
         <v>541</v>
@@ -3508,10 +3514,10 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>446</v>
       </c>
       <c r="E61" t="s">
         <v>542</v>
@@ -3525,10 +3531,10 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>448</v>
       </c>
       <c r="E62" t="s">
         <v>543</v>
@@ -3542,7 +3548,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
         <v>66</v>
@@ -3559,10 +3565,10 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>448</v>
       </c>
       <c r="E64" t="s">
         <v>545</v>
@@ -3576,7 +3582,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -3593,10 +3599,10 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D66" t="s">
-        <v>445</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
         <v>547</v>
@@ -3610,10 +3616,10 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D67" t="s">
-        <v>445</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
         <v>548</v>
@@ -3627,13 +3633,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>448</v>
       </c>
       <c r="E68" t="s">
-        <v>549</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3644,13 +3650,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3661,13 +3667,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>446</v>
       </c>
       <c r="E70" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3678,13 +3684,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D71" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3695,13 +3701,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E72" t="s">
-        <v>553</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3712,13 +3718,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="E73" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3729,13 +3735,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E74" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3746,13 +3752,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
         <v>446</v>
       </c>
       <c r="E75" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3763,13 +3769,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3780,13 +3786,13 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3797,13 +3803,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D78" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="E78" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3814,13 +3820,13 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E79" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3831,13 +3837,13 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
-        <v>446</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3848,13 +3854,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>446</v>
       </c>
       <c r="E81" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3865,13 +3871,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D82" t="s">
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3882,13 +3888,13 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3899,13 +3905,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D84" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="E84" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3916,13 +3922,13 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D85" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E85" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3933,13 +3939,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
         <v>446</v>
       </c>
       <c r="E86" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3950,13 +3956,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="D87" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E87" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3970,10 +3976,10 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E88" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3984,13 +3990,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D89" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E89" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4001,13 +4007,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>312</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E90" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4018,13 +4024,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D91" t="s">
-        <v>459</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4035,13 +4041,13 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D92" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E92" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4052,13 +4058,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E93" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4069,13 +4075,13 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>445</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4086,13 +4092,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D95" t="s">
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4103,13 +4109,13 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
-        <v>446</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4120,13 +4126,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>465</v>
       </c>
       <c r="E97" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4137,13 +4143,13 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>448</v>
       </c>
       <c r="E98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4154,13 +4160,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="D99" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E99" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4171,13 +4177,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>446</v>
+        <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4188,13 +4194,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D101" t="s">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4205,13 +4211,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D102" t="s">
-        <v>105</v>
+        <v>446</v>
       </c>
       <c r="E102" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4222,13 +4228,13 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>446</v>
       </c>
       <c r="E103" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4239,13 +4245,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D104" t="s">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="E104" t="s">
-        <v>325</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4256,13 +4262,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D105" t="s">
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4273,13 +4279,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E106" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4290,13 +4296,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D107" t="s">
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4307,10 +4313,10 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D108" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E108" t="s">
         <v>587</v>
@@ -4324,10 +4330,10 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D109" t="s">
-        <v>445</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s">
         <v>588</v>
@@ -4341,10 +4347,10 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D110" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E110" t="s">
         <v>589</v>
@@ -4358,10 +4364,10 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D111" t="s">
-        <v>446</v>
+        <v>114</v>
       </c>
       <c r="E111" t="s">
         <v>590</v>
@@ -4375,10 +4381,10 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>448</v>
       </c>
       <c r="E112" t="s">
         <v>591</v>
@@ -4392,10 +4398,10 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D113" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="E113" t="s">
         <v>592</v>
@@ -4409,7 +4415,7 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
       <c r="D114" t="s">
         <v>117</v>
@@ -4426,7 +4432,7 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D115" t="s">
         <v>118</v>
@@ -4443,10 +4449,10 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D116" t="s">
-        <v>119</v>
+        <v>448</v>
       </c>
       <c r="E116" t="s">
         <v>595</v>
@@ -4460,10 +4466,10 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D117" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="E117" t="s">
         <v>596</v>
@@ -4477,7 +4483,7 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D118" t="s">
         <v>121</v>
@@ -4494,10 +4500,10 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D119" t="s">
-        <v>122</v>
+        <v>467</v>
       </c>
       <c r="E119" t="s">
         <v>598</v>
@@ -4511,10 +4517,10 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>341</v>
+        <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="E120" t="s">
         <v>599</v>
@@ -4531,7 +4537,7 @@
         <v>342</v>
       </c>
       <c r="D121" t="s">
-        <v>446</v>
+        <v>124</v>
       </c>
       <c r="E121" t="s">
         <v>600</v>
@@ -4565,7 +4571,7 @@
         <v>344</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
         <v>602</v>
@@ -4599,7 +4605,7 @@
         <v>346</v>
       </c>
       <c r="D125" t="s">
-        <v>128</v>
+        <v>446</v>
       </c>
       <c r="E125" t="s">
         <v>604</v>
@@ -4633,7 +4639,7 @@
         <v>348</v>
       </c>
       <c r="D127" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E127" t="s">
         <v>606</v>
@@ -4650,7 +4656,7 @@
         <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="E128" t="s">
         <v>607</v>
@@ -4667,7 +4673,7 @@
         <v>350</v>
       </c>
       <c r="D129" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="E129" t="s">
         <v>608</v>
@@ -4715,10 +4721,10 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>353</v>
+        <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>135</v>
+        <v>470</v>
       </c>
       <c r="E132" t="s">
         <v>611</v>
@@ -4732,7 +4738,7 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D133" t="s">
         <v>136</v>
@@ -4749,10 +4755,10 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D134" t="s">
-        <v>446</v>
+        <v>137</v>
       </c>
       <c r="E134" t="s">
         <v>613</v>
@@ -4766,10 +4772,10 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>138</v>
+        <v>471</v>
       </c>
       <c r="E135" t="s">
         <v>614</v>
@@ -4783,10 +4789,10 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>139</v>
+        <v>472</v>
       </c>
       <c r="E136" t="s">
         <v>615</v>
@@ -4800,13 +4806,13 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D137" t="s">
-        <v>445</v>
+        <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>445</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4817,13 +4823,13 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D138" t="s">
-        <v>467</v>
+        <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4834,13 +4840,13 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D139" t="s">
-        <v>446</v>
+        <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4851,13 +4857,13 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="D140" t="s">
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4871,10 +4877,10 @@
         <v>361</v>
       </c>
       <c r="D141" t="s">
-        <v>445</v>
+        <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4891,7 +4897,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>619</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4905,10 +4911,10 @@
         <v>363</v>
       </c>
       <c r="D143" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E143" t="s">
-        <v>620</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4939,7 +4945,7 @@
         <v>365</v>
       </c>
       <c r="D145" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E145" t="s">
         <v>622</v>
@@ -4956,7 +4962,7 @@
         <v>366</v>
       </c>
       <c r="D146" t="s">
-        <v>445</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
         <v>623</v>
@@ -4973,7 +4979,7 @@
         <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E147" t="s">
         <v>624</v>
@@ -4990,7 +4996,7 @@
         <v>368</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
+        <v>448</v>
       </c>
       <c r="E148" t="s">
         <v>625</v>
@@ -5007,7 +5013,7 @@
         <v>369</v>
       </c>
       <c r="D149" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="E149" t="s">
         <v>626</v>
@@ -5024,7 +5030,7 @@
         <v>370</v>
       </c>
       <c r="D150" t="s">
-        <v>153</v>
+        <v>474</v>
       </c>
       <c r="E150" t="s">
         <v>627</v>
@@ -5041,7 +5047,7 @@
         <v>371</v>
       </c>
       <c r="D151" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="E151" t="s">
         <v>628</v>
@@ -5058,7 +5064,7 @@
         <v>372</v>
       </c>
       <c r="D152" t="s">
-        <v>155</v>
+        <v>446</v>
       </c>
       <c r="E152" t="s">
         <v>629</v>
@@ -5078,7 +5084,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>373</v>
+        <v>630</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5092,10 +5098,10 @@
         <v>374</v>
       </c>
       <c r="D154" t="s">
-        <v>446</v>
+        <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5109,10 +5115,10 @@
         <v>375</v>
       </c>
       <c r="D155" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E155" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5126,10 +5132,10 @@
         <v>376</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="E156" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5143,10 +5149,10 @@
         <v>377</v>
       </c>
       <c r="D157" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="E157" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5160,10 +5166,10 @@
         <v>378</v>
       </c>
       <c r="D158" t="s">
-        <v>161</v>
+        <v>476</v>
       </c>
       <c r="E158" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5177,10 +5183,10 @@
         <v>379</v>
       </c>
       <c r="D159" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E159" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5194,10 +5200,10 @@
         <v>380</v>
       </c>
       <c r="D160" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5214,7 +5220,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>381</v>
+        <v>638</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5228,10 +5234,10 @@
         <v>382</v>
       </c>
       <c r="D162" t="s">
-        <v>446</v>
+        <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5245,10 +5251,10 @@
         <v>383</v>
       </c>
       <c r="D163" t="s">
-        <v>445</v>
+        <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5262,10 +5268,10 @@
         <v>384</v>
       </c>
       <c r="D164" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E164" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5282,7 +5288,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5299,7 +5305,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5310,13 +5316,13 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>387</v>
+        <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>445</v>
+        <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5327,13 +5333,13 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D168" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E168" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5344,13 +5350,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D169" t="s">
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5361,13 +5367,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D170" t="s">
-        <v>446</v>
+        <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>645</v>
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5378,13 +5384,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D171" t="s">
-        <v>445</v>
+        <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5395,13 +5401,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D172" t="s">
-        <v>446</v>
+        <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5412,13 +5418,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D173" t="s">
-        <v>176</v>
+        <v>448</v>
       </c>
       <c r="E173" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5429,13 +5435,13 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D174" t="s">
-        <v>446</v>
+        <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5446,13 +5452,13 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D175" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E175" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5463,13 +5469,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D176" t="s">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5480,13 +5486,13 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D177" t="s">
-        <v>471</v>
+        <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5497,13 +5503,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D178" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="E178" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5514,13 +5520,13 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D179" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E179" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5531,13 +5537,13 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D180" t="s">
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5548,13 +5554,13 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D181" t="s">
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>401</v>
+        <v>657</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5565,13 +5571,13 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D182" t="s">
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5582,13 +5588,13 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D183" t="s">
-        <v>186</v>
+        <v>446</v>
       </c>
       <c r="E183" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5599,13 +5605,13 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D184" t="s">
-        <v>472</v>
+        <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>658</v>
+        <v>403</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5616,13 +5622,13 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D185" t="s">
-        <v>473</v>
+        <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>543</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5633,13 +5639,13 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D186" t="s">
-        <v>189</v>
+        <v>448</v>
       </c>
       <c r="E186" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5650,13 +5656,13 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D187" t="s">
-        <v>474</v>
+        <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5667,13 +5673,13 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D188" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="E188" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5684,13 +5690,13 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D189" t="s">
-        <v>192</v>
+        <v>446</v>
       </c>
       <c r="E189" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5701,13 +5707,13 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D190" t="s">
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5718,13 +5724,13 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D191" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="E191" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5738,10 +5744,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E192" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5752,13 +5758,13 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D193" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E193" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5769,13 +5775,13 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D194" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E194" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5786,13 +5792,13 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D195" t="s">
         <v>446</v>
       </c>
       <c r="E195" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5803,13 +5809,13 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D196" t="s">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="E196" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5820,13 +5826,13 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D197" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E197" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5837,13 +5843,13 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D198" t="s">
-        <v>445</v>
+        <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5854,13 +5860,13 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D199" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E199" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5871,13 +5877,13 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
+        <v>418</v>
+      </c>
+      <c r="D200" t="s">
         <v>203</v>
       </c>
-      <c r="D200" t="s">
-        <v>446</v>
-      </c>
       <c r="E200" t="s">
-        <v>673</v>
+        <v>418</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5891,10 +5897,10 @@
         <v>419</v>
       </c>
       <c r="D201" t="s">
-        <v>204</v>
+        <v>482</v>
       </c>
       <c r="E201" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5908,10 +5914,10 @@
         <v>420</v>
       </c>
       <c r="D202" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="E202" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5925,10 +5931,10 @@
         <v>421</v>
       </c>
       <c r="D203" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5942,10 +5948,10 @@
         <v>422</v>
       </c>
       <c r="D204" t="s">
-        <v>207</v>
+        <v>446</v>
       </c>
       <c r="E204" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5956,13 +5962,13 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>423</v>
+        <v>208</v>
       </c>
       <c r="D205" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
       <c r="E205" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5973,13 +5979,13 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D206" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="E206" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5990,13 +5996,13 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D207" t="s">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="E207" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6007,13 +6013,13 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="E208" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6027,10 +6033,10 @@
         <v>426</v>
       </c>
       <c r="D209" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="E209" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6044,10 +6050,10 @@
         <v>427</v>
       </c>
       <c r="D210" t="s">
-        <v>213</v>
+        <v>448</v>
       </c>
       <c r="E210" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6061,10 +6067,10 @@
         <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E211" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6078,10 +6084,10 @@
         <v>429</v>
       </c>
       <c r="D212" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="E212" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6095,10 +6101,10 @@
         <v>430</v>
       </c>
       <c r="D213" t="s">
-        <v>216</v>
+        <v>446</v>
       </c>
       <c r="E213" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6109,13 +6115,13 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="D214" t="s">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="E214" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6126,13 +6132,13 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D215" t="s">
-        <v>218</v>
+        <v>448</v>
       </c>
       <c r="E215" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6143,13 +6149,13 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D216" t="s">
-        <v>219</v>
+        <v>446</v>
       </c>
       <c r="E216" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6160,13 +6166,13 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D217" t="s">
-        <v>446</v>
+        <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6177,13 +6183,13 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D218" t="s">
-        <v>446</v>
+        <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>445</v>
+        <v>692</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6194,13 +6200,13 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D219" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="E219" t="s">
-        <v>516</v>
+        <v>693</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6211,13 +6217,13 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D220" t="s">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="E220" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6228,13 +6234,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D221" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="E221" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6245,13 +6251,13 @@
         <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>438</v>
+        <v>225</v>
       </c>
       <c r="D222" t="s">
-        <v>446</v>
+        <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6262,13 +6268,13 @@
         <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="D223" t="s">
-        <v>226</v>
+        <v>448</v>
       </c>
       <c r="E223" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6279,13 +6285,13 @@
         <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D224" t="s">
         <v>446</v>
       </c>
       <c r="E224" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6296,13 +6302,13 @@
         <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D225" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E225" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6313,13 +6319,13 @@
         <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>229</v>
+        <v>441</v>
       </c>
       <c r="D226" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="E226" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6336,7 +6342,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>698</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6353,7 +6359,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6367,10 +6373,10 @@
         <v>444</v>
       </c>
       <c r="D229" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="E229" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
